--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4C9565-475E-47F8-9468-043D6DCE1BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D87484-E472-4728-BDAE-775D2EBC4173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,7 +1261,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IW2" sqref="IW2"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D87484-E472-4728-BDAE-775D2EBC4173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="patrones_entidades" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -172,8 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +314,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -528,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -764,8 +768,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -810,8 +825,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -845,9 +861,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -868,16 +881,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -912,7 +929,8 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2 2" xfId="43" xr:uid="{1BEE6113-A0F8-4053-BB7A-318FD43F6D3F}"/>
+    <cellStyle name="Normal 2 2" xfId="44"/>
+    <cellStyle name="Normal 2 2 2" xfId="43"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1012,23 +1030,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1064,23 +1065,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1256,173 +1240,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="JC15" sqref="JC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="4" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
-    <col min="67" max="72" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="11" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="8" bestFit="1" customWidth="1"/>
-    <col min="79" max="84" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="79" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="11" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="8" bestFit="1" customWidth="1"/>
-    <col min="91" max="96" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="91" max="96" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="8" bestFit="1" customWidth="1"/>
-    <col min="103" max="108" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="103" max="108" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="8" bestFit="1" customWidth="1"/>
-    <col min="115" max="120" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="115" max="120" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="11" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="8" bestFit="1" customWidth="1"/>
-    <col min="127" max="132" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="127" max="132" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="8" bestFit="1" customWidth="1"/>
-    <col min="139" max="144" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="139" max="144" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="11" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="8" bestFit="1" customWidth="1"/>
-    <col min="151" max="156" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="151" max="156" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="11" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="8" bestFit="1" customWidth="1"/>
-    <col min="163" max="168" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="163" max="168" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="11" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="8" bestFit="1" customWidth="1"/>
-    <col min="175" max="180" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="175" max="180" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="11" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="8" bestFit="1" customWidth="1"/>
-    <col min="187" max="192" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="187" max="192" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="11" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="204" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="199" max="204" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="11" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="8" bestFit="1" customWidth="1"/>
-    <col min="211" max="216" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="211" max="216" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="11" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="8" bestFit="1" customWidth="1"/>
-    <col min="223" max="228" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="223" max="228" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="11" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="8" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="7.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="238" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="7.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="238" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="243" max="243" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="248" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="9.1796875" style="7" customWidth="1"/>
-    <col min="253" max="254" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="258" width="11.453125" style="7" customWidth="1"/>
+    <col min="244" max="244" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="248" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
+    <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="259" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1414,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:258" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1438,18 +1422,18 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:258" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:258" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+    <row r="3" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>1997</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>1998</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>1999</v>
       </c>
       <c r="E4" s="17">
@@ -2205,25 +2189,28 @@
       <c r="IU4" s="22">
         <v>2020</v>
       </c>
-      <c r="IV4" s="23">
+      <c r="IV4" s="22">
         <v>2020</v>
       </c>
       <c r="IW4" s="33">
         <v>2021</v>
       </c>
-      <c r="IX4" s="33">
+      <c r="IX4" s="34">
         <v>2021</v>
       </c>
+      <c r="IY4" s="35">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:258" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -2946,50 +2933,53 @@
       <c r="IJ5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="IK5" s="30" t="s">
+      <c r="IK5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="IL5" s="31" t="s">
+      <c r="IL5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="IM5" s="31" t="s">
+      <c r="IM5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="IN5" s="31" t="s">
+      <c r="IN5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="IO5" s="31" t="s">
+      <c r="IO5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="IP5" s="31" t="s">
+      <c r="IP5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="IQ5" s="31" t="s">
+      <c r="IQ5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="IR5" s="31" t="s">
+      <c r="IR5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="IS5" s="31" t="s">
+      <c r="IS5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="IT5" s="31" t="s">
+      <c r="IT5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="IU5" s="31" t="s">
+      <c r="IU5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="IV5" s="32" t="s">
+      <c r="IV5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="IW5" s="34" t="s">
+      <c r="IW5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="IX5" s="34" t="s">
+      <c r="IX5" s="30" t="s">
         <v>30</v>
       </c>
+      <c r="IY5" s="31" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3755,17 +3745,20 @@
       <c r="IU6" s="13">
         <v>16063</v>
       </c>
-      <c r="IV6" s="14">
+      <c r="IV6" s="13">
         <v>16017</v>
       </c>
-      <c r="IW6" s="4">
+      <c r="IW6" s="2">
         <v>16040</v>
       </c>
-      <c r="IX6" s="4">
+      <c r="IX6" s="3">
         <v>16087</v>
       </c>
+      <c r="IY6" s="36">
+        <v>16126</v>
+      </c>
     </row>
-    <row r="7" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4531,17 +4524,20 @@
       <c r="IU7" s="13">
         <v>41307</v>
       </c>
-      <c r="IV7" s="14">
+      <c r="IV7" s="13">
         <v>41338</v>
       </c>
-      <c r="IW7" s="4">
+      <c r="IW7" s="12">
         <v>41313</v>
       </c>
-      <c r="IX7" s="4">
+      <c r="IX7" s="13">
         <v>41481</v>
       </c>
+      <c r="IY7" s="14">
+        <v>41658</v>
+      </c>
     </row>
-    <row r="8" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5307,17 +5303,20 @@
       <c r="IU8" s="13">
         <v>12798</v>
       </c>
-      <c r="IV8" s="14">
+      <c r="IV8" s="13">
         <v>12767</v>
       </c>
-      <c r="IW8" s="4">
+      <c r="IW8" s="12">
         <v>12811</v>
       </c>
-      <c r="IX8" s="4">
+      <c r="IX8" s="13">
         <v>12903</v>
       </c>
+      <c r="IY8" s="14">
+        <v>12933</v>
+      </c>
     </row>
-    <row r="9" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6083,17 +6082,20 @@
       <c r="IU9" s="13">
         <v>5803</v>
       </c>
-      <c r="IV9" s="14">
+      <c r="IV9" s="13">
         <v>5807</v>
       </c>
-      <c r="IW9" s="4">
+      <c r="IW9" s="12">
         <v>5775</v>
       </c>
-      <c r="IX9" s="4">
+      <c r="IX9" s="13">
         <v>5814</v>
       </c>
+      <c r="IY9" s="14">
+        <v>5831</v>
+      </c>
     </row>
-    <row r="10" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6859,17 +6861,20 @@
       <c r="IU10" s="13">
         <v>14403</v>
       </c>
-      <c r="IV10" s="14">
+      <c r="IV10" s="13">
         <v>14324</v>
       </c>
-      <c r="IW10" s="4">
+      <c r="IW10" s="12">
         <v>14276</v>
       </c>
-      <c r="IX10" s="4">
+      <c r="IX10" s="13">
         <v>14327</v>
       </c>
+      <c r="IY10" s="14">
+        <v>14373</v>
+      </c>
     </row>
-    <row r="11" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7635,17 +7640,20 @@
       <c r="IU11" s="13">
         <v>39839</v>
       </c>
-      <c r="IV11" s="14">
+      <c r="IV11" s="13">
         <v>39670</v>
       </c>
-      <c r="IW11" s="4">
+      <c r="IW11" s="12">
         <v>39677</v>
       </c>
-      <c r="IX11" s="4">
+      <c r="IX11" s="13">
         <v>39752</v>
       </c>
+      <c r="IY11" s="14">
+        <v>39950</v>
+      </c>
     </row>
-    <row r="12" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8411,17 +8419,20 @@
       <c r="IU12" s="13">
         <v>118382</v>
       </c>
-      <c r="IV12" s="14">
+      <c r="IV12" s="13">
         <v>118117</v>
       </c>
-      <c r="IW12" s="4">
+      <c r="IW12" s="12">
         <v>117796</v>
       </c>
-      <c r="IX12" s="4">
+      <c r="IX12" s="13">
         <v>117824</v>
       </c>
+      <c r="IY12" s="14">
+        <v>117841</v>
+      </c>
     </row>
-    <row r="13" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9187,17 +9198,20 @@
       <c r="IU13" s="13">
         <v>34138</v>
       </c>
-      <c r="IV13" s="14">
+      <c r="IV13" s="13">
         <v>34021</v>
       </c>
-      <c r="IW13" s="4">
+      <c r="IW13" s="12">
         <v>33975</v>
       </c>
-      <c r="IX13" s="4">
+      <c r="IX13" s="13">
         <v>34085</v>
       </c>
+      <c r="IY13" s="14">
+        <v>34104</v>
+      </c>
     </row>
-    <row r="14" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -9963,17 +9977,20 @@
       <c r="IU14" s="13">
         <v>10766</v>
       </c>
-      <c r="IV14" s="14">
+      <c r="IV14" s="13">
         <v>10753</v>
       </c>
-      <c r="IW14" s="4">
+      <c r="IW14" s="12">
         <v>10722</v>
       </c>
-      <c r="IX14" s="4">
+      <c r="IX14" s="13">
         <v>10744</v>
       </c>
+      <c r="IY14" s="14">
+        <v>10794</v>
+      </c>
     </row>
-    <row r="15" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -10739,17 +10756,20 @@
       <c r="IU15" s="13">
         <v>14365</v>
       </c>
-      <c r="IV15" s="14">
+      <c r="IV15" s="13">
         <v>14267</v>
       </c>
-      <c r="IW15" s="4">
+      <c r="IW15" s="12">
         <v>14279</v>
       </c>
-      <c r="IX15" s="4">
+      <c r="IX15" s="13">
         <v>14342</v>
       </c>
+      <c r="IY15" s="14">
+        <v>14316</v>
+      </c>
     </row>
-    <row r="16" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11515,17 +11535,20 @@
       <c r="IU16" s="13">
         <v>73185</v>
       </c>
-      <c r="IV16" s="14">
+      <c r="IV16" s="13">
         <v>72960</v>
       </c>
-      <c r="IW16" s="4">
+      <c r="IW16" s="12">
         <v>72785</v>
       </c>
-      <c r="IX16" s="4">
+      <c r="IX16" s="13">
         <v>72749</v>
       </c>
+      <c r="IY16" s="14">
+        <v>72421</v>
+      </c>
     </row>
-    <row r="17" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12291,17 +12314,20 @@
       <c r="IU17" s="13">
         <v>47933</v>
       </c>
-      <c r="IV17" s="14">
+      <c r="IV17" s="13">
         <v>47776</v>
       </c>
-      <c r="IW17" s="4">
+      <c r="IW17" s="12">
         <v>47633</v>
       </c>
-      <c r="IX17" s="4">
+      <c r="IX17" s="13">
         <v>47646</v>
       </c>
+      <c r="IY17" s="14">
+        <v>47663</v>
+      </c>
     </row>
-    <row r="18" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13067,17 +13093,20 @@
       <c r="IU18" s="13">
         <v>13757</v>
       </c>
-      <c r="IV18" s="14">
+      <c r="IV18" s="13">
         <v>13652</v>
       </c>
-      <c r="IW18" s="4">
+      <c r="IW18" s="12">
         <v>13569</v>
       </c>
-      <c r="IX18" s="4">
+      <c r="IX18" s="13">
         <v>13526</v>
       </c>
+      <c r="IY18" s="14">
+        <v>13558</v>
+      </c>
     </row>
-    <row r="19" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -13843,793 +13872,799 @@
       <c r="IU19" s="13">
         <v>15526</v>
       </c>
-      <c r="IV19" s="14">
+      <c r="IV19" s="13">
         <v>15458</v>
       </c>
-      <c r="IW19" s="4">
+      <c r="IW19" s="12">
         <v>15405</v>
       </c>
-      <c r="IX19" s="4">
+      <c r="IX19" s="13">
         <v>15439</v>
       </c>
+      <c r="IY19" s="14">
+        <v>15440</v>
+      </c>
     </row>
-    <row r="20" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>58431</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>61754</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>64682</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>64742</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>65193</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="27">
         <v>65617</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>65537</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <v>65847</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="27">
         <v>66315</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>66604</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="27">
         <v>67092</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="27">
         <v>67390</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="27">
         <v>67683</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="27">
         <v>68114</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="27">
         <v>67754</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="26">
         <v>67670</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="27">
         <v>68021</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="27">
         <v>68315</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T20" s="27">
         <v>68944</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U20" s="27">
         <v>69277</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="27">
         <v>69555</v>
       </c>
-      <c r="W20" s="28">
+      <c r="W20" s="27">
         <v>69751</v>
       </c>
-      <c r="X20" s="28">
+      <c r="X20" s="27">
         <v>70430</v>
       </c>
-      <c r="Y20" s="28">
+      <c r="Y20" s="27">
         <v>70666</v>
       </c>
-      <c r="Z20" s="28">
+      <c r="Z20" s="27">
         <v>70967</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="AA20" s="27">
         <v>71309</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AB20" s="27">
         <v>70983</v>
       </c>
-      <c r="AC20" s="27">
+      <c r="AC20" s="26">
         <v>70868</v>
       </c>
-      <c r="AD20" s="28">
+      <c r="AD20" s="27">
         <v>71197</v>
       </c>
-      <c r="AE20" s="28">
+      <c r="AE20" s="27">
         <v>71284</v>
       </c>
-      <c r="AF20" s="28">
+      <c r="AF20" s="27">
         <v>71641</v>
       </c>
-      <c r="AG20" s="28">
+      <c r="AG20" s="27">
         <v>71793</v>
       </c>
-      <c r="AH20" s="28">
+      <c r="AH20" s="27">
         <v>71896</v>
       </c>
-      <c r="AI20" s="28">
+      <c r="AI20" s="27">
         <v>71960</v>
       </c>
-      <c r="AJ20" s="28">
+      <c r="AJ20" s="27">
         <v>71973</v>
       </c>
-      <c r="AK20" s="28">
+      <c r="AK20" s="27">
         <v>71963</v>
       </c>
-      <c r="AL20" s="28">
+      <c r="AL20" s="27">
         <v>72171</v>
       </c>
-      <c r="AM20" s="28">
+      <c r="AM20" s="27">
         <v>72154</v>
       </c>
-      <c r="AN20" s="28">
+      <c r="AN20" s="27">
         <v>71718</v>
       </c>
-      <c r="AO20" s="27">
+      <c r="AO20" s="26">
         <v>71421</v>
       </c>
-      <c r="AP20" s="28">
+      <c r="AP20" s="27">
         <v>71535</v>
       </c>
-      <c r="AQ20" s="28">
+      <c r="AQ20" s="27">
         <v>71599</v>
       </c>
-      <c r="AR20" s="28">
+      <c r="AR20" s="27">
         <v>71753</v>
       </c>
-      <c r="AS20" s="28">
+      <c r="AS20" s="27">
         <v>71625</v>
       </c>
-      <c r="AT20" s="28">
+      <c r="AT20" s="27">
         <v>71727</v>
       </c>
-      <c r="AU20" s="28">
+      <c r="AU20" s="27">
         <v>71568</v>
       </c>
-      <c r="AV20" s="28">
+      <c r="AV20" s="27">
         <v>71557</v>
       </c>
-      <c r="AW20" s="28">
+      <c r="AW20" s="27">
         <v>71553</v>
       </c>
-      <c r="AX20" s="28">
+      <c r="AX20" s="27">
         <v>71683</v>
       </c>
-      <c r="AY20" s="28">
+      <c r="AY20" s="27">
         <v>71467</v>
       </c>
-      <c r="AZ20" s="28">
+      <c r="AZ20" s="27">
         <v>71354</v>
       </c>
-      <c r="BA20" s="27">
+      <c r="BA20" s="26">
         <v>71061</v>
       </c>
-      <c r="BB20" s="28">
+      <c r="BB20" s="27">
         <v>71186</v>
       </c>
-      <c r="BC20" s="28">
+      <c r="BC20" s="27">
         <v>71481</v>
       </c>
-      <c r="BD20" s="28">
+      <c r="BD20" s="27">
         <v>71573</v>
       </c>
-      <c r="BE20" s="28">
+      <c r="BE20" s="27">
         <v>71606</v>
       </c>
-      <c r="BF20" s="28">
+      <c r="BF20" s="27">
         <v>71781</v>
       </c>
-      <c r="BG20" s="28">
+      <c r="BG20" s="27">
         <v>71741</v>
       </c>
-      <c r="BH20" s="28">
+      <c r="BH20" s="27">
         <v>71752</v>
       </c>
-      <c r="BI20" s="28">
+      <c r="BI20" s="27">
         <v>71757</v>
       </c>
-      <c r="BJ20" s="28">
+      <c r="BJ20" s="27">
         <v>71642</v>
       </c>
-      <c r="BK20" s="28">
+      <c r="BK20" s="27">
         <v>71726</v>
       </c>
-      <c r="BL20" s="28">
+      <c r="BL20" s="27">
         <v>71373</v>
       </c>
-      <c r="BM20" s="27">
+      <c r="BM20" s="26">
         <v>71035</v>
       </c>
-      <c r="BN20" s="28">
+      <c r="BN20" s="27">
         <v>71219</v>
       </c>
-      <c r="BO20" s="28">
+      <c r="BO20" s="27">
         <v>71205</v>
       </c>
-      <c r="BP20" s="28">
+      <c r="BP20" s="27">
         <v>71242</v>
       </c>
-      <c r="BQ20" s="28">
+      <c r="BQ20" s="27">
         <v>71398</v>
       </c>
-      <c r="BR20" s="28">
+      <c r="BR20" s="27">
         <v>71695</v>
       </c>
-      <c r="BS20" s="28">
+      <c r="BS20" s="27">
         <v>71419</v>
       </c>
-      <c r="BT20" s="28">
+      <c r="BT20" s="27">
         <v>71621</v>
       </c>
-      <c r="BU20" s="28">
+      <c r="BU20" s="27">
         <v>71594</v>
       </c>
-      <c r="BV20" s="28">
+      <c r="BV20" s="27">
         <v>71856</v>
       </c>
-      <c r="BW20" s="28">
+      <c r="BW20" s="27">
         <v>71972</v>
       </c>
-      <c r="BX20" s="28">
+      <c r="BX20" s="27">
         <v>71703</v>
       </c>
-      <c r="BY20" s="27">
+      <c r="BY20" s="26">
         <v>71670</v>
       </c>
-      <c r="BZ20" s="28">
+      <c r="BZ20" s="27">
         <v>71807</v>
       </c>
-      <c r="CA20" s="28">
+      <c r="CA20" s="27">
         <v>72117</v>
       </c>
-      <c r="CB20" s="28">
+      <c r="CB20" s="27">
         <v>72086</v>
       </c>
-      <c r="CC20" s="28">
+      <c r="CC20" s="27">
         <v>72195</v>
       </c>
-      <c r="CD20" s="28">
+      <c r="CD20" s="27">
         <v>72517</v>
       </c>
-      <c r="CE20" s="28">
+      <c r="CE20" s="27">
         <v>72512</v>
       </c>
-      <c r="CF20" s="28">
+      <c r="CF20" s="27">
         <v>72680</v>
       </c>
-      <c r="CG20" s="28">
+      <c r="CG20" s="27">
         <v>72841</v>
       </c>
-      <c r="CH20" s="28">
+      <c r="CH20" s="27">
         <v>72942</v>
       </c>
-      <c r="CI20" s="28">
+      <c r="CI20" s="27">
         <v>73048</v>
       </c>
-      <c r="CJ20" s="28">
+      <c r="CJ20" s="27">
         <v>72651</v>
       </c>
-      <c r="CK20" s="27">
+      <c r="CK20" s="26">
         <v>72730</v>
       </c>
-      <c r="CL20" s="28">
+      <c r="CL20" s="27">
         <v>73077</v>
       </c>
-      <c r="CM20" s="28">
+      <c r="CM20" s="27">
         <v>73348</v>
       </c>
-      <c r="CN20" s="28">
+      <c r="CN20" s="27">
         <v>73417</v>
       </c>
-      <c r="CO20" s="28">
+      <c r="CO20" s="27">
         <v>73601</v>
       </c>
-      <c r="CP20" s="28">
+      <c r="CP20" s="27">
         <v>73755</v>
       </c>
-      <c r="CQ20" s="28">
+      <c r="CQ20" s="27">
         <v>73868</v>
       </c>
-      <c r="CR20" s="28">
+      <c r="CR20" s="27">
         <v>73971</v>
       </c>
-      <c r="CS20" s="28">
+      <c r="CS20" s="27">
         <v>74036</v>
       </c>
-      <c r="CT20" s="28">
+      <c r="CT20" s="27">
         <v>74264</v>
       </c>
-      <c r="CU20" s="28">
+      <c r="CU20" s="27">
         <v>74212</v>
       </c>
-      <c r="CV20" s="28">
+      <c r="CV20" s="27">
         <v>73894</v>
       </c>
-      <c r="CW20" s="27">
+      <c r="CW20" s="26">
         <v>73677</v>
       </c>
-      <c r="CX20" s="28">
+      <c r="CX20" s="27">
         <v>73804</v>
       </c>
-      <c r="CY20" s="28">
+      <c r="CY20" s="27">
         <v>73710</v>
       </c>
-      <c r="CZ20" s="28">
+      <c r="CZ20" s="27">
         <v>73891</v>
       </c>
-      <c r="DA20" s="28">
+      <c r="DA20" s="27">
         <v>73983</v>
       </c>
-      <c r="DB20" s="28">
+      <c r="DB20" s="27">
         <v>74327</v>
       </c>
-      <c r="DC20" s="28">
+      <c r="DC20" s="27">
         <v>74448</v>
       </c>
-      <c r="DD20" s="28">
+      <c r="DD20" s="27">
         <v>74387</v>
       </c>
-      <c r="DE20" s="28">
+      <c r="DE20" s="27">
         <v>74330</v>
       </c>
-      <c r="DF20" s="28">
+      <c r="DF20" s="27">
         <v>74501</v>
       </c>
-      <c r="DG20" s="28">
+      <c r="DG20" s="27">
         <v>74446</v>
       </c>
-      <c r="DH20" s="28">
+      <c r="DH20" s="27">
         <v>74287</v>
       </c>
-      <c r="DI20" s="27">
+      <c r="DI20" s="26">
         <v>73889</v>
       </c>
-      <c r="DJ20" s="28">
+      <c r="DJ20" s="27">
         <v>73999</v>
       </c>
-      <c r="DK20" s="28">
+      <c r="DK20" s="27">
         <v>74091</v>
       </c>
-      <c r="DL20" s="28">
+      <c r="DL20" s="27">
         <v>74051</v>
       </c>
-      <c r="DM20" s="28">
+      <c r="DM20" s="27">
         <v>73938</v>
       </c>
-      <c r="DN20" s="28">
+      <c r="DN20" s="27">
         <v>73805</v>
       </c>
-      <c r="DO20" s="28">
+      <c r="DO20" s="27">
         <v>73666</v>
       </c>
-      <c r="DP20" s="28">
+      <c r="DP20" s="27">
         <v>73733</v>
       </c>
-      <c r="DQ20" s="28">
+      <c r="DQ20" s="27">
         <v>73640</v>
       </c>
-      <c r="DR20" s="28">
+      <c r="DR20" s="27">
         <v>73864</v>
       </c>
-      <c r="DS20" s="28">
+      <c r="DS20" s="27">
         <v>73952</v>
       </c>
-      <c r="DT20" s="28">
+      <c r="DT20" s="27">
         <v>73791</v>
       </c>
-      <c r="DU20" s="27">
+      <c r="DU20" s="26">
         <v>73647</v>
       </c>
-      <c r="DV20" s="28">
+      <c r="DV20" s="27">
         <v>73894</v>
       </c>
-      <c r="DW20" s="28">
+      <c r="DW20" s="27">
         <v>74033</v>
       </c>
-      <c r="DX20" s="28">
+      <c r="DX20" s="27">
         <v>74187</v>
       </c>
-      <c r="DY20" s="28">
+      <c r="DY20" s="27">
         <v>74342</v>
       </c>
-      <c r="DZ20" s="28">
+      <c r="DZ20" s="27">
         <v>74385</v>
       </c>
-      <c r="EA20" s="28">
+      <c r="EA20" s="27">
         <v>74337</v>
       </c>
-      <c r="EB20" s="28">
+      <c r="EB20" s="27">
         <v>74525</v>
       </c>
-      <c r="EC20" s="28">
+      <c r="EC20" s="27">
         <v>74463</v>
       </c>
-      <c r="ED20" s="28">
+      <c r="ED20" s="27">
         <v>74721</v>
       </c>
-      <c r="EE20" s="28">
+      <c r="EE20" s="27">
         <v>74584</v>
       </c>
-      <c r="EF20" s="28">
+      <c r="EF20" s="27">
         <v>74713</v>
       </c>
-      <c r="EG20" s="27">
+      <c r="EG20" s="26">
         <v>74555</v>
       </c>
-      <c r="EH20" s="28">
+      <c r="EH20" s="27">
         <v>74888</v>
       </c>
-      <c r="EI20" s="28">
+      <c r="EI20" s="27">
         <v>75096</v>
       </c>
-      <c r="EJ20" s="28">
+      <c r="EJ20" s="27">
         <v>75245</v>
       </c>
-      <c r="EK20" s="28">
+      <c r="EK20" s="27">
         <v>75410</v>
       </c>
-      <c r="EL20" s="28">
+      <c r="EL20" s="27">
         <v>75543</v>
       </c>
-      <c r="EM20" s="28">
+      <c r="EM20" s="27">
         <v>75515</v>
       </c>
-      <c r="EN20" s="28">
+      <c r="EN20" s="27">
         <v>75719</v>
       </c>
-      <c r="EO20" s="28">
+      <c r="EO20" s="27">
         <v>75739</v>
       </c>
-      <c r="EP20" s="28">
+      <c r="EP20" s="27">
         <v>75866</v>
       </c>
-      <c r="EQ20" s="28">
+      <c r="EQ20" s="27">
         <v>75832</v>
       </c>
-      <c r="ER20" s="28">
+      <c r="ER20" s="27">
         <v>75571</v>
       </c>
-      <c r="ES20" s="27">
+      <c r="ES20" s="26">
         <v>75496</v>
       </c>
-      <c r="ET20" s="28">
+      <c r="ET20" s="27">
         <v>75794</v>
       </c>
-      <c r="EU20" s="28">
+      <c r="EU20" s="27">
         <v>76020</v>
       </c>
-      <c r="EV20" s="28">
+      <c r="EV20" s="27">
         <v>75997</v>
       </c>
-      <c r="EW20" s="28">
+      <c r="EW20" s="27">
         <v>75984</v>
       </c>
-      <c r="EX20" s="28">
+      <c r="EX20" s="27">
         <v>76096</v>
       </c>
-      <c r="EY20" s="28">
+      <c r="EY20" s="27">
         <v>76329</v>
       </c>
-      <c r="EZ20" s="28">
+      <c r="EZ20" s="27">
         <v>76697</v>
       </c>
-      <c r="FA20" s="28">
+      <c r="FA20" s="27">
         <v>76848</v>
       </c>
-      <c r="FB20" s="28">
+      <c r="FB20" s="27">
         <v>77238</v>
       </c>
-      <c r="FC20" s="28">
+      <c r="FC20" s="27">
         <v>77407</v>
       </c>
-      <c r="FD20" s="28">
+      <c r="FD20" s="27">
         <v>77290</v>
       </c>
-      <c r="FE20" s="27">
+      <c r="FE20" s="26">
         <v>77000</v>
       </c>
-      <c r="FF20" s="28">
+      <c r="FF20" s="27">
         <v>77247</v>
       </c>
-      <c r="FG20" s="28">
+      <c r="FG20" s="27">
         <v>77422</v>
       </c>
-      <c r="FH20" s="28">
+      <c r="FH20" s="27">
         <v>77558</v>
       </c>
-      <c r="FI20" s="28">
+      <c r="FI20" s="27">
         <v>77685</v>
       </c>
-      <c r="FJ20" s="28">
+      <c r="FJ20" s="27">
         <v>77781</v>
       </c>
-      <c r="FK20" s="28">
+      <c r="FK20" s="27">
         <v>77887</v>
       </c>
-      <c r="FL20" s="28">
+      <c r="FL20" s="27">
         <v>77956</v>
       </c>
-      <c r="FM20" s="28">
+      <c r="FM20" s="27">
         <v>78101</v>
       </c>
-      <c r="FN20" s="28">
+      <c r="FN20" s="27">
         <v>78279</v>
       </c>
-      <c r="FO20" s="28">
+      <c r="FO20" s="27">
         <v>78340</v>
       </c>
-      <c r="FP20" s="28">
+      <c r="FP20" s="27">
         <v>78051</v>
       </c>
-      <c r="FQ20" s="27">
+      <c r="FQ20" s="26">
         <v>77415</v>
       </c>
-      <c r="FR20" s="28">
+      <c r="FR20" s="27">
         <v>77447</v>
       </c>
-      <c r="FS20" s="28">
+      <c r="FS20" s="27">
         <v>77887</v>
       </c>
-      <c r="FT20" s="28">
+      <c r="FT20" s="27">
         <v>78075</v>
       </c>
-      <c r="FU20" s="28">
+      <c r="FU20" s="27">
         <v>78263</v>
       </c>
-      <c r="FV20" s="28">
+      <c r="FV20" s="27">
         <v>78625</v>
       </c>
-      <c r="FW20" s="28">
+      <c r="FW20" s="27">
         <v>78814</v>
       </c>
-      <c r="FX20" s="28">
+      <c r="FX20" s="27">
         <v>79270</v>
       </c>
-      <c r="FY20" s="28">
+      <c r="FY20" s="27">
         <v>79467</v>
       </c>
-      <c r="FZ20" s="28">
+      <c r="FZ20" s="27">
         <v>79726</v>
       </c>
-      <c r="GA20" s="28">
+      <c r="GA20" s="27">
         <v>79972</v>
       </c>
-      <c r="GB20" s="28">
+      <c r="GB20" s="27">
         <v>79961</v>
       </c>
-      <c r="GC20" s="27">
+      <c r="GC20" s="26">
         <v>79838</v>
       </c>
-      <c r="GD20" s="28">
+      <c r="GD20" s="27">
         <v>80280</v>
       </c>
-      <c r="GE20" s="28">
+      <c r="GE20" s="27">
         <v>80658</v>
       </c>
-      <c r="GF20" s="28">
+      <c r="GF20" s="27">
         <v>81007</v>
       </c>
-      <c r="GG20" s="28">
+      <c r="GG20" s="27">
         <v>81244</v>
       </c>
-      <c r="GH20" s="28">
+      <c r="GH20" s="27">
         <v>81685</v>
       </c>
-      <c r="GI20" s="28">
+      <c r="GI20" s="27">
         <v>81999</v>
       </c>
-      <c r="GJ20" s="28">
+      <c r="GJ20" s="27">
         <v>82416</v>
       </c>
-      <c r="GK20" s="28">
+      <c r="GK20" s="27">
         <v>82549</v>
       </c>
-      <c r="GL20" s="28">
+      <c r="GL20" s="27">
         <v>82929</v>
       </c>
-      <c r="GM20" s="28">
+      <c r="GM20" s="27">
         <v>83012</v>
       </c>
-      <c r="GN20" s="28">
+      <c r="GN20" s="27">
         <v>82957</v>
       </c>
-      <c r="GO20" s="27">
+      <c r="GO20" s="26">
         <v>82734</v>
       </c>
-      <c r="GP20" s="28">
+      <c r="GP20" s="27">
         <v>83079</v>
       </c>
-      <c r="GQ20" s="28">
+      <c r="GQ20" s="27">
         <v>83290</v>
       </c>
-      <c r="GR20" s="28">
+      <c r="GR20" s="27">
         <v>83635</v>
       </c>
-      <c r="GS20" s="28">
+      <c r="GS20" s="27">
         <v>84001</v>
       </c>
-      <c r="GT20" s="28">
+      <c r="GT20" s="27">
         <v>84379</v>
       </c>
-      <c r="GU20" s="28">
+      <c r="GU20" s="27">
         <v>84559</v>
       </c>
-      <c r="GV20" s="28">
+      <c r="GV20" s="27">
         <v>85024</v>
       </c>
-      <c r="GW20" s="28">
+      <c r="GW20" s="27">
         <v>85363</v>
       </c>
-      <c r="GX20" s="28">
+      <c r="GX20" s="27">
         <v>85743</v>
       </c>
-      <c r="GY20" s="28">
+      <c r="GY20" s="27">
         <v>86078</v>
       </c>
-      <c r="GZ20" s="28">
+      <c r="GZ20" s="27">
         <v>86097</v>
       </c>
-      <c r="HA20" s="27">
+      <c r="HA20" s="26">
         <v>86101</v>
       </c>
-      <c r="HB20" s="28">
+      <c r="HB20" s="27">
         <v>86609</v>
       </c>
-      <c r="HC20" s="28">
+      <c r="HC20" s="27">
         <v>87244</v>
       </c>
-      <c r="HD20" s="28">
+      <c r="HD20" s="27">
         <v>87457</v>
       </c>
-      <c r="HE20" s="28">
+      <c r="HE20" s="27">
         <v>87686</v>
       </c>
-      <c r="HF20" s="28">
+      <c r="HF20" s="27">
         <v>88171</v>
       </c>
-      <c r="HG20" s="28">
+      <c r="HG20" s="27">
         <v>88539</v>
       </c>
-      <c r="HH20" s="28">
+      <c r="HH20" s="27">
         <v>89150</v>
       </c>
-      <c r="HI20" s="28">
+      <c r="HI20" s="27">
         <v>89455</v>
       </c>
-      <c r="HJ20" s="28">
+      <c r="HJ20" s="27">
         <v>89952</v>
       </c>
-      <c r="HK20" s="28">
+      <c r="HK20" s="27">
         <v>90154</v>
       </c>
-      <c r="HL20" s="28">
+      <c r="HL20" s="27">
         <v>90125</v>
       </c>
-      <c r="HM20" s="27">
+      <c r="HM20" s="26">
         <v>90113</v>
       </c>
-      <c r="HN20" s="28">
+      <c r="HN20" s="27">
         <v>90583</v>
       </c>
-      <c r="HO20" s="28">
+      <c r="HO20" s="27">
         <v>90934</v>
       </c>
-      <c r="HP20" s="28">
+      <c r="HP20" s="27">
         <v>91410</v>
       </c>
-      <c r="HQ20" s="28">
+      <c r="HQ20" s="27">
         <v>91600</v>
       </c>
-      <c r="HR20" s="28">
+      <c r="HR20" s="27">
         <v>91964</v>
       </c>
-      <c r="HS20" s="28">
+      <c r="HS20" s="27">
         <v>92282</v>
       </c>
-      <c r="HT20" s="28">
+      <c r="HT20" s="27">
         <v>92804</v>
       </c>
-      <c r="HU20" s="28">
+      <c r="HU20" s="27">
         <v>93058</v>
       </c>
-      <c r="HV20" s="28">
+      <c r="HV20" s="27">
         <v>93466</v>
       </c>
-      <c r="HW20" s="28">
+      <c r="HW20" s="27">
         <v>93590</v>
       </c>
-      <c r="HX20" s="28">
+      <c r="HX20" s="27">
         <v>93370</v>
       </c>
-      <c r="HY20" s="27">
+      <c r="HY20" s="26">
         <v>93414</v>
       </c>
-      <c r="HZ20" s="28">
+      <c r="HZ20" s="27">
         <v>93942</v>
       </c>
-      <c r="IA20" s="28">
+      <c r="IA20" s="27">
         <v>94228</v>
       </c>
-      <c r="IB20" s="28">
+      <c r="IB20" s="27">
         <v>94774</v>
       </c>
-      <c r="IC20" s="28">
+      <c r="IC20" s="27">
         <v>95184</v>
       </c>
-      <c r="ID20" s="28">
+      <c r="ID20" s="27">
         <v>95497</v>
       </c>
-      <c r="IE20" s="28">
+      <c r="IE20" s="27">
         <v>95833</v>
       </c>
-      <c r="IF20" s="28">
+      <c r="IF20" s="27">
         <v>96210</v>
       </c>
-      <c r="IG20" s="28">
+      <c r="IG20" s="27">
         <v>96528</v>
       </c>
-      <c r="IH20" s="28">
+      <c r="IH20" s="27">
         <v>97149</v>
       </c>
-      <c r="II20" s="28">
+      <c r="II20" s="27">
         <v>97410</v>
       </c>
-      <c r="IJ20" s="28">
+      <c r="IJ20" s="27">
         <v>97390</v>
       </c>
-      <c r="IK20" s="27">
+      <c r="IK20" s="26">
         <v>97293</v>
       </c>
-      <c r="IL20" s="28">
+      <c r="IL20" s="27">
         <v>97837</v>
       </c>
-      <c r="IM20" s="28">
+      <c r="IM20" s="27">
         <v>98367</v>
       </c>
-      <c r="IN20" s="28">
+      <c r="IN20" s="27">
         <v>97741</v>
       </c>
-      <c r="IO20" s="28">
+      <c r="IO20" s="27">
         <v>97536</v>
       </c>
-      <c r="IP20" s="28">
+      <c r="IP20" s="27">
         <v>97749</v>
       </c>
-      <c r="IQ20" s="28">
+      <c r="IQ20" s="27">
         <v>97738</v>
       </c>
-      <c r="IR20" s="28">
+      <c r="IR20" s="27">
         <v>98006</v>
       </c>
-      <c r="IS20" s="28">
+      <c r="IS20" s="27">
         <v>98038</v>
       </c>
-      <c r="IT20" s="28">
+      <c r="IT20" s="27">
         <v>98224</v>
       </c>
-      <c r="IU20" s="28">
+      <c r="IU20" s="27">
         <v>98316</v>
       </c>
-      <c r="IV20" s="29">
+      <c r="IV20" s="27">
         <v>98067</v>
       </c>
       <c r="IW20" s="26">
         <v>98213</v>
       </c>
-      <c r="IX20" s="26">
+      <c r="IX20" s="27">
         <v>98474</v>
       </c>
+      <c r="IY20" s="28">
+        <v>98700</v>
+      </c>
     </row>
-    <row r="21" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15395,17 +15430,20 @@
       <c r="IU21" s="13">
         <v>36262</v>
       </c>
-      <c r="IV21" s="14">
+      <c r="IV21" s="13">
         <v>36276</v>
       </c>
-      <c r="IW21" s="4">
+      <c r="IW21" s="12">
         <v>36158</v>
       </c>
-      <c r="IX21" s="4">
+      <c r="IX21" s="13">
         <v>36276</v>
       </c>
+      <c r="IY21" s="14">
+        <v>36281</v>
+      </c>
     </row>
-    <row r="22" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16171,17 +16209,20 @@
       <c r="IU22" s="13">
         <v>12097</v>
       </c>
-      <c r="IV22" s="14">
+      <c r="IV22" s="13">
         <v>12099</v>
       </c>
-      <c r="IW22" s="4">
+      <c r="IW22" s="12">
         <v>12098</v>
       </c>
-      <c r="IX22" s="4">
+      <c r="IX22" s="13">
         <v>12100</v>
       </c>
+      <c r="IY22" s="14">
+        <v>12102</v>
+      </c>
     </row>
-    <row r="23" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -16947,17 +16988,20 @@
       <c r="IU23" s="13">
         <v>12792</v>
       </c>
-      <c r="IV23" s="14">
+      <c r="IV23" s="13">
         <v>12766</v>
       </c>
-      <c r="IW23" s="4">
+      <c r="IW23" s="12">
         <v>12782</v>
       </c>
-      <c r="IX23" s="4">
+      <c r="IX23" s="13">
         <v>12776</v>
       </c>
+      <c r="IY23" s="14">
+        <v>12803</v>
+      </c>
     </row>
-    <row r="24" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -17723,17 +17767,20 @@
       <c r="IU24" s="13">
         <v>69980</v>
       </c>
-      <c r="IV24" s="14">
+      <c r="IV24" s="13">
         <v>69698</v>
       </c>
-      <c r="IW24" s="4">
+      <c r="IW24" s="12">
         <v>69706</v>
       </c>
-      <c r="IX24" s="4">
+      <c r="IX24" s="13">
         <v>69678</v>
       </c>
+      <c r="IY24" s="14">
+        <v>69882</v>
+      </c>
     </row>
-    <row r="25" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -18499,17 +18546,20 @@
       <c r="IU25" s="13">
         <v>13903</v>
       </c>
-      <c r="IV25" s="14">
+      <c r="IV25" s="13">
         <v>13897</v>
       </c>
-      <c r="IW25" s="4">
+      <c r="IW25" s="12">
         <v>13814</v>
       </c>
-      <c r="IX25" s="4">
+      <c r="IX25" s="13">
         <v>13855</v>
       </c>
+      <c r="IY25" s="14">
+        <v>13866</v>
+      </c>
     </row>
-    <row r="26" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19275,17 +19325,20 @@
       <c r="IU26" s="13">
         <v>33314</v>
       </c>
-      <c r="IV26" s="14">
+      <c r="IV26" s="13">
         <v>33169</v>
       </c>
-      <c r="IW26" s="4">
+      <c r="IW26" s="12">
         <v>33009</v>
       </c>
-      <c r="IX26" s="4">
+      <c r="IX26" s="13">
         <v>33097</v>
       </c>
+      <c r="IY26" s="14">
+        <v>33102</v>
+      </c>
     </row>
-    <row r="27" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20051,17 +20104,20 @@
       <c r="IU27" s="13">
         <v>26110</v>
       </c>
-      <c r="IV27" s="14">
+      <c r="IV27" s="13">
         <v>26076</v>
       </c>
-      <c r="IW27" s="4">
+      <c r="IW27" s="12">
         <v>26010</v>
       </c>
-      <c r="IX27" s="4">
+      <c r="IX27" s="13">
         <v>26121</v>
       </c>
+      <c r="IY27" s="14">
+        <v>26255</v>
+      </c>
     </row>
-    <row r="28" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -20827,17 +20883,20 @@
       <c r="IU28" s="13">
         <v>16716</v>
       </c>
-      <c r="IV28" s="14">
+      <c r="IV28" s="13">
         <v>16569</v>
       </c>
-      <c r="IW28" s="4">
+      <c r="IW28" s="12">
         <v>16622</v>
       </c>
-      <c r="IX28" s="4">
+      <c r="IX28" s="13">
         <v>16718</v>
       </c>
+      <c r="IY28" s="14">
+        <v>16865</v>
+      </c>
     </row>
-    <row r="29" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -21603,17 +21662,20 @@
       <c r="IU29" s="13">
         <v>22858</v>
       </c>
-      <c r="IV29" s="14">
+      <c r="IV29" s="13">
         <v>22803</v>
       </c>
-      <c r="IW29" s="4">
+      <c r="IW29" s="12">
         <v>22812</v>
       </c>
-      <c r="IX29" s="4">
+      <c r="IX29" s="13">
         <v>22874</v>
       </c>
+      <c r="IY29" s="14">
+        <v>22910</v>
+      </c>
     </row>
-    <row r="30" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -22379,17 +22441,20 @@
       <c r="IU30" s="13">
         <v>40582</v>
       </c>
-      <c r="IV30" s="14">
+      <c r="IV30" s="13">
         <v>40632</v>
       </c>
-      <c r="IW30" s="4">
+      <c r="IW30" s="12">
         <v>40656</v>
       </c>
-      <c r="IX30" s="4">
+      <c r="IX30" s="13">
         <v>40759</v>
       </c>
+      <c r="IY30" s="14">
+        <v>40970</v>
+      </c>
     </row>
-    <row r="31" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23155,17 +23220,20 @@
       <c r="IU31" s="13">
         <v>37597</v>
       </c>
-      <c r="IV31" s="14">
+      <c r="IV31" s="13">
         <v>37552</v>
       </c>
-      <c r="IW31" s="4">
+      <c r="IW31" s="12">
         <v>37470</v>
       </c>
-      <c r="IX31" s="4">
+      <c r="IX31" s="13">
         <v>37502</v>
       </c>
+      <c r="IY31" s="14">
+        <v>37594</v>
+      </c>
     </row>
-    <row r="32" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -23931,17 +23999,20 @@
       <c r="IU32" s="13">
         <v>10814</v>
       </c>
-      <c r="IV32" s="14">
+      <c r="IV32" s="13">
         <v>10735</v>
       </c>
-      <c r="IW32" s="4">
+      <c r="IW32" s="12">
         <v>10760</v>
       </c>
-      <c r="IX32" s="4">
+      <c r="IX32" s="13">
         <v>10864</v>
       </c>
+      <c r="IY32" s="14">
+        <v>10952</v>
+      </c>
     </row>
-    <row r="33" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -24707,17 +24778,20 @@
       <c r="IU33" s="13">
         <v>33968</v>
       </c>
-      <c r="IV33" s="14">
+      <c r="IV33" s="13">
         <v>33799</v>
       </c>
-      <c r="IW33" s="4">
+      <c r="IW33" s="12">
         <v>33797</v>
       </c>
-      <c r="IX33" s="4">
+      <c r="IX33" s="13">
         <v>33816</v>
       </c>
+      <c r="IY33" s="14">
+        <v>33776</v>
+      </c>
     </row>
-    <row r="34" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -25483,17 +25557,20 @@
       <c r="IU34" s="13">
         <v>5194</v>
       </c>
-      <c r="IV34" s="14">
+      <c r="IV34" s="13">
         <v>5146</v>
       </c>
-      <c r="IW34" s="4">
+      <c r="IW34" s="12">
         <v>5151</v>
       </c>
-      <c r="IX34" s="4">
+      <c r="IX34" s="13">
         <v>5166</v>
       </c>
+      <c r="IY34" s="14">
+        <v>5187</v>
+      </c>
     </row>
-    <row r="35" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -26259,17 +26336,20 @@
       <c r="IU35" s="13">
         <v>43183</v>
       </c>
-      <c r="IV35" s="14">
+      <c r="IV35" s="13">
         <v>43019</v>
       </c>
-      <c r="IW35" s="4">
+      <c r="IW35" s="12">
         <v>42890</v>
       </c>
-      <c r="IX35" s="4">
+      <c r="IX35" s="13">
         <v>42905</v>
       </c>
+      <c r="IY35" s="14">
+        <v>42925</v>
+      </c>
     </row>
-    <row r="36" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27035,17 +27115,20 @@
       <c r="IU36" s="13">
         <v>19514</v>
       </c>
-      <c r="IV36" s="14">
+      <c r="IV36" s="13">
         <v>19413</v>
       </c>
-      <c r="IW36" s="4">
+      <c r="IW36" s="12">
         <v>19328</v>
       </c>
-      <c r="IX36" s="4">
+      <c r="IX36" s="13">
         <v>19440</v>
       </c>
+      <c r="IY36" s="14">
+        <v>19565</v>
+      </c>
     </row>
-    <row r="37" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -27811,17 +27894,20 @@
       <c r="IU37" s="13">
         <v>11796</v>
       </c>
-      <c r="IV37" s="14">
+      <c r="IV37" s="13">
         <v>11771</v>
       </c>
-      <c r="IW37" s="4">
+      <c r="IW37" s="12">
         <v>11710</v>
       </c>
-      <c r="IX37" s="4">
+      <c r="IX37" s="13">
         <v>11770</v>
       </c>
+      <c r="IY37" s="14">
+        <v>11794</v>
+      </c>
     </row>
-    <row r="38" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -28587,17 +28673,20 @@
       <c r="IU38" s="10">
         <v>1003261</v>
       </c>
-      <c r="IV38" s="11">
+      <c r="IV38" s="10">
         <v>1000414</v>
       </c>
-      <c r="IW38" s="6">
+      <c r="IW38" s="15">
         <v>999042</v>
       </c>
-      <c r="IX38" s="6">
+      <c r="IX38" s="10">
         <v>1000910</v>
       </c>
+      <c r="IY38" s="11">
+        <v>1002537</v>
+      </c>
     </row>
-    <row r="40" spans="1:258" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -880,9 +880,6 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,6 +890,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1245,7 +1245,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC15" sqref="JC15"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="3" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="23">
@@ -2192,18 +2192,18 @@
       <c r="IV4" s="22">
         <v>2020</v>
       </c>
-      <c r="IW4" s="33">
+      <c r="IW4" s="32">
         <v>2021</v>
       </c>
-      <c r="IX4" s="34">
+      <c r="IX4" s="33">
         <v>2021</v>
       </c>
-      <c r="IY4" s="35">
+      <c r="IY4" s="34">
         <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="24" t="s">
         <v>28</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="IX6" s="3">
         <v>16087</v>
       </c>
-      <c r="IY6" s="36">
+      <c r="IY6" s="35">
         <v>16126</v>
       </c>
     </row>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -779,6 +779,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -827,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -880,19 +891,14 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1241,11 +1247,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY40"/>
+  <dimension ref="A1:IZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="JE13" sqref="JE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,10 +1409,10 @@
     <col min="251" max="251" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="259" width="11.42578125" style="7" customWidth="1"/>
+    <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1420,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1422,9 +1428,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="3" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="23">
@@ -2192,18 +2198,21 @@
       <c r="IV4" s="22">
         <v>2020</v>
       </c>
-      <c r="IW4" s="32">
+      <c r="IW4" s="21">
         <v>2021</v>
       </c>
-      <c r="IX4" s="33">
+      <c r="IX4" s="22">
         <v>2021</v>
       </c>
-      <c r="IY4" s="34">
+      <c r="IY4" s="22">
         <v>2021</v>
       </c>
+      <c r="IZ4" s="34">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="24" t="s">
         <v>28</v>
       </c>
@@ -2975,11 +2984,14 @@
       <c r="IX5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="IY5" s="31" t="s">
+      <c r="IY5" s="30" t="s">
         <v>31</v>
       </c>
+      <c r="IZ5" s="31" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3754,11 +3766,14 @@
       <c r="IX6" s="3">
         <v>16087</v>
       </c>
-      <c r="IY6" s="35">
+      <c r="IY6" s="3">
         <v>16126</v>
       </c>
+      <c r="IZ6" s="32">
+        <v>16189</v>
+      </c>
     </row>
-    <row r="7" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4533,11 +4548,14 @@
       <c r="IX7" s="13">
         <v>41481</v>
       </c>
-      <c r="IY7" s="14">
+      <c r="IY7" s="13">
         <v>41658</v>
       </c>
+      <c r="IZ7" s="14">
+        <v>41850</v>
+      </c>
     </row>
-    <row r="8" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5312,11 +5330,14 @@
       <c r="IX8" s="13">
         <v>12903</v>
       </c>
-      <c r="IY8" s="14">
+      <c r="IY8" s="13">
         <v>12933</v>
       </c>
+      <c r="IZ8" s="14">
+        <v>12988</v>
+      </c>
     </row>
-    <row r="9" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6091,11 +6112,14 @@
       <c r="IX9" s="13">
         <v>5814</v>
       </c>
-      <c r="IY9" s="14">
+      <c r="IY9" s="13">
         <v>5831</v>
       </c>
+      <c r="IZ9" s="14">
+        <v>5860</v>
+      </c>
     </row>
-    <row r="10" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6870,11 +6894,14 @@
       <c r="IX10" s="13">
         <v>14327</v>
       </c>
-      <c r="IY10" s="14">
+      <c r="IY10" s="13">
         <v>14373</v>
       </c>
+      <c r="IZ10" s="14">
+        <v>14418</v>
+      </c>
     </row>
-    <row r="11" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7649,11 +7676,14 @@
       <c r="IX11" s="13">
         <v>39752</v>
       </c>
-      <c r="IY11" s="14">
+      <c r="IY11" s="13">
         <v>39950</v>
       </c>
+      <c r="IZ11" s="14">
+        <v>40094</v>
+      </c>
     </row>
-    <row r="12" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8428,11 +8458,14 @@
       <c r="IX12" s="13">
         <v>117824</v>
       </c>
-      <c r="IY12" s="14">
+      <c r="IY12" s="13">
         <v>117841</v>
       </c>
+      <c r="IZ12" s="14">
+        <v>117816</v>
+      </c>
     </row>
-    <row r="13" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9207,11 +9240,14 @@
       <c r="IX13" s="13">
         <v>34085</v>
       </c>
-      <c r="IY13" s="14">
+      <c r="IY13" s="13">
         <v>34104</v>
       </c>
+      <c r="IZ13" s="14">
+        <v>34235</v>
+      </c>
     </row>
-    <row r="14" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -9986,11 +10022,14 @@
       <c r="IX14" s="13">
         <v>10744</v>
       </c>
-      <c r="IY14" s="14">
+      <c r="IY14" s="13">
         <v>10794</v>
       </c>
+      <c r="IZ14" s="14">
+        <v>10897</v>
+      </c>
     </row>
-    <row r="15" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -10765,11 +10804,14 @@
       <c r="IX15" s="13">
         <v>14342</v>
       </c>
-      <c r="IY15" s="14">
+      <c r="IY15" s="13">
         <v>14316</v>
       </c>
+      <c r="IZ15" s="14">
+        <v>14313</v>
+      </c>
     </row>
-    <row r="16" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11544,11 +11586,14 @@
       <c r="IX16" s="13">
         <v>72749</v>
       </c>
-      <c r="IY16" s="14">
+      <c r="IY16" s="13">
         <v>72421</v>
       </c>
+      <c r="IZ16" s="14">
+        <v>72325</v>
+      </c>
     </row>
-    <row r="17" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12323,11 +12368,14 @@
       <c r="IX17" s="13">
         <v>47646</v>
       </c>
-      <c r="IY17" s="14">
+      <c r="IY17" s="13">
         <v>47663</v>
       </c>
+      <c r="IZ17" s="14">
+        <v>47685</v>
+      </c>
     </row>
-    <row r="18" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13102,11 +13150,14 @@
       <c r="IX18" s="13">
         <v>13526</v>
       </c>
-      <c r="IY18" s="14">
+      <c r="IY18" s="13">
         <v>13558</v>
       </c>
+      <c r="IZ18" s="14">
+        <v>13535</v>
+      </c>
     </row>
-    <row r="19" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -13881,11 +13932,14 @@
       <c r="IX19" s="13">
         <v>15439</v>
       </c>
-      <c r="IY19" s="14">
+      <c r="IY19" s="13">
         <v>15440</v>
       </c>
+      <c r="IZ19" s="14">
+        <v>15508</v>
+      </c>
     </row>
-    <row r="20" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
@@ -14660,11 +14714,14 @@
       <c r="IX20" s="27">
         <v>98474</v>
       </c>
-      <c r="IY20" s="28">
+      <c r="IY20" s="27">
         <v>98700</v>
       </c>
+      <c r="IZ20" s="28">
+        <v>98877</v>
+      </c>
     </row>
-    <row r="21" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15439,11 +15496,14 @@
       <c r="IX21" s="13">
         <v>36276</v>
       </c>
-      <c r="IY21" s="14">
+      <c r="IY21" s="13">
         <v>36281</v>
       </c>
+      <c r="IZ21" s="14">
+        <v>36326</v>
+      </c>
     </row>
-    <row r="22" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16218,11 +16278,14 @@
       <c r="IX22" s="13">
         <v>12100</v>
       </c>
-      <c r="IY22" s="14">
+      <c r="IY22" s="13">
         <v>12102</v>
       </c>
+      <c r="IZ22" s="14">
+        <v>12135</v>
+      </c>
     </row>
-    <row r="23" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -16997,11 +17060,14 @@
       <c r="IX23" s="13">
         <v>12776</v>
       </c>
-      <c r="IY23" s="14">
+      <c r="IY23" s="13">
         <v>12803</v>
       </c>
+      <c r="IZ23" s="14">
+        <v>12871</v>
+      </c>
     </row>
-    <row r="24" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -17776,11 +17842,14 @@
       <c r="IX24" s="13">
         <v>69678</v>
       </c>
-      <c r="IY24" s="14">
+      <c r="IY24" s="13">
         <v>69882</v>
       </c>
+      <c r="IZ24" s="14">
+        <v>69827</v>
+      </c>
     </row>
-    <row r="25" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -18555,11 +18624,14 @@
       <c r="IX25" s="13">
         <v>13855</v>
       </c>
-      <c r="IY25" s="14">
+      <c r="IY25" s="13">
         <v>13866</v>
       </c>
+      <c r="IZ25" s="14">
+        <v>13940</v>
+      </c>
     </row>
-    <row r="26" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19334,11 +19406,14 @@
       <c r="IX26" s="13">
         <v>33097</v>
       </c>
-      <c r="IY26" s="14">
+      <c r="IY26" s="13">
         <v>33102</v>
       </c>
+      <c r="IZ26" s="14">
+        <v>33006</v>
+      </c>
     </row>
-    <row r="27" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20113,11 +20188,14 @@
       <c r="IX27" s="13">
         <v>26121</v>
       </c>
-      <c r="IY27" s="14">
+      <c r="IY27" s="13">
         <v>26255</v>
       </c>
+      <c r="IZ27" s="14">
+        <v>26314</v>
+      </c>
     </row>
-    <row r="28" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -20892,11 +20970,14 @@
       <c r="IX28" s="13">
         <v>16718</v>
       </c>
-      <c r="IY28" s="14">
+      <c r="IY28" s="13">
         <v>16865</v>
       </c>
+      <c r="IZ28" s="14">
+        <v>16958</v>
+      </c>
     </row>
-    <row r="29" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -21671,11 +21752,14 @@
       <c r="IX29" s="13">
         <v>22874</v>
       </c>
-      <c r="IY29" s="14">
+      <c r="IY29" s="13">
         <v>22910</v>
       </c>
+      <c r="IZ29" s="14">
+        <v>22964</v>
+      </c>
     </row>
-    <row r="30" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -22450,11 +22534,14 @@
       <c r="IX30" s="13">
         <v>40759</v>
       </c>
-      <c r="IY30" s="14">
+      <c r="IY30" s="13">
         <v>40970</v>
       </c>
+      <c r="IZ30" s="14">
+        <v>41101</v>
+      </c>
     </row>
-    <row r="31" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23229,11 +23316,14 @@
       <c r="IX31" s="13">
         <v>37502</v>
       </c>
-      <c r="IY31" s="14">
+      <c r="IY31" s="13">
         <v>37594</v>
       </c>
+      <c r="IZ31" s="14">
+        <v>37585</v>
+      </c>
     </row>
-    <row r="32" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24008,11 +24098,14 @@
       <c r="IX32" s="13">
         <v>10864</v>
       </c>
-      <c r="IY32" s="14">
+      <c r="IY32" s="13">
         <v>10952</v>
       </c>
+      <c r="IZ32" s="14">
+        <v>10935</v>
+      </c>
     </row>
-    <row r="33" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -24787,11 +24880,14 @@
       <c r="IX33" s="13">
         <v>33816</v>
       </c>
-      <c r="IY33" s="14">
+      <c r="IY33" s="13">
         <v>33776</v>
       </c>
+      <c r="IZ33" s="14">
+        <v>33844</v>
+      </c>
     </row>
-    <row r="34" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -25566,11 +25662,14 @@
       <c r="IX34" s="13">
         <v>5166</v>
       </c>
-      <c r="IY34" s="14">
+      <c r="IY34" s="13">
         <v>5187</v>
       </c>
+      <c r="IZ34" s="14">
+        <v>5236</v>
+      </c>
     </row>
-    <row r="35" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -26345,11 +26444,14 @@
       <c r="IX35" s="13">
         <v>42905</v>
       </c>
-      <c r="IY35" s="14">
+      <c r="IY35" s="13">
         <v>42925</v>
       </c>
+      <c r="IZ35" s="14">
+        <v>43156</v>
+      </c>
     </row>
-    <row r="36" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27124,11 +27226,14 @@
       <c r="IX36" s="13">
         <v>19440</v>
       </c>
-      <c r="IY36" s="14">
+      <c r="IY36" s="13">
         <v>19565</v>
       </c>
+      <c r="IZ36" s="14">
+        <v>19630</v>
+      </c>
     </row>
-    <row r="37" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -27897,17 +28002,20 @@
       <c r="IV37" s="13">
         <v>11771</v>
       </c>
-      <c r="IW37" s="12">
+      <c r="IW37" s="19">
         <v>11710</v>
       </c>
-      <c r="IX37" s="13">
+      <c r="IX37" s="20">
         <v>11770</v>
       </c>
-      <c r="IY37" s="14">
+      <c r="IY37" s="20">
         <v>11794</v>
       </c>
+      <c r="IZ37" s="35">
+        <v>11847</v>
+      </c>
     </row>
-    <row r="38" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -28682,11 +28790,14 @@
       <c r="IX38" s="10">
         <v>1000910</v>
       </c>
-      <c r="IY38" s="11">
+      <c r="IY38" s="10">
         <v>1002537</v>
       </c>
+      <c r="IZ38" s="11">
+        <v>1004265</v>
+      </c>
     </row>
-    <row r="40" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -895,12 +895,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1249,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JA40"/>
+  <dimension ref="A1:JC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JB8" sqref="JB8"/>
+      <selection pane="topRight" activeCell="JE10" sqref="JE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,9 +1412,10 @@
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
+    <col min="262" max="263" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1422,7 +1423,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1430,9 +1431,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:261" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="3" spans="1:263" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2212,12 +2213,18 @@
       <c r="IZ4" s="21">
         <v>2021</v>
       </c>
-      <c r="JA4" s="32">
+      <c r="JA4" s="21">
         <v>2021</v>
       </c>
+      <c r="JB4" s="21">
+        <v>2021</v>
+      </c>
+      <c r="JC4" s="32">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -2995,11 +3002,17 @@
       <c r="IZ5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="JA5" s="30" t="s">
+      <c r="JA5" s="29" t="s">
         <v>33</v>
       </c>
+      <c r="JB5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="JC5" s="30" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3780,11 +3793,17 @@
       <c r="IZ6" s="3">
         <v>16189</v>
       </c>
-      <c r="JA6" s="31">
+      <c r="JA6" s="3">
         <v>16211</v>
       </c>
+      <c r="JB6" s="3">
+        <v>16255</v>
+      </c>
+      <c r="JC6" s="31">
+        <v>16473</v>
+      </c>
     </row>
-    <row r="7" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4565,11 +4584,17 @@
       <c r="IZ7" s="12">
         <v>41850</v>
       </c>
-      <c r="JA7" s="13">
+      <c r="JA7" s="12">
         <v>42065</v>
       </c>
+      <c r="JB7" s="12">
+        <v>42355</v>
+      </c>
+      <c r="JC7" s="13">
+        <v>43092</v>
+      </c>
     </row>
-    <row r="8" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5350,11 +5375,17 @@
       <c r="IZ8" s="12">
         <v>12988</v>
       </c>
-      <c r="JA8" s="13">
+      <c r="JA8" s="12">
         <v>13024</v>
       </c>
+      <c r="JB8" s="12">
+        <v>13133</v>
+      </c>
+      <c r="JC8" s="13">
+        <v>13392</v>
+      </c>
     </row>
-    <row r="9" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6135,11 +6166,17 @@
       <c r="IZ9" s="12">
         <v>5860</v>
       </c>
-      <c r="JA9" s="13">
+      <c r="JA9" s="12">
         <v>5894</v>
       </c>
+      <c r="JB9" s="12">
+        <v>5921</v>
+      </c>
+      <c r="JC9" s="13">
+        <v>6066</v>
+      </c>
     </row>
-    <row r="10" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6920,11 +6957,17 @@
       <c r="IZ10" s="12">
         <v>14418</v>
       </c>
-      <c r="JA10" s="13">
+      <c r="JA10" s="12">
         <v>14366</v>
       </c>
+      <c r="JB10" s="12">
+        <v>14447</v>
+      </c>
+      <c r="JC10" s="13">
+        <v>14671</v>
+      </c>
     </row>
-    <row r="11" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7705,11 +7748,17 @@
       <c r="IZ11" s="12">
         <v>40094</v>
       </c>
-      <c r="JA11" s="13">
+      <c r="JA11" s="12">
         <v>40230</v>
       </c>
+      <c r="JB11" s="12">
+        <v>40523</v>
+      </c>
+      <c r="JC11" s="13">
+        <v>41096</v>
+      </c>
     </row>
-    <row r="12" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8490,11 +8539,17 @@
       <c r="IZ12" s="12">
         <v>117816</v>
       </c>
-      <c r="JA12" s="13">
+      <c r="JA12" s="12">
         <v>117947</v>
       </c>
+      <c r="JB12" s="12">
+        <v>118428</v>
+      </c>
+      <c r="JC12" s="13">
+        <v>120984</v>
+      </c>
     </row>
-    <row r="13" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9275,11 +9330,17 @@
       <c r="IZ13" s="12">
         <v>34235</v>
       </c>
-      <c r="JA13" s="13">
+      <c r="JA13" s="12">
         <v>34327</v>
       </c>
+      <c r="JB13" s="12">
+        <v>34490</v>
+      </c>
+      <c r="JC13" s="13">
+        <v>35062</v>
+      </c>
     </row>
-    <row r="14" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10060,11 +10121,17 @@
       <c r="IZ14" s="12">
         <v>10897</v>
       </c>
-      <c r="JA14" s="13">
+      <c r="JA14" s="12">
         <v>10925</v>
       </c>
+      <c r="JB14" s="12">
+        <v>11020</v>
+      </c>
+      <c r="JC14" s="13">
+        <v>11173</v>
+      </c>
     </row>
-    <row r="15" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -10845,11 +10912,17 @@
       <c r="IZ15" s="12">
         <v>14313</v>
       </c>
-      <c r="JA15" s="13">
+      <c r="JA15" s="12">
         <v>14323</v>
       </c>
+      <c r="JB15" s="12">
+        <v>14356</v>
+      </c>
+      <c r="JC15" s="13">
+        <v>14515</v>
+      </c>
     </row>
-    <row r="16" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11630,11 +11703,17 @@
       <c r="IZ16" s="12">
         <v>72325</v>
       </c>
-      <c r="JA16" s="13">
+      <c r="JA16" s="12">
         <v>72265</v>
       </c>
+      <c r="JB16" s="12">
+        <v>72470</v>
+      </c>
+      <c r="JC16" s="13">
+        <v>74305</v>
+      </c>
     </row>
-    <row r="17" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12415,11 +12494,17 @@
       <c r="IZ17" s="12">
         <v>47685</v>
       </c>
-      <c r="JA17" s="13">
+      <c r="JA17" s="12">
         <v>47805</v>
       </c>
+      <c r="JB17" s="12">
+        <v>48063</v>
+      </c>
+      <c r="JC17" s="13">
+        <v>48679</v>
+      </c>
     </row>
-    <row r="18" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13200,11 +13285,17 @@
       <c r="IZ18" s="12">
         <v>13535</v>
       </c>
-      <c r="JA18" s="13">
+      <c r="JA18" s="12">
         <v>13561</v>
       </c>
+      <c r="JB18" s="12">
+        <v>13554</v>
+      </c>
+      <c r="JC18" s="13">
+        <v>13680</v>
+      </c>
     </row>
-    <row r="19" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -13985,11 +14076,17 @@
       <c r="IZ19" s="12">
         <v>15508</v>
       </c>
-      <c r="JA19" s="13">
+      <c r="JA19" s="12">
         <v>15535</v>
       </c>
+      <c r="JB19" s="12">
+        <v>15549</v>
+      </c>
+      <c r="JC19" s="13">
+        <v>15750</v>
+      </c>
     </row>
-    <row r="20" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -14770,11 +14867,17 @@
       <c r="IZ20" s="26">
         <v>98877</v>
       </c>
-      <c r="JA20" s="27">
+      <c r="JA20" s="26">
         <v>99245</v>
       </c>
+      <c r="JB20" s="26">
+        <v>99679</v>
+      </c>
+      <c r="JC20" s="27">
+        <v>100963</v>
+      </c>
     </row>
-    <row r="21" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15555,11 +15658,17 @@
       <c r="IZ21" s="12">
         <v>36326</v>
       </c>
-      <c r="JA21" s="13">
+      <c r="JA21" s="12">
         <v>36342</v>
       </c>
+      <c r="JB21" s="12">
+        <v>36500</v>
+      </c>
+      <c r="JC21" s="13">
+        <v>36738</v>
+      </c>
     </row>
-    <row r="22" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16340,11 +16449,17 @@
       <c r="IZ22" s="12">
         <v>12135</v>
       </c>
-      <c r="JA22" s="13">
+      <c r="JA22" s="12">
         <v>12150</v>
       </c>
+      <c r="JB22" s="12">
+        <v>12169</v>
+      </c>
+      <c r="JC22" s="13">
+        <v>12356</v>
+      </c>
     </row>
-    <row r="23" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17125,11 +17240,17 @@
       <c r="IZ23" s="12">
         <v>12871</v>
       </c>
-      <c r="JA23" s="13">
+      <c r="JA23" s="12">
         <v>12903</v>
       </c>
+      <c r="JB23" s="12">
+        <v>13053</v>
+      </c>
+      <c r="JC23" s="13">
+        <v>13268</v>
+      </c>
     </row>
-    <row r="24" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -17910,11 +18031,17 @@
       <c r="IZ24" s="12">
         <v>69827</v>
       </c>
-      <c r="JA24" s="13">
+      <c r="JA24" s="12">
         <v>70064</v>
       </c>
+      <c r="JB24" s="12">
+        <v>70678</v>
+      </c>
+      <c r="JC24" s="13">
+        <v>72034</v>
+      </c>
     </row>
-    <row r="25" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -18695,11 +18822,17 @@
       <c r="IZ25" s="12">
         <v>13940</v>
       </c>
-      <c r="JA25" s="13">
+      <c r="JA25" s="12">
         <v>13919</v>
       </c>
+      <c r="JB25" s="12">
+        <v>14047</v>
+      </c>
+      <c r="JC25" s="13">
+        <v>14214</v>
+      </c>
     </row>
-    <row r="26" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19480,11 +19613,17 @@
       <c r="IZ26" s="12">
         <v>33006</v>
       </c>
-      <c r="JA26" s="13">
+      <c r="JA26" s="12">
         <v>32984</v>
       </c>
+      <c r="JB26" s="12">
+        <v>33138</v>
+      </c>
+      <c r="JC26" s="13">
+        <v>33656</v>
+      </c>
     </row>
-    <row r="27" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20265,11 +20404,17 @@
       <c r="IZ27" s="12">
         <v>26314</v>
       </c>
-      <c r="JA27" s="13">
+      <c r="JA27" s="12">
         <v>26425</v>
       </c>
+      <c r="JB27" s="12">
+        <v>26639</v>
+      </c>
+      <c r="JC27" s="13">
+        <v>27264</v>
+      </c>
     </row>
-    <row r="28" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21050,11 +21195,17 @@
       <c r="IZ28" s="12">
         <v>16958</v>
       </c>
-      <c r="JA28" s="13">
+      <c r="JA28" s="12">
         <v>17142</v>
       </c>
+      <c r="JB28" s="12">
+        <v>17389</v>
+      </c>
+      <c r="JC28" s="13">
+        <v>18033</v>
+      </c>
     </row>
-    <row r="29" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -21835,11 +21986,17 @@
       <c r="IZ29" s="12">
         <v>22964</v>
       </c>
-      <c r="JA29" s="13">
+      <c r="JA29" s="12">
         <v>22967</v>
       </c>
+      <c r="JB29" s="12">
+        <v>23041</v>
+      </c>
+      <c r="JC29" s="13">
+        <v>23311</v>
+      </c>
     </row>
-    <row r="30" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -22620,11 +22777,17 @@
       <c r="IZ30" s="12">
         <v>41101</v>
       </c>
-      <c r="JA30" s="13">
+      <c r="JA30" s="12">
         <v>41236</v>
       </c>
+      <c r="JB30" s="12">
+        <v>41559</v>
+      </c>
+      <c r="JC30" s="13">
+        <v>42178</v>
+      </c>
     </row>
-    <row r="31" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23405,11 +23568,17 @@
       <c r="IZ31" s="12">
         <v>37585</v>
       </c>
-      <c r="JA31" s="13">
+      <c r="JA31" s="12">
         <v>37680</v>
       </c>
+      <c r="JB31" s="12">
+        <v>38030</v>
+      </c>
+      <c r="JC31" s="13">
+        <v>38675</v>
+      </c>
     </row>
-    <row r="32" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24190,11 +24359,17 @@
       <c r="IZ32" s="12">
         <v>10935</v>
       </c>
-      <c r="JA32" s="13">
+      <c r="JA32" s="12">
         <v>10939</v>
       </c>
+      <c r="JB32" s="12">
+        <v>11015</v>
+      </c>
+      <c r="JC32" s="13">
+        <v>11282</v>
+      </c>
     </row>
-    <row r="33" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -24975,11 +25150,17 @@
       <c r="IZ33" s="12">
         <v>33844</v>
       </c>
-      <c r="JA33" s="13">
+      <c r="JA33" s="12">
         <v>33906</v>
       </c>
+      <c r="JB33" s="12">
+        <v>34032</v>
+      </c>
+      <c r="JC33" s="13">
+        <v>34370</v>
+      </c>
     </row>
-    <row r="34" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -25760,11 +25941,17 @@
       <c r="IZ34" s="12">
         <v>5236</v>
       </c>
-      <c r="JA34" s="13">
+      <c r="JA34" s="12">
         <v>5215</v>
       </c>
+      <c r="JB34" s="12">
+        <v>5252</v>
+      </c>
+      <c r="JC34" s="13">
+        <v>5322</v>
+      </c>
     </row>
-    <row r="35" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -26545,11 +26732,17 @@
       <c r="IZ35" s="12">
         <v>43156</v>
       </c>
-      <c r="JA35" s="13">
+      <c r="JA35" s="12">
         <v>43190</v>
       </c>
+      <c r="JB35" s="12">
+        <v>43366</v>
+      </c>
+      <c r="JC35" s="13">
+        <v>43928</v>
+      </c>
     </row>
-    <row r="36" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27330,11 +27523,17 @@
       <c r="IZ36" s="12">
         <v>19630</v>
       </c>
-      <c r="JA36" s="13">
+      <c r="JA36" s="12">
         <v>19720</v>
       </c>
+      <c r="JB36" s="12">
+        <v>19904</v>
+      </c>
+      <c r="JC36" s="13">
+        <v>20210</v>
+      </c>
     </row>
-    <row r="37" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28115,11 +28314,17 @@
       <c r="IZ37" s="19">
         <v>11847</v>
       </c>
-      <c r="JA37" s="33">
+      <c r="JA37" s="19">
         <v>11869</v>
       </c>
+      <c r="JB37" s="19">
+        <v>11919</v>
+      </c>
+      <c r="JC37" s="33">
+        <v>12017</v>
+      </c>
     </row>
-    <row r="38" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -28888,23 +29093,29 @@
       <c r="IV38" s="10">
         <v>1000414</v>
       </c>
-      <c r="IW38" s="35">
+      <c r="IW38" s="34">
         <v>999042</v>
       </c>
-      <c r="IX38" s="36">
+      <c r="IX38" s="35">
         <v>1000910</v>
       </c>
-      <c r="IY38" s="36">
+      <c r="IY38" s="35">
         <v>1002537</v>
       </c>
-      <c r="IZ38" s="36">
+      <c r="IZ38" s="35">
         <v>1004265</v>
       </c>
-      <c r="JA38" s="37">
+      <c r="JA38" s="35">
         <v>1006374</v>
       </c>
+      <c r="JB38" s="35">
+        <v>1011974</v>
+      </c>
+      <c r="JC38" s="36">
+        <v>1028757</v>
+      </c>
     </row>
-    <row r="40" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1249,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JC40"/>
+  <dimension ref="A1:JD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE10" sqref="JE10"/>
+      <selection pane="topRight" activeCell="JH26" sqref="JH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +1412,10 @@
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
-    <col min="262" max="263" width="11.42578125" style="7"/>
+    <col min="262" max="264" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:263" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:264" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>26</v>
       </c>
@@ -2219,11 +2219,14 @@
       <c r="JB4" s="21">
         <v>2021</v>
       </c>
-      <c r="JC4" s="32">
+      <c r="JC4" s="21">
         <v>2021</v>
       </c>
+      <c r="JD4" s="32">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3008,11 +3011,14 @@
       <c r="JB5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="JC5" s="30" t="s">
+      <c r="JC5" s="29" t="s">
         <v>35</v>
       </c>
+      <c r="JD5" s="30" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3799,11 +3805,14 @@
       <c r="JB6" s="3">
         <v>16255</v>
       </c>
-      <c r="JC6" s="31">
+      <c r="JC6" s="3">
         <v>16473</v>
       </c>
+      <c r="JD6" s="31">
+        <v>16597</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4590,11 +4599,14 @@
       <c r="JB7" s="12">
         <v>42355</v>
       </c>
-      <c r="JC7" s="13">
+      <c r="JC7" s="12">
         <v>43092</v>
       </c>
+      <c r="JD7" s="13">
+        <v>43604</v>
+      </c>
     </row>
-    <row r="8" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5381,11 +5393,14 @@
       <c r="JB8" s="12">
         <v>13133</v>
       </c>
-      <c r="JC8" s="13">
+      <c r="JC8" s="12">
         <v>13392</v>
       </c>
+      <c r="JD8" s="13">
+        <v>13503</v>
+      </c>
     </row>
-    <row r="9" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6172,11 +6187,14 @@
       <c r="JB9" s="12">
         <v>5921</v>
       </c>
-      <c r="JC9" s="13">
+      <c r="JC9" s="12">
         <v>6066</v>
       </c>
+      <c r="JD9" s="13">
+        <v>6139</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6963,11 +6981,14 @@
       <c r="JB10" s="12">
         <v>14447</v>
       </c>
-      <c r="JC10" s="13">
+      <c r="JC10" s="12">
         <v>14671</v>
       </c>
+      <c r="JD10" s="13">
+        <v>14683</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7754,11 +7775,14 @@
       <c r="JB11" s="12">
         <v>40523</v>
       </c>
-      <c r="JC11" s="13">
+      <c r="JC11" s="12">
         <v>41096</v>
       </c>
+      <c r="JD11" s="13">
+        <v>41443</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8545,11 +8569,14 @@
       <c r="JB12" s="12">
         <v>118428</v>
       </c>
-      <c r="JC12" s="13">
+      <c r="JC12" s="12">
         <v>120984</v>
       </c>
+      <c r="JD12" s="13">
+        <v>122640</v>
+      </c>
     </row>
-    <row r="13" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9336,11 +9363,14 @@
       <c r="JB13" s="12">
         <v>34490</v>
       </c>
-      <c r="JC13" s="13">
+      <c r="JC13" s="12">
         <v>35062</v>
       </c>
+      <c r="JD13" s="13">
+        <v>35290</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10127,11 +10157,14 @@
       <c r="JB14" s="12">
         <v>11020</v>
       </c>
-      <c r="JC14" s="13">
+      <c r="JC14" s="12">
         <v>11173</v>
       </c>
+      <c r="JD14" s="13">
+        <v>11279</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -10918,11 +10951,14 @@
       <c r="JB15" s="12">
         <v>14356</v>
       </c>
-      <c r="JC15" s="13">
+      <c r="JC15" s="12">
         <v>14515</v>
       </c>
+      <c r="JD15" s="13">
+        <v>14584</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11709,11 +11745,14 @@
       <c r="JB16" s="12">
         <v>72470</v>
       </c>
-      <c r="JC16" s="13">
+      <c r="JC16" s="12">
         <v>74305</v>
       </c>
+      <c r="JD16" s="13">
+        <v>75223</v>
+      </c>
     </row>
-    <row r="17" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12500,11 +12539,14 @@
       <c r="JB17" s="12">
         <v>48063</v>
       </c>
-      <c r="JC17" s="13">
+      <c r="JC17" s="12">
         <v>48679</v>
       </c>
+      <c r="JD17" s="13">
+        <v>48978</v>
+      </c>
     </row>
-    <row r="18" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13291,11 +13333,14 @@
       <c r="JB18" s="12">
         <v>13554</v>
       </c>
-      <c r="JC18" s="13">
+      <c r="JC18" s="12">
         <v>13680</v>
       </c>
+      <c r="JD18" s="13">
+        <v>13765</v>
+      </c>
     </row>
-    <row r="19" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14082,11 +14127,14 @@
       <c r="JB19" s="12">
         <v>15549</v>
       </c>
-      <c r="JC19" s="13">
+      <c r="JC19" s="12">
         <v>15750</v>
       </c>
+      <c r="JD19" s="13">
+        <v>15814</v>
+      </c>
     </row>
-    <row r="20" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -14873,11 +14921,14 @@
       <c r="JB20" s="26">
         <v>99679</v>
       </c>
-      <c r="JC20" s="27">
+      <c r="JC20" s="26">
         <v>100963</v>
       </c>
+      <c r="JD20" s="27">
+        <v>101796</v>
+      </c>
     </row>
-    <row r="21" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15664,11 +15715,14 @@
       <c r="JB21" s="12">
         <v>36500</v>
       </c>
-      <c r="JC21" s="13">
+      <c r="JC21" s="12">
         <v>36738</v>
       </c>
+      <c r="JD21" s="13">
+        <v>36908</v>
+      </c>
     </row>
-    <row r="22" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16455,11 +16509,14 @@
       <c r="JB22" s="12">
         <v>12169</v>
       </c>
-      <c r="JC22" s="13">
+      <c r="JC22" s="12">
         <v>12356</v>
       </c>
+      <c r="JD22" s="13">
+        <v>12437</v>
+      </c>
     </row>
-    <row r="23" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17246,11 +17303,14 @@
       <c r="JB23" s="12">
         <v>13053</v>
       </c>
-      <c r="JC23" s="13">
+      <c r="JC23" s="12">
         <v>13268</v>
       </c>
+      <c r="JD23" s="13">
+        <v>13376</v>
+      </c>
     </row>
-    <row r="24" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18037,11 +18097,14 @@
       <c r="JB24" s="12">
         <v>70678</v>
       </c>
-      <c r="JC24" s="13">
+      <c r="JC24" s="12">
         <v>72034</v>
       </c>
+      <c r="JD24" s="13">
+        <v>73017</v>
+      </c>
     </row>
-    <row r="25" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -18828,11 +18891,14 @@
       <c r="JB25" s="12">
         <v>14047</v>
       </c>
-      <c r="JC25" s="13">
+      <c r="JC25" s="12">
         <v>14214</v>
       </c>
+      <c r="JD25" s="13">
+        <v>14286</v>
+      </c>
     </row>
-    <row r="26" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19619,11 +19685,14 @@
       <c r="JB26" s="12">
         <v>33138</v>
       </c>
-      <c r="JC26" s="13">
+      <c r="JC26" s="12">
         <v>33656</v>
       </c>
+      <c r="JD26" s="13">
+        <v>33954</v>
+      </c>
     </row>
-    <row r="27" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20410,11 +20479,14 @@
       <c r="JB27" s="12">
         <v>26639</v>
       </c>
-      <c r="JC27" s="13">
+      <c r="JC27" s="12">
         <v>27264</v>
       </c>
+      <c r="JD27" s="13">
+        <v>27761</v>
+      </c>
     </row>
-    <row r="28" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21201,11 +21273,14 @@
       <c r="JB28" s="12">
         <v>17389</v>
       </c>
-      <c r="JC28" s="13">
+      <c r="JC28" s="12">
         <v>18033</v>
       </c>
+      <c r="JD28" s="13">
+        <v>18458</v>
+      </c>
     </row>
-    <row r="29" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -21992,11 +22067,14 @@
       <c r="JB29" s="12">
         <v>23041</v>
       </c>
-      <c r="JC29" s="13">
+      <c r="JC29" s="12">
         <v>23311</v>
       </c>
+      <c r="JD29" s="13">
+        <v>23505</v>
+      </c>
     </row>
-    <row r="30" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -22783,11 +22861,14 @@
       <c r="JB30" s="12">
         <v>41559</v>
       </c>
-      <c r="JC30" s="13">
+      <c r="JC30" s="12">
         <v>42178</v>
       </c>
+      <c r="JD30" s="13">
+        <v>42434</v>
+      </c>
     </row>
-    <row r="31" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23574,11 +23655,14 @@
       <c r="JB31" s="12">
         <v>38030</v>
       </c>
-      <c r="JC31" s="13">
+      <c r="JC31" s="12">
         <v>38675</v>
       </c>
+      <c r="JD31" s="13">
+        <v>38969</v>
+      </c>
     </row>
-    <row r="32" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24365,11 +24449,14 @@
       <c r="JB32" s="12">
         <v>11015</v>
       </c>
-      <c r="JC32" s="13">
+      <c r="JC32" s="12">
         <v>11282</v>
       </c>
+      <c r="JD32" s="13">
+        <v>11358</v>
+      </c>
     </row>
-    <row r="33" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25156,11 +25243,14 @@
       <c r="JB33" s="12">
         <v>34032</v>
       </c>
-      <c r="JC33" s="13">
+      <c r="JC33" s="12">
         <v>34370</v>
       </c>
+      <c r="JD33" s="13">
+        <v>34614</v>
+      </c>
     </row>
-    <row r="34" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -25947,11 +26037,14 @@
       <c r="JB34" s="12">
         <v>5252</v>
       </c>
-      <c r="JC34" s="13">
+      <c r="JC34" s="12">
         <v>5322</v>
       </c>
+      <c r="JD34" s="13">
+        <v>5343</v>
+      </c>
     </row>
-    <row r="35" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -26738,11 +26831,14 @@
       <c r="JB35" s="12">
         <v>43366</v>
       </c>
-      <c r="JC35" s="13">
+      <c r="JC35" s="12">
         <v>43928</v>
       </c>
+      <c r="JD35" s="13">
+        <v>44079</v>
+      </c>
     </row>
-    <row r="36" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27529,11 +27625,14 @@
       <c r="JB36" s="12">
         <v>19904</v>
       </c>
-      <c r="JC36" s="13">
+      <c r="JC36" s="12">
         <v>20210</v>
       </c>
+      <c r="JD36" s="13">
+        <v>20382</v>
+      </c>
     </row>
-    <row r="37" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28320,11 +28419,14 @@
       <c r="JB37" s="19">
         <v>11919</v>
       </c>
-      <c r="JC37" s="33">
+      <c r="JC37" s="19">
         <v>12017</v>
       </c>
+      <c r="JD37" s="33">
+        <v>12067</v>
+      </c>
     </row>
-    <row r="38" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29111,11 +29213,14 @@
       <c r="JB38" s="35">
         <v>1011974</v>
       </c>
-      <c r="JC38" s="36">
+      <c r="JC38" s="35">
         <v>1028757</v>
       </c>
+      <c r="JD38" s="36">
+        <v>1038286</v>
+      </c>
     </row>
-    <row r="40" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1249,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JD40"/>
+  <dimension ref="A1:JE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH26" sqref="JH26"/>
+      <selection pane="topRight" activeCell="JH25" sqref="JH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +1412,10 @@
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
-    <col min="262" max="264" width="11.42578125" style="7"/>
+    <col min="262" max="265" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:264" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:265" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>26</v>
       </c>
@@ -2222,11 +2222,14 @@
       <c r="JC4" s="21">
         <v>2021</v>
       </c>
-      <c r="JD4" s="32">
+      <c r="JD4" s="21">
         <v>2021</v>
       </c>
+      <c r="JE4" s="32">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3014,11 +3017,14 @@
       <c r="JC5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="JD5" s="30" t="s">
+      <c r="JD5" s="29" t="s">
         <v>36</v>
       </c>
+      <c r="JE5" s="30" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3808,11 +3814,14 @@
       <c r="JC6" s="3">
         <v>16473</v>
       </c>
-      <c r="JD6" s="31">
+      <c r="JD6" s="3">
         <v>16597</v>
       </c>
+      <c r="JE6" s="31">
+        <v>16724</v>
+      </c>
     </row>
-    <row r="7" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4602,11 +4611,14 @@
       <c r="JC7" s="12">
         <v>43092</v>
       </c>
-      <c r="JD7" s="13">
+      <c r="JD7" s="12">
         <v>43604</v>
       </c>
+      <c r="JE7" s="13">
+        <v>44193</v>
+      </c>
     </row>
-    <row r="8" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5396,11 +5408,14 @@
       <c r="JC8" s="12">
         <v>13392</v>
       </c>
-      <c r="JD8" s="13">
+      <c r="JD8" s="12">
         <v>13503</v>
       </c>
+      <c r="JE8" s="13">
+        <v>13662</v>
+      </c>
     </row>
-    <row r="9" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6190,11 +6205,14 @@
       <c r="JC9" s="12">
         <v>6066</v>
       </c>
-      <c r="JD9" s="13">
+      <c r="JD9" s="12">
         <v>6139</v>
       </c>
+      <c r="JE9" s="13">
+        <v>6206</v>
+      </c>
     </row>
-    <row r="10" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6984,11 +7002,14 @@
       <c r="JC10" s="12">
         <v>14671</v>
       </c>
-      <c r="JD10" s="13">
+      <c r="JD10" s="12">
         <v>14683</v>
       </c>
+      <c r="JE10" s="13">
+        <v>14778</v>
+      </c>
     </row>
-    <row r="11" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7778,11 +7799,14 @@
       <c r="JC11" s="12">
         <v>41096</v>
       </c>
-      <c r="JD11" s="13">
+      <c r="JD11" s="12">
         <v>41443</v>
       </c>
+      <c r="JE11" s="13">
+        <v>41777</v>
+      </c>
     </row>
-    <row r="12" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8572,11 +8596,14 @@
       <c r="JC12" s="12">
         <v>120984</v>
       </c>
-      <c r="JD12" s="13">
+      <c r="JD12" s="12">
         <v>122640</v>
       </c>
+      <c r="JE12" s="13">
+        <v>124086</v>
+      </c>
     </row>
-    <row r="13" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9366,11 +9393,14 @@
       <c r="JC13" s="12">
         <v>35062</v>
       </c>
-      <c r="JD13" s="13">
+      <c r="JD13" s="12">
         <v>35290</v>
       </c>
+      <c r="JE13" s="13">
+        <v>35420</v>
+      </c>
     </row>
-    <row r="14" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10160,11 +10190,14 @@
       <c r="JC14" s="12">
         <v>11173</v>
       </c>
-      <c r="JD14" s="13">
+      <c r="JD14" s="12">
         <v>11279</v>
       </c>
+      <c r="JE14" s="13">
+        <v>11339</v>
+      </c>
     </row>
-    <row r="15" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -10954,11 +10987,14 @@
       <c r="JC15" s="12">
         <v>14515</v>
       </c>
-      <c r="JD15" s="13">
+      <c r="JD15" s="12">
         <v>14584</v>
       </c>
+      <c r="JE15" s="13">
+        <v>14612</v>
+      </c>
     </row>
-    <row r="16" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11748,11 +11784,14 @@
       <c r="JC16" s="12">
         <v>74305</v>
       </c>
-      <c r="JD16" s="13">
+      <c r="JD16" s="12">
         <v>75223</v>
       </c>
+      <c r="JE16" s="13">
+        <v>76166</v>
+      </c>
     </row>
-    <row r="17" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12542,11 +12581,14 @@
       <c r="JC17" s="12">
         <v>48679</v>
       </c>
-      <c r="JD17" s="13">
+      <c r="JD17" s="12">
         <v>48978</v>
       </c>
+      <c r="JE17" s="13">
+        <v>49169</v>
+      </c>
     </row>
-    <row r="18" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13336,11 +13378,14 @@
       <c r="JC18" s="12">
         <v>13680</v>
       </c>
-      <c r="JD18" s="13">
+      <c r="JD18" s="12">
         <v>13765</v>
       </c>
+      <c r="JE18" s="13">
+        <v>13745</v>
+      </c>
     </row>
-    <row r="19" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14130,11 +14175,14 @@
       <c r="JC19" s="12">
         <v>15750</v>
       </c>
-      <c r="JD19" s="13">
+      <c r="JD19" s="12">
         <v>15814</v>
       </c>
+      <c r="JE19" s="13">
+        <v>15889</v>
+      </c>
     </row>
-    <row r="20" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -14924,11 +14972,14 @@
       <c r="JC20" s="26">
         <v>100963</v>
       </c>
-      <c r="JD20" s="27">
+      <c r="JD20" s="26">
         <v>101796</v>
       </c>
+      <c r="JE20" s="27">
+        <v>102475</v>
+      </c>
     </row>
-    <row r="21" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15718,11 +15769,14 @@
       <c r="JC21" s="12">
         <v>36738</v>
       </c>
-      <c r="JD21" s="13">
+      <c r="JD21" s="12">
         <v>36908</v>
       </c>
+      <c r="JE21" s="13">
+        <v>37019</v>
+      </c>
     </row>
-    <row r="22" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16512,11 +16566,14 @@
       <c r="JC22" s="12">
         <v>12356</v>
       </c>
-      <c r="JD22" s="13">
+      <c r="JD22" s="12">
         <v>12437</v>
       </c>
+      <c r="JE22" s="13">
+        <v>12516</v>
+      </c>
     </row>
-    <row r="23" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17306,11 +17363,14 @@
       <c r="JC23" s="12">
         <v>13268</v>
       </c>
-      <c r="JD23" s="13">
+      <c r="JD23" s="12">
         <v>13376</v>
       </c>
+      <c r="JE23" s="13">
+        <v>13478</v>
+      </c>
     </row>
-    <row r="24" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18100,11 +18160,14 @@
       <c r="JC24" s="12">
         <v>72034</v>
       </c>
-      <c r="JD24" s="13">
+      <c r="JD24" s="12">
         <v>73017</v>
       </c>
+      <c r="JE24" s="13">
+        <v>74025</v>
+      </c>
     </row>
-    <row r="25" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -18894,11 +18957,14 @@
       <c r="JC25" s="12">
         <v>14214</v>
       </c>
-      <c r="JD25" s="13">
+      <c r="JD25" s="12">
         <v>14286</v>
       </c>
+      <c r="JE25" s="13">
+        <v>14322</v>
+      </c>
     </row>
-    <row r="26" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19688,11 +19754,14 @@
       <c r="JC26" s="12">
         <v>33656</v>
       </c>
-      <c r="JD26" s="13">
+      <c r="JD26" s="12">
         <v>33954</v>
       </c>
+      <c r="JE26" s="13">
+        <v>34133</v>
+      </c>
     </row>
-    <row r="27" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20482,11 +20551,14 @@
       <c r="JC27" s="12">
         <v>27264</v>
       </c>
-      <c r="JD27" s="13">
+      <c r="JD27" s="12">
         <v>27761</v>
       </c>
+      <c r="JE27" s="13">
+        <v>28158</v>
+      </c>
     </row>
-    <row r="28" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21276,11 +21348,14 @@
       <c r="JC28" s="12">
         <v>18033</v>
       </c>
-      <c r="JD28" s="13">
+      <c r="JD28" s="12">
         <v>18458</v>
       </c>
+      <c r="JE28" s="13">
+        <v>18704</v>
+      </c>
     </row>
-    <row r="29" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22070,11 +22145,14 @@
       <c r="JC29" s="12">
         <v>23311</v>
       </c>
-      <c r="JD29" s="13">
+      <c r="JD29" s="12">
         <v>23505</v>
       </c>
+      <c r="JE29" s="13">
+        <v>23622</v>
+      </c>
     </row>
-    <row r="30" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -22864,11 +22942,14 @@
       <c r="JC30" s="12">
         <v>42178</v>
       </c>
-      <c r="JD30" s="13">
+      <c r="JD30" s="12">
         <v>42434</v>
       </c>
+      <c r="JE30" s="13">
+        <v>42665</v>
+      </c>
     </row>
-    <row r="31" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23658,11 +23739,14 @@
       <c r="JC31" s="12">
         <v>38675</v>
       </c>
-      <c r="JD31" s="13">
+      <c r="JD31" s="12">
         <v>38969</v>
       </c>
+      <c r="JE31" s="13">
+        <v>39166</v>
+      </c>
     </row>
-    <row r="32" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24452,11 +24536,14 @@
       <c r="JC32" s="12">
         <v>11282</v>
       </c>
-      <c r="JD32" s="13">
+      <c r="JD32" s="12">
         <v>11358</v>
       </c>
+      <c r="JE32" s="13">
+        <v>11405</v>
+      </c>
     </row>
-    <row r="33" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25246,11 +25333,14 @@
       <c r="JC33" s="12">
         <v>34370</v>
       </c>
-      <c r="JD33" s="13">
+      <c r="JD33" s="12">
         <v>34614</v>
       </c>
+      <c r="JE33" s="13">
+        <v>34741</v>
+      </c>
     </row>
-    <row r="34" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26040,11 +26130,14 @@
       <c r="JC34" s="12">
         <v>5322</v>
       </c>
-      <c r="JD34" s="13">
+      <c r="JD34" s="12">
         <v>5343</v>
       </c>
+      <c r="JE34" s="13">
+        <v>5367</v>
+      </c>
     </row>
-    <row r="35" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -26834,11 +26927,14 @@
       <c r="JC35" s="12">
         <v>43928</v>
       </c>
-      <c r="JD35" s="13">
+      <c r="JD35" s="12">
         <v>44079</v>
       </c>
+      <c r="JE35" s="13">
+        <v>44117</v>
+      </c>
     </row>
-    <row r="36" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27628,11 +27724,14 @@
       <c r="JC36" s="12">
         <v>20210</v>
       </c>
-      <c r="JD36" s="13">
+      <c r="JD36" s="12">
         <v>20382</v>
       </c>
+      <c r="JE36" s="13">
+        <v>20574</v>
+      </c>
     </row>
-    <row r="37" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28422,11 +28521,14 @@
       <c r="JC37" s="19">
         <v>12017</v>
       </c>
-      <c r="JD37" s="33">
+      <c r="JD37" s="19">
         <v>12067</v>
       </c>
+      <c r="JE37" s="33">
+        <v>12087</v>
+      </c>
     </row>
-    <row r="38" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29216,11 +29318,14 @@
       <c r="JC38" s="35">
         <v>1028757</v>
       </c>
-      <c r="JD38" s="36">
+      <c r="JD38" s="35">
         <v>1038286</v>
       </c>
+      <c r="JE38" s="36">
+        <v>1046340</v>
+      </c>
     </row>
-    <row r="40" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1249,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE40"/>
+  <dimension ref="A1:JF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH25" sqref="JH25"/>
+      <selection pane="topRight" activeCell="JJ9" sqref="JJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +1412,10 @@
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
-    <col min="262" max="265" width="11.42578125" style="7"/>
+    <col min="262" max="266" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:265" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:266" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>26</v>
       </c>
@@ -2225,11 +2225,14 @@
       <c r="JD4" s="21">
         <v>2021</v>
       </c>
-      <c r="JE4" s="32">
+      <c r="JE4" s="21">
         <v>2021</v>
       </c>
+      <c r="JF4" s="32">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3020,11 +3023,14 @@
       <c r="JD5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="JE5" s="30" t="s">
+      <c r="JE5" s="29" t="s">
         <v>37</v>
       </c>
+      <c r="JF5" s="30" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3817,11 +3823,14 @@
       <c r="JD6" s="3">
         <v>16597</v>
       </c>
-      <c r="JE6" s="31">
+      <c r="JE6" s="3">
         <v>16724</v>
       </c>
+      <c r="JF6" s="31">
+        <v>16788</v>
+      </c>
     </row>
-    <row r="7" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4614,11 +4623,14 @@
       <c r="JD7" s="12">
         <v>43604</v>
       </c>
-      <c r="JE7" s="13">
+      <c r="JE7" s="12">
         <v>44193</v>
       </c>
+      <c r="JF7" s="13">
+        <v>44527</v>
+      </c>
     </row>
-    <row r="8" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5411,11 +5423,14 @@
       <c r="JD8" s="12">
         <v>13503</v>
       </c>
-      <c r="JE8" s="13">
+      <c r="JE8" s="12">
         <v>13662</v>
       </c>
+      <c r="JF8" s="13">
+        <v>13905</v>
+      </c>
     </row>
-    <row r="9" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6208,11 +6223,14 @@
       <c r="JD9" s="12">
         <v>6139</v>
       </c>
-      <c r="JE9" s="13">
+      <c r="JE9" s="12">
         <v>6206</v>
       </c>
+      <c r="JF9" s="13">
+        <v>6208</v>
+      </c>
     </row>
-    <row r="10" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7005,11 +7023,14 @@
       <c r="JD10" s="12">
         <v>14683</v>
       </c>
-      <c r="JE10" s="13">
+      <c r="JE10" s="12">
         <v>14778</v>
       </c>
+      <c r="JF10" s="13">
+        <v>14805</v>
+      </c>
     </row>
-    <row r="11" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7802,11 +7823,14 @@
       <c r="JD11" s="12">
         <v>41443</v>
       </c>
-      <c r="JE11" s="13">
+      <c r="JE11" s="12">
         <v>41777</v>
       </c>
+      <c r="JF11" s="13">
+        <v>42026</v>
+      </c>
     </row>
-    <row r="12" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8599,11 +8623,14 @@
       <c r="JD12" s="12">
         <v>122640</v>
       </c>
-      <c r="JE12" s="13">
+      <c r="JE12" s="12">
         <v>124086</v>
       </c>
+      <c r="JF12" s="13">
+        <v>124614</v>
+      </c>
     </row>
-    <row r="13" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9396,11 +9423,14 @@
       <c r="JD13" s="12">
         <v>35290</v>
       </c>
-      <c r="JE13" s="13">
+      <c r="JE13" s="12">
         <v>35420</v>
       </c>
+      <c r="JF13" s="13">
+        <v>35640</v>
+      </c>
     </row>
-    <row r="14" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10193,11 +10223,14 @@
       <c r="JD14" s="12">
         <v>11279</v>
       </c>
-      <c r="JE14" s="13">
+      <c r="JE14" s="12">
         <v>11339</v>
       </c>
+      <c r="JF14" s="13">
+        <v>11417</v>
+      </c>
     </row>
-    <row r="15" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -10990,11 +11023,14 @@
       <c r="JD15" s="12">
         <v>14584</v>
       </c>
-      <c r="JE15" s="13">
+      <c r="JE15" s="12">
         <v>14612</v>
       </c>
+      <c r="JF15" s="13">
+        <v>14658</v>
+      </c>
     </row>
-    <row r="16" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11787,11 +11823,14 @@
       <c r="JD16" s="12">
         <v>75223</v>
       </c>
-      <c r="JE16" s="13">
+      <c r="JE16" s="12">
         <v>76166</v>
       </c>
+      <c r="JF16" s="13">
+        <v>76825</v>
+      </c>
     </row>
-    <row r="17" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12584,11 +12623,14 @@
       <c r="JD17" s="12">
         <v>48978</v>
       </c>
-      <c r="JE17" s="13">
+      <c r="JE17" s="12">
         <v>49169</v>
       </c>
+      <c r="JF17" s="13">
+        <v>49324</v>
+      </c>
     </row>
-    <row r="18" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13381,11 +13423,14 @@
       <c r="JD18" s="12">
         <v>13765</v>
       </c>
-      <c r="JE18" s="13">
+      <c r="JE18" s="12">
         <v>13745</v>
       </c>
+      <c r="JF18" s="13">
+        <v>13754</v>
+      </c>
     </row>
-    <row r="19" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14178,11 +14223,14 @@
       <c r="JD19" s="12">
         <v>15814</v>
       </c>
-      <c r="JE19" s="13">
+      <c r="JE19" s="12">
         <v>15889</v>
       </c>
+      <c r="JF19" s="13">
+        <v>15993</v>
+      </c>
     </row>
-    <row r="20" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -14975,11 +15023,14 @@
       <c r="JD20" s="26">
         <v>101796</v>
       </c>
-      <c r="JE20" s="27">
+      <c r="JE20" s="26">
         <v>102475</v>
       </c>
+      <c r="JF20" s="27">
+        <v>102866</v>
+      </c>
     </row>
-    <row r="21" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15772,11 +15823,14 @@
       <c r="JD21" s="12">
         <v>36908</v>
       </c>
-      <c r="JE21" s="13">
+      <c r="JE21" s="12">
         <v>37019</v>
       </c>
+      <c r="JF21" s="13">
+        <v>37053</v>
+      </c>
     </row>
-    <row r="22" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16569,11 +16623,14 @@
       <c r="JD22" s="12">
         <v>12437</v>
       </c>
-      <c r="JE22" s="13">
+      <c r="JE22" s="12">
         <v>12516</v>
       </c>
+      <c r="JF22" s="13">
+        <v>12560</v>
+      </c>
     </row>
-    <row r="23" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17366,11 +17423,14 @@
       <c r="JD23" s="12">
         <v>13376</v>
       </c>
-      <c r="JE23" s="13">
+      <c r="JE23" s="12">
         <v>13478</v>
       </c>
+      <c r="JF23" s="13">
+        <v>13541</v>
+      </c>
     </row>
-    <row r="24" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18163,11 +18223,14 @@
       <c r="JD24" s="12">
         <v>73017</v>
       </c>
-      <c r="JE24" s="13">
+      <c r="JE24" s="12">
         <v>74025</v>
       </c>
+      <c r="JF24" s="13">
+        <v>74370</v>
+      </c>
     </row>
-    <row r="25" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -18960,11 +19023,14 @@
       <c r="JD25" s="12">
         <v>14286</v>
       </c>
-      <c r="JE25" s="13">
+      <c r="JE25" s="12">
         <v>14322</v>
       </c>
+      <c r="JF25" s="13">
+        <v>14433</v>
+      </c>
     </row>
-    <row r="26" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19757,11 +19823,14 @@
       <c r="JD26" s="12">
         <v>33954</v>
       </c>
-      <c r="JE26" s="13">
+      <c r="JE26" s="12">
         <v>34133</v>
       </c>
+      <c r="JF26" s="13">
+        <v>34280</v>
+      </c>
     </row>
-    <row r="27" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20554,11 +20623,14 @@
       <c r="JD27" s="12">
         <v>27761</v>
       </c>
-      <c r="JE27" s="13">
+      <c r="JE27" s="12">
         <v>28158</v>
       </c>
+      <c r="JF27" s="13">
+        <v>28379</v>
+      </c>
     </row>
-    <row r="28" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21351,11 +21423,14 @@
       <c r="JD28" s="12">
         <v>18458</v>
       </c>
-      <c r="JE28" s="13">
+      <c r="JE28" s="12">
         <v>18704</v>
       </c>
+      <c r="JF28" s="13">
+        <v>19036</v>
+      </c>
     </row>
-    <row r="29" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22148,11 +22223,14 @@
       <c r="JD29" s="12">
         <v>23505</v>
       </c>
-      <c r="JE29" s="13">
+      <c r="JE29" s="12">
         <v>23622</v>
       </c>
+      <c r="JF29" s="13">
+        <v>23752</v>
+      </c>
     </row>
-    <row r="30" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -22945,11 +23023,14 @@
       <c r="JD30" s="12">
         <v>42434</v>
       </c>
-      <c r="JE30" s="13">
+      <c r="JE30" s="12">
         <v>42665</v>
       </c>
+      <c r="JF30" s="13">
+        <v>42810</v>
+      </c>
     </row>
-    <row r="31" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23742,11 +23823,14 @@
       <c r="JD31" s="12">
         <v>38969</v>
       </c>
-      <c r="JE31" s="13">
+      <c r="JE31" s="12">
         <v>39166</v>
       </c>
+      <c r="JF31" s="13">
+        <v>39220</v>
+      </c>
     </row>
-    <row r="32" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24539,11 +24623,14 @@
       <c r="JD32" s="12">
         <v>11358</v>
       </c>
-      <c r="JE32" s="13">
+      <c r="JE32" s="12">
         <v>11405</v>
       </c>
+      <c r="JF32" s="13">
+        <v>11457</v>
+      </c>
     </row>
-    <row r="33" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25336,11 +25423,14 @@
       <c r="JD33" s="12">
         <v>34614</v>
       </c>
-      <c r="JE33" s="13">
+      <c r="JE33" s="12">
         <v>34741</v>
       </c>
+      <c r="JF33" s="13">
+        <v>34913</v>
+      </c>
     </row>
-    <row r="34" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26133,11 +26223,14 @@
       <c r="JD34" s="12">
         <v>5343</v>
       </c>
-      <c r="JE34" s="13">
+      <c r="JE34" s="12">
         <v>5367</v>
       </c>
+      <c r="JF34" s="13">
+        <v>5403</v>
+      </c>
     </row>
-    <row r="35" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -26930,11 +27023,14 @@
       <c r="JD35" s="12">
         <v>44079</v>
       </c>
-      <c r="JE35" s="13">
+      <c r="JE35" s="12">
         <v>44117</v>
       </c>
+      <c r="JF35" s="13">
+        <v>44292</v>
+      </c>
     </row>
-    <row r="36" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27727,11 +27823,14 @@
       <c r="JD36" s="12">
         <v>20382</v>
       </c>
-      <c r="JE36" s="13">
+      <c r="JE36" s="12">
         <v>20574</v>
       </c>
+      <c r="JF36" s="13">
+        <v>20660</v>
+      </c>
     </row>
-    <row r="37" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28524,11 +28623,14 @@
       <c r="JD37" s="19">
         <v>12067</v>
       </c>
-      <c r="JE37" s="33">
+      <c r="JE37" s="19">
         <v>12087</v>
       </c>
+      <c r="JF37" s="33">
+        <v>12110</v>
+      </c>
     </row>
-    <row r="38" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29321,11 +29423,14 @@
       <c r="JD38" s="35">
         <v>1038286</v>
       </c>
-      <c r="JE38" s="36">
+      <c r="JE38" s="35">
         <v>1046340</v>
       </c>
+      <c r="JF38" s="36">
+        <v>1051619</v>
+      </c>
     </row>
-    <row r="40" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1249,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JF40"/>
+  <dimension ref="A1:JG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JJ9" sqref="JJ9"/>
+      <pane xSplit="1" topLeftCell="IK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JG6" sqref="JG6:JG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +1412,10 @@
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
-    <col min="262" max="266" width="11.42578125" style="7"/>
+    <col min="262" max="267" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1423,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1431,8 +1431,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:266" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:267" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>26</v>
       </c>
@@ -2228,11 +2228,14 @@
       <c r="JE4" s="21">
         <v>2021</v>
       </c>
-      <c r="JF4" s="32">
+      <c r="JF4" s="21">
         <v>2021</v>
       </c>
+      <c r="JG4" s="32">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3026,11 +3029,14 @@
       <c r="JE5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="JF5" s="30" t="s">
+      <c r="JF5" s="29" t="s">
         <v>38</v>
       </c>
+      <c r="JG5" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3826,11 +3832,14 @@
       <c r="JE6" s="3">
         <v>16724</v>
       </c>
-      <c r="JF6" s="31">
+      <c r="JF6" s="3">
         <v>16788</v>
       </c>
+      <c r="JG6" s="31">
+        <v>16770</v>
+      </c>
     </row>
-    <row r="7" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4626,11 +4635,14 @@
       <c r="JE7" s="12">
         <v>44193</v>
       </c>
-      <c r="JF7" s="13">
+      <c r="JF7" s="12">
         <v>44527</v>
       </c>
+      <c r="JG7" s="13">
+        <v>44564</v>
+      </c>
     </row>
-    <row r="8" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5426,11 +5438,14 @@
       <c r="JE8" s="12">
         <v>13662</v>
       </c>
-      <c r="JF8" s="13">
+      <c r="JF8" s="12">
         <v>13905</v>
       </c>
+      <c r="JG8" s="13">
+        <v>13977</v>
+      </c>
     </row>
-    <row r="9" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6226,11 +6241,14 @@
       <c r="JE9" s="12">
         <v>6206</v>
       </c>
-      <c r="JF9" s="13">
+      <c r="JF9" s="12">
         <v>6208</v>
       </c>
+      <c r="JG9" s="13">
+        <v>6232</v>
+      </c>
     </row>
-    <row r="10" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7026,11 +7044,14 @@
       <c r="JE10" s="12">
         <v>14778</v>
       </c>
-      <c r="JF10" s="13">
+      <c r="JF10" s="12">
         <v>14805</v>
       </c>
+      <c r="JG10" s="13">
+        <v>14864</v>
+      </c>
     </row>
-    <row r="11" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7826,11 +7847,14 @@
       <c r="JE11" s="12">
         <v>41777</v>
       </c>
-      <c r="JF11" s="13">
+      <c r="JF11" s="12">
         <v>42026</v>
       </c>
+      <c r="JG11" s="13">
+        <v>42209</v>
+      </c>
     </row>
-    <row r="12" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8626,11 +8650,14 @@
       <c r="JE12" s="12">
         <v>124086</v>
       </c>
-      <c r="JF12" s="13">
+      <c r="JF12" s="12">
         <v>124614</v>
       </c>
+      <c r="JG12" s="13">
+        <v>125176</v>
+      </c>
     </row>
-    <row r="13" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9426,11 +9453,14 @@
       <c r="JE13" s="12">
         <v>35420</v>
       </c>
-      <c r="JF13" s="13">
+      <c r="JF13" s="12">
         <v>35640</v>
       </c>
+      <c r="JG13" s="13">
+        <v>35712</v>
+      </c>
     </row>
-    <row r="14" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10226,11 +10256,14 @@
       <c r="JE14" s="12">
         <v>11339</v>
       </c>
-      <c r="JF14" s="13">
+      <c r="JF14" s="12">
         <v>11417</v>
       </c>
+      <c r="JG14" s="13">
+        <v>11421</v>
+      </c>
     </row>
-    <row r="15" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11026,11 +11059,14 @@
       <c r="JE15" s="12">
         <v>14612</v>
       </c>
-      <c r="JF15" s="13">
+      <c r="JF15" s="12">
         <v>14658</v>
       </c>
+      <c r="JG15" s="13">
+        <v>14686</v>
+      </c>
     </row>
-    <row r="16" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11826,11 +11862,14 @@
       <c r="JE16" s="12">
         <v>76166</v>
       </c>
-      <c r="JF16" s="13">
+      <c r="JF16" s="12">
         <v>76825</v>
       </c>
+      <c r="JG16" s="13">
+        <v>126418</v>
+      </c>
     </row>
-    <row r="17" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12626,11 +12665,14 @@
       <c r="JE17" s="12">
         <v>49169</v>
       </c>
-      <c r="JF17" s="13">
+      <c r="JF17" s="12">
         <v>49324</v>
       </c>
+      <c r="JG17" s="13">
+        <v>49490</v>
+      </c>
     </row>
-    <row r="18" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13426,11 +13468,14 @@
       <c r="JE18" s="12">
         <v>13745</v>
       </c>
-      <c r="JF18" s="13">
+      <c r="JF18" s="12">
         <v>13754</v>
       </c>
+      <c r="JG18" s="13">
+        <v>13739</v>
+      </c>
     </row>
-    <row r="19" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14226,11 +14271,14 @@
       <c r="JE19" s="12">
         <v>15889</v>
       </c>
-      <c r="JF19" s="13">
+      <c r="JF19" s="12">
         <v>15993</v>
       </c>
+      <c r="JG19" s="13">
+        <v>16050</v>
+      </c>
     </row>
-    <row r="20" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15026,11 +15074,14 @@
       <c r="JE20" s="26">
         <v>102475</v>
       </c>
-      <c r="JF20" s="27">
+      <c r="JF20" s="26">
         <v>102866</v>
       </c>
+      <c r="JG20" s="27">
+        <v>103172</v>
+      </c>
     </row>
-    <row r="21" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15826,11 +15877,14 @@
       <c r="JE21" s="12">
         <v>37019</v>
       </c>
-      <c r="JF21" s="13">
+      <c r="JF21" s="12">
         <v>37053</v>
       </c>
+      <c r="JG21" s="13">
+        <v>37101</v>
+      </c>
     </row>
-    <row r="22" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16626,11 +16680,14 @@
       <c r="JE22" s="12">
         <v>12516</v>
       </c>
-      <c r="JF22" s="13">
+      <c r="JF22" s="12">
         <v>12560</v>
       </c>
+      <c r="JG22" s="13">
+        <v>12612</v>
+      </c>
     </row>
-    <row r="23" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17426,11 +17483,14 @@
       <c r="JE23" s="12">
         <v>13478</v>
       </c>
-      <c r="JF23" s="13">
+      <c r="JF23" s="12">
         <v>13541</v>
       </c>
+      <c r="JG23" s="13">
+        <v>13569</v>
+      </c>
     </row>
-    <row r="24" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18226,11 +18286,14 @@
       <c r="JE24" s="12">
         <v>74025</v>
       </c>
-      <c r="JF24" s="13">
+      <c r="JF24" s="12">
         <v>74370</v>
       </c>
+      <c r="JG24" s="13">
+        <v>74878</v>
+      </c>
     </row>
-    <row r="25" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19026,11 +19089,14 @@
       <c r="JE25" s="12">
         <v>14322</v>
       </c>
-      <c r="JF25" s="13">
+      <c r="JF25" s="12">
         <v>14433</v>
       </c>
+      <c r="JG25" s="13">
+        <v>14443</v>
+      </c>
     </row>
-    <row r="26" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19826,11 +19892,14 @@
       <c r="JE26" s="12">
         <v>34133</v>
       </c>
-      <c r="JF26" s="13">
+      <c r="JF26" s="12">
         <v>34280</v>
       </c>
+      <c r="JG26" s="13">
+        <v>34485</v>
+      </c>
     </row>
-    <row r="27" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20626,11 +20695,14 @@
       <c r="JE27" s="12">
         <v>28158</v>
       </c>
-      <c r="JF27" s="13">
+      <c r="JF27" s="12">
         <v>28379</v>
       </c>
+      <c r="JG27" s="13">
+        <v>28561</v>
+      </c>
     </row>
-    <row r="28" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21426,11 +21498,14 @@
       <c r="JE28" s="12">
         <v>18704</v>
       </c>
-      <c r="JF28" s="13">
+      <c r="JF28" s="12">
         <v>19036</v>
       </c>
+      <c r="JG28" s="13">
+        <v>19219</v>
+      </c>
     </row>
-    <row r="29" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22226,11 +22301,14 @@
       <c r="JE29" s="12">
         <v>23622</v>
       </c>
-      <c r="JF29" s="13">
+      <c r="JF29" s="12">
         <v>23752</v>
       </c>
+      <c r="JG29" s="13">
+        <v>23778</v>
+      </c>
     </row>
-    <row r="30" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23026,11 +23104,14 @@
       <c r="JE30" s="12">
         <v>42665</v>
       </c>
-      <c r="JF30" s="13">
+      <c r="JF30" s="12">
         <v>42810</v>
       </c>
+      <c r="JG30" s="13">
+        <v>42879</v>
+      </c>
     </row>
-    <row r="31" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23826,11 +23907,14 @@
       <c r="JE31" s="12">
         <v>39166</v>
       </c>
-      <c r="JF31" s="13">
+      <c r="JF31" s="12">
         <v>39220</v>
       </c>
+      <c r="JG31" s="13">
+        <v>39233</v>
+      </c>
     </row>
-    <row r="32" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24626,11 +24710,14 @@
       <c r="JE32" s="12">
         <v>11405</v>
       </c>
-      <c r="JF32" s="13">
+      <c r="JF32" s="12">
         <v>11457</v>
       </c>
+      <c r="JG32" s="13">
+        <v>11461</v>
+      </c>
     </row>
-    <row r="33" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25426,11 +25513,14 @@
       <c r="JE33" s="12">
         <v>34741</v>
       </c>
-      <c r="JF33" s="13">
+      <c r="JF33" s="12">
         <v>34913</v>
       </c>
+      <c r="JG33" s="13">
+        <v>34872</v>
+      </c>
     </row>
-    <row r="34" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26226,11 +26316,14 @@
       <c r="JE34" s="12">
         <v>5367</v>
       </c>
-      <c r="JF34" s="13">
+      <c r="JF34" s="12">
         <v>5403</v>
       </c>
+      <c r="JG34" s="13">
+        <v>5453</v>
+      </c>
     </row>
-    <row r="35" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27026,11 +27119,14 @@
       <c r="JE35" s="12">
         <v>44117</v>
       </c>
-      <c r="JF35" s="13">
+      <c r="JF35" s="12">
         <v>44292</v>
       </c>
+      <c r="JG35" s="13">
+        <v>44225</v>
+      </c>
     </row>
-    <row r="36" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27826,11 +27922,14 @@
       <c r="JE36" s="12">
         <v>20574</v>
       </c>
-      <c r="JF36" s="13">
+      <c r="JF36" s="12">
         <v>20660</v>
       </c>
+      <c r="JG36" s="13">
+        <v>20780</v>
+      </c>
     </row>
-    <row r="37" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28626,11 +28725,14 @@
       <c r="JE37" s="19">
         <v>12087</v>
       </c>
-      <c r="JF37" s="33">
+      <c r="JF37" s="19">
         <v>12110</v>
       </c>
+      <c r="JG37" s="33">
+        <v>12049</v>
+      </c>
     </row>
-    <row r="38" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29426,11 +29528,14 @@
       <c r="JE38" s="35">
         <v>1046340</v>
       </c>
-      <c r="JF38" s="36">
+      <c r="JF38" s="35">
         <v>1051619</v>
       </c>
+      <c r="JG38" s="36">
+        <v>1104078</v>
+      </c>
     </row>
-    <row r="40" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -768,28 +768,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -838,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -890,17 +868,13 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1249,11 +1223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG40"/>
+  <dimension ref="A1:JH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JG6" sqref="JG6:JG38"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JM14" sqref="JM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +1386,10 @@
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
-    <col min="262" max="267" width="11.42578125" style="7"/>
+    <col min="262" max="268" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1423,7 +1397,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1431,9 +1405,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:267" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="3" spans="1:268" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2231,12 +2205,15 @@
       <c r="JF4" s="21">
         <v>2021</v>
       </c>
-      <c r="JG4" s="32">
+      <c r="JG4" s="21">
         <v>2021</v>
       </c>
+      <c r="JH4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3032,11 +3009,14 @@
       <c r="JF5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="JG5" s="30" t="s">
+      <c r="JG5" s="29" t="s">
         <v>39</v>
       </c>
+      <c r="JH5" s="30" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3805,41 +3785,44 @@
       <c r="IV6" s="12">
         <v>16017</v>
       </c>
-      <c r="IW6" s="2">
+      <c r="IW6" s="11">
         <v>16040</v>
       </c>
-      <c r="IX6" s="3">
+      <c r="IX6" s="12">
         <v>16087</v>
       </c>
-      <c r="IY6" s="3">
+      <c r="IY6" s="12">
         <v>16126</v>
       </c>
-      <c r="IZ6" s="3">
+      <c r="IZ6" s="12">
         <v>16189</v>
       </c>
-      <c r="JA6" s="3">
+      <c r="JA6" s="12">
         <v>16211</v>
       </c>
-      <c r="JB6" s="3">
+      <c r="JB6" s="12">
         <v>16255</v>
       </c>
-      <c r="JC6" s="3">
+      <c r="JC6" s="12">
         <v>16473</v>
       </c>
-      <c r="JD6" s="3">
+      <c r="JD6" s="12">
         <v>16597</v>
       </c>
-      <c r="JE6" s="3">
+      <c r="JE6" s="12">
         <v>16724</v>
       </c>
-      <c r="JF6" s="3">
+      <c r="JF6" s="12">
         <v>16788</v>
       </c>
-      <c r="JG6" s="31">
+      <c r="JG6" s="12">
         <v>16770</v>
       </c>
+      <c r="JH6" s="13">
+        <v>16746</v>
+      </c>
     </row>
-    <row r="7" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4638,11 +4621,14 @@
       <c r="JF7" s="12">
         <v>44527</v>
       </c>
-      <c r="JG7" s="13">
+      <c r="JG7" s="12">
         <v>44564</v>
       </c>
+      <c r="JH7" s="13">
+        <v>44540</v>
+      </c>
     </row>
-    <row r="8" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5441,11 +5427,14 @@
       <c r="JF8" s="12">
         <v>13905</v>
       </c>
-      <c r="JG8" s="13">
+      <c r="JG8" s="12">
         <v>13977</v>
       </c>
+      <c r="JH8" s="13">
+        <v>13964</v>
+      </c>
     </row>
-    <row r="9" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6244,11 +6233,14 @@
       <c r="JF9" s="12">
         <v>6208</v>
       </c>
-      <c r="JG9" s="13">
+      <c r="JG9" s="12">
         <v>6232</v>
       </c>
+      <c r="JH9" s="13">
+        <v>6254</v>
+      </c>
     </row>
-    <row r="10" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7047,11 +7039,14 @@
       <c r="JF10" s="12">
         <v>14805</v>
       </c>
-      <c r="JG10" s="13">
+      <c r="JG10" s="12">
         <v>14864</v>
       </c>
+      <c r="JH10" s="13">
+        <v>14789</v>
+      </c>
     </row>
-    <row r="11" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7850,11 +7845,14 @@
       <c r="JF11" s="12">
         <v>42026</v>
       </c>
-      <c r="JG11" s="13">
+      <c r="JG11" s="12">
         <v>42209</v>
       </c>
+      <c r="JH11" s="13">
+        <v>42167</v>
+      </c>
     </row>
-    <row r="12" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8653,11 +8651,14 @@
       <c r="JF12" s="12">
         <v>124614</v>
       </c>
-      <c r="JG12" s="13">
+      <c r="JG12" s="12">
         <v>125176</v>
       </c>
+      <c r="JH12" s="13">
+        <v>125199</v>
+      </c>
     </row>
-    <row r="13" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9456,11 +9457,14 @@
       <c r="JF13" s="12">
         <v>35640</v>
       </c>
-      <c r="JG13" s="13">
+      <c r="JG13" s="12">
         <v>35712</v>
       </c>
+      <c r="JH13" s="13">
+        <v>35642</v>
+      </c>
     </row>
-    <row r="14" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10259,11 +10263,14 @@
       <c r="JF14" s="12">
         <v>11417</v>
       </c>
-      <c r="JG14" s="13">
+      <c r="JG14" s="12">
         <v>11421</v>
       </c>
+      <c r="JH14" s="13">
+        <v>11397</v>
+      </c>
     </row>
-    <row r="15" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11062,11 +11069,14 @@
       <c r="JF15" s="12">
         <v>14658</v>
       </c>
-      <c r="JG15" s="13">
+      <c r="JG15" s="12">
         <v>14686</v>
       </c>
+      <c r="JH15" s="13">
+        <v>14609</v>
+      </c>
     </row>
-    <row r="16" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11865,11 +11875,14 @@
       <c r="JF16" s="12">
         <v>76825</v>
       </c>
-      <c r="JG16" s="13">
+      <c r="JG16" s="12">
         <v>126418</v>
       </c>
+      <c r="JH16" s="13">
+        <v>77044</v>
+      </c>
     </row>
-    <row r="17" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12668,11 +12681,14 @@
       <c r="JF17" s="12">
         <v>49324</v>
       </c>
-      <c r="JG17" s="13">
+      <c r="JG17" s="12">
         <v>49490</v>
       </c>
+      <c r="JH17" s="13">
+        <v>49358</v>
+      </c>
     </row>
-    <row r="18" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13471,11 +13487,14 @@
       <c r="JF18" s="12">
         <v>13754</v>
       </c>
-      <c r="JG18" s="13">
+      <c r="JG18" s="12">
         <v>13739</v>
       </c>
+      <c r="JH18" s="13">
+        <v>13674</v>
+      </c>
     </row>
-    <row r="19" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14274,11 +14293,14 @@
       <c r="JF19" s="12">
         <v>15993</v>
       </c>
-      <c r="JG19" s="13">
+      <c r="JG19" s="12">
         <v>16050</v>
       </c>
+      <c r="JH19" s="13">
+        <v>15980</v>
+      </c>
     </row>
-    <row r="20" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15077,11 +15099,14 @@
       <c r="JF20" s="26">
         <v>102866</v>
       </c>
-      <c r="JG20" s="27">
+      <c r="JG20" s="26">
         <v>103172</v>
       </c>
+      <c r="JH20" s="27">
+        <v>103251</v>
+      </c>
     </row>
-    <row r="21" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15880,11 +15905,14 @@
       <c r="JF21" s="12">
         <v>37053</v>
       </c>
-      <c r="JG21" s="13">
+      <c r="JG21" s="12">
         <v>37101</v>
       </c>
+      <c r="JH21" s="13">
+        <v>37104</v>
+      </c>
     </row>
-    <row r="22" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16683,11 +16711,14 @@
       <c r="JF22" s="12">
         <v>12560</v>
       </c>
-      <c r="JG22" s="13">
+      <c r="JG22" s="12">
         <v>12612</v>
       </c>
+      <c r="JH22" s="13">
+        <v>12579</v>
+      </c>
     </row>
-    <row r="23" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17486,11 +17517,14 @@
       <c r="JF23" s="12">
         <v>13541</v>
       </c>
-      <c r="JG23" s="13">
+      <c r="JG23" s="12">
         <v>13569</v>
       </c>
+      <c r="JH23" s="13">
+        <v>13590</v>
+      </c>
     </row>
-    <row r="24" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18289,11 +18323,14 @@
       <c r="JF24" s="12">
         <v>74370</v>
       </c>
-      <c r="JG24" s="13">
+      <c r="JG24" s="12">
         <v>74878</v>
       </c>
+      <c r="JH24" s="13">
+        <v>74823</v>
+      </c>
     </row>
-    <row r="25" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19092,11 +19129,14 @@
       <c r="JF25" s="12">
         <v>14433</v>
       </c>
-      <c r="JG25" s="13">
+      <c r="JG25" s="12">
         <v>14443</v>
       </c>
+      <c r="JH25" s="13">
+        <v>14401</v>
+      </c>
     </row>
-    <row r="26" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19895,11 +19935,14 @@
       <c r="JF26" s="12">
         <v>34280</v>
       </c>
-      <c r="JG26" s="13">
+      <c r="JG26" s="12">
         <v>34485</v>
       </c>
+      <c r="JH26" s="13">
+        <v>34423</v>
+      </c>
     </row>
-    <row r="27" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20698,11 +20741,14 @@
       <c r="JF27" s="12">
         <v>28379</v>
       </c>
-      <c r="JG27" s="13">
+      <c r="JG27" s="12">
         <v>28561</v>
       </c>
+      <c r="JH27" s="13">
+        <v>28507</v>
+      </c>
     </row>
-    <row r="28" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21501,11 +21547,14 @@
       <c r="JF28" s="12">
         <v>19036</v>
       </c>
-      <c r="JG28" s="13">
+      <c r="JG28" s="12">
         <v>19219</v>
       </c>
+      <c r="JH28" s="13">
+        <v>19275</v>
+      </c>
     </row>
-    <row r="29" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22304,11 +22353,14 @@
       <c r="JF29" s="12">
         <v>23752</v>
       </c>
-      <c r="JG29" s="13">
+      <c r="JG29" s="12">
         <v>23778</v>
       </c>
+      <c r="JH29" s="13">
+        <v>23707</v>
+      </c>
     </row>
-    <row r="30" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23107,11 +23159,14 @@
       <c r="JF30" s="12">
         <v>42810</v>
       </c>
-      <c r="JG30" s="13">
+      <c r="JG30" s="12">
         <v>42879</v>
       </c>
+      <c r="JH30" s="13">
+        <v>42868</v>
+      </c>
     </row>
-    <row r="31" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23910,11 +23965,14 @@
       <c r="JF31" s="12">
         <v>39220</v>
       </c>
-      <c r="JG31" s="13">
+      <c r="JG31" s="12">
         <v>39233</v>
       </c>
+      <c r="JH31" s="13">
+        <v>39139</v>
+      </c>
     </row>
-    <row r="32" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24713,11 +24771,14 @@
       <c r="JF32" s="12">
         <v>11457</v>
       </c>
-      <c r="JG32" s="13">
+      <c r="JG32" s="12">
         <v>11461</v>
       </c>
+      <c r="JH32" s="13">
+        <v>11432</v>
+      </c>
     </row>
-    <row r="33" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25516,11 +25577,14 @@
       <c r="JF33" s="12">
         <v>34913</v>
       </c>
-      <c r="JG33" s="13">
+      <c r="JG33" s="12">
         <v>34872</v>
       </c>
+      <c r="JH33" s="13">
+        <v>34785</v>
+      </c>
     </row>
-    <row r="34" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26319,11 +26383,14 @@
       <c r="JF34" s="12">
         <v>5403</v>
       </c>
-      <c r="JG34" s="13">
+      <c r="JG34" s="12">
         <v>5453</v>
       </c>
+      <c r="JH34" s="13">
+        <v>5466</v>
+      </c>
     </row>
-    <row r="35" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27122,11 +27189,14 @@
       <c r="JF35" s="12">
         <v>44292</v>
       </c>
-      <c r="JG35" s="13">
+      <c r="JG35" s="12">
         <v>44225</v>
       </c>
+      <c r="JH35" s="13">
+        <v>44116</v>
+      </c>
     </row>
-    <row r="36" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -27925,11 +27995,14 @@
       <c r="JF36" s="12">
         <v>20660</v>
       </c>
-      <c r="JG36" s="13">
+      <c r="JG36" s="12">
         <v>20780</v>
       </c>
+      <c r="JH36" s="13">
+        <v>20773</v>
+      </c>
     </row>
-    <row r="37" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28698,41 +28771,44 @@
       <c r="IV37" s="12">
         <v>11771</v>
       </c>
-      <c r="IW37" s="18">
+      <c r="IW37" s="11">
         <v>11710</v>
       </c>
-      <c r="IX37" s="19">
+      <c r="IX37" s="12">
         <v>11770</v>
       </c>
-      <c r="IY37" s="19">
+      <c r="IY37" s="12">
         <v>11794</v>
       </c>
-      <c r="IZ37" s="19">
+      <c r="IZ37" s="12">
         <v>11847</v>
       </c>
-      <c r="JA37" s="19">
+      <c r="JA37" s="12">
         <v>11869</v>
       </c>
-      <c r="JB37" s="19">
+      <c r="JB37" s="12">
         <v>11919</v>
       </c>
-      <c r="JC37" s="19">
+      <c r="JC37" s="12">
         <v>12017</v>
       </c>
-      <c r="JD37" s="19">
+      <c r="JD37" s="12">
         <v>12067</v>
       </c>
-      <c r="JE37" s="19">
+      <c r="JE37" s="12">
         <v>12087</v>
       </c>
-      <c r="JF37" s="19">
+      <c r="JF37" s="12">
         <v>12110</v>
       </c>
-      <c r="JG37" s="33">
+      <c r="JG37" s="12">
         <v>12049</v>
       </c>
+      <c r="JH37" s="13">
+        <v>12068</v>
+      </c>
     </row>
-    <row r="38" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29501,41 +29577,44 @@
       <c r="IV38" s="10">
         <v>1000414</v>
       </c>
-      <c r="IW38" s="34">
+      <c r="IW38" s="14">
         <v>999042</v>
       </c>
-      <c r="IX38" s="35">
+      <c r="IX38" s="10">
         <v>1000910</v>
       </c>
-      <c r="IY38" s="35">
+      <c r="IY38" s="10">
         <v>1002537</v>
       </c>
-      <c r="IZ38" s="35">
+      <c r="IZ38" s="10">
         <v>1004265</v>
       </c>
-      <c r="JA38" s="35">
+      <c r="JA38" s="10">
         <v>1006374</v>
       </c>
-      <c r="JB38" s="35">
+      <c r="JB38" s="10">
         <v>1011974</v>
       </c>
-      <c r="JC38" s="35">
+      <c r="JC38" s="10">
         <v>1028757</v>
       </c>
-      <c r="JD38" s="35">
+      <c r="JD38" s="10">
         <v>1038286</v>
       </c>
-      <c r="JE38" s="35">
+      <c r="JE38" s="10">
         <v>1046340</v>
       </c>
-      <c r="JF38" s="35">
+      <c r="JF38" s="10">
         <v>1051619</v>
       </c>
-      <c r="JG38" s="36">
+      <c r="JG38" s="10">
         <v>1104078</v>
       </c>
+      <c r="JH38" s="33">
+        <v>1053670</v>
+      </c>
     </row>
-    <row r="40" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>1997-2021</t>
+    <t>Diciembre 1997-enero 2022</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -768,6 +768,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +829,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -871,10 +884,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,11 +1237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH40"/>
+  <dimension ref="A1:JI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JM14" sqref="JM14"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,9 +1401,10 @@
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
     <col min="262" max="268" width="11.42578125" style="7"/>
+    <col min="269" max="269" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1397,7 +1412,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1405,9 +1420,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:268" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="3" spans="1:269" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2211,9 +2226,12 @@
       <c r="JH4" s="31">
         <v>2021</v>
       </c>
+      <c r="JI4" s="20">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3015,8 +3033,11 @@
       <c r="JH5" s="30" t="s">
         <v>28</v>
       </c>
+      <c r="JI5" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3821,8 +3842,11 @@
       <c r="JH6" s="13">
         <v>16746</v>
       </c>
+      <c r="JI6" s="33">
+        <v>16734</v>
+      </c>
     </row>
-    <row r="7" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4627,8 +4651,11 @@
       <c r="JH7" s="13">
         <v>44540</v>
       </c>
+      <c r="JI7" s="4">
+        <v>44593</v>
+      </c>
     </row>
-    <row r="8" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5433,8 +5460,11 @@
       <c r="JH8" s="13">
         <v>13964</v>
       </c>
+      <c r="JI8" s="4">
+        <v>14006</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6239,8 +6269,11 @@
       <c r="JH9" s="13">
         <v>6254</v>
       </c>
+      <c r="JI9" s="4">
+        <v>6295</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7045,8 +7078,11 @@
       <c r="JH10" s="13">
         <v>14789</v>
       </c>
+      <c r="JI10" s="4">
+        <v>14753</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7851,8 +7887,11 @@
       <c r="JH11" s="13">
         <v>42167</v>
       </c>
+      <c r="JI11" s="4">
+        <v>42125</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8657,8 +8696,11 @@
       <c r="JH12" s="13">
         <v>125199</v>
       </c>
+      <c r="JI12" s="4">
+        <v>124898</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9463,8 +9505,11 @@
       <c r="JH13" s="13">
         <v>35642</v>
       </c>
+      <c r="JI13" s="4">
+        <v>35582</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10269,8 +10314,11 @@
       <c r="JH14" s="13">
         <v>11397</v>
       </c>
+      <c r="JI14" s="4">
+        <v>11363</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11075,8 +11123,11 @@
       <c r="JH15" s="13">
         <v>14609</v>
       </c>
+      <c r="JI15" s="4">
+        <v>14605</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11881,8 +11932,11 @@
       <c r="JH16" s="13">
         <v>77044</v>
       </c>
+      <c r="JI16" s="4">
+        <v>77149</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12687,8 +12741,11 @@
       <c r="JH17" s="13">
         <v>49358</v>
       </c>
+      <c r="JI17" s="4">
+        <v>49238</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13493,8 +13550,11 @@
       <c r="JH18" s="13">
         <v>13674</v>
       </c>
+      <c r="JI18" s="4">
+        <v>13586</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14299,8 +14359,11 @@
       <c r="JH19" s="13">
         <v>15980</v>
       </c>
+      <c r="JI19" s="4">
+        <v>15961</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15105,8 +15168,11 @@
       <c r="JH20" s="27">
         <v>103251</v>
       </c>
+      <c r="JI20" s="24">
+        <v>103200</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15911,8 +15977,11 @@
       <c r="JH21" s="13">
         <v>37104</v>
       </c>
+      <c r="JI21" s="4">
+        <v>36985</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16717,8 +16786,11 @@
       <c r="JH22" s="13">
         <v>12579</v>
       </c>
+      <c r="JI22" s="4">
+        <v>12565</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17523,8 +17595,11 @@
       <c r="JH23" s="13">
         <v>13590</v>
       </c>
+      <c r="JI23" s="4">
+        <v>13588</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18329,8 +18404,11 @@
       <c r="JH24" s="13">
         <v>74823</v>
       </c>
+      <c r="JI24" s="4">
+        <v>74930</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19135,8 +19213,11 @@
       <c r="JH25" s="13">
         <v>14401</v>
       </c>
+      <c r="JI25" s="4">
+        <v>14299</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -19941,8 +20022,11 @@
       <c r="JH26" s="13">
         <v>34423</v>
       </c>
+      <c r="JI26" s="4">
+        <v>34468</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20747,8 +20831,11 @@
       <c r="JH27" s="13">
         <v>28507</v>
       </c>
+      <c r="JI27" s="4">
+        <v>28619</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21553,8 +21640,11 @@
       <c r="JH28" s="13">
         <v>19275</v>
       </c>
+      <c r="JI28" s="4">
+        <v>19462</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22359,8 +22449,11 @@
       <c r="JH29" s="13">
         <v>23707</v>
       </c>
+      <c r="JI29" s="4">
+        <v>23673</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23165,8 +23258,11 @@
       <c r="JH30" s="13">
         <v>42868</v>
       </c>
+      <c r="JI30" s="4">
+        <v>42858</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -23971,8 +24067,11 @@
       <c r="JH31" s="13">
         <v>39139</v>
       </c>
+      <c r="JI31" s="4">
+        <v>39129</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24777,8 +24876,11 @@
       <c r="JH32" s="13">
         <v>11432</v>
       </c>
+      <c r="JI32" s="4">
+        <v>11428</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25583,8 +25685,11 @@
       <c r="JH33" s="13">
         <v>34785</v>
       </c>
+      <c r="JI33" s="4">
+        <v>34764</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26389,8 +26494,11 @@
       <c r="JH34" s="13">
         <v>5466</v>
       </c>
+      <c r="JI34" s="4">
+        <v>5449</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27195,8 +27303,11 @@
       <c r="JH35" s="13">
         <v>44116</v>
       </c>
+      <c r="JI35" s="4">
+        <v>43912</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28001,8 +28112,11 @@
       <c r="JH36" s="13">
         <v>20773</v>
       </c>
+      <c r="JI36" s="4">
+        <v>20863</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28807,8 +28921,11 @@
       <c r="JH37" s="13">
         <v>12068</v>
       </c>
+      <c r="JI37" s="4">
+        <v>12015</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29610,11 +29727,14 @@
       <c r="JG38" s="10">
         <v>1104078</v>
       </c>
-      <c r="JH38" s="33">
+      <c r="JH38" s="32">
         <v>1053670</v>
       </c>
+      <c r="JI38" s="6">
+        <v>1053095</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-enero 2022</t>
+    <t>Diciembre 1997-febrero 2022</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -768,19 +768,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -878,16 +865,18 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1237,11 +1226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI40"/>
+  <dimension ref="A1:JJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="JM35" sqref="JM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,12 +1388,16 @@
     <col min="251" max="251" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
     <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="260" width="11.42578125" style="7" customWidth="1"/>
-    <col min="262" max="268" width="11.42578125" style="7"/>
-    <col min="269" max="269" width="11.42578125" style="7" customWidth="1"/>
+    <col min="255" max="256" width="11.42578125" style="7" customWidth="1"/>
+    <col min="257" max="257" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="260" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="264" max="268" width="11.42578125" style="7"/>
+    <col min="269" max="270" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1405,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1420,9 +1413,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:269" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="3" spans="1:270" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2223,15 +2216,18 @@
       <c r="JG4" s="21">
         <v>2021</v>
       </c>
-      <c r="JH4" s="31">
+      <c r="JH4" s="21">
         <v>2021</v>
       </c>
       <c r="JI4" s="20">
         <v>2022</v>
       </c>
+      <c r="JJ4" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3030,14 +3026,17 @@
       <c r="JG5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="JH5" s="30" t="s">
+      <c r="JH5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="JI5" s="28" t="s">
+      <c r="JI5" s="33" t="s">
         <v>29</v>
       </c>
+      <c r="JJ5" s="34" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3839,14 +3838,17 @@
       <c r="JG6" s="12">
         <v>16770</v>
       </c>
-      <c r="JH6" s="13">
+      <c r="JH6" s="12">
         <v>16746</v>
       </c>
-      <c r="JI6" s="33">
+      <c r="JI6" s="11">
         <v>16734</v>
       </c>
+      <c r="JJ6" s="13">
+        <v>16759</v>
+      </c>
     </row>
-    <row r="7" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4648,14 +4650,17 @@
       <c r="JG7" s="12">
         <v>44564</v>
       </c>
-      <c r="JH7" s="13">
+      <c r="JH7" s="12">
         <v>44540</v>
       </c>
-      <c r="JI7" s="4">
+      <c r="JI7" s="11">
         <v>44593</v>
       </c>
+      <c r="JJ7" s="13">
+        <v>44231</v>
+      </c>
     </row>
-    <row r="8" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5457,14 +5462,17 @@
       <c r="JG8" s="12">
         <v>13977</v>
       </c>
-      <c r="JH8" s="13">
+      <c r="JH8" s="12">
         <v>13964</v>
       </c>
-      <c r="JI8" s="4">
+      <c r="JI8" s="11">
         <v>14006</v>
       </c>
+      <c r="JJ8" s="13">
+        <v>14112</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6266,14 +6274,17 @@
       <c r="JG9" s="12">
         <v>6232</v>
       </c>
-      <c r="JH9" s="13">
+      <c r="JH9" s="12">
         <v>6254</v>
       </c>
-      <c r="JI9" s="4">
+      <c r="JI9" s="11">
         <v>6295</v>
       </c>
+      <c r="JJ9" s="13">
+        <v>6311</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7075,14 +7086,17 @@
       <c r="JG10" s="12">
         <v>14864</v>
       </c>
-      <c r="JH10" s="13">
+      <c r="JH10" s="12">
         <v>14789</v>
       </c>
-      <c r="JI10" s="4">
+      <c r="JI10" s="11">
         <v>14753</v>
       </c>
+      <c r="JJ10" s="13">
+        <v>14730</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7884,14 +7898,17 @@
       <c r="JG11" s="12">
         <v>42209</v>
       </c>
-      <c r="JH11" s="13">
+      <c r="JH11" s="12">
         <v>42167</v>
       </c>
-      <c r="JI11" s="4">
+      <c r="JI11" s="11">
         <v>42125</v>
       </c>
+      <c r="JJ11" s="13">
+        <v>42291</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8693,14 +8710,17 @@
       <c r="JG12" s="12">
         <v>125176</v>
       </c>
-      <c r="JH12" s="13">
+      <c r="JH12" s="12">
         <v>125199</v>
       </c>
-      <c r="JI12" s="4">
+      <c r="JI12" s="11">
         <v>124898</v>
       </c>
+      <c r="JJ12" s="13">
+        <v>125331</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9502,14 +9522,17 @@
       <c r="JG13" s="12">
         <v>35712</v>
       </c>
-      <c r="JH13" s="13">
+      <c r="JH13" s="12">
         <v>35642</v>
       </c>
-      <c r="JI13" s="4">
+      <c r="JI13" s="11">
         <v>35582</v>
       </c>
+      <c r="JJ13" s="13">
+        <v>35733</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10311,14 +10334,17 @@
       <c r="JG14" s="12">
         <v>11421</v>
       </c>
-      <c r="JH14" s="13">
+      <c r="JH14" s="12">
         <v>11397</v>
       </c>
-      <c r="JI14" s="4">
+      <c r="JI14" s="11">
         <v>11363</v>
       </c>
+      <c r="JJ14" s="13">
+        <v>11379</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11120,14 +11146,17 @@
       <c r="JG15" s="12">
         <v>14686</v>
       </c>
-      <c r="JH15" s="13">
+      <c r="JH15" s="12">
         <v>14609</v>
       </c>
-      <c r="JI15" s="4">
+      <c r="JI15" s="11">
         <v>14605</v>
       </c>
+      <c r="JJ15" s="13">
+        <v>14634</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11929,14 +11958,17 @@
       <c r="JG16" s="12">
         <v>126418</v>
       </c>
-      <c r="JH16" s="13">
+      <c r="JH16" s="12">
         <v>77044</v>
       </c>
-      <c r="JI16" s="4">
+      <c r="JI16" s="11">
         <v>77149</v>
       </c>
+      <c r="JJ16" s="13">
+        <v>77507</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12738,14 +12770,17 @@
       <c r="JG17" s="12">
         <v>49490</v>
       </c>
-      <c r="JH17" s="13">
+      <c r="JH17" s="12">
         <v>49358</v>
       </c>
-      <c r="JI17" s="4">
+      <c r="JI17" s="11">
         <v>49238</v>
       </c>
+      <c r="JJ17" s="13">
+        <v>49257</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13547,14 +13582,17 @@
       <c r="JG18" s="12">
         <v>13739</v>
       </c>
-      <c r="JH18" s="13">
+      <c r="JH18" s="12">
         <v>13674</v>
       </c>
-      <c r="JI18" s="4">
+      <c r="JI18" s="11">
         <v>13586</v>
       </c>
+      <c r="JJ18" s="13">
+        <v>13648</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14356,14 +14394,17 @@
       <c r="JG19" s="12">
         <v>16050</v>
       </c>
-      <c r="JH19" s="13">
+      <c r="JH19" s="12">
         <v>15980</v>
       </c>
-      <c r="JI19" s="4">
+      <c r="JI19" s="11">
         <v>15961</v>
       </c>
+      <c r="JJ19" s="13">
+        <v>16003</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15165,14 +15206,17 @@
       <c r="JG20" s="26">
         <v>103172</v>
       </c>
-      <c r="JH20" s="27">
+      <c r="JH20" s="26">
         <v>103251</v>
       </c>
-      <c r="JI20" s="24">
+      <c r="JI20" s="25">
         <v>103200</v>
       </c>
+      <c r="JJ20" s="27">
+        <v>103626</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -15974,14 +16018,17 @@
       <c r="JG21" s="12">
         <v>37101</v>
       </c>
-      <c r="JH21" s="13">
+      <c r="JH21" s="12">
         <v>37104</v>
       </c>
-      <c r="JI21" s="4">
+      <c r="JI21" s="11">
         <v>36985</v>
       </c>
+      <c r="JJ21" s="13">
+        <v>37036</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16783,14 +16830,17 @@
       <c r="JG22" s="12">
         <v>12612</v>
       </c>
-      <c r="JH22" s="13">
+      <c r="JH22" s="12">
         <v>12579</v>
       </c>
-      <c r="JI22" s="4">
+      <c r="JI22" s="11">
         <v>12565</v>
       </c>
+      <c r="JJ22" s="13">
+        <v>12597</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17592,14 +17642,17 @@
       <c r="JG23" s="12">
         <v>13569</v>
       </c>
-      <c r="JH23" s="13">
+      <c r="JH23" s="12">
         <v>13590</v>
       </c>
-      <c r="JI23" s="4">
+      <c r="JI23" s="11">
         <v>13588</v>
       </c>
+      <c r="JJ23" s="13">
+        <v>13626</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18401,14 +18454,17 @@
       <c r="JG24" s="12">
         <v>74878</v>
       </c>
-      <c r="JH24" s="13">
+      <c r="JH24" s="12">
         <v>74823</v>
       </c>
-      <c r="JI24" s="4">
+      <c r="JI24" s="11">
         <v>74930</v>
       </c>
+      <c r="JJ24" s="13">
+        <v>75221</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19210,14 +19266,17 @@
       <c r="JG25" s="12">
         <v>14443</v>
       </c>
-      <c r="JH25" s="13">
+      <c r="JH25" s="12">
         <v>14401</v>
       </c>
-      <c r="JI25" s="4">
+      <c r="JI25" s="11">
         <v>14299</v>
       </c>
+      <c r="JJ25" s="13">
+        <v>14330</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20019,14 +20078,17 @@
       <c r="JG26" s="12">
         <v>34485</v>
       </c>
-      <c r="JH26" s="13">
+      <c r="JH26" s="12">
         <v>34423</v>
       </c>
-      <c r="JI26" s="4">
+      <c r="JI26" s="11">
         <v>34468</v>
       </c>
+      <c r="JJ26" s="13">
+        <v>34612</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20828,14 +20890,17 @@
       <c r="JG27" s="12">
         <v>28561</v>
       </c>
-      <c r="JH27" s="13">
+      <c r="JH27" s="12">
         <v>28507</v>
       </c>
-      <c r="JI27" s="4">
+      <c r="JI27" s="11">
         <v>28619</v>
       </c>
+      <c r="JJ27" s="13">
+        <v>28845</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21637,14 +21702,17 @@
       <c r="JG28" s="12">
         <v>19219</v>
       </c>
-      <c r="JH28" s="13">
+      <c r="JH28" s="12">
         <v>19275</v>
       </c>
-      <c r="JI28" s="4">
+      <c r="JI28" s="11">
         <v>19462</v>
       </c>
+      <c r="JJ28" s="13">
+        <v>19640</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22446,14 +22514,17 @@
       <c r="JG29" s="12">
         <v>23778</v>
       </c>
-      <c r="JH29" s="13">
+      <c r="JH29" s="12">
         <v>23707</v>
       </c>
-      <c r="JI29" s="4">
+      <c r="JI29" s="11">
         <v>23673</v>
       </c>
+      <c r="JJ29" s="13">
+        <v>23699</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23255,14 +23326,17 @@
       <c r="JG30" s="12">
         <v>42879</v>
       </c>
-      <c r="JH30" s="13">
+      <c r="JH30" s="12">
         <v>42868</v>
       </c>
-      <c r="JI30" s="4">
+      <c r="JI30" s="11">
         <v>42858</v>
       </c>
+      <c r="JJ30" s="13">
+        <v>42995</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24064,14 +24138,17 @@
       <c r="JG31" s="12">
         <v>39233</v>
       </c>
-      <c r="JH31" s="13">
+      <c r="JH31" s="12">
         <v>39139</v>
       </c>
-      <c r="JI31" s="4">
+      <c r="JI31" s="11">
         <v>39129</v>
       </c>
+      <c r="JJ31" s="13">
+        <v>39261</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24873,14 +24950,17 @@
       <c r="JG32" s="12">
         <v>11461</v>
       </c>
-      <c r="JH32" s="13">
+      <c r="JH32" s="12">
         <v>11432</v>
       </c>
-      <c r="JI32" s="4">
+      <c r="JI32" s="11">
         <v>11428</v>
       </c>
+      <c r="JJ32" s="13">
+        <v>11468</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25682,14 +25762,17 @@
       <c r="JG33" s="12">
         <v>34872</v>
       </c>
-      <c r="JH33" s="13">
+      <c r="JH33" s="12">
         <v>34785</v>
       </c>
-      <c r="JI33" s="4">
+      <c r="JI33" s="11">
         <v>34764</v>
       </c>
+      <c r="JJ33" s="13">
+        <v>34767</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26491,14 +26574,17 @@
       <c r="JG34" s="12">
         <v>5453</v>
       </c>
-      <c r="JH34" s="13">
+      <c r="JH34" s="12">
         <v>5466</v>
       </c>
-      <c r="JI34" s="4">
+      <c r="JI34" s="11">
         <v>5449</v>
       </c>
+      <c r="JJ34" s="13">
+        <v>5457</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27300,14 +27386,17 @@
       <c r="JG35" s="12">
         <v>44225</v>
       </c>
-      <c r="JH35" s="13">
+      <c r="JH35" s="12">
         <v>44116</v>
       </c>
-      <c r="JI35" s="4">
+      <c r="JI35" s="11">
         <v>43912</v>
       </c>
+      <c r="JJ35" s="13">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28109,14 +28198,17 @@
       <c r="JG36" s="12">
         <v>20780</v>
       </c>
-      <c r="JH36" s="13">
+      <c r="JH36" s="12">
         <v>20773</v>
       </c>
-      <c r="JI36" s="4">
+      <c r="JI36" s="11">
         <v>20863</v>
       </c>
+      <c r="JJ36" s="13">
+        <v>20892</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -28918,14 +29010,17 @@
       <c r="JG37" s="12">
         <v>12049</v>
       </c>
-      <c r="JH37" s="13">
+      <c r="JH37" s="12">
         <v>12068</v>
       </c>
-      <c r="JI37" s="4">
+      <c r="JI37" s="11">
         <v>12015</v>
       </c>
+      <c r="JJ37" s="13">
+        <v>12038</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29727,14 +29822,17 @@
       <c r="JG38" s="10">
         <v>1104078</v>
       </c>
-      <c r="JH38" s="32">
+      <c r="JH38" s="10">
         <v>1053670</v>
       </c>
-      <c r="JI38" s="6">
+      <c r="JI38" s="14">
         <v>1053095</v>
       </c>
+      <c r="JJ38" s="31">
+        <v>1056056</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-febrero 2022</t>
+    <t>Diciembre 1997-marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -858,7 +858,6 @@
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,15 +868,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1226,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ40"/>
+  <dimension ref="A1:JK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JM35" sqref="JM35"/>
+      <selection pane="topRight" activeCell="M22" sqref="M22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,10 +1397,10 @@
     <col min="261" max="261" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.42578125" style="7"/>
-    <col min="269" max="270" width="11.42578125" style="7" customWidth="1"/>
+    <col min="269" max="271" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1405,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1413,9 +1416,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:270" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="3" spans="1:271" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2222,12 +2225,15 @@
       <c r="JI4" s="20">
         <v>2022</v>
       </c>
-      <c r="JJ4" s="30">
+      <c r="JJ4" s="21">
         <v>2022</v>
       </c>
+      <c r="JK4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -2957,86 +2963,89 @@
       <c r="IJ5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="IK5" s="28" t="s">
+      <c r="IK5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="IL5" s="29" t="s">
+      <c r="IL5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="IM5" s="29" t="s">
+      <c r="IM5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="IN5" s="29" t="s">
+      <c r="IN5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="IO5" s="29" t="s">
+      <c r="IO5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="IP5" s="29" t="s">
+      <c r="IP5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="IQ5" s="29" t="s">
+      <c r="IQ5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="IR5" s="29" t="s">
+      <c r="IR5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="IS5" s="29" t="s">
+      <c r="IS5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="IT5" s="29" t="s">
+      <c r="IT5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="IU5" s="29" t="s">
+      <c r="IU5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="IV5" s="29" t="s">
+      <c r="IV5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="IW5" s="28" t="s">
+      <c r="IW5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="IX5" s="29" t="s">
+      <c r="IX5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="IY5" s="29" t="s">
+      <c r="IY5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="IZ5" s="29" t="s">
+      <c r="IZ5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="JA5" s="29" t="s">
+      <c r="JA5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="JB5" s="29" t="s">
+      <c r="JB5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="JC5" s="29" t="s">
+      <c r="JC5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="JD5" s="29" t="s">
+      <c r="JD5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="JE5" s="29" t="s">
+      <c r="JE5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="JF5" s="29" t="s">
+      <c r="JF5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="JG5" s="29" t="s">
+      <c r="JG5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="JH5" s="29" t="s">
+      <c r="JH5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="JI5" s="33" t="s">
+      <c r="JI5" s="31" t="s">
         <v>29</v>
       </c>
       <c r="JJ5" s="34" t="s">
         <v>30</v>
       </c>
+      <c r="JK5" s="32" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3844,11 +3853,14 @@
       <c r="JI6" s="11">
         <v>16734</v>
       </c>
-      <c r="JJ6" s="13">
+      <c r="JJ6" s="12">
         <v>16759</v>
       </c>
+      <c r="JK6" s="13">
+        <v>16740</v>
+      </c>
     </row>
-    <row r="7" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4656,11 +4668,14 @@
       <c r="JI7" s="11">
         <v>44593</v>
       </c>
-      <c r="JJ7" s="13">
+      <c r="JJ7" s="12">
         <v>44231</v>
       </c>
+      <c r="JK7" s="13">
+        <v>44201</v>
+      </c>
     </row>
-    <row r="8" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5468,11 +5483,14 @@
       <c r="JI8" s="11">
         <v>14006</v>
       </c>
-      <c r="JJ8" s="13">
+      <c r="JJ8" s="12">
         <v>14112</v>
       </c>
+      <c r="JK8" s="13">
+        <v>14186</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6280,11 +6298,14 @@
       <c r="JI9" s="11">
         <v>6295</v>
       </c>
-      <c r="JJ9" s="13">
+      <c r="JJ9" s="12">
         <v>6311</v>
       </c>
+      <c r="JK9" s="13">
+        <v>6282</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7092,11 +7113,14 @@
       <c r="JI10" s="11">
         <v>14753</v>
       </c>
-      <c r="JJ10" s="13">
+      <c r="JJ10" s="12">
         <v>14730</v>
       </c>
+      <c r="JK10" s="13">
+        <v>14736</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7904,11 +7928,14 @@
       <c r="JI11" s="11">
         <v>42125</v>
       </c>
-      <c r="JJ11" s="13">
+      <c r="JJ11" s="12">
         <v>42291</v>
       </c>
+      <c r="JK11" s="13">
+        <v>42340</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8716,11 +8743,14 @@
       <c r="JI12" s="11">
         <v>124898</v>
       </c>
-      <c r="JJ12" s="13">
+      <c r="JJ12" s="12">
         <v>125331</v>
       </c>
+      <c r="JK12" s="13">
+        <v>125741</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9528,11 +9558,14 @@
       <c r="JI13" s="11">
         <v>35582</v>
       </c>
-      <c r="JJ13" s="13">
+      <c r="JJ13" s="12">
         <v>35733</v>
       </c>
+      <c r="JK13" s="13">
+        <v>35841</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10340,11 +10373,14 @@
       <c r="JI14" s="11">
         <v>11363</v>
       </c>
-      <c r="JJ14" s="13">
+      <c r="JJ14" s="12">
         <v>11379</v>
       </c>
+      <c r="JK14" s="13">
+        <v>11440</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11152,11 +11188,14 @@
       <c r="JI15" s="11">
         <v>14605</v>
       </c>
-      <c r="JJ15" s="13">
+      <c r="JJ15" s="12">
         <v>14634</v>
       </c>
+      <c r="JK15" s="13">
+        <v>14679</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -11964,11 +12003,14 @@
       <c r="JI16" s="11">
         <v>77149</v>
       </c>
-      <c r="JJ16" s="13">
+      <c r="JJ16" s="12">
         <v>77507</v>
       </c>
+      <c r="JK16" s="13">
+        <v>77647</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12776,11 +12818,14 @@
       <c r="JI17" s="11">
         <v>49238</v>
       </c>
-      <c r="JJ17" s="13">
+      <c r="JJ17" s="12">
         <v>49257</v>
       </c>
+      <c r="JK17" s="13">
+        <v>49366</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13588,11 +13633,14 @@
       <c r="JI18" s="11">
         <v>13586</v>
       </c>
-      <c r="JJ18" s="13">
+      <c r="JJ18" s="12">
         <v>13648</v>
       </c>
+      <c r="JK18" s="13">
+        <v>13642</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14400,11 +14448,14 @@
       <c r="JI19" s="11">
         <v>15961</v>
       </c>
-      <c r="JJ19" s="13">
+      <c r="JJ19" s="12">
         <v>16003</v>
       </c>
+      <c r="JK19" s="13">
+        <v>16042</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15212,11 +15263,14 @@
       <c r="JI20" s="25">
         <v>103200</v>
       </c>
-      <c r="JJ20" s="27">
+      <c r="JJ20" s="26">
         <v>103626</v>
       </c>
+      <c r="JK20" s="35">
+        <v>103976</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16024,11 +16078,14 @@
       <c r="JI21" s="11">
         <v>36985</v>
       </c>
-      <c r="JJ21" s="13">
+      <c r="JJ21" s="12">
         <v>37036</v>
       </c>
+      <c r="JK21" s="13">
+        <v>37108</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16836,11 +16893,14 @@
       <c r="JI22" s="11">
         <v>12565</v>
       </c>
-      <c r="JJ22" s="13">
+      <c r="JJ22" s="12">
         <v>12597</v>
       </c>
+      <c r="JK22" s="13">
+        <v>12585</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17648,11 +17708,14 @@
       <c r="JI23" s="11">
         <v>13588</v>
       </c>
-      <c r="JJ23" s="13">
+      <c r="JJ23" s="12">
         <v>13626</v>
       </c>
+      <c r="JK23" s="13">
+        <v>13616</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18460,11 +18523,14 @@
       <c r="JI24" s="11">
         <v>74930</v>
       </c>
-      <c r="JJ24" s="13">
+      <c r="JJ24" s="12">
         <v>75221</v>
       </c>
+      <c r="JK24" s="13">
+        <v>75415</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19272,11 +19338,14 @@
       <c r="JI25" s="11">
         <v>14299</v>
       </c>
-      <c r="JJ25" s="13">
+      <c r="JJ25" s="12">
         <v>14330</v>
       </c>
+      <c r="JK25" s="13">
+        <v>14300</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20084,11 +20153,14 @@
       <c r="JI26" s="11">
         <v>34468</v>
       </c>
-      <c r="JJ26" s="13">
+      <c r="JJ26" s="12">
         <v>34612</v>
       </c>
+      <c r="JK26" s="13">
+        <v>34645</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20896,11 +20968,14 @@
       <c r="JI27" s="11">
         <v>28619</v>
       </c>
-      <c r="JJ27" s="13">
+      <c r="JJ27" s="12">
         <v>28845</v>
       </c>
+      <c r="JK27" s="13">
+        <v>28982</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21708,11 +21783,14 @@
       <c r="JI28" s="11">
         <v>19462</v>
       </c>
-      <c r="JJ28" s="13">
+      <c r="JJ28" s="12">
         <v>19640</v>
       </c>
+      <c r="JK28" s="13">
+        <v>19364</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22520,11 +22598,14 @@
       <c r="JI29" s="11">
         <v>23673</v>
       </c>
-      <c r="JJ29" s="13">
+      <c r="JJ29" s="12">
         <v>23699</v>
       </c>
+      <c r="JK29" s="13">
+        <v>23712</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23332,11 +23413,14 @@
       <c r="JI30" s="11">
         <v>42858</v>
       </c>
-      <c r="JJ30" s="13">
+      <c r="JJ30" s="12">
         <v>42995</v>
       </c>
+      <c r="JK30" s="13">
+        <v>43021</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24144,11 +24228,14 @@
       <c r="JI31" s="11">
         <v>39129</v>
       </c>
-      <c r="JJ31" s="13">
+      <c r="JJ31" s="12">
         <v>39261</v>
       </c>
+      <c r="JK31" s="13">
+        <v>39290</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -24956,11 +25043,14 @@
       <c r="JI32" s="11">
         <v>11428</v>
       </c>
-      <c r="JJ32" s="13">
+      <c r="JJ32" s="12">
         <v>11468</v>
       </c>
+      <c r="JK32" s="13">
+        <v>11534</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25768,11 +25858,14 @@
       <c r="JI33" s="11">
         <v>34764</v>
       </c>
-      <c r="JJ33" s="13">
+      <c r="JJ33" s="12">
         <v>34767</v>
       </c>
+      <c r="JK33" s="13">
+        <v>34725</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26580,11 +26673,14 @@
       <c r="JI34" s="11">
         <v>5449</v>
       </c>
-      <c r="JJ34" s="13">
+      <c r="JJ34" s="12">
         <v>5457</v>
       </c>
+      <c r="JK34" s="13">
+        <v>5461</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27392,11 +27488,14 @@
       <c r="JI35" s="11">
         <v>43912</v>
       </c>
-      <c r="JJ35" s="13">
+      <c r="JJ35" s="12">
         <v>44020</v>
       </c>
+      <c r="JK35" s="13">
+        <v>44039</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28204,11 +28303,14 @@
       <c r="JI36" s="11">
         <v>20863</v>
       </c>
-      <c r="JJ36" s="13">
+      <c r="JJ36" s="12">
         <v>20892</v>
       </c>
+      <c r="JK36" s="13">
+        <v>20914</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29016,11 +29118,14 @@
       <c r="JI37" s="11">
         <v>12015</v>
       </c>
-      <c r="JJ37" s="13">
+      <c r="JJ37" s="12">
         <v>12038</v>
       </c>
+      <c r="JK37" s="13">
+        <v>12054</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29828,11 +29933,14 @@
       <c r="JI38" s="14">
         <v>1053095</v>
       </c>
-      <c r="JJ38" s="31">
+      <c r="JJ38" s="10">
         <v>1056056</v>
       </c>
+      <c r="JK38" s="30">
+        <v>1057624</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
   </bookViews>
   <sheets>
     <sheet name="patrones_entidades" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-marzo 2022</t>
+    <t>Diciembre 1997-abril 2022</t>
   </si>
 </sst>
 </file>
@@ -874,13 +874,13 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,178 +1229,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JK40"/>
+  <dimension ref="A1:JL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M22" sqref="M22:N22"/>
+      <selection pane="topRight" activeCell="JM17" sqref="JM17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="4" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="4" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
-    <col min="67" max="72" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="11" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="8" bestFit="1" customWidth="1"/>
-    <col min="79" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="84" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.125" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="11" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="8" bestFit="1" customWidth="1"/>
-    <col min="91" max="96" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="96" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.625" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="8" bestFit="1" customWidth="1"/>
-    <col min="103" max="108" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="108" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.125" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.625" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="8" bestFit="1" customWidth="1"/>
-    <col min="115" max="120" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="120" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="11" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="8" bestFit="1" customWidth="1"/>
-    <col min="127" max="132" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="132" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.125" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.625" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="8" bestFit="1" customWidth="1"/>
-    <col min="139" max="144" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="144" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="8.125" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="11" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.625" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="8" bestFit="1" customWidth="1"/>
-    <col min="151" max="156" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="156" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.125" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="11" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.625" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="8" bestFit="1" customWidth="1"/>
-    <col min="163" max="168" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="168" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="8.125" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="11" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.625" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="8" bestFit="1" customWidth="1"/>
-    <col min="175" max="180" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="180" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="8.125" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="11" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.625" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="8" bestFit="1" customWidth="1"/>
-    <col min="187" max="192" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="187" max="192" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="8.125" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="11" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.625" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="204" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="199" max="204" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.125" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="11" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.625" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="8" bestFit="1" customWidth="1"/>
-    <col min="211" max="216" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="211" max="216" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.125" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="11" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.625" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="8" bestFit="1" customWidth="1"/>
-    <col min="223" max="228" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="223" max="228" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.125" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="11" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.625" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="8" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="238" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="7.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="238" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="243" max="243" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="248" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
-    <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="256" width="11.42578125" style="7" customWidth="1"/>
-    <col min="257" max="257" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="260" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="264" max="268" width="11.42578125" style="7"/>
-    <col min="269" max="271" width="11.42578125" style="7" customWidth="1"/>
+    <col min="244" max="244" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="248" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="9.125" style="7" customWidth="1"/>
+    <col min="253" max="254" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="256" width="11.375" style="7" customWidth="1"/>
+    <col min="257" max="257" width="7.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="260" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="264" max="268" width="11.375" style="7"/>
+    <col min="269" max="272" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,9 +1416,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:271" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="3" spans="1:272" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2228,12 +2228,15 @@
       <c r="JJ4" s="21">
         <v>2022</v>
       </c>
-      <c r="JK4" s="29">
+      <c r="JK4" s="21">
         <v>2022</v>
       </c>
+      <c r="JL4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3038,14 +3041,17 @@
       <c r="JI5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="JJ5" s="34" t="s">
+      <c r="JJ5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="JK5" s="32" t="s">
+      <c r="JK5" s="33" t="s">
         <v>31</v>
       </c>
+      <c r="JL5" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3856,11 +3862,14 @@
       <c r="JJ6" s="12">
         <v>16759</v>
       </c>
-      <c r="JK6" s="13">
+      <c r="JK6" s="12">
         <v>16740</v>
       </c>
+      <c r="JL6" s="13">
+        <v>16760</v>
+      </c>
     </row>
-    <row r="7" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4671,11 +4680,14 @@
       <c r="JJ7" s="12">
         <v>44231</v>
       </c>
-      <c r="JK7" s="13">
+      <c r="JK7" s="12">
         <v>44201</v>
       </c>
+      <c r="JL7" s="13">
+        <v>44407</v>
+      </c>
     </row>
-    <row r="8" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5486,11 +5498,14 @@
       <c r="JJ8" s="12">
         <v>14112</v>
       </c>
-      <c r="JK8" s="13">
+      <c r="JK8" s="12">
         <v>14186</v>
       </c>
+      <c r="JL8" s="13">
+        <v>14264</v>
+      </c>
     </row>
-    <row r="9" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6301,11 +6316,14 @@
       <c r="JJ9" s="12">
         <v>6311</v>
       </c>
-      <c r="JK9" s="13">
+      <c r="JK9" s="12">
         <v>6282</v>
       </c>
+      <c r="JL9" s="13">
+        <v>6282</v>
+      </c>
     </row>
-    <row r="10" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7116,11 +7134,14 @@
       <c r="JJ10" s="12">
         <v>14730</v>
       </c>
-      <c r="JK10" s="13">
+      <c r="JK10" s="12">
         <v>14736</v>
       </c>
+      <c r="JL10" s="13">
+        <v>14749</v>
+      </c>
     </row>
-    <row r="11" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7931,11 +7952,14 @@
       <c r="JJ11" s="12">
         <v>42291</v>
       </c>
-      <c r="JK11" s="13">
+      <c r="JK11" s="12">
         <v>42340</v>
       </c>
+      <c r="JL11" s="13">
+        <v>42392</v>
+      </c>
     </row>
-    <row r="12" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8746,11 +8770,14 @@
       <c r="JJ12" s="12">
         <v>125331</v>
       </c>
-      <c r="JK12" s="13">
+      <c r="JK12" s="12">
         <v>125741</v>
       </c>
+      <c r="JL12" s="13">
+        <v>125850</v>
+      </c>
     </row>
-    <row r="13" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9561,11 +9588,14 @@
       <c r="JJ13" s="12">
         <v>35733</v>
       </c>
-      <c r="JK13" s="13">
+      <c r="JK13" s="12">
         <v>35841</v>
       </c>
+      <c r="JL13" s="13">
+        <v>35845</v>
+      </c>
     </row>
-    <row r="14" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10376,11 +10406,14 @@
       <c r="JJ14" s="12">
         <v>11379</v>
       </c>
-      <c r="JK14" s="13">
+      <c r="JK14" s="12">
         <v>11440</v>
       </c>
+      <c r="JL14" s="13">
+        <v>11491</v>
+      </c>
     </row>
-    <row r="15" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11191,11 +11224,14 @@
       <c r="JJ15" s="12">
         <v>14634</v>
       </c>
-      <c r="JK15" s="13">
+      <c r="JK15" s="12">
         <v>14679</v>
       </c>
+      <c r="JL15" s="13">
+        <v>14691</v>
+      </c>
     </row>
-    <row r="16" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12006,11 +12042,14 @@
       <c r="JJ16" s="12">
         <v>77507</v>
       </c>
-      <c r="JK16" s="13">
+      <c r="JK16" s="12">
         <v>77647</v>
       </c>
+      <c r="JL16" s="13">
+        <v>77839</v>
+      </c>
     </row>
-    <row r="17" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12821,11 +12860,14 @@
       <c r="JJ17" s="12">
         <v>49257</v>
       </c>
-      <c r="JK17" s="13">
+      <c r="JK17" s="12">
         <v>49366</v>
       </c>
+      <c r="JL17" s="13">
+        <v>49438</v>
+      </c>
     </row>
-    <row r="18" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13636,11 +13678,14 @@
       <c r="JJ18" s="12">
         <v>13648</v>
       </c>
-      <c r="JK18" s="13">
+      <c r="JK18" s="12">
         <v>13642</v>
       </c>
+      <c r="JL18" s="13">
+        <v>13607</v>
+      </c>
     </row>
-    <row r="19" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14451,11 +14496,14 @@
       <c r="JJ19" s="12">
         <v>16003</v>
       </c>
-      <c r="JK19" s="13">
+      <c r="JK19" s="12">
         <v>16042</v>
       </c>
+      <c r="JL19" s="13">
+        <v>16045</v>
+      </c>
     </row>
-    <row r="20" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15266,11 +15314,14 @@
       <c r="JJ20" s="26">
         <v>103626</v>
       </c>
-      <c r="JK20" s="35">
+      <c r="JK20" s="26">
         <v>103976</v>
       </c>
+      <c r="JL20" s="34">
+        <v>104232</v>
+      </c>
     </row>
-    <row r="21" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16081,11 +16132,14 @@
       <c r="JJ21" s="12">
         <v>37036</v>
       </c>
-      <c r="JK21" s="13">
+      <c r="JK21" s="12">
         <v>37108</v>
       </c>
+      <c r="JL21" s="13">
+        <v>37211</v>
+      </c>
     </row>
-    <row r="22" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16896,11 +16950,14 @@
       <c r="JJ22" s="12">
         <v>12597</v>
       </c>
-      <c r="JK22" s="13">
+      <c r="JK22" s="12">
         <v>12585</v>
       </c>
+      <c r="JL22" s="13">
+        <v>12608</v>
+      </c>
     </row>
-    <row r="23" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17711,11 +17768,14 @@
       <c r="JJ23" s="12">
         <v>13626</v>
       </c>
-      <c r="JK23" s="13">
+      <c r="JK23" s="12">
         <v>13616</v>
       </c>
+      <c r="JL23" s="13">
+        <v>13668</v>
+      </c>
     </row>
-    <row r="24" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18526,11 +18586,14 @@
       <c r="JJ24" s="12">
         <v>75221</v>
       </c>
-      <c r="JK24" s="13">
+      <c r="JK24" s="12">
         <v>75415</v>
       </c>
+      <c r="JL24" s="13">
+        <v>75353</v>
+      </c>
     </row>
-    <row r="25" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19341,11 +19404,14 @@
       <c r="JJ25" s="12">
         <v>14330</v>
       </c>
-      <c r="JK25" s="13">
+      <c r="JK25" s="12">
         <v>14300</v>
       </c>
+      <c r="JL25" s="13">
+        <v>14338</v>
+      </c>
     </row>
-    <row r="26" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20156,11 +20222,14 @@
       <c r="JJ26" s="12">
         <v>34612</v>
       </c>
-      <c r="JK26" s="13">
+      <c r="JK26" s="12">
         <v>34645</v>
       </c>
+      <c r="JL26" s="13">
+        <v>34668</v>
+      </c>
     </row>
-    <row r="27" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -20971,11 +21040,14 @@
       <c r="JJ27" s="12">
         <v>28845</v>
       </c>
-      <c r="JK27" s="13">
+      <c r="JK27" s="12">
         <v>28982</v>
       </c>
+      <c r="JL27" s="13">
+        <v>28992</v>
+      </c>
     </row>
-    <row r="28" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21786,11 +21858,14 @@
       <c r="JJ28" s="12">
         <v>19640</v>
       </c>
-      <c r="JK28" s="13">
+      <c r="JK28" s="12">
         <v>19364</v>
       </c>
+      <c r="JL28" s="13">
+        <v>19607</v>
+      </c>
     </row>
-    <row r="29" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22601,11 +22676,14 @@
       <c r="JJ29" s="12">
         <v>23699</v>
       </c>
-      <c r="JK29" s="13">
+      <c r="JK29" s="12">
         <v>23712</v>
       </c>
+      <c r="JL29" s="13">
+        <v>23705</v>
+      </c>
     </row>
-    <row r="30" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23416,11 +23494,14 @@
       <c r="JJ30" s="12">
         <v>42995</v>
       </c>
-      <c r="JK30" s="13">
+      <c r="JK30" s="12">
         <v>43021</v>
       </c>
+      <c r="JL30" s="13">
+        <v>43033</v>
+      </c>
     </row>
-    <row r="31" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24231,11 +24312,14 @@
       <c r="JJ31" s="12">
         <v>39261</v>
       </c>
-      <c r="JK31" s="13">
+      <c r="JK31" s="12">
         <v>39290</v>
       </c>
+      <c r="JL31" s="13">
+        <v>39364</v>
+      </c>
     </row>
-    <row r="32" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25046,11 +25130,14 @@
       <c r="JJ32" s="12">
         <v>11468</v>
       </c>
-      <c r="JK32" s="13">
+      <c r="JK32" s="12">
         <v>11534</v>
       </c>
+      <c r="JL32" s="13">
+        <v>11534</v>
+      </c>
     </row>
-    <row r="33" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25861,11 +25948,14 @@
       <c r="JJ33" s="12">
         <v>34767</v>
       </c>
-      <c r="JK33" s="13">
+      <c r="JK33" s="12">
         <v>34725</v>
       </c>
+      <c r="JL33" s="13">
+        <v>34740</v>
+      </c>
     </row>
-    <row r="34" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26676,11 +26766,14 @@
       <c r="JJ34" s="12">
         <v>5457</v>
       </c>
-      <c r="JK34" s="13">
+      <c r="JK34" s="12">
         <v>5461</v>
       </c>
+      <c r="JL34" s="13">
+        <v>5453</v>
+      </c>
     </row>
-    <row r="35" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27491,11 +27584,14 @@
       <c r="JJ35" s="12">
         <v>44020</v>
       </c>
-      <c r="JK35" s="13">
+      <c r="JK35" s="12">
         <v>44039</v>
       </c>
+      <c r="JL35" s="13">
+        <v>44111</v>
+      </c>
     </row>
-    <row r="36" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28306,11 +28402,14 @@
       <c r="JJ36" s="12">
         <v>20892</v>
       </c>
-      <c r="JK36" s="13">
+      <c r="JK36" s="12">
         <v>20914</v>
       </c>
+      <c r="JL36" s="13">
+        <v>20936</v>
+      </c>
     </row>
-    <row r="37" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29121,11 +29220,14 @@
       <c r="JJ37" s="12">
         <v>12038</v>
       </c>
-      <c r="JK37" s="13">
+      <c r="JK37" s="12">
         <v>12054</v>
       </c>
+      <c r="JL37" s="13">
+        <v>12042</v>
+      </c>
     </row>
-    <row r="38" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -29936,11 +30038,14 @@
       <c r="JJ38" s="10">
         <v>1056056</v>
       </c>
-      <c r="JK38" s="30">
+      <c r="JK38" s="10">
         <v>1057624</v>
       </c>
+      <c r="JL38" s="30">
+        <v>1059255</v>
+      </c>
     </row>
-    <row r="40" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-abril 2022</t>
+    <t>Diciembre 1997-mayo 2022</t>
   </si>
 </sst>
 </file>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JL40"/>
+  <dimension ref="A1:JM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JM17" sqref="JM17"/>
+      <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JR8" sqref="JR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="272" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="273" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,8 +1416,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:272" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:273" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2231,11 +2231,14 @@
       <c r="JK4" s="21">
         <v>2022</v>
       </c>
-      <c r="JL4" s="29">
+      <c r="JL4" s="21">
         <v>2022</v>
       </c>
+      <c r="JM4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3047,11 +3050,14 @@
       <c r="JK5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="JL5" s="32" t="s">
+      <c r="JL5" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="JM5" s="32" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3865,11 +3871,14 @@
       <c r="JK6" s="12">
         <v>16740</v>
       </c>
-      <c r="JL6" s="13">
+      <c r="JL6" s="12">
         <v>16760</v>
       </c>
+      <c r="JM6" s="13">
+        <v>16722</v>
+      </c>
     </row>
-    <row r="7" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4683,11 +4692,14 @@
       <c r="JK7" s="12">
         <v>44201</v>
       </c>
-      <c r="JL7" s="13">
+      <c r="JL7" s="12">
         <v>44407</v>
       </c>
+      <c r="JM7" s="13">
+        <v>44535</v>
+      </c>
     </row>
-    <row r="8" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5501,11 +5513,14 @@
       <c r="JK8" s="12">
         <v>14186</v>
       </c>
-      <c r="JL8" s="13">
+      <c r="JL8" s="12">
         <v>14264</v>
       </c>
+      <c r="JM8" s="13">
+        <v>14393</v>
+      </c>
     </row>
-    <row r="9" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6319,11 +6334,14 @@
       <c r="JK9" s="12">
         <v>6282</v>
       </c>
-      <c r="JL9" s="13">
+      <c r="JL9" s="12">
         <v>6282</v>
       </c>
+      <c r="JM9" s="13">
+        <v>6293</v>
+      </c>
     </row>
-    <row r="10" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7137,11 +7155,14 @@
       <c r="JK10" s="12">
         <v>14736</v>
       </c>
-      <c r="JL10" s="13">
+      <c r="JL10" s="12">
         <v>14749</v>
       </c>
+      <c r="JM10" s="13">
+        <v>14760</v>
+      </c>
     </row>
-    <row r="11" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7955,11 +7976,14 @@
       <c r="JK11" s="12">
         <v>42340</v>
       </c>
-      <c r="JL11" s="13">
+      <c r="JL11" s="12">
         <v>42392</v>
       </c>
+      <c r="JM11" s="13">
+        <v>42400</v>
+      </c>
     </row>
-    <row r="12" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8773,11 +8797,14 @@
       <c r="JK12" s="12">
         <v>125741</v>
       </c>
-      <c r="JL12" s="13">
+      <c r="JL12" s="12">
         <v>125850</v>
       </c>
+      <c r="JM12" s="13">
+        <v>126268</v>
+      </c>
     </row>
-    <row r="13" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9591,11 +9618,14 @@
       <c r="JK13" s="12">
         <v>35841</v>
       </c>
-      <c r="JL13" s="13">
+      <c r="JL13" s="12">
         <v>35845</v>
       </c>
+      <c r="JM13" s="13">
+        <v>35895</v>
+      </c>
     </row>
-    <row r="14" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10409,11 +10439,14 @@
       <c r="JK14" s="12">
         <v>11440</v>
       </c>
-      <c r="JL14" s="13">
+      <c r="JL14" s="12">
         <v>11491</v>
       </c>
+      <c r="JM14" s="13">
+        <v>11536</v>
+      </c>
     </row>
-    <row r="15" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11227,11 +11260,14 @@
       <c r="JK15" s="12">
         <v>14679</v>
       </c>
-      <c r="JL15" s="13">
+      <c r="JL15" s="12">
         <v>14691</v>
       </c>
+      <c r="JM15" s="13">
+        <v>14671</v>
+      </c>
     </row>
-    <row r="16" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12045,11 +12081,14 @@
       <c r="JK16" s="12">
         <v>77647</v>
       </c>
-      <c r="JL16" s="13">
+      <c r="JL16" s="12">
         <v>77839</v>
       </c>
+      <c r="JM16" s="13">
+        <v>77908</v>
+      </c>
     </row>
-    <row r="17" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12863,11 +12902,14 @@
       <c r="JK17" s="12">
         <v>49366</v>
       </c>
-      <c r="JL17" s="13">
+      <c r="JL17" s="12">
         <v>49438</v>
       </c>
+      <c r="JM17" s="13">
+        <v>49554</v>
+      </c>
     </row>
-    <row r="18" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13681,11 +13723,14 @@
       <c r="JK18" s="12">
         <v>13642</v>
       </c>
-      <c r="JL18" s="13">
+      <c r="JL18" s="12">
         <v>13607</v>
       </c>
+      <c r="JM18" s="13">
+        <v>13625</v>
+      </c>
     </row>
-    <row r="19" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14499,11 +14544,14 @@
       <c r="JK19" s="12">
         <v>16042</v>
       </c>
-      <c r="JL19" s="13">
+      <c r="JL19" s="12">
         <v>16045</v>
       </c>
+      <c r="JM19" s="13">
+        <v>16095</v>
+      </c>
     </row>
-    <row r="20" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15317,11 +15365,14 @@
       <c r="JK20" s="26">
         <v>103976</v>
       </c>
-      <c r="JL20" s="34">
+      <c r="JL20" s="26">
         <v>104232</v>
       </c>
+      <c r="JM20" s="34">
+        <v>104578</v>
+      </c>
     </row>
-    <row r="21" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16135,11 +16186,14 @@
       <c r="JK21" s="12">
         <v>37108</v>
       </c>
-      <c r="JL21" s="13">
+      <c r="JL21" s="12">
         <v>37211</v>
       </c>
+      <c r="JM21" s="13">
+        <v>37225</v>
+      </c>
     </row>
-    <row r="22" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -16953,11 +17007,14 @@
       <c r="JK22" s="12">
         <v>12585</v>
       </c>
-      <c r="JL22" s="13">
+      <c r="JL22" s="12">
         <v>12608</v>
       </c>
+      <c r="JM22" s="13">
+        <v>12634</v>
+      </c>
     </row>
-    <row r="23" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17771,11 +17828,14 @@
       <c r="JK23" s="12">
         <v>13616</v>
       </c>
-      <c r="JL23" s="13">
+      <c r="JL23" s="12">
         <v>13668</v>
       </c>
+      <c r="JM23" s="13">
+        <v>13646</v>
+      </c>
     </row>
-    <row r="24" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18589,11 +18649,14 @@
       <c r="JK24" s="12">
         <v>75415</v>
       </c>
-      <c r="JL24" s="13">
+      <c r="JL24" s="12">
         <v>75353</v>
       </c>
+      <c r="JM24" s="13">
+        <v>75634</v>
+      </c>
     </row>
-    <row r="25" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19407,11 +19470,14 @@
       <c r="JK25" s="12">
         <v>14300</v>
       </c>
-      <c r="JL25" s="13">
+      <c r="JL25" s="12">
         <v>14338</v>
       </c>
+      <c r="JM25" s="13">
+        <v>14439</v>
+      </c>
     </row>
-    <row r="26" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20225,11 +20291,14 @@
       <c r="JK26" s="12">
         <v>34645</v>
       </c>
-      <c r="JL26" s="13">
+      <c r="JL26" s="12">
         <v>34668</v>
       </c>
+      <c r="JM26" s="13">
+        <v>34797</v>
+      </c>
     </row>
-    <row r="27" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21043,11 +21112,14 @@
       <c r="JK27" s="12">
         <v>28982</v>
       </c>
-      <c r="JL27" s="13">
+      <c r="JL27" s="12">
         <v>28992</v>
       </c>
+      <c r="JM27" s="13">
+        <v>29096</v>
+      </c>
     </row>
-    <row r="28" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21861,11 +21933,14 @@
       <c r="JK28" s="12">
         <v>19364</v>
       </c>
-      <c r="JL28" s="13">
+      <c r="JL28" s="12">
         <v>19607</v>
       </c>
+      <c r="JM28" s="13">
+        <v>19835</v>
+      </c>
     </row>
-    <row r="29" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22679,11 +22754,14 @@
       <c r="JK29" s="12">
         <v>23712</v>
       </c>
-      <c r="JL29" s="13">
+      <c r="JL29" s="12">
         <v>23705</v>
       </c>
+      <c r="JM29" s="13">
+        <v>23744</v>
+      </c>
     </row>
-    <row r="30" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23497,11 +23575,14 @@
       <c r="JK30" s="12">
         <v>43021</v>
       </c>
-      <c r="JL30" s="13">
+      <c r="JL30" s="12">
         <v>43033</v>
       </c>
+      <c r="JM30" s="13">
+        <v>43163</v>
+      </c>
     </row>
-    <row r="31" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24315,11 +24396,14 @@
       <c r="JK31" s="12">
         <v>39290</v>
       </c>
-      <c r="JL31" s="13">
+      <c r="JL31" s="12">
         <v>39364</v>
       </c>
+      <c r="JM31" s="13">
+        <v>38919</v>
+      </c>
     </row>
-    <row r="32" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25133,11 +25217,14 @@
       <c r="JK32" s="12">
         <v>11534</v>
       </c>
-      <c r="JL32" s="13">
+      <c r="JL32" s="12">
         <v>11534</v>
       </c>
+      <c r="JM32" s="13">
+        <v>11596</v>
+      </c>
     </row>
-    <row r="33" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -25951,11 +26038,14 @@
       <c r="JK33" s="12">
         <v>34725</v>
       </c>
-      <c r="JL33" s="13">
+      <c r="JL33" s="12">
         <v>34740</v>
       </c>
+      <c r="JM33" s="13">
+        <v>34737</v>
+      </c>
     </row>
-    <row r="34" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26769,11 +26859,14 @@
       <c r="JK34" s="12">
         <v>5461</v>
       </c>
-      <c r="JL34" s="13">
+      <c r="JL34" s="12">
         <v>5453</v>
       </c>
+      <c r="JM34" s="13">
+        <v>5455</v>
+      </c>
     </row>
-    <row r="35" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27587,11 +27680,14 @@
       <c r="JK35" s="12">
         <v>44039</v>
       </c>
-      <c r="JL35" s="13">
+      <c r="JL35" s="12">
         <v>44111</v>
       </c>
+      <c r="JM35" s="13">
+        <v>44149</v>
+      </c>
     </row>
-    <row r="36" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28405,11 +28501,14 @@
       <c r="JK36" s="12">
         <v>20914</v>
       </c>
-      <c r="JL36" s="13">
+      <c r="JL36" s="12">
         <v>20936</v>
       </c>
+      <c r="JM36" s="13">
+        <v>21129</v>
+      </c>
     </row>
-    <row r="37" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29223,11 +29322,14 @@
       <c r="JK37" s="12">
         <v>12054</v>
       </c>
-      <c r="JL37" s="13">
+      <c r="JL37" s="12">
         <v>12042</v>
       </c>
+      <c r="JM37" s="13">
+        <v>12023</v>
+      </c>
     </row>
-    <row r="38" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30041,11 +30143,14 @@
       <c r="JK38" s="10">
         <v>1057624</v>
       </c>
-      <c r="JL38" s="30">
+      <c r="JL38" s="10">
         <v>1059255</v>
       </c>
+      <c r="JM38" s="30">
+        <v>1061454</v>
+      </c>
     </row>
-    <row r="40" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-mayo 2022</t>
+    <t>Diciembre 1997-junio2022</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,10 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JM40"/>
+  <dimension ref="A1:JN40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JR8" sqref="JR8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JP9" sqref="JP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="273" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="274" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:274" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:274" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,9 +1416,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:273" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="3" spans="1:274" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2234,12 +2234,15 @@
       <c r="JL4" s="21">
         <v>2022</v>
       </c>
-      <c r="JM4" s="29">
+      <c r="JM4" s="21">
         <v>2022</v>
       </c>
+      <c r="JN4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3053,11 +3056,14 @@
       <c r="JL5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="JM5" s="32" t="s">
+      <c r="JM5" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="JN5" s="32" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3874,11 +3880,14 @@
       <c r="JL6" s="12">
         <v>16760</v>
       </c>
-      <c r="JM6" s="13">
+      <c r="JM6" s="12">
         <v>16722</v>
       </c>
+      <c r="JN6" s="13">
+        <v>16756</v>
+      </c>
     </row>
-    <row r="7" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4695,11 +4704,14 @@
       <c r="JL7" s="12">
         <v>44407</v>
       </c>
-      <c r="JM7" s="13">
+      <c r="JM7" s="12">
         <v>44535</v>
       </c>
+      <c r="JN7" s="13">
+        <v>44751</v>
+      </c>
     </row>
-    <row r="8" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5516,11 +5528,14 @@
       <c r="JL8" s="12">
         <v>14264</v>
       </c>
-      <c r="JM8" s="13">
+      <c r="JM8" s="12">
         <v>14393</v>
       </c>
+      <c r="JN8" s="13">
+        <v>14487</v>
+      </c>
     </row>
-    <row r="9" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6337,11 +6352,14 @@
       <c r="JL9" s="12">
         <v>6282</v>
       </c>
-      <c r="JM9" s="13">
+      <c r="JM9" s="12">
         <v>6293</v>
       </c>
+      <c r="JN9" s="13">
+        <v>6332</v>
+      </c>
     </row>
-    <row r="10" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7158,11 +7176,14 @@
       <c r="JL10" s="12">
         <v>14749</v>
       </c>
-      <c r="JM10" s="13">
+      <c r="JM10" s="12">
         <v>14760</v>
       </c>
+      <c r="JN10" s="13">
+        <v>14830</v>
+      </c>
     </row>
-    <row r="11" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7979,11 +8000,14 @@
       <c r="JL11" s="12">
         <v>42392</v>
       </c>
-      <c r="JM11" s="13">
+      <c r="JM11" s="12">
         <v>42400</v>
       </c>
+      <c r="JN11" s="13">
+        <v>42452</v>
+      </c>
     </row>
-    <row r="12" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8800,11 +8824,14 @@
       <c r="JL12" s="12">
         <v>125850</v>
       </c>
-      <c r="JM12" s="13">
+      <c r="JM12" s="12">
         <v>126268</v>
       </c>
+      <c r="JN12" s="13">
+        <v>126545</v>
+      </c>
     </row>
-    <row r="13" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9621,11 +9648,14 @@
       <c r="JL13" s="12">
         <v>35845</v>
       </c>
-      <c r="JM13" s="13">
+      <c r="JM13" s="12">
         <v>35895</v>
       </c>
+      <c r="JN13" s="13">
+        <v>35828</v>
+      </c>
     </row>
-    <row r="14" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10442,11 +10472,14 @@
       <c r="JL14" s="12">
         <v>11491</v>
       </c>
-      <c r="JM14" s="13">
+      <c r="JM14" s="12">
         <v>11536</v>
       </c>
+      <c r="JN14" s="13">
+        <v>11541</v>
+      </c>
     </row>
-    <row r="15" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11263,11 +11296,14 @@
       <c r="JL15" s="12">
         <v>14691</v>
       </c>
-      <c r="JM15" s="13">
+      <c r="JM15" s="12">
         <v>14671</v>
       </c>
+      <c r="JN15" s="13">
+        <v>14676</v>
+      </c>
     </row>
-    <row r="16" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12084,11 +12120,14 @@
       <c r="JL16" s="12">
         <v>77839</v>
       </c>
-      <c r="JM16" s="13">
+      <c r="JM16" s="12">
         <v>77908</v>
       </c>
+      <c r="JN16" s="13">
+        <v>78102</v>
+      </c>
     </row>
-    <row r="17" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12905,11 +12944,14 @@
       <c r="JL17" s="12">
         <v>49438</v>
       </c>
-      <c r="JM17" s="13">
+      <c r="JM17" s="12">
         <v>49554</v>
       </c>
+      <c r="JN17" s="13">
+        <v>49689</v>
+      </c>
     </row>
-    <row r="18" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13726,11 +13768,14 @@
       <c r="JL18" s="12">
         <v>13607</v>
       </c>
-      <c r="JM18" s="13">
+      <c r="JM18" s="12">
         <v>13625</v>
       </c>
+      <c r="JN18" s="13">
+        <v>13679</v>
+      </c>
     </row>
-    <row r="19" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14547,11 +14592,14 @@
       <c r="JL19" s="12">
         <v>16045</v>
       </c>
-      <c r="JM19" s="13">
+      <c r="JM19" s="12">
         <v>16095</v>
       </c>
+      <c r="JN19" s="13">
+        <v>16178</v>
+      </c>
     </row>
-    <row r="20" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15368,11 +15416,14 @@
       <c r="JL20" s="26">
         <v>104232</v>
       </c>
-      <c r="JM20" s="34">
+      <c r="JM20" s="26">
         <v>104578</v>
       </c>
+      <c r="JN20" s="35">
+        <v>104918</v>
+      </c>
     </row>
-    <row r="21" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16189,11 +16240,14 @@
       <c r="JL21" s="12">
         <v>37211</v>
       </c>
-      <c r="JM21" s="13">
+      <c r="JM21" s="12">
         <v>37225</v>
       </c>
+      <c r="JN21" s="13">
+        <v>37244</v>
+      </c>
     </row>
-    <row r="22" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17010,11 +17064,14 @@
       <c r="JL22" s="12">
         <v>12608</v>
       </c>
-      <c r="JM22" s="13">
+      <c r="JM22" s="12">
         <v>12634</v>
       </c>
+      <c r="JN22" s="13">
+        <v>12630</v>
+      </c>
     </row>
-    <row r="23" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17831,11 +17888,14 @@
       <c r="JL23" s="12">
         <v>13668</v>
       </c>
-      <c r="JM23" s="13">
+      <c r="JM23" s="12">
         <v>13646</v>
       </c>
+      <c r="JN23" s="13">
+        <v>13677</v>
+      </c>
     </row>
-    <row r="24" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18652,11 +18712,14 @@
       <c r="JL24" s="12">
         <v>75353</v>
       </c>
-      <c r="JM24" s="13">
+      <c r="JM24" s="12">
         <v>75634</v>
       </c>
+      <c r="JN24" s="13">
+        <v>75827</v>
+      </c>
     </row>
-    <row r="25" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19473,11 +19536,14 @@
       <c r="JL25" s="12">
         <v>14338</v>
       </c>
-      <c r="JM25" s="13">
+      <c r="JM25" s="12">
         <v>14439</v>
       </c>
+      <c r="JN25" s="13">
+        <v>14512</v>
+      </c>
     </row>
-    <row r="26" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20294,11 +20360,14 @@
       <c r="JL26" s="12">
         <v>34668</v>
       </c>
-      <c r="JM26" s="13">
+      <c r="JM26" s="12">
         <v>34797</v>
       </c>
+      <c r="JN26" s="13">
+        <v>34911</v>
+      </c>
     </row>
-    <row r="27" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21115,11 +21184,14 @@
       <c r="JL27" s="12">
         <v>28992</v>
       </c>
-      <c r="JM27" s="13">
+      <c r="JM27" s="12">
         <v>29096</v>
       </c>
+      <c r="JN27" s="13">
+        <v>29302</v>
+      </c>
     </row>
-    <row r="28" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -21936,11 +22008,14 @@
       <c r="JL28" s="12">
         <v>19607</v>
       </c>
-      <c r="JM28" s="13">
+      <c r="JM28" s="12">
         <v>19835</v>
       </c>
+      <c r="JN28" s="13">
+        <v>20108</v>
+      </c>
     </row>
-    <row r="29" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22757,11 +22832,14 @@
       <c r="JL29" s="12">
         <v>23705</v>
       </c>
-      <c r="JM29" s="13">
+      <c r="JM29" s="12">
         <v>23744</v>
       </c>
+      <c r="JN29" s="13">
+        <v>23830</v>
+      </c>
     </row>
-    <row r="30" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23578,11 +23656,14 @@
       <c r="JL30" s="12">
         <v>43033</v>
       </c>
-      <c r="JM30" s="13">
+      <c r="JM30" s="12">
         <v>43163</v>
       </c>
+      <c r="JN30" s="13">
+        <v>43261</v>
+      </c>
     </row>
-    <row r="31" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24399,11 +24480,14 @@
       <c r="JL31" s="12">
         <v>39364</v>
       </c>
-      <c r="JM31" s="13">
+      <c r="JM31" s="12">
         <v>38919</v>
       </c>
+      <c r="JN31" s="13">
+        <v>39151</v>
+      </c>
     </row>
-    <row r="32" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25220,11 +25304,14 @@
       <c r="JL32" s="12">
         <v>11534</v>
       </c>
-      <c r="JM32" s="13">
+      <c r="JM32" s="12">
         <v>11596</v>
       </c>
+      <c r="JN32" s="13">
+        <v>11633</v>
+      </c>
     </row>
-    <row r="33" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26041,11 +26128,14 @@
       <c r="JL33" s="12">
         <v>34740</v>
       </c>
-      <c r="JM33" s="13">
+      <c r="JM33" s="12">
         <v>34737</v>
       </c>
+      <c r="JN33" s="13">
+        <v>34725</v>
+      </c>
     </row>
-    <row r="34" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26862,11 +26952,14 @@
       <c r="JL34" s="12">
         <v>5453</v>
       </c>
-      <c r="JM34" s="13">
+      <c r="JM34" s="12">
         <v>5455</v>
       </c>
+      <c r="JN34" s="13">
+        <v>5467</v>
+      </c>
     </row>
-    <row r="35" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27683,11 +27776,14 @@
       <c r="JL35" s="12">
         <v>44111</v>
       </c>
-      <c r="JM35" s="13">
+      <c r="JM35" s="12">
         <v>44149</v>
       </c>
+      <c r="JN35" s="13">
+        <v>44276</v>
+      </c>
     </row>
-    <row r="36" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28504,11 +28600,14 @@
       <c r="JL36" s="12">
         <v>20936</v>
       </c>
-      <c r="JM36" s="13">
+      <c r="JM36" s="12">
         <v>21129</v>
       </c>
+      <c r="JN36" s="13">
+        <v>21273</v>
+      </c>
     </row>
-    <row r="37" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29325,11 +29424,14 @@
       <c r="JL37" s="12">
         <v>12042</v>
       </c>
-      <c r="JM37" s="13">
+      <c r="JM37" s="12">
         <v>12023</v>
       </c>
+      <c r="JN37" s="13">
+        <v>12040</v>
+      </c>
     </row>
-    <row r="38" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30146,11 +30248,14 @@
       <c r="JL38" s="10">
         <v>1059255</v>
       </c>
-      <c r="JM38" s="30">
+      <c r="JM38" s="10">
         <v>1061454</v>
       </c>
+      <c r="JN38" s="30">
+        <v>1064631</v>
+      </c>
     </row>
-    <row r="40" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:274" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-junio2022</t>
+    <t>Diciembre 1997-julio 2022</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,10 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JN40"/>
+  <dimension ref="A1:JO40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JP9" sqref="JP9"/>
+      <selection pane="topRight" activeCell="JO6" sqref="JO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="274" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="275" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,9 +1416,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:274" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="3" spans="1:275" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2237,12 +2237,15 @@
       <c r="JM4" s="21">
         <v>2022</v>
       </c>
-      <c r="JN4" s="29">
+      <c r="JN4" s="21">
         <v>2022</v>
       </c>
+      <c r="JO4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:274" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:275" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3059,11 +3062,14 @@
       <c r="JM5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="JN5" s="32" t="s">
+      <c r="JN5" s="33" t="s">
         <v>34</v>
       </c>
+      <c r="JO5" s="32" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3883,11 +3889,14 @@
       <c r="JM6" s="12">
         <v>16722</v>
       </c>
-      <c r="JN6" s="13">
+      <c r="JN6" s="12">
         <v>16756</v>
       </c>
+      <c r="JO6" s="13">
+        <v>16757</v>
+      </c>
     </row>
-    <row r="7" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4707,11 +4716,14 @@
       <c r="JM7" s="12">
         <v>44535</v>
       </c>
-      <c r="JN7" s="13">
+      <c r="JN7" s="12">
         <v>44751</v>
       </c>
+      <c r="JO7" s="13">
+        <v>44387</v>
+      </c>
     </row>
-    <row r="8" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5531,11 +5543,14 @@
       <c r="JM8" s="12">
         <v>14393</v>
       </c>
-      <c r="JN8" s="13">
+      <c r="JN8" s="12">
         <v>14487</v>
       </c>
+      <c r="JO8" s="13">
+        <v>14512</v>
+      </c>
     </row>
-    <row r="9" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6355,11 +6370,14 @@
       <c r="JM9" s="12">
         <v>6293</v>
       </c>
-      <c r="JN9" s="13">
+      <c r="JN9" s="12">
         <v>6332</v>
       </c>
+      <c r="JO9" s="13">
+        <v>6365</v>
+      </c>
     </row>
-    <row r="10" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7179,11 +7197,14 @@
       <c r="JM10" s="12">
         <v>14760</v>
       </c>
-      <c r="JN10" s="13">
+      <c r="JN10" s="12">
         <v>14830</v>
       </c>
+      <c r="JO10" s="13">
+        <v>14813</v>
+      </c>
     </row>
-    <row r="11" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8003,11 +8024,14 @@
       <c r="JM11" s="12">
         <v>42400</v>
       </c>
-      <c r="JN11" s="13">
+      <c r="JN11" s="12">
         <v>42452</v>
       </c>
+      <c r="JO11" s="13">
+        <v>42398</v>
+      </c>
     </row>
-    <row r="12" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8827,11 +8851,14 @@
       <c r="JM12" s="12">
         <v>126268</v>
       </c>
-      <c r="JN12" s="13">
+      <c r="JN12" s="12">
         <v>126545</v>
       </c>
+      <c r="JO12" s="13">
+        <v>126772</v>
+      </c>
     </row>
-    <row r="13" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9651,11 +9678,14 @@
       <c r="JM13" s="12">
         <v>35895</v>
       </c>
-      <c r="JN13" s="13">
+      <c r="JN13" s="12">
         <v>35828</v>
       </c>
+      <c r="JO13" s="13">
+        <v>35784</v>
+      </c>
     </row>
-    <row r="14" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10475,11 +10505,14 @@
       <c r="JM14" s="12">
         <v>11536</v>
       </c>
-      <c r="JN14" s="13">
+      <c r="JN14" s="12">
         <v>11541</v>
       </c>
+      <c r="JO14" s="13">
+        <v>11563</v>
+      </c>
     </row>
-    <row r="15" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11299,11 +11332,14 @@
       <c r="JM15" s="12">
         <v>14671</v>
       </c>
-      <c r="JN15" s="13">
+      <c r="JN15" s="12">
         <v>14676</v>
       </c>
+      <c r="JO15" s="13">
+        <v>14641</v>
+      </c>
     </row>
-    <row r="16" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12123,11 +12159,14 @@
       <c r="JM16" s="12">
         <v>77908</v>
       </c>
-      <c r="JN16" s="13">
+      <c r="JN16" s="12">
         <v>78102</v>
       </c>
+      <c r="JO16" s="13">
+        <v>78218</v>
+      </c>
     </row>
-    <row r="17" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12947,11 +12986,14 @@
       <c r="JM17" s="12">
         <v>49554</v>
       </c>
-      <c r="JN17" s="13">
+      <c r="JN17" s="12">
         <v>49689</v>
       </c>
+      <c r="JO17" s="13">
+        <v>49725</v>
+      </c>
     </row>
-    <row r="18" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13771,11 +13813,14 @@
       <c r="JM18" s="12">
         <v>13625</v>
       </c>
-      <c r="JN18" s="13">
+      <c r="JN18" s="12">
         <v>13679</v>
       </c>
+      <c r="JO18" s="13">
+        <v>13710</v>
+      </c>
     </row>
-    <row r="19" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14595,11 +14640,14 @@
       <c r="JM19" s="12">
         <v>16095</v>
       </c>
-      <c r="JN19" s="13">
+      <c r="JN19" s="12">
         <v>16178</v>
       </c>
+      <c r="JO19" s="13">
+        <v>16207</v>
+      </c>
     </row>
-    <row r="20" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15419,11 +15467,14 @@
       <c r="JM20" s="26">
         <v>104578</v>
       </c>
-      <c r="JN20" s="35">
+      <c r="JN20" s="26">
         <v>104918</v>
       </c>
+      <c r="JO20" s="34">
+        <v>105078</v>
+      </c>
     </row>
-    <row r="21" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16243,11 +16294,14 @@
       <c r="JM21" s="12">
         <v>37225</v>
       </c>
-      <c r="JN21" s="13">
+      <c r="JN21" s="12">
         <v>37244</v>
       </c>
+      <c r="JO21" s="13">
+        <v>37185</v>
+      </c>
     </row>
-    <row r="22" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17067,11 +17121,14 @@
       <c r="JM22" s="12">
         <v>12634</v>
       </c>
-      <c r="JN22" s="13">
+      <c r="JN22" s="12">
         <v>12630</v>
       </c>
+      <c r="JO22" s="13">
+        <v>12659</v>
+      </c>
     </row>
-    <row r="23" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17891,11 +17948,14 @@
       <c r="JM23" s="12">
         <v>13646</v>
       </c>
-      <c r="JN23" s="13">
+      <c r="JN23" s="12">
         <v>13677</v>
       </c>
+      <c r="JO23" s="13">
+        <v>13706</v>
+      </c>
     </row>
-    <row r="24" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18715,11 +18775,14 @@
       <c r="JM24" s="12">
         <v>75634</v>
       </c>
-      <c r="JN24" s="13">
+      <c r="JN24" s="12">
         <v>75827</v>
       </c>
+      <c r="JO24" s="13">
+        <v>75889</v>
+      </c>
     </row>
-    <row r="25" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19539,11 +19602,14 @@
       <c r="JM25" s="12">
         <v>14439</v>
       </c>
-      <c r="JN25" s="13">
+      <c r="JN25" s="12">
         <v>14512</v>
       </c>
+      <c r="JO25" s="13">
+        <v>14490</v>
+      </c>
     </row>
-    <row r="26" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20363,11 +20429,14 @@
       <c r="JM26" s="12">
         <v>34797</v>
       </c>
-      <c r="JN26" s="13">
+      <c r="JN26" s="12">
         <v>34911</v>
       </c>
+      <c r="JO26" s="13">
+        <v>34766</v>
+      </c>
     </row>
-    <row r="27" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21187,11 +21256,14 @@
       <c r="JM27" s="12">
         <v>29096</v>
       </c>
-      <c r="JN27" s="13">
+      <c r="JN27" s="12">
         <v>29302</v>
       </c>
+      <c r="JO27" s="13">
+        <v>29396</v>
+      </c>
     </row>
-    <row r="28" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22011,11 +22083,14 @@
       <c r="JM28" s="12">
         <v>19835</v>
       </c>
-      <c r="JN28" s="13">
+      <c r="JN28" s="12">
         <v>20108</v>
       </c>
+      <c r="JO28" s="13">
+        <v>20179</v>
+      </c>
     </row>
-    <row r="29" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22835,11 +22910,14 @@
       <c r="JM29" s="12">
         <v>23744</v>
       </c>
-      <c r="JN29" s="13">
+      <c r="JN29" s="12">
         <v>23830</v>
       </c>
+      <c r="JO29" s="13">
+        <v>23810</v>
+      </c>
     </row>
-    <row r="30" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23659,11 +23737,14 @@
       <c r="JM30" s="12">
         <v>43163</v>
       </c>
-      <c r="JN30" s="13">
+      <c r="JN30" s="12">
         <v>43261</v>
       </c>
+      <c r="JO30" s="13">
+        <v>43273</v>
+      </c>
     </row>
-    <row r="31" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24483,11 +24564,14 @@
       <c r="JM31" s="12">
         <v>38919</v>
       </c>
-      <c r="JN31" s="13">
+      <c r="JN31" s="12">
         <v>39151</v>
       </c>
+      <c r="JO31" s="13">
+        <v>39292</v>
+      </c>
     </row>
-    <row r="32" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25307,11 +25391,14 @@
       <c r="JM32" s="12">
         <v>11596</v>
       </c>
-      <c r="JN32" s="13">
+      <c r="JN32" s="12">
         <v>11633</v>
       </c>
+      <c r="JO32" s="13">
+        <v>11626</v>
+      </c>
     </row>
-    <row r="33" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26131,11 +26218,14 @@
       <c r="JM33" s="12">
         <v>34737</v>
       </c>
-      <c r="JN33" s="13">
+      <c r="JN33" s="12">
         <v>34725</v>
       </c>
+      <c r="JO33" s="13">
+        <v>34667</v>
+      </c>
     </row>
-    <row r="34" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -26955,11 +27045,14 @@
       <c r="JM34" s="12">
         <v>5455</v>
       </c>
-      <c r="JN34" s="13">
+      <c r="JN34" s="12">
         <v>5467</v>
       </c>
+      <c r="JO34" s="13">
+        <v>5462</v>
+      </c>
     </row>
-    <row r="35" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27779,11 +27872,14 @@
       <c r="JM35" s="12">
         <v>44149</v>
       </c>
-      <c r="JN35" s="13">
+      <c r="JN35" s="12">
         <v>44276</v>
       </c>
+      <c r="JO35" s="13">
+        <v>44222</v>
+      </c>
     </row>
-    <row r="36" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28603,11 +28699,14 @@
       <c r="JM36" s="12">
         <v>21129</v>
       </c>
-      <c r="JN36" s="13">
+      <c r="JN36" s="12">
         <v>21273</v>
       </c>
+      <c r="JO36" s="13">
+        <v>21204</v>
+      </c>
     </row>
-    <row r="37" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29427,11 +29526,14 @@
       <c r="JM37" s="12">
         <v>12023</v>
       </c>
-      <c r="JN37" s="13">
+      <c r="JN37" s="12">
         <v>12040</v>
       </c>
+      <c r="JO37" s="13">
+        <v>12031</v>
+      </c>
     </row>
-    <row r="38" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30251,11 +30353,14 @@
       <c r="JM38" s="10">
         <v>1061454</v>
       </c>
-      <c r="JN38" s="30">
+      <c r="JN38" s="10">
         <v>1064631</v>
       </c>
+      <c r="JO38" s="30">
+        <v>1064787</v>
+      </c>
     </row>
-    <row r="40" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-julio 2022</t>
+    <t>Diciembre 1997-agosto 2022</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,10 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JO40"/>
+  <dimension ref="A1:JP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JO6" sqref="JO6"/>
+      <selection pane="topRight" activeCell="JS33" sqref="JS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="275" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="276" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,9 +1416,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:275" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="3" spans="1:276" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2240,12 +2240,15 @@
       <c r="JN4" s="21">
         <v>2022</v>
       </c>
-      <c r="JO4" s="29">
+      <c r="JO4" s="21">
         <v>2022</v>
       </c>
+      <c r="JP4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3065,11 +3068,14 @@
       <c r="JN5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="JO5" s="32" t="s">
+      <c r="JO5" s="33" t="s">
         <v>35</v>
       </c>
+      <c r="JP5" s="32" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3892,11 +3898,14 @@
       <c r="JN6" s="12">
         <v>16756</v>
       </c>
-      <c r="JO6" s="13">
+      <c r="JO6" s="12">
         <v>16757</v>
       </c>
+      <c r="JP6" s="13">
+        <v>16755</v>
+      </c>
     </row>
-    <row r="7" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4719,11 +4728,14 @@
       <c r="JN7" s="12">
         <v>44751</v>
       </c>
-      <c r="JO7" s="13">
+      <c r="JO7" s="12">
         <v>44387</v>
       </c>
+      <c r="JP7" s="13">
+        <v>44462</v>
+      </c>
     </row>
-    <row r="8" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5546,11 +5558,14 @@
       <c r="JN8" s="12">
         <v>14487</v>
       </c>
-      <c r="JO8" s="13">
+      <c r="JO8" s="12">
         <v>14512</v>
       </c>
+      <c r="JP8" s="13">
+        <v>14588</v>
+      </c>
     </row>
-    <row r="9" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6373,11 +6388,14 @@
       <c r="JN9" s="12">
         <v>6332</v>
       </c>
-      <c r="JO9" s="13">
+      <c r="JO9" s="12">
         <v>6365</v>
       </c>
+      <c r="JP9" s="13">
+        <v>6404</v>
+      </c>
     </row>
-    <row r="10" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7200,11 +7218,14 @@
       <c r="JN10" s="12">
         <v>14830</v>
       </c>
-      <c r="JO10" s="13">
+      <c r="JO10" s="12">
         <v>14813</v>
       </c>
+      <c r="JP10" s="13">
+        <v>14835</v>
+      </c>
     </row>
-    <row r="11" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8027,11 +8048,14 @@
       <c r="JN11" s="12">
         <v>42452</v>
       </c>
-      <c r="JO11" s="13">
+      <c r="JO11" s="12">
         <v>42398</v>
       </c>
+      <c r="JP11" s="13">
+        <v>42383</v>
+      </c>
     </row>
-    <row r="12" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8854,11 +8878,14 @@
       <c r="JN12" s="12">
         <v>126545</v>
       </c>
-      <c r="JO12" s="13">
+      <c r="JO12" s="12">
         <v>126772</v>
       </c>
+      <c r="JP12" s="13">
+        <v>127108</v>
+      </c>
     </row>
-    <row r="13" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9681,11 +9708,14 @@
       <c r="JN13" s="12">
         <v>35828</v>
       </c>
-      <c r="JO13" s="13">
+      <c r="JO13" s="12">
         <v>35784</v>
       </c>
+      <c r="JP13" s="13">
+        <v>35816</v>
+      </c>
     </row>
-    <row r="14" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10508,11 +10538,14 @@
       <c r="JN14" s="12">
         <v>11541</v>
       </c>
-      <c r="JO14" s="13">
+      <c r="JO14" s="12">
         <v>11563</v>
       </c>
+      <c r="JP14" s="13">
+        <v>11625</v>
+      </c>
     </row>
-    <row r="15" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11335,11 +11368,14 @@
       <c r="JN15" s="12">
         <v>14676</v>
       </c>
-      <c r="JO15" s="13">
+      <c r="JO15" s="12">
         <v>14641</v>
       </c>
+      <c r="JP15" s="13">
+        <v>14655</v>
+      </c>
     </row>
-    <row r="16" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12162,11 +12198,14 @@
       <c r="JN16" s="12">
         <v>78102</v>
       </c>
-      <c r="JO16" s="13">
+      <c r="JO16" s="12">
         <v>78218</v>
       </c>
+      <c r="JP16" s="13">
+        <v>78492</v>
+      </c>
     </row>
-    <row r="17" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12989,11 +13028,14 @@
       <c r="JN17" s="12">
         <v>49689</v>
       </c>
-      <c r="JO17" s="13">
+      <c r="JO17" s="12">
         <v>49725</v>
       </c>
+      <c r="JP17" s="13">
+        <v>49801</v>
+      </c>
     </row>
-    <row r="18" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13816,11 +13858,14 @@
       <c r="JN18" s="12">
         <v>13679</v>
       </c>
-      <c r="JO18" s="13">
+      <c r="JO18" s="12">
         <v>13710</v>
       </c>
+      <c r="JP18" s="13">
+        <v>13775</v>
+      </c>
     </row>
-    <row r="19" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14643,11 +14688,14 @@
       <c r="JN19" s="12">
         <v>16178</v>
       </c>
-      <c r="JO19" s="13">
+      <c r="JO19" s="12">
         <v>16207</v>
       </c>
+      <c r="JP19" s="13">
+        <v>16259</v>
+      </c>
     </row>
-    <row r="20" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15470,11 +15518,14 @@
       <c r="JN20" s="26">
         <v>104918</v>
       </c>
-      <c r="JO20" s="34">
+      <c r="JO20" s="26">
         <v>105078</v>
       </c>
+      <c r="JP20" s="35">
+        <v>105454</v>
+      </c>
     </row>
-    <row r="21" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16297,11 +16348,14 @@
       <c r="JN21" s="12">
         <v>37244</v>
       </c>
-      <c r="JO21" s="13">
+      <c r="JO21" s="12">
         <v>37185</v>
       </c>
+      <c r="JP21" s="13">
+        <v>37273</v>
+      </c>
     </row>
-    <row r="22" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17124,11 +17178,14 @@
       <c r="JN22" s="12">
         <v>12630</v>
       </c>
-      <c r="JO22" s="13">
+      <c r="JO22" s="12">
         <v>12659</v>
       </c>
+      <c r="JP22" s="13">
+        <v>12656</v>
+      </c>
     </row>
-    <row r="23" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17951,11 +18008,14 @@
       <c r="JN23" s="12">
         <v>13677</v>
       </c>
-      <c r="JO23" s="13">
+      <c r="JO23" s="12">
         <v>13706</v>
       </c>
+      <c r="JP23" s="13">
+        <v>13772</v>
+      </c>
     </row>
-    <row r="24" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18778,11 +18838,14 @@
       <c r="JN24" s="12">
         <v>75827</v>
       </c>
-      <c r="JO24" s="13">
+      <c r="JO24" s="12">
         <v>75889</v>
       </c>
+      <c r="JP24" s="13">
+        <v>76111</v>
+      </c>
     </row>
-    <row r="25" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19605,11 +19668,14 @@
       <c r="JN25" s="12">
         <v>14512</v>
       </c>
-      <c r="JO25" s="13">
+      <c r="JO25" s="12">
         <v>14490</v>
       </c>
+      <c r="JP25" s="13">
+        <v>14509</v>
+      </c>
     </row>
-    <row r="26" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20432,11 +20498,14 @@
       <c r="JN26" s="12">
         <v>34911</v>
       </c>
-      <c r="JO26" s="13">
+      <c r="JO26" s="12">
         <v>34766</v>
       </c>
+      <c r="JP26" s="13">
+        <v>34917</v>
+      </c>
     </row>
-    <row r="27" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21259,11 +21328,14 @@
       <c r="JN27" s="12">
         <v>29302</v>
       </c>
-      <c r="JO27" s="13">
+      <c r="JO27" s="12">
         <v>29396</v>
       </c>
+      <c r="JP27" s="13">
+        <v>29505</v>
+      </c>
     </row>
-    <row r="28" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22086,11 +22158,14 @@
       <c r="JN28" s="12">
         <v>20108</v>
       </c>
-      <c r="JO28" s="13">
+      <c r="JO28" s="12">
         <v>20179</v>
       </c>
+      <c r="JP28" s="13">
+        <v>20311</v>
+      </c>
     </row>
-    <row r="29" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22913,11 +22988,14 @@
       <c r="JN29" s="12">
         <v>23830</v>
       </c>
-      <c r="JO29" s="13">
+      <c r="JO29" s="12">
         <v>23810</v>
       </c>
+      <c r="JP29" s="13">
+        <v>23845</v>
+      </c>
     </row>
-    <row r="30" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23740,11 +23818,14 @@
       <c r="JN30" s="12">
         <v>43261</v>
       </c>
-      <c r="JO30" s="13">
+      <c r="JO30" s="12">
         <v>43273</v>
       </c>
+      <c r="JP30" s="13">
+        <v>43393</v>
+      </c>
     </row>
-    <row r="31" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24567,11 +24648,14 @@
       <c r="JN31" s="12">
         <v>39151</v>
       </c>
-      <c r="JO31" s="13">
+      <c r="JO31" s="12">
         <v>39292</v>
       </c>
+      <c r="JP31" s="13">
+        <v>39374</v>
+      </c>
     </row>
-    <row r="32" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25394,11 +25478,14 @@
       <c r="JN32" s="12">
         <v>11633</v>
       </c>
-      <c r="JO32" s="13">
+      <c r="JO32" s="12">
         <v>11626</v>
       </c>
+      <c r="JP32" s="13">
+        <v>11695</v>
+      </c>
     </row>
-    <row r="33" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26221,11 +26308,14 @@
       <c r="JN33" s="12">
         <v>34725</v>
       </c>
-      <c r="JO33" s="13">
+      <c r="JO33" s="12">
         <v>34667</v>
       </c>
+      <c r="JP33" s="13">
+        <v>34651</v>
+      </c>
     </row>
-    <row r="34" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27048,11 +27138,14 @@
       <c r="JN34" s="12">
         <v>5467</v>
       </c>
-      <c r="JO34" s="13">
+      <c r="JO34" s="12">
         <v>5462</v>
       </c>
+      <c r="JP34" s="13">
+        <v>5519</v>
+      </c>
     </row>
-    <row r="35" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27875,11 +27968,14 @@
       <c r="JN35" s="12">
         <v>44276</v>
       </c>
-      <c r="JO35" s="13">
+      <c r="JO35" s="12">
         <v>44222</v>
       </c>
+      <c r="JP35" s="13">
+        <v>44205</v>
+      </c>
     </row>
-    <row r="36" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28702,11 +28798,14 @@
       <c r="JN36" s="12">
         <v>21273</v>
       </c>
-      <c r="JO36" s="13">
+      <c r="JO36" s="12">
         <v>21204</v>
       </c>
+      <c r="JP36" s="13">
+        <v>21309</v>
+      </c>
     </row>
-    <row r="37" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29529,11 +29628,14 @@
       <c r="JN37" s="12">
         <v>12040</v>
       </c>
-      <c r="JO37" s="13">
+      <c r="JO37" s="12">
         <v>12031</v>
       </c>
+      <c r="JP37" s="13">
+        <v>12029</v>
+      </c>
     </row>
-    <row r="38" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30356,11 +30458,14 @@
       <c r="JN38" s="10">
         <v>1064631</v>
       </c>
-      <c r="JO38" s="30">
+      <c r="JO38" s="10">
         <v>1064787</v>
       </c>
+      <c r="JP38" s="30">
+        <v>1067486</v>
+      </c>
     </row>
-    <row r="40" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-agosto 2022</t>
+    <t>Diciembre 1997-septiembre 2022</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JP40"/>
+  <dimension ref="A1:JQ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS33" sqref="JS33"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="276" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="277" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,8 +1416,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:276" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:277" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>26</v>
       </c>
@@ -2243,11 +2243,14 @@
       <c r="JO4" s="21">
         <v>2022</v>
       </c>
-      <c r="JP4" s="29">
+      <c r="JP4" s="21">
         <v>2022</v>
       </c>
+      <c r="JQ4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3071,11 +3074,14 @@
       <c r="JO5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="JP5" s="32" t="s">
+      <c r="JP5" s="33" t="s">
         <v>36</v>
       </c>
+      <c r="JQ5" s="32" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3901,11 +3907,14 @@
       <c r="JO6" s="12">
         <v>16757</v>
       </c>
-      <c r="JP6" s="13">
+      <c r="JP6" s="12">
         <v>16755</v>
       </c>
+      <c r="JQ6" s="13">
+        <v>16722</v>
+      </c>
     </row>
-    <row r="7" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4731,11 +4740,14 @@
       <c r="JO7" s="12">
         <v>44387</v>
       </c>
-      <c r="JP7" s="13">
+      <c r="JP7" s="12">
         <v>44462</v>
       </c>
+      <c r="JQ7" s="13">
+        <v>44544</v>
+      </c>
     </row>
-    <row r="8" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5561,11 +5573,14 @@
       <c r="JO8" s="12">
         <v>14512</v>
       </c>
-      <c r="JP8" s="13">
+      <c r="JP8" s="12">
         <v>14588</v>
       </c>
+      <c r="JQ8" s="13">
+        <v>14593</v>
+      </c>
     </row>
-    <row r="9" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6391,11 +6406,14 @@
       <c r="JO9" s="12">
         <v>6365</v>
       </c>
-      <c r="JP9" s="13">
+      <c r="JP9" s="12">
         <v>6404</v>
       </c>
+      <c r="JQ9" s="13">
+        <v>6411</v>
+      </c>
     </row>
-    <row r="10" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7221,11 +7239,14 @@
       <c r="JO10" s="12">
         <v>14813</v>
       </c>
-      <c r="JP10" s="13">
+      <c r="JP10" s="12">
         <v>14835</v>
       </c>
+      <c r="JQ10" s="13">
+        <v>14805</v>
+      </c>
     </row>
-    <row r="11" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8051,11 +8072,14 @@
       <c r="JO11" s="12">
         <v>42398</v>
       </c>
-      <c r="JP11" s="13">
+      <c r="JP11" s="12">
         <v>42383</v>
       </c>
+      <c r="JQ11" s="13">
+        <v>42282</v>
+      </c>
     </row>
-    <row r="12" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8881,11 +8905,14 @@
       <c r="JO12" s="12">
         <v>126772</v>
       </c>
-      <c r="JP12" s="13">
+      <c r="JP12" s="12">
         <v>127108</v>
       </c>
+      <c r="JQ12" s="13">
+        <v>127017</v>
+      </c>
     </row>
-    <row r="13" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9711,11 +9738,14 @@
       <c r="JO13" s="12">
         <v>35784</v>
       </c>
-      <c r="JP13" s="13">
+      <c r="JP13" s="12">
         <v>35816</v>
       </c>
+      <c r="JQ13" s="13">
+        <v>35742</v>
+      </c>
     </row>
-    <row r="14" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10541,11 +10571,14 @@
       <c r="JO14" s="12">
         <v>11563</v>
       </c>
-      <c r="JP14" s="13">
+      <c r="JP14" s="12">
         <v>11625</v>
       </c>
+      <c r="JQ14" s="13">
+        <v>11600</v>
+      </c>
     </row>
-    <row r="15" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11371,11 +11404,14 @@
       <c r="JO15" s="12">
         <v>14641</v>
       </c>
-      <c r="JP15" s="13">
+      <c r="JP15" s="12">
         <v>14655</v>
       </c>
+      <c r="JQ15" s="13">
+        <v>14574</v>
+      </c>
     </row>
-    <row r="16" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12201,11 +12237,14 @@
       <c r="JO16" s="12">
         <v>78218</v>
       </c>
-      <c r="JP16" s="13">
+      <c r="JP16" s="12">
         <v>78492</v>
       </c>
+      <c r="JQ16" s="13">
+        <v>78279</v>
+      </c>
     </row>
-    <row r="17" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13031,11 +13070,14 @@
       <c r="JO17" s="12">
         <v>49725</v>
       </c>
-      <c r="JP17" s="13">
+      <c r="JP17" s="12">
         <v>49801</v>
       </c>
+      <c r="JQ17" s="13">
+        <v>49745</v>
+      </c>
     </row>
-    <row r="18" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13861,11 +13903,14 @@
       <c r="JO18" s="12">
         <v>13710</v>
       </c>
-      <c r="JP18" s="13">
+      <c r="JP18" s="12">
         <v>13775</v>
       </c>
+      <c r="JQ18" s="13">
+        <v>13770</v>
+      </c>
     </row>
-    <row r="19" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14691,11 +14736,14 @@
       <c r="JO19" s="12">
         <v>16207</v>
       </c>
-      <c r="JP19" s="13">
+      <c r="JP19" s="12">
         <v>16259</v>
       </c>
+      <c r="JQ19" s="13">
+        <v>16307</v>
+      </c>
     </row>
-    <row r="20" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15521,11 +15569,14 @@
       <c r="JO20" s="26">
         <v>105078</v>
       </c>
-      <c r="JP20" s="35">
+      <c r="JP20" s="26">
         <v>105454</v>
       </c>
+      <c r="JQ20" s="35">
+        <v>105603</v>
+      </c>
     </row>
-    <row r="21" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16351,11 +16402,14 @@
       <c r="JO21" s="12">
         <v>37185</v>
       </c>
-      <c r="JP21" s="13">
+      <c r="JP21" s="12">
         <v>37273</v>
       </c>
+      <c r="JQ21" s="13">
+        <v>37282</v>
+      </c>
     </row>
-    <row r="22" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17181,11 +17235,14 @@
       <c r="JO22" s="12">
         <v>12659</v>
       </c>
-      <c r="JP22" s="13">
+      <c r="JP22" s="12">
         <v>12656</v>
       </c>
+      <c r="JQ22" s="13">
+        <v>12632</v>
+      </c>
     </row>
-    <row r="23" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18011,11 +18068,14 @@
       <c r="JO23" s="12">
         <v>13706</v>
       </c>
-      <c r="JP23" s="13">
+      <c r="JP23" s="12">
         <v>13772</v>
       </c>
+      <c r="JQ23" s="13">
+        <v>13797</v>
+      </c>
     </row>
-    <row r="24" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18841,11 +18901,14 @@
       <c r="JO24" s="12">
         <v>75889</v>
       </c>
-      <c r="JP24" s="13">
+      <c r="JP24" s="12">
         <v>76111</v>
       </c>
+      <c r="JQ24" s="13">
+        <v>76016</v>
+      </c>
     </row>
-    <row r="25" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19671,11 +19734,14 @@
       <c r="JO25" s="12">
         <v>14490</v>
       </c>
-      <c r="JP25" s="13">
+      <c r="JP25" s="12">
         <v>14509</v>
       </c>
+      <c r="JQ25" s="13">
+        <v>14501</v>
+      </c>
     </row>
-    <row r="26" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20501,11 +20567,14 @@
       <c r="JO26" s="12">
         <v>34766</v>
       </c>
-      <c r="JP26" s="13">
+      <c r="JP26" s="12">
         <v>34917</v>
       </c>
+      <c r="JQ26" s="13">
+        <v>34973</v>
+      </c>
     </row>
-    <row r="27" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21331,11 +21400,14 @@
       <c r="JO27" s="12">
         <v>29396</v>
       </c>
-      <c r="JP27" s="13">
+      <c r="JP27" s="12">
         <v>29505</v>
       </c>
+      <c r="JQ27" s="13">
+        <v>29483</v>
+      </c>
     </row>
-    <row r="28" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22161,11 +22233,14 @@
       <c r="JO28" s="12">
         <v>20179</v>
       </c>
-      <c r="JP28" s="13">
+      <c r="JP28" s="12">
         <v>20311</v>
       </c>
+      <c r="JQ28" s="13">
+        <v>20426</v>
+      </c>
     </row>
-    <row r="29" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -22991,11 +23066,14 @@
       <c r="JO29" s="12">
         <v>23810</v>
       </c>
-      <c r="JP29" s="13">
+      <c r="JP29" s="12">
         <v>23845</v>
       </c>
+      <c r="JQ29" s="13">
+        <v>23824</v>
+      </c>
     </row>
-    <row r="30" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23821,11 +23899,14 @@
       <c r="JO30" s="12">
         <v>43273</v>
       </c>
-      <c r="JP30" s="13">
+      <c r="JP30" s="12">
         <v>43393</v>
       </c>
+      <c r="JQ30" s="13">
+        <v>43396</v>
+      </c>
     </row>
-    <row r="31" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24651,11 +24732,14 @@
       <c r="JO31" s="12">
         <v>39292</v>
       </c>
-      <c r="JP31" s="13">
+      <c r="JP31" s="12">
         <v>39374</v>
       </c>
+      <c r="JQ31" s="13">
+        <v>39157</v>
+      </c>
     </row>
-    <row r="32" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25481,11 +25565,14 @@
       <c r="JO32" s="12">
         <v>11626</v>
       </c>
-      <c r="JP32" s="13">
+      <c r="JP32" s="12">
         <v>11695</v>
       </c>
+      <c r="JQ32" s="13">
+        <v>11727</v>
+      </c>
     </row>
-    <row r="33" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26311,11 +26398,14 @@
       <c r="JO33" s="12">
         <v>34667</v>
       </c>
-      <c r="JP33" s="13">
+      <c r="JP33" s="12">
         <v>34651</v>
       </c>
+      <c r="JQ33" s="13">
+        <v>34566</v>
+      </c>
     </row>
-    <row r="34" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27141,11 +27231,14 @@
       <c r="JO34" s="12">
         <v>5462</v>
       </c>
-      <c r="JP34" s="13">
+      <c r="JP34" s="12">
         <v>5519</v>
       </c>
+      <c r="JQ34" s="13">
+        <v>5505</v>
+      </c>
     </row>
-    <row r="35" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27971,11 +28064,14 @@
       <c r="JO35" s="12">
         <v>44222</v>
       </c>
-      <c r="JP35" s="13">
+      <c r="JP35" s="12">
         <v>44205</v>
       </c>
+      <c r="JQ35" s="13">
+        <v>44070</v>
+      </c>
     </row>
-    <row r="36" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28801,11 +28897,14 @@
       <c r="JO36" s="12">
         <v>21204</v>
       </c>
-      <c r="JP36" s="13">
+      <c r="JP36" s="12">
         <v>21309</v>
       </c>
+      <c r="JQ36" s="13">
+        <v>21305</v>
+      </c>
     </row>
-    <row r="37" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29631,11 +29730,14 @@
       <c r="JO37" s="12">
         <v>12031</v>
       </c>
-      <c r="JP37" s="13">
+      <c r="JP37" s="12">
         <v>12029</v>
       </c>
+      <c r="JQ37" s="13">
+        <v>11966</v>
+      </c>
     </row>
-    <row r="38" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30461,11 +30563,14 @@
       <c r="JO38" s="10">
         <v>1064787</v>
       </c>
-      <c r="JP38" s="30">
+      <c r="JP38" s="10">
         <v>1067486</v>
       </c>
+      <c r="JQ38" s="30">
+        <v>1066620</v>
+      </c>
     </row>
-    <row r="40" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997-septiembre 2022</t>
+    <t>Diciembre 1997 - octubre 2022</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,10 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JQ40"/>
+  <dimension ref="A1:JR40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="JU11" sqref="JU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="277" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="278" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,9 +1416,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:277" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:277" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="3" spans="1:278" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:278" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="22">
@@ -2246,12 +2246,15 @@
       <c r="JP4" s="21">
         <v>2022</v>
       </c>
-      <c r="JQ4" s="29">
+      <c r="JQ4" s="21">
         <v>2022</v>
       </c>
+      <c r="JR4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:277" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:278" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
@@ -3077,11 +3080,14 @@
       <c r="JP5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="JQ5" s="32" t="s">
+      <c r="JQ5" s="33" t="s">
         <v>37</v>
       </c>
+      <c r="JR5" s="32" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3910,11 +3916,14 @@
       <c r="JP6" s="12">
         <v>16755</v>
       </c>
-      <c r="JQ6" s="13">
+      <c r="JQ6" s="12">
         <v>16722</v>
       </c>
+      <c r="JR6" s="13">
+        <v>16710</v>
+      </c>
     </row>
-    <row r="7" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4743,11 +4752,14 @@
       <c r="JP7" s="12">
         <v>44462</v>
       </c>
-      <c r="JQ7" s="13">
+      <c r="JQ7" s="12">
         <v>44544</v>
       </c>
+      <c r="JR7" s="13">
+        <v>44714</v>
+      </c>
     </row>
-    <row r="8" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5576,11 +5588,14 @@
       <c r="JP8" s="12">
         <v>14588</v>
       </c>
-      <c r="JQ8" s="13">
+      <c r="JQ8" s="12">
         <v>14593</v>
       </c>
+      <c r="JR8" s="13">
+        <v>14700</v>
+      </c>
     </row>
-    <row r="9" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6409,11 +6424,14 @@
       <c r="JP9" s="12">
         <v>6404</v>
       </c>
-      <c r="JQ9" s="13">
+      <c r="JQ9" s="12">
         <v>6411</v>
       </c>
+      <c r="JR9" s="13">
+        <v>6457</v>
+      </c>
     </row>
-    <row r="10" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7242,11 +7260,14 @@
       <c r="JP10" s="12">
         <v>14835</v>
       </c>
-      <c r="JQ10" s="13">
+      <c r="JQ10" s="12">
         <v>14805</v>
       </c>
+      <c r="JR10" s="13">
+        <v>14834</v>
+      </c>
     </row>
-    <row r="11" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8075,11 +8096,14 @@
       <c r="JP11" s="12">
         <v>42383</v>
       </c>
-      <c r="JQ11" s="13">
+      <c r="JQ11" s="12">
         <v>42282</v>
       </c>
+      <c r="JR11" s="13">
+        <v>42399</v>
+      </c>
     </row>
-    <row r="12" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8908,11 +8932,14 @@
       <c r="JP12" s="12">
         <v>127108</v>
       </c>
-      <c r="JQ12" s="13">
+      <c r="JQ12" s="12">
         <v>127017</v>
       </c>
+      <c r="JR12" s="13">
+        <v>127138</v>
+      </c>
     </row>
-    <row r="13" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9741,11 +9768,14 @@
       <c r="JP13" s="12">
         <v>35816</v>
       </c>
-      <c r="JQ13" s="13">
+      <c r="JQ13" s="12">
         <v>35742</v>
       </c>
+      <c r="JR13" s="13">
+        <v>35793</v>
+      </c>
     </row>
-    <row r="14" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10574,11 +10604,14 @@
       <c r="JP14" s="12">
         <v>11625</v>
       </c>
-      <c r="JQ14" s="13">
+      <c r="JQ14" s="12">
         <v>11600</v>
       </c>
+      <c r="JR14" s="13">
+        <v>11643</v>
+      </c>
     </row>
-    <row r="15" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11407,11 +11440,14 @@
       <c r="JP15" s="12">
         <v>14655</v>
       </c>
-      <c r="JQ15" s="13">
+      <c r="JQ15" s="12">
         <v>14574</v>
       </c>
+      <c r="JR15" s="13">
+        <v>14584</v>
+      </c>
     </row>
-    <row r="16" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12240,11 +12276,14 @@
       <c r="JP16" s="12">
         <v>78492</v>
       </c>
-      <c r="JQ16" s="13">
+      <c r="JQ16" s="12">
         <v>78279</v>
       </c>
+      <c r="JR16" s="13">
+        <v>78348</v>
+      </c>
     </row>
-    <row r="17" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13073,11 +13112,14 @@
       <c r="JP17" s="12">
         <v>49801</v>
       </c>
-      <c r="JQ17" s="13">
+      <c r="JQ17" s="12">
         <v>49745</v>
       </c>
+      <c r="JR17" s="13">
+        <v>49706</v>
+      </c>
     </row>
-    <row r="18" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13906,11 +13948,14 @@
       <c r="JP18" s="12">
         <v>13775</v>
       </c>
-      <c r="JQ18" s="13">
+      <c r="JQ18" s="12">
         <v>13770</v>
       </c>
+      <c r="JR18" s="13">
+        <v>13802</v>
+      </c>
     </row>
-    <row r="19" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14739,11 +14784,14 @@
       <c r="JP19" s="12">
         <v>16259</v>
       </c>
-      <c r="JQ19" s="13">
+      <c r="JQ19" s="12">
         <v>16307</v>
       </c>
+      <c r="JR19" s="13">
+        <v>16312</v>
+      </c>
     </row>
-    <row r="20" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15572,11 +15620,14 @@
       <c r="JP20" s="26">
         <v>105454</v>
       </c>
-      <c r="JQ20" s="35">
+      <c r="JQ20" s="26">
         <v>105603</v>
       </c>
+      <c r="JR20" s="34">
+        <v>105902</v>
+      </c>
     </row>
-    <row r="21" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16405,11 +16456,14 @@
       <c r="JP21" s="12">
         <v>37273</v>
       </c>
-      <c r="JQ21" s="13">
+      <c r="JQ21" s="12">
         <v>37282</v>
       </c>
+      <c r="JR21" s="13">
+        <v>37352</v>
+      </c>
     </row>
-    <row r="22" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17238,11 +17292,14 @@
       <c r="JP22" s="12">
         <v>12656</v>
       </c>
-      <c r="JQ22" s="13">
+      <c r="JQ22" s="12">
         <v>12632</v>
       </c>
+      <c r="JR22" s="13">
+        <v>12659</v>
+      </c>
     </row>
-    <row r="23" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18071,11 +18128,14 @@
       <c r="JP23" s="12">
         <v>13772</v>
       </c>
-      <c r="JQ23" s="13">
+      <c r="JQ23" s="12">
         <v>13797</v>
       </c>
+      <c r="JR23" s="13">
+        <v>13880</v>
+      </c>
     </row>
-    <row r="24" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18904,11 +18964,14 @@
       <c r="JP24" s="12">
         <v>76111</v>
       </c>
-      <c r="JQ24" s="13">
+      <c r="JQ24" s="12">
         <v>76016</v>
       </c>
+      <c r="JR24" s="13">
+        <v>76282</v>
+      </c>
     </row>
-    <row r="25" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19737,11 +19800,14 @@
       <c r="JP25" s="12">
         <v>14509</v>
       </c>
-      <c r="JQ25" s="13">
+      <c r="JQ25" s="12">
         <v>14501</v>
       </c>
+      <c r="JR25" s="13">
+        <v>14562</v>
+      </c>
     </row>
-    <row r="26" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20570,11 +20636,14 @@
       <c r="JP26" s="12">
         <v>34917</v>
       </c>
-      <c r="JQ26" s="13">
+      <c r="JQ26" s="12">
         <v>34973</v>
       </c>
+      <c r="JR26" s="13">
+        <v>35060</v>
+      </c>
     </row>
-    <row r="27" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21403,11 +21472,14 @@
       <c r="JP27" s="12">
         <v>29505</v>
       </c>
-      <c r="JQ27" s="13">
+      <c r="JQ27" s="12">
         <v>29483</v>
       </c>
+      <c r="JR27" s="13">
+        <v>29643</v>
+      </c>
     </row>
-    <row r="28" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22236,11 +22308,14 @@
       <c r="JP28" s="12">
         <v>20311</v>
       </c>
-      <c r="JQ28" s="13">
+      <c r="JQ28" s="12">
         <v>20426</v>
       </c>
+      <c r="JR28" s="13">
+        <v>20596</v>
+      </c>
     </row>
-    <row r="29" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23069,11 +23144,14 @@
       <c r="JP29" s="12">
         <v>23845</v>
       </c>
-      <c r="JQ29" s="13">
+      <c r="JQ29" s="12">
         <v>23824</v>
       </c>
+      <c r="JR29" s="13">
+        <v>23864</v>
+      </c>
     </row>
-    <row r="30" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23902,11 +23980,14 @@
       <c r="JP30" s="12">
         <v>43393</v>
       </c>
-      <c r="JQ30" s="13">
+      <c r="JQ30" s="12">
         <v>43396</v>
       </c>
+      <c r="JR30" s="13">
+        <v>43482</v>
+      </c>
     </row>
-    <row r="31" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24735,11 +24816,14 @@
       <c r="JP31" s="12">
         <v>39374</v>
       </c>
-      <c r="JQ31" s="13">
+      <c r="JQ31" s="12">
         <v>39157</v>
       </c>
+      <c r="JR31" s="13">
+        <v>39113</v>
+      </c>
     </row>
-    <row r="32" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25568,11 +25652,14 @@
       <c r="JP32" s="12">
         <v>11695</v>
       </c>
-      <c r="JQ32" s="13">
+      <c r="JQ32" s="12">
         <v>11727</v>
       </c>
+      <c r="JR32" s="13">
+        <v>11792</v>
+      </c>
     </row>
-    <row r="33" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26401,11 +26488,14 @@
       <c r="JP33" s="12">
         <v>34651</v>
       </c>
-      <c r="JQ33" s="13">
+      <c r="JQ33" s="12">
         <v>34566</v>
       </c>
+      <c r="JR33" s="13">
+        <v>34493</v>
+      </c>
     </row>
-    <row r="34" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27234,11 +27324,14 @@
       <c r="JP34" s="12">
         <v>5519</v>
       </c>
-      <c r="JQ34" s="13">
+      <c r="JQ34" s="12">
         <v>5505</v>
       </c>
+      <c r="JR34" s="13">
+        <v>5536</v>
+      </c>
     </row>
-    <row r="35" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28067,11 +28160,14 @@
       <c r="JP35" s="12">
         <v>44205</v>
       </c>
-      <c r="JQ35" s="13">
+      <c r="JQ35" s="12">
         <v>44070</v>
       </c>
+      <c r="JR35" s="13">
+        <v>44046</v>
+      </c>
     </row>
-    <row r="36" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28900,11 +28996,14 @@
       <c r="JP36" s="12">
         <v>21309</v>
       </c>
-      <c r="JQ36" s="13">
+      <c r="JQ36" s="12">
         <v>21305</v>
       </c>
+      <c r="JR36" s="13">
+        <v>21431</v>
+      </c>
     </row>
-    <row r="37" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29733,11 +29832,14 @@
       <c r="JP37" s="12">
         <v>12029</v>
       </c>
-      <c r="JQ37" s="13">
+      <c r="JQ37" s="12">
         <v>11966</v>
       </c>
+      <c r="JR37" s="13">
+        <v>11961</v>
+      </c>
     </row>
-    <row r="38" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30566,11 +30668,14 @@
       <c r="JP38" s="10">
         <v>1067486</v>
       </c>
-      <c r="JQ38" s="30">
+      <c r="JQ38" s="10">
         <v>1066620</v>
       </c>
+      <c r="JR38" s="30">
+        <v>1068794</v>
+      </c>
     </row>
-    <row r="40" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - octubre 2022</t>
+    <t>Diciembre 1997 - noviembre 2022</t>
   </si>
 </sst>
 </file>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JR40"/>
+  <dimension ref="A1:JS40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JU11" sqref="JU11"/>
+      <selection pane="topRight" activeCell="JV19" sqref="JV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="278" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="279" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,8 +1416,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:278" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:279" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2249,11 +2249,14 @@
       <c r="JQ4" s="21">
         <v>2022</v>
       </c>
-      <c r="JR4" s="29">
+      <c r="JR4" s="21">
         <v>2022</v>
       </c>
+      <c r="JS4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3083,11 +3086,14 @@
       <c r="JQ5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="JR5" s="32" t="s">
+      <c r="JR5" s="33" t="s">
         <v>38</v>
       </c>
+      <c r="JS5" s="32" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3919,11 +3925,14 @@
       <c r="JQ6" s="12">
         <v>16722</v>
       </c>
-      <c r="JR6" s="13">
+      <c r="JR6" s="12">
         <v>16710</v>
       </c>
+      <c r="JS6" s="13">
+        <v>16698</v>
+      </c>
     </row>
-    <row r="7" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4755,11 +4764,14 @@
       <c r="JQ7" s="12">
         <v>44544</v>
       </c>
-      <c r="JR7" s="13">
+      <c r="JR7" s="12">
         <v>44714</v>
       </c>
+      <c r="JS7" s="13">
+        <v>44819</v>
+      </c>
     </row>
-    <row r="8" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5591,11 +5603,14 @@
       <c r="JQ8" s="12">
         <v>14593</v>
       </c>
-      <c r="JR8" s="13">
+      <c r="JR8" s="12">
         <v>14700</v>
       </c>
+      <c r="JS8" s="13">
+        <v>14786</v>
+      </c>
     </row>
-    <row r="9" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6427,11 +6442,14 @@
       <c r="JQ9" s="12">
         <v>6411</v>
       </c>
-      <c r="JR9" s="13">
+      <c r="JR9" s="12">
         <v>6457</v>
       </c>
+      <c r="JS9" s="13">
+        <v>6443</v>
+      </c>
     </row>
-    <row r="10" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7263,11 +7281,14 @@
       <c r="JQ10" s="12">
         <v>14805</v>
       </c>
-      <c r="JR10" s="13">
+      <c r="JR10" s="12">
         <v>14834</v>
       </c>
+      <c r="JS10" s="13">
+        <v>14861</v>
+      </c>
     </row>
-    <row r="11" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8099,11 +8120,14 @@
       <c r="JQ11" s="12">
         <v>42282</v>
       </c>
-      <c r="JR11" s="13">
+      <c r="JR11" s="12">
         <v>42399</v>
       </c>
+      <c r="JS11" s="13">
+        <v>42371</v>
+      </c>
     </row>
-    <row r="12" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8935,11 +8959,14 @@
       <c r="JQ12" s="12">
         <v>127017</v>
       </c>
-      <c r="JR12" s="13">
+      <c r="JR12" s="12">
         <v>127138</v>
       </c>
+      <c r="JS12" s="13">
+        <v>126815</v>
+      </c>
     </row>
-    <row r="13" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9771,11 +9798,14 @@
       <c r="JQ13" s="12">
         <v>35742</v>
       </c>
-      <c r="JR13" s="13">
+      <c r="JR13" s="12">
         <v>35793</v>
       </c>
+      <c r="JS13" s="13">
+        <v>35796</v>
+      </c>
     </row>
-    <row r="14" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10607,11 +10637,14 @@
       <c r="JQ14" s="12">
         <v>11600</v>
       </c>
-      <c r="JR14" s="13">
+      <c r="JR14" s="12">
         <v>11643</v>
       </c>
+      <c r="JS14" s="13">
+        <v>11674</v>
+      </c>
     </row>
-    <row r="15" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11443,11 +11476,14 @@
       <c r="JQ15" s="12">
         <v>14574</v>
       </c>
-      <c r="JR15" s="13">
+      <c r="JR15" s="12">
         <v>14584</v>
       </c>
+      <c r="JS15" s="13">
+        <v>14583</v>
+      </c>
     </row>
-    <row r="16" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12279,11 +12315,14 @@
       <c r="JQ16" s="12">
         <v>78279</v>
       </c>
-      <c r="JR16" s="13">
+      <c r="JR16" s="12">
         <v>78348</v>
       </c>
+      <c r="JS16" s="13">
+        <v>78267</v>
+      </c>
     </row>
-    <row r="17" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13115,11 +13154,14 @@
       <c r="JQ17" s="12">
         <v>49745</v>
       </c>
-      <c r="JR17" s="13">
+      <c r="JR17" s="12">
         <v>49706</v>
       </c>
+      <c r="JS17" s="13">
+        <v>49740</v>
+      </c>
     </row>
-    <row r="18" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13951,11 +13993,14 @@
       <c r="JQ18" s="12">
         <v>13770</v>
       </c>
-      <c r="JR18" s="13">
+      <c r="JR18" s="12">
         <v>13802</v>
       </c>
+      <c r="JS18" s="13">
+        <v>13820</v>
+      </c>
     </row>
-    <row r="19" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14787,11 +14832,14 @@
       <c r="JQ19" s="12">
         <v>16307</v>
       </c>
-      <c r="JR19" s="13">
+      <c r="JR19" s="12">
         <v>16312</v>
       </c>
+      <c r="JS19" s="13">
+        <v>16318</v>
+      </c>
     </row>
-    <row r="20" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15623,11 +15671,14 @@
       <c r="JQ20" s="26">
         <v>105603</v>
       </c>
-      <c r="JR20" s="34">
+      <c r="JR20" s="26">
         <v>105902</v>
       </c>
+      <c r="JS20" s="34">
+        <v>105908</v>
+      </c>
     </row>
-    <row r="21" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16459,11 +16510,14 @@
       <c r="JQ21" s="12">
         <v>37282</v>
       </c>
-      <c r="JR21" s="13">
+      <c r="JR21" s="12">
         <v>37352</v>
       </c>
+      <c r="JS21" s="13">
+        <v>37289</v>
+      </c>
     </row>
-    <row r="22" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17295,11 +17349,14 @@
       <c r="JQ22" s="12">
         <v>12632</v>
       </c>
-      <c r="JR22" s="13">
+      <c r="JR22" s="12">
         <v>12659</v>
       </c>
+      <c r="JS22" s="13">
+        <v>12625</v>
+      </c>
     </row>
-    <row r="23" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18131,11 +18188,14 @@
       <c r="JQ23" s="12">
         <v>13797</v>
       </c>
-      <c r="JR23" s="13">
+      <c r="JR23" s="12">
         <v>13880</v>
       </c>
+      <c r="JS23" s="13">
+        <v>13888</v>
+      </c>
     </row>
-    <row r="24" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -18967,11 +19027,14 @@
       <c r="JQ24" s="12">
         <v>76016</v>
       </c>
-      <c r="JR24" s="13">
+      <c r="JR24" s="12">
         <v>76282</v>
       </c>
+      <c r="JS24" s="13">
+        <v>76316</v>
+      </c>
     </row>
-    <row r="25" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19803,11 +19866,14 @@
       <c r="JQ25" s="12">
         <v>14501</v>
       </c>
-      <c r="JR25" s="13">
+      <c r="JR25" s="12">
         <v>14562</v>
       </c>
+      <c r="JS25" s="13">
+        <v>14553</v>
+      </c>
     </row>
-    <row r="26" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20639,11 +20705,14 @@
       <c r="JQ26" s="12">
         <v>34973</v>
       </c>
-      <c r="JR26" s="13">
+      <c r="JR26" s="12">
         <v>35060</v>
       </c>
+      <c r="JS26" s="13">
+        <v>35048</v>
+      </c>
     </row>
-    <row r="27" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21475,11 +21544,14 @@
       <c r="JQ27" s="12">
         <v>29483</v>
       </c>
-      <c r="JR27" s="13">
+      <c r="JR27" s="12">
         <v>29643</v>
       </c>
+      <c r="JS27" s="13">
+        <v>29711</v>
+      </c>
     </row>
-    <row r="28" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22311,11 +22383,14 @@
       <c r="JQ28" s="12">
         <v>20426</v>
       </c>
-      <c r="JR28" s="13">
+      <c r="JR28" s="12">
         <v>20596</v>
       </c>
+      <c r="JS28" s="13">
+        <v>20780</v>
+      </c>
     </row>
-    <row r="29" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23147,11 +23222,14 @@
       <c r="JQ29" s="12">
         <v>23824</v>
       </c>
-      <c r="JR29" s="13">
+      <c r="JR29" s="12">
         <v>23864</v>
       </c>
+      <c r="JS29" s="13">
+        <v>23845</v>
+      </c>
     </row>
-    <row r="30" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23983,11 +24061,14 @@
       <c r="JQ30" s="12">
         <v>43396</v>
       </c>
-      <c r="JR30" s="13">
+      <c r="JR30" s="12">
         <v>43482</v>
       </c>
+      <c r="JS30" s="13">
+        <v>43476</v>
+      </c>
     </row>
-    <row r="31" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24819,11 +24900,14 @@
       <c r="JQ31" s="12">
         <v>39157</v>
       </c>
-      <c r="JR31" s="13">
+      <c r="JR31" s="12">
         <v>39113</v>
       </c>
+      <c r="JS31" s="13">
+        <v>39037</v>
+      </c>
     </row>
-    <row r="32" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25655,11 +25739,14 @@
       <c r="JQ32" s="12">
         <v>11727</v>
       </c>
-      <c r="JR32" s="13">
+      <c r="JR32" s="12">
         <v>11792</v>
       </c>
+      <c r="JS32" s="13">
+        <v>11795</v>
+      </c>
     </row>
-    <row r="33" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26491,11 +26578,14 @@
       <c r="JQ33" s="12">
         <v>34566</v>
       </c>
-      <c r="JR33" s="13">
+      <c r="JR33" s="12">
         <v>34493</v>
       </c>
+      <c r="JS33" s="13">
+        <v>34367</v>
+      </c>
     </row>
-    <row r="34" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27327,11 +27417,14 @@
       <c r="JQ34" s="12">
         <v>5505</v>
       </c>
-      <c r="JR34" s="13">
+      <c r="JR34" s="12">
         <v>5536</v>
       </c>
+      <c r="JS34" s="13">
+        <v>5590</v>
+      </c>
     </row>
-    <row r="35" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28163,11 +28256,14 @@
       <c r="JQ35" s="12">
         <v>44070</v>
       </c>
-      <c r="JR35" s="13">
+      <c r="JR35" s="12">
         <v>44046</v>
       </c>
+      <c r="JS35" s="13">
+        <v>43864</v>
+      </c>
     </row>
-    <row r="36" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -28999,11 +29095,14 @@
       <c r="JQ36" s="12">
         <v>21305</v>
       </c>
-      <c r="JR36" s="13">
+      <c r="JR36" s="12">
         <v>21431</v>
       </c>
+      <c r="JS36" s="13">
+        <v>21446</v>
+      </c>
     </row>
-    <row r="37" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29835,11 +29934,14 @@
       <c r="JQ37" s="12">
         <v>11966</v>
       </c>
-      <c r="JR37" s="13">
+      <c r="JR37" s="12">
         <v>11961</v>
       </c>
+      <c r="JS37" s="13">
+        <v>11980</v>
+      </c>
     </row>
-    <row r="38" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30671,11 +30773,14 @@
       <c r="JQ38" s="10">
         <v>1066620</v>
       </c>
-      <c r="JR38" s="30">
+      <c r="JR38" s="10">
         <v>1068794</v>
       </c>
+      <c r="JS38" s="30">
+        <v>1068509</v>
+      </c>
     </row>
-    <row r="40" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - noviembre 2022</t>
+    <t>Diciembre 1997 - diciembre 2022</t>
   </si>
 </sst>
 </file>
@@ -1229,11 +1229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JS40"/>
+  <dimension ref="A1:JT40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JV19" sqref="JV19"/>
+      <selection pane="topRight" activeCell="JX17" sqref="JX17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1397,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="279" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="280" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,8 +1416,8 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:279" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:280" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2252,11 +2252,14 @@
       <c r="JR4" s="21">
         <v>2022</v>
       </c>
-      <c r="JS4" s="29">
+      <c r="JS4" s="21">
         <v>2022</v>
       </c>
+      <c r="JT4" s="29">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -3089,11 +3092,14 @@
       <c r="JR5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="JS5" s="32" t="s">
+      <c r="JS5" s="33" t="s">
         <v>39</v>
       </c>
+      <c r="JT5" s="32" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3928,11 +3934,14 @@
       <c r="JR6" s="12">
         <v>16710</v>
       </c>
-      <c r="JS6" s="13">
+      <c r="JS6" s="12">
         <v>16698</v>
       </c>
+      <c r="JT6" s="13">
+        <v>16707</v>
+      </c>
     </row>
-    <row r="7" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4767,11 +4776,14 @@
       <c r="JR7" s="12">
         <v>44714</v>
       </c>
-      <c r="JS7" s="13">
+      <c r="JS7" s="12">
         <v>44819</v>
       </c>
+      <c r="JT7" s="13">
+        <v>44653</v>
+      </c>
     </row>
-    <row r="8" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5606,11 +5618,14 @@
       <c r="JR8" s="12">
         <v>14700</v>
       </c>
-      <c r="JS8" s="13">
+      <c r="JS8" s="12">
         <v>14786</v>
       </c>
+      <c r="JT8" s="13">
+        <v>14759</v>
+      </c>
     </row>
-    <row r="9" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6445,11 +6460,14 @@
       <c r="JR9" s="12">
         <v>6457</v>
       </c>
-      <c r="JS9" s="13">
+      <c r="JS9" s="12">
         <v>6443</v>
       </c>
+      <c r="JT9" s="13">
+        <v>6418</v>
+      </c>
     </row>
-    <row r="10" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7284,11 +7302,14 @@
       <c r="JR10" s="12">
         <v>14834</v>
       </c>
-      <c r="JS10" s="13">
+      <c r="JS10" s="12">
         <v>14861</v>
       </c>
+      <c r="JT10" s="13">
+        <v>14786</v>
+      </c>
     </row>
-    <row r="11" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8123,11 +8144,14 @@
       <c r="JR11" s="12">
         <v>42399</v>
       </c>
-      <c r="JS11" s="13">
+      <c r="JS11" s="12">
         <v>42371</v>
       </c>
+      <c r="JT11" s="13">
+        <v>42300</v>
+      </c>
     </row>
-    <row r="12" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8962,11 +8986,14 @@
       <c r="JR12" s="12">
         <v>127138</v>
       </c>
-      <c r="JS12" s="13">
+      <c r="JS12" s="12">
         <v>126815</v>
       </c>
+      <c r="JT12" s="13">
+        <v>126560</v>
+      </c>
     </row>
-    <row r="13" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9801,11 +9828,14 @@
       <c r="JR13" s="12">
         <v>35793</v>
       </c>
-      <c r="JS13" s="13">
+      <c r="JS13" s="12">
         <v>35796</v>
       </c>
+      <c r="JT13" s="13">
+        <v>35695</v>
+      </c>
     </row>
-    <row r="14" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10640,11 +10670,14 @@
       <c r="JR14" s="12">
         <v>11643</v>
       </c>
-      <c r="JS14" s="13">
+      <c r="JS14" s="12">
         <v>11674</v>
       </c>
+      <c r="JT14" s="13">
+        <v>11673</v>
+      </c>
     </row>
-    <row r="15" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11479,11 +11512,14 @@
       <c r="JR15" s="12">
         <v>14584</v>
       </c>
-      <c r="JS15" s="13">
+      <c r="JS15" s="12">
         <v>14583</v>
       </c>
+      <c r="JT15" s="13">
+        <v>14532</v>
+      </c>
     </row>
-    <row r="16" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12318,11 +12354,14 @@
       <c r="JR16" s="12">
         <v>78348</v>
       </c>
-      <c r="JS16" s="13">
+      <c r="JS16" s="12">
         <v>78267</v>
       </c>
+      <c r="JT16" s="13">
+        <v>78074</v>
+      </c>
     </row>
-    <row r="17" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13157,11 +13196,14 @@
       <c r="JR17" s="12">
         <v>49706</v>
       </c>
-      <c r="JS17" s="13">
+      <c r="JS17" s="12">
         <v>49740</v>
       </c>
+      <c r="JT17" s="13">
+        <v>49507</v>
+      </c>
     </row>
-    <row r="18" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13996,11 +14038,14 @@
       <c r="JR18" s="12">
         <v>13802</v>
       </c>
-      <c r="JS18" s="13">
+      <c r="JS18" s="12">
         <v>13820</v>
       </c>
+      <c r="JT18" s="13">
+        <v>13719</v>
+      </c>
     </row>
-    <row r="19" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14835,11 +14880,14 @@
       <c r="JR19" s="12">
         <v>16312</v>
       </c>
-      <c r="JS19" s="13">
+      <c r="JS19" s="12">
         <v>16318</v>
       </c>
+      <c r="JT19" s="13">
+        <v>16245</v>
+      </c>
     </row>
-    <row r="20" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>12</v>
       </c>
@@ -15674,11 +15722,14 @@
       <c r="JR20" s="26">
         <v>105902</v>
       </c>
-      <c r="JS20" s="34">
+      <c r="JS20" s="26">
         <v>105908</v>
       </c>
+      <c r="JT20" s="34">
+        <v>105675</v>
+      </c>
     </row>
-    <row r="21" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16513,11 +16564,14 @@
       <c r="JR21" s="12">
         <v>37352</v>
       </c>
-      <c r="JS21" s="13">
+      <c r="JS21" s="12">
         <v>37289</v>
       </c>
+      <c r="JT21" s="13">
+        <v>37170</v>
+      </c>
     </row>
-    <row r="22" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17352,11 +17406,14 @@
       <c r="JR22" s="12">
         <v>12659</v>
       </c>
-      <c r="JS22" s="13">
+      <c r="JS22" s="12">
         <v>12625</v>
       </c>
+      <c r="JT22" s="13">
+        <v>12596</v>
+      </c>
     </row>
-    <row r="23" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18191,11 +18248,14 @@
       <c r="JR23" s="12">
         <v>13880</v>
       </c>
-      <c r="JS23" s="13">
+      <c r="JS23" s="12">
         <v>13888</v>
       </c>
+      <c r="JT23" s="13">
+        <v>13869</v>
+      </c>
     </row>
-    <row r="24" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19030,11 +19090,14 @@
       <c r="JR24" s="12">
         <v>76282</v>
       </c>
-      <c r="JS24" s="13">
+      <c r="JS24" s="12">
         <v>76316</v>
       </c>
+      <c r="JT24" s="13">
+        <v>76087</v>
+      </c>
     </row>
-    <row r="25" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19869,11 +19932,14 @@
       <c r="JR25" s="12">
         <v>14562</v>
       </c>
-      <c r="JS25" s="13">
+      <c r="JS25" s="12">
         <v>14553</v>
       </c>
+      <c r="JT25" s="13">
+        <v>14448</v>
+      </c>
     </row>
-    <row r="26" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20708,11 +20774,14 @@
       <c r="JR26" s="12">
         <v>35060</v>
       </c>
-      <c r="JS26" s="13">
+      <c r="JS26" s="12">
         <v>35048</v>
       </c>
+      <c r="JT26" s="13">
+        <v>35020</v>
+      </c>
     </row>
-    <row r="27" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21547,11 +21616,14 @@
       <c r="JR27" s="12">
         <v>29643</v>
       </c>
-      <c r="JS27" s="13">
+      <c r="JS27" s="12">
         <v>29711</v>
       </c>
+      <c r="JT27" s="13">
+        <v>29588</v>
+      </c>
     </row>
-    <row r="28" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22386,11 +22458,14 @@
       <c r="JR28" s="12">
         <v>20596</v>
       </c>
-      <c r="JS28" s="13">
+      <c r="JS28" s="12">
         <v>20780</v>
       </c>
+      <c r="JT28" s="13">
+        <v>20714</v>
+      </c>
     </row>
-    <row r="29" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23225,11 +23300,14 @@
       <c r="JR29" s="12">
         <v>23864</v>
       </c>
-      <c r="JS29" s="13">
+      <c r="JS29" s="12">
         <v>23845</v>
       </c>
+      <c r="JT29" s="13">
+        <v>23802</v>
+      </c>
     </row>
-    <row r="30" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24064,11 +24142,14 @@
       <c r="JR30" s="12">
         <v>43482</v>
       </c>
-      <c r="JS30" s="13">
+      <c r="JS30" s="12">
         <v>43476</v>
       </c>
+      <c r="JT30" s="13">
+        <v>43507</v>
+      </c>
     </row>
-    <row r="31" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24903,11 +24984,14 @@
       <c r="JR31" s="12">
         <v>39113</v>
       </c>
-      <c r="JS31" s="13">
+      <c r="JS31" s="12">
         <v>39037</v>
       </c>
+      <c r="JT31" s="13">
+        <v>39024</v>
+      </c>
     </row>
-    <row r="32" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25742,11 +25826,14 @@
       <c r="JR32" s="12">
         <v>11792</v>
       </c>
-      <c r="JS32" s="13">
+      <c r="JS32" s="12">
         <v>11795</v>
       </c>
+      <c r="JT32" s="13">
+        <v>11763</v>
+      </c>
     </row>
-    <row r="33" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26581,11 +26668,14 @@
       <c r="JR33" s="12">
         <v>34493</v>
       </c>
-      <c r="JS33" s="13">
+      <c r="JS33" s="12">
         <v>34367</v>
       </c>
+      <c r="JT33" s="13">
+        <v>34174</v>
+      </c>
     </row>
-    <row r="34" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27420,11 +27510,14 @@
       <c r="JR34" s="12">
         <v>5536</v>
       </c>
-      <c r="JS34" s="13">
+      <c r="JS34" s="12">
         <v>5590</v>
       </c>
+      <c r="JT34" s="13">
+        <v>5549</v>
+      </c>
     </row>
-    <row r="35" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28259,11 +28352,14 @@
       <c r="JR35" s="12">
         <v>44046</v>
       </c>
-      <c r="JS35" s="13">
+      <c r="JS35" s="12">
         <v>43864</v>
       </c>
+      <c r="JT35" s="13">
+        <v>43533</v>
+      </c>
     </row>
-    <row r="36" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -29098,11 +29194,14 @@
       <c r="JR36" s="12">
         <v>21431</v>
       </c>
-      <c r="JS36" s="13">
+      <c r="JS36" s="12">
         <v>21446</v>
       </c>
+      <c r="JT36" s="13">
+        <v>21443</v>
+      </c>
     </row>
-    <row r="37" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29937,11 +30036,14 @@
       <c r="JR37" s="12">
         <v>11961</v>
       </c>
-      <c r="JS37" s="13">
+      <c r="JS37" s="12">
         <v>11980</v>
       </c>
+      <c r="JT37" s="13">
+        <v>11966</v>
+      </c>
     </row>
-    <row r="38" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -30776,11 +30878,14 @@
       <c r="JR38" s="10">
         <v>1068794</v>
       </c>
-      <c r="JS38" s="30">
+      <c r="JS38" s="10">
         <v>1068509</v>
       </c>
+      <c r="JT38" s="30">
+        <v>1065556</v>
+      </c>
     </row>
-    <row r="40" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - diciembre 2022</t>
+    <t>Diciembre 1997 - enero 2023</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -768,6 +768,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +842,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -832,7 +858,6 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,10 +902,18 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JT40"/>
+  <dimension ref="A1:JU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JX17" sqref="JX17"/>
+      <pane xSplit="1" topLeftCell="JD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KA18" sqref="KA18:KA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1397,10 +1430,10 @@
     <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
     <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
     <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="280" width="11.375" style="7" customWidth="1"/>
+    <col min="269" max="281" width="11.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:281" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1441,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:281" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1416,858 +1449,861 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:280" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:280" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="3" spans="1:281" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:281" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1997</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>1998</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>1999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>2000</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>2000</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>2000</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>2000</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>2000</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>2000</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>2000</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>2000</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>2000</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>2000</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>2000</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <v>2000</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>2001</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>2001</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="15">
         <v>2001</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <v>2001</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="15">
         <v>2001</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <v>2001</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="15">
         <v>2001</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="15">
         <v>2001</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="15">
         <v>2001</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="15">
         <v>2001</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="15">
         <v>2001</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="15">
         <v>2001</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AC4" s="14">
         <v>2002</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="15">
         <v>2002</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="15">
         <v>2002</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="15">
         <v>2002</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="15">
         <v>2002</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="15">
         <v>2002</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="15">
         <v>2002</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="15">
         <v>2002</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="15">
         <v>2002</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="15">
         <v>2002</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AM4" s="15">
         <v>2002</v>
       </c>
-      <c r="AN4" s="16">
+      <c r="AN4" s="15">
         <v>2002</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="14">
         <v>2003</v>
       </c>
-      <c r="AP4" s="16">
+      <c r="AP4" s="15">
         <v>2003</v>
       </c>
-      <c r="AQ4" s="16">
+      <c r="AQ4" s="15">
         <v>2003</v>
       </c>
-      <c r="AR4" s="16">
+      <c r="AR4" s="15">
         <v>2003</v>
       </c>
-      <c r="AS4" s="16">
+      <c r="AS4" s="15">
         <v>2003</v>
       </c>
-      <c r="AT4" s="16">
+      <c r="AT4" s="15">
         <v>2003</v>
       </c>
-      <c r="AU4" s="16">
+      <c r="AU4" s="15">
         <v>2003</v>
       </c>
-      <c r="AV4" s="16">
+      <c r="AV4" s="15">
         <v>2003</v>
       </c>
-      <c r="AW4" s="16">
+      <c r="AW4" s="15">
         <v>2003</v>
       </c>
-      <c r="AX4" s="16">
+      <c r="AX4" s="15">
         <v>2003</v>
       </c>
-      <c r="AY4" s="16">
+      <c r="AY4" s="15">
         <v>2003</v>
       </c>
-      <c r="AZ4" s="16">
+      <c r="AZ4" s="15">
         <v>2003</v>
       </c>
-      <c r="BA4" s="15">
+      <c r="BA4" s="14">
         <v>2004</v>
       </c>
-      <c r="BB4" s="16">
+      <c r="BB4" s="15">
         <v>2004</v>
       </c>
-      <c r="BC4" s="16">
+      <c r="BC4" s="15">
         <v>2004</v>
       </c>
-      <c r="BD4" s="16">
+      <c r="BD4" s="15">
         <v>2004</v>
       </c>
-      <c r="BE4" s="16">
+      <c r="BE4" s="15">
         <v>2004</v>
       </c>
-      <c r="BF4" s="16">
+      <c r="BF4" s="15">
         <v>2004</v>
       </c>
-      <c r="BG4" s="16">
+      <c r="BG4" s="15">
         <v>2004</v>
       </c>
-      <c r="BH4" s="16">
+      <c r="BH4" s="15">
         <v>2004</v>
       </c>
-      <c r="BI4" s="16">
+      <c r="BI4" s="15">
         <v>2004</v>
       </c>
-      <c r="BJ4" s="16">
+      <c r="BJ4" s="15">
         <v>2004</v>
       </c>
-      <c r="BK4" s="16">
+      <c r="BK4" s="15">
         <v>2004</v>
       </c>
-      <c r="BL4" s="16">
+      <c r="BL4" s="15">
         <v>2004</v>
       </c>
-      <c r="BM4" s="15">
+      <c r="BM4" s="14">
         <v>2005</v>
       </c>
-      <c r="BN4" s="16">
+      <c r="BN4" s="15">
         <v>2005</v>
       </c>
-      <c r="BO4" s="16">
+      <c r="BO4" s="15">
         <v>2005</v>
       </c>
-      <c r="BP4" s="16">
+      <c r="BP4" s="15">
         <v>2005</v>
       </c>
-      <c r="BQ4" s="16">
+      <c r="BQ4" s="15">
         <v>2005</v>
       </c>
-      <c r="BR4" s="16">
+      <c r="BR4" s="15">
         <v>2005</v>
       </c>
-      <c r="BS4" s="16">
+      <c r="BS4" s="15">
         <v>2005</v>
       </c>
-      <c r="BT4" s="16">
+      <c r="BT4" s="15">
         <v>2005</v>
       </c>
-      <c r="BU4" s="16">
+      <c r="BU4" s="15">
         <v>2005</v>
       </c>
-      <c r="BV4" s="16">
+      <c r="BV4" s="15">
         <v>2005</v>
       </c>
-      <c r="BW4" s="16">
+      <c r="BW4" s="15">
         <v>2005</v>
       </c>
-      <c r="BX4" s="16">
+      <c r="BX4" s="15">
         <v>2005</v>
       </c>
-      <c r="BY4" s="15">
+      <c r="BY4" s="14">
         <v>2006</v>
       </c>
-      <c r="BZ4" s="16">
+      <c r="BZ4" s="15">
         <v>2006</v>
       </c>
-      <c r="CA4" s="16">
+      <c r="CA4" s="15">
         <v>2006</v>
       </c>
-      <c r="CB4" s="16">
+      <c r="CB4" s="15">
         <v>2006</v>
       </c>
-      <c r="CC4" s="16">
+      <c r="CC4" s="15">
         <v>2006</v>
       </c>
-      <c r="CD4" s="16">
+      <c r="CD4" s="15">
         <v>2006</v>
       </c>
-      <c r="CE4" s="16">
+      <c r="CE4" s="15">
         <v>2006</v>
       </c>
-      <c r="CF4" s="16">
+      <c r="CF4" s="15">
         <v>2006</v>
       </c>
-      <c r="CG4" s="16">
+      <c r="CG4" s="15">
         <v>2006</v>
       </c>
-      <c r="CH4" s="16">
+      <c r="CH4" s="15">
         <v>2006</v>
       </c>
-      <c r="CI4" s="16">
+      <c r="CI4" s="15">
         <v>2006</v>
       </c>
-      <c r="CJ4" s="16">
+      <c r="CJ4" s="15">
         <v>2006</v>
       </c>
-      <c r="CK4" s="15">
+      <c r="CK4" s="14">
         <v>2007</v>
       </c>
-      <c r="CL4" s="16">
+      <c r="CL4" s="15">
         <v>2007</v>
       </c>
-      <c r="CM4" s="16">
+      <c r="CM4" s="15">
         <v>2007</v>
       </c>
-      <c r="CN4" s="16">
+      <c r="CN4" s="15">
         <v>2007</v>
       </c>
-      <c r="CO4" s="16">
+      <c r="CO4" s="15">
         <v>2007</v>
       </c>
-      <c r="CP4" s="16">
+      <c r="CP4" s="15">
         <v>2007</v>
       </c>
-      <c r="CQ4" s="16">
+      <c r="CQ4" s="15">
         <v>2007</v>
       </c>
-      <c r="CR4" s="16">
+      <c r="CR4" s="15">
         <v>2007</v>
       </c>
-      <c r="CS4" s="16">
+      <c r="CS4" s="15">
         <v>2007</v>
       </c>
-      <c r="CT4" s="16">
+      <c r="CT4" s="15">
         <v>2007</v>
       </c>
-      <c r="CU4" s="16">
+      <c r="CU4" s="15">
         <v>2007</v>
       </c>
-      <c r="CV4" s="16">
+      <c r="CV4" s="15">
         <v>2007</v>
       </c>
-      <c r="CW4" s="15">
+      <c r="CW4" s="14">
         <v>2008</v>
       </c>
-      <c r="CX4" s="16">
+      <c r="CX4" s="15">
         <v>2008</v>
       </c>
-      <c r="CY4" s="16">
+      <c r="CY4" s="15">
         <v>2008</v>
       </c>
-      <c r="CZ4" s="16">
+      <c r="CZ4" s="15">
         <v>2008</v>
       </c>
-      <c r="DA4" s="16">
+      <c r="DA4" s="15">
         <v>2008</v>
       </c>
-      <c r="DB4" s="16">
+      <c r="DB4" s="15">
         <v>2008</v>
       </c>
-      <c r="DC4" s="16">
+      <c r="DC4" s="15">
         <v>2008</v>
       </c>
-      <c r="DD4" s="16">
+      <c r="DD4" s="15">
         <v>2008</v>
       </c>
-      <c r="DE4" s="16">
+      <c r="DE4" s="15">
         <v>2008</v>
       </c>
-      <c r="DF4" s="16">
+      <c r="DF4" s="15">
         <v>2008</v>
       </c>
-      <c r="DG4" s="16">
+      <c r="DG4" s="15">
         <v>2008</v>
       </c>
-      <c r="DH4" s="16">
+      <c r="DH4" s="15">
         <v>2008</v>
       </c>
-      <c r="DI4" s="15">
+      <c r="DI4" s="14">
         <v>2009</v>
       </c>
-      <c r="DJ4" s="16">
+      <c r="DJ4" s="15">
         <v>2009</v>
       </c>
-      <c r="DK4" s="16">
+      <c r="DK4" s="15">
         <v>2009</v>
       </c>
-      <c r="DL4" s="16">
+      <c r="DL4" s="15">
         <v>2009</v>
       </c>
-      <c r="DM4" s="16">
+      <c r="DM4" s="15">
         <v>2009</v>
       </c>
-      <c r="DN4" s="16">
+      <c r="DN4" s="15">
         <v>2009</v>
       </c>
-      <c r="DO4" s="16">
+      <c r="DO4" s="15">
         <v>2009</v>
       </c>
-      <c r="DP4" s="16">
+      <c r="DP4" s="15">
         <v>2009</v>
       </c>
-      <c r="DQ4" s="16">
+      <c r="DQ4" s="15">
         <v>2009</v>
       </c>
-      <c r="DR4" s="16">
+      <c r="DR4" s="15">
         <v>2009</v>
       </c>
-      <c r="DS4" s="16">
+      <c r="DS4" s="15">
         <v>2009</v>
       </c>
-      <c r="DT4" s="16">
+      <c r="DT4" s="15">
         <v>2009</v>
       </c>
-      <c r="DU4" s="15">
+      <c r="DU4" s="14">
         <v>2010</v>
       </c>
-      <c r="DV4" s="16">
+      <c r="DV4" s="15">
         <v>2010</v>
       </c>
-      <c r="DW4" s="16">
+      <c r="DW4" s="15">
         <v>2010</v>
       </c>
-      <c r="DX4" s="16">
+      <c r="DX4" s="15">
         <v>2010</v>
       </c>
-      <c r="DY4" s="16">
+      <c r="DY4" s="15">
         <v>2010</v>
       </c>
-      <c r="DZ4" s="16">
+      <c r="DZ4" s="15">
         <v>2010</v>
       </c>
-      <c r="EA4" s="16">
+      <c r="EA4" s="15">
         <v>2010</v>
       </c>
-      <c r="EB4" s="16">
+      <c r="EB4" s="15">
         <v>2010</v>
       </c>
-      <c r="EC4" s="16">
+      <c r="EC4" s="15">
         <v>2010</v>
       </c>
-      <c r="ED4" s="16">
+      <c r="ED4" s="15">
         <v>2010</v>
       </c>
-      <c r="EE4" s="16">
+      <c r="EE4" s="15">
         <v>2010</v>
       </c>
-      <c r="EF4" s="16">
+      <c r="EF4" s="15">
         <v>2010</v>
       </c>
-      <c r="EG4" s="15">
+      <c r="EG4" s="14">
         <v>2011</v>
       </c>
-      <c r="EH4" s="16">
+      <c r="EH4" s="15">
         <v>2011</v>
       </c>
-      <c r="EI4" s="16">
+      <c r="EI4" s="15">
         <v>2011</v>
       </c>
-      <c r="EJ4" s="16">
+      <c r="EJ4" s="15">
         <v>2011</v>
       </c>
-      <c r="EK4" s="16">
+      <c r="EK4" s="15">
         <v>2011</v>
       </c>
-      <c r="EL4" s="16">
+      <c r="EL4" s="15">
         <v>2011</v>
       </c>
-      <c r="EM4" s="16">
+      <c r="EM4" s="15">
         <v>2011</v>
       </c>
-      <c r="EN4" s="16">
+      <c r="EN4" s="15">
         <v>2011</v>
       </c>
-      <c r="EO4" s="16">
+      <c r="EO4" s="15">
         <v>2011</v>
       </c>
-      <c r="EP4" s="16">
+      <c r="EP4" s="15">
         <v>2011</v>
       </c>
-      <c r="EQ4" s="16">
+      <c r="EQ4" s="15">
         <v>2011</v>
       </c>
-      <c r="ER4" s="16">
+      <c r="ER4" s="15">
         <v>2011</v>
       </c>
-      <c r="ES4" s="15">
+      <c r="ES4" s="14">
         <v>2012</v>
       </c>
-      <c r="ET4" s="16">
+      <c r="ET4" s="15">
         <v>2012</v>
       </c>
-      <c r="EU4" s="16">
+      <c r="EU4" s="15">
         <v>2012</v>
       </c>
-      <c r="EV4" s="16">
+      <c r="EV4" s="15">
         <v>2012</v>
       </c>
-      <c r="EW4" s="16">
+      <c r="EW4" s="15">
         <v>2012</v>
       </c>
-      <c r="EX4" s="16">
+      <c r="EX4" s="15">
         <v>2012</v>
       </c>
-      <c r="EY4" s="16">
+      <c r="EY4" s="15">
         <v>2012</v>
       </c>
-      <c r="EZ4" s="16">
+      <c r="EZ4" s="15">
         <v>2012</v>
       </c>
-      <c r="FA4" s="16">
+      <c r="FA4" s="15">
         <v>2012</v>
       </c>
-      <c r="FB4" s="16">
+      <c r="FB4" s="15">
         <v>2012</v>
       </c>
-      <c r="FC4" s="16">
+      <c r="FC4" s="15">
         <v>2012</v>
       </c>
-      <c r="FD4" s="16">
+      <c r="FD4" s="15">
         <v>2012</v>
       </c>
-      <c r="FE4" s="15">
+      <c r="FE4" s="14">
         <v>2013</v>
       </c>
-      <c r="FF4" s="16">
+      <c r="FF4" s="15">
         <v>2013</v>
       </c>
-      <c r="FG4" s="16">
+      <c r="FG4" s="15">
         <v>2013</v>
       </c>
-      <c r="FH4" s="16">
+      <c r="FH4" s="15">
         <v>2013</v>
       </c>
-      <c r="FI4" s="16">
+      <c r="FI4" s="15">
         <v>2013</v>
       </c>
-      <c r="FJ4" s="16">
+      <c r="FJ4" s="15">
         <v>2013</v>
       </c>
-      <c r="FK4" s="16">
+      <c r="FK4" s="15">
         <v>2013</v>
       </c>
-      <c r="FL4" s="16">
+      <c r="FL4" s="15">
         <v>2013</v>
       </c>
-      <c r="FM4" s="16">
+      <c r="FM4" s="15">
         <v>2013</v>
       </c>
-      <c r="FN4" s="16">
+      <c r="FN4" s="15">
         <v>2013</v>
       </c>
-      <c r="FO4" s="16">
+      <c r="FO4" s="15">
         <v>2013</v>
       </c>
-      <c r="FP4" s="16">
+      <c r="FP4" s="15">
         <v>2013</v>
       </c>
-      <c r="FQ4" s="15">
+      <c r="FQ4" s="14">
         <v>2014</v>
       </c>
-      <c r="FR4" s="16">
+      <c r="FR4" s="15">
         <v>2014</v>
       </c>
-      <c r="FS4" s="16">
+      <c r="FS4" s="15">
         <v>2014</v>
       </c>
-      <c r="FT4" s="16">
+      <c r="FT4" s="15">
         <v>2014</v>
       </c>
-      <c r="FU4" s="16">
+      <c r="FU4" s="15">
         <v>2014</v>
       </c>
-      <c r="FV4" s="16">
+      <c r="FV4" s="15">
         <v>2014</v>
       </c>
-      <c r="FW4" s="16">
+      <c r="FW4" s="15">
         <v>2014</v>
       </c>
-      <c r="FX4" s="16">
+      <c r="FX4" s="15">
         <v>2014</v>
       </c>
-      <c r="FY4" s="16">
+      <c r="FY4" s="15">
         <v>2014</v>
       </c>
-      <c r="FZ4" s="16">
+      <c r="FZ4" s="15">
         <v>2014</v>
       </c>
-      <c r="GA4" s="16">
+      <c r="GA4" s="15">
         <v>2014</v>
       </c>
-      <c r="GB4" s="16">
+      <c r="GB4" s="15">
         <v>2014</v>
       </c>
-      <c r="GC4" s="15">
+      <c r="GC4" s="14">
         <v>2015</v>
       </c>
-      <c r="GD4" s="16">
+      <c r="GD4" s="15">
         <v>2015</v>
       </c>
-      <c r="GE4" s="16">
+      <c r="GE4" s="15">
         <v>2015</v>
       </c>
-      <c r="GF4" s="16">
+      <c r="GF4" s="15">
         <v>2015</v>
       </c>
-      <c r="GG4" s="16">
+      <c r="GG4" s="15">
         <v>2015</v>
       </c>
-      <c r="GH4" s="16">
+      <c r="GH4" s="15">
         <v>2015</v>
       </c>
-      <c r="GI4" s="16">
+      <c r="GI4" s="15">
         <v>2015</v>
       </c>
-      <c r="GJ4" s="16">
+      <c r="GJ4" s="15">
         <v>2015</v>
       </c>
-      <c r="GK4" s="16">
+      <c r="GK4" s="15">
         <v>2015</v>
       </c>
-      <c r="GL4" s="16">
+      <c r="GL4" s="15">
         <v>2015</v>
       </c>
-      <c r="GM4" s="16">
+      <c r="GM4" s="15">
         <v>2015</v>
       </c>
-      <c r="GN4" s="16">
+      <c r="GN4" s="15">
         <v>2015</v>
       </c>
-      <c r="GO4" s="15">
+      <c r="GO4" s="14">
         <v>2016</v>
       </c>
-      <c r="GP4" s="16">
+      <c r="GP4" s="15">
         <v>2016</v>
       </c>
-      <c r="GQ4" s="16">
+      <c r="GQ4" s="15">
         <v>2016</v>
       </c>
-      <c r="GR4" s="16">
+      <c r="GR4" s="15">
         <v>2016</v>
       </c>
-      <c r="GS4" s="16">
+      <c r="GS4" s="15">
         <v>2016</v>
       </c>
-      <c r="GT4" s="16">
+      <c r="GT4" s="15">
         <v>2016</v>
       </c>
-      <c r="GU4" s="16">
+      <c r="GU4" s="15">
         <v>2016</v>
       </c>
-      <c r="GV4" s="16">
+      <c r="GV4" s="15">
         <v>2016</v>
       </c>
-      <c r="GW4" s="16">
+      <c r="GW4" s="15">
         <v>2016</v>
       </c>
-      <c r="GX4" s="16">
+      <c r="GX4" s="15">
         <v>2016</v>
       </c>
-      <c r="GY4" s="16">
+      <c r="GY4" s="15">
         <v>2016</v>
       </c>
-      <c r="GZ4" s="16">
+      <c r="GZ4" s="15">
         <v>2016</v>
       </c>
-      <c r="HA4" s="15">
+      <c r="HA4" s="14">
         <v>2017</v>
       </c>
-      <c r="HB4" s="16">
+      <c r="HB4" s="15">
         <v>2017</v>
       </c>
-      <c r="HC4" s="16">
+      <c r="HC4" s="15">
         <v>2017</v>
       </c>
-      <c r="HD4" s="16">
+      <c r="HD4" s="15">
         <v>2017</v>
       </c>
-      <c r="HE4" s="16">
+      <c r="HE4" s="15">
         <v>2017</v>
       </c>
-      <c r="HF4" s="16">
+      <c r="HF4" s="15">
         <v>2017</v>
       </c>
-      <c r="HG4" s="16">
+      <c r="HG4" s="15">
         <v>2017</v>
       </c>
-      <c r="HH4" s="16">
+      <c r="HH4" s="15">
         <v>2017</v>
       </c>
-      <c r="HI4" s="16">
+      <c r="HI4" s="15">
         <v>2017</v>
       </c>
-      <c r="HJ4" s="16">
+      <c r="HJ4" s="15">
         <v>2017</v>
       </c>
-      <c r="HK4" s="16">
+      <c r="HK4" s="15">
         <v>2017</v>
       </c>
-      <c r="HL4" s="16">
+      <c r="HL4" s="15">
         <v>2017</v>
       </c>
-      <c r="HM4" s="15">
+      <c r="HM4" s="14">
         <v>2018</v>
       </c>
-      <c r="HN4" s="16">
+      <c r="HN4" s="15">
         <v>2018</v>
       </c>
-      <c r="HO4" s="16">
+      <c r="HO4" s="15">
         <v>2018</v>
       </c>
-      <c r="HP4" s="16">
+      <c r="HP4" s="15">
         <v>2018</v>
       </c>
-      <c r="HQ4" s="16">
+      <c r="HQ4" s="15">
         <v>2018</v>
       </c>
-      <c r="HR4" s="16">
+      <c r="HR4" s="15">
         <v>2018</v>
       </c>
-      <c r="HS4" s="16">
+      <c r="HS4" s="15">
         <v>2018</v>
       </c>
-      <c r="HT4" s="16">
+      <c r="HT4" s="15">
         <v>2018</v>
       </c>
-      <c r="HU4" s="16">
+      <c r="HU4" s="15">
         <v>2018</v>
       </c>
-      <c r="HV4" s="16">
+      <c r="HV4" s="15">
         <v>2018</v>
       </c>
-      <c r="HW4" s="16">
+      <c r="HW4" s="15">
         <v>2018</v>
       </c>
-      <c r="HX4" s="16">
+      <c r="HX4" s="15">
         <v>2018</v>
       </c>
-      <c r="HY4" s="15">
+      <c r="HY4" s="14">
         <v>2019</v>
       </c>
-      <c r="HZ4" s="16">
+      <c r="HZ4" s="15">
         <v>2019</v>
       </c>
-      <c r="IA4" s="16">
+      <c r="IA4" s="15">
         <v>2019</v>
       </c>
-      <c r="IB4" s="16">
+      <c r="IB4" s="15">
         <v>2019</v>
       </c>
-      <c r="IC4" s="16">
+      <c r="IC4" s="15">
         <v>2019</v>
       </c>
-      <c r="ID4" s="16">
+      <c r="ID4" s="15">
         <v>2019</v>
       </c>
-      <c r="IE4" s="16">
+      <c r="IE4" s="15">
         <v>2019</v>
       </c>
-      <c r="IF4" s="16">
+      <c r="IF4" s="15">
         <v>2019</v>
       </c>
-      <c r="IG4" s="16">
+      <c r="IG4" s="15">
         <v>2019</v>
       </c>
-      <c r="IH4" s="16">
+      <c r="IH4" s="15">
         <v>2019</v>
       </c>
-      <c r="II4" s="16">
+      <c r="II4" s="15">
         <v>2019</v>
       </c>
-      <c r="IJ4" s="16">
+      <c r="IJ4" s="15">
         <v>2019</v>
       </c>
-      <c r="IK4" s="20">
+      <c r="IK4" s="19">
         <v>2020</v>
       </c>
-      <c r="IL4" s="21">
+      <c r="IL4" s="20">
         <v>2020</v>
       </c>
-      <c r="IM4" s="21">
+      <c r="IM4" s="20">
         <v>2020</v>
       </c>
-      <c r="IN4" s="21">
+      <c r="IN4" s="20">
         <v>2020</v>
       </c>
-      <c r="IO4" s="21">
+      <c r="IO4" s="20">
         <v>2020</v>
       </c>
-      <c r="IP4" s="21">
+      <c r="IP4" s="20">
         <v>2020</v>
       </c>
-      <c r="IQ4" s="21">
+      <c r="IQ4" s="20">
         <v>2020</v>
       </c>
-      <c r="IR4" s="21">
+      <c r="IR4" s="20">
         <v>2020</v>
       </c>
-      <c r="IS4" s="21">
+      <c r="IS4" s="20">
         <v>2020</v>
       </c>
-      <c r="IT4" s="21">
+      <c r="IT4" s="20">
         <v>2020</v>
       </c>
-      <c r="IU4" s="21">
+      <c r="IU4" s="20">
         <v>2020</v>
       </c>
-      <c r="IV4" s="21">
+      <c r="IV4" s="20">
         <v>2020</v>
       </c>
-      <c r="IW4" s="20">
+      <c r="IW4" s="19">
         <v>2021</v>
       </c>
-      <c r="IX4" s="21">
+      <c r="IX4" s="20">
         <v>2021</v>
       </c>
-      <c r="IY4" s="21">
+      <c r="IY4" s="20">
         <v>2021</v>
       </c>
-      <c r="IZ4" s="21">
+      <c r="IZ4" s="20">
         <v>2021</v>
       </c>
-      <c r="JA4" s="21">
+      <c r="JA4" s="20">
         <v>2021</v>
       </c>
-      <c r="JB4" s="21">
+      <c r="JB4" s="20">
         <v>2021</v>
       </c>
-      <c r="JC4" s="21">
+      <c r="JC4" s="20">
         <v>2021</v>
       </c>
-      <c r="JD4" s="21">
+      <c r="JD4" s="20">
         <v>2021</v>
       </c>
-      <c r="JE4" s="21">
+      <c r="JE4" s="20">
         <v>2021</v>
       </c>
-      <c r="JF4" s="21">
+      <c r="JF4" s="20">
         <v>2021</v>
       </c>
-      <c r="JG4" s="21">
+      <c r="JG4" s="20">
         <v>2021</v>
       </c>
-      <c r="JH4" s="21">
+      <c r="JH4" s="20">
         <v>2021</v>
       </c>
-      <c r="JI4" s="20">
+      <c r="JI4" s="19">
         <v>2022</v>
       </c>
-      <c r="JJ4" s="21">
+      <c r="JJ4" s="20">
         <v>2022</v>
       </c>
-      <c r="JK4" s="21">
+      <c r="JK4" s="20">
         <v>2022</v>
       </c>
-      <c r="JL4" s="21">
+      <c r="JL4" s="20">
         <v>2022</v>
       </c>
-      <c r="JM4" s="21">
+      <c r="JM4" s="20">
         <v>2022</v>
       </c>
-      <c r="JN4" s="21">
+      <c r="JN4" s="20">
         <v>2022</v>
       </c>
-      <c r="JO4" s="21">
+      <c r="JO4" s="20">
         <v>2022</v>
       </c>
-      <c r="JP4" s="21">
+      <c r="JP4" s="20">
         <v>2022</v>
       </c>
-      <c r="JQ4" s="21">
+      <c r="JQ4" s="20">
         <v>2022</v>
       </c>
-      <c r="JR4" s="21">
+      <c r="JR4" s="20">
         <v>2022</v>
       </c>
-      <c r="JS4" s="21">
+      <c r="JS4" s="20">
         <v>2022</v>
       </c>
-      <c r="JT4" s="29">
+      <c r="JT4" s="28">
         <v>2022</v>
       </c>
+      <c r="JU4" s="35">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:281" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -2990,116 +3026,119 @@
       <c r="IJ5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="IK5" s="27" t="s">
+      <c r="IK5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="IL5" s="28" t="s">
+      <c r="IL5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="IM5" s="28" t="s">
+      <c r="IM5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="IN5" s="28" t="s">
+      <c r="IN5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="IO5" s="28" t="s">
+      <c r="IO5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="IP5" s="28" t="s">
+      <c r="IP5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="IQ5" s="28" t="s">
+      <c r="IQ5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="IR5" s="28" t="s">
+      <c r="IR5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="IS5" s="28" t="s">
+      <c r="IS5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="IT5" s="28" t="s">
+      <c r="IT5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="IU5" s="28" t="s">
+      <c r="IU5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="IV5" s="28" t="s">
+      <c r="IV5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="IW5" s="27" t="s">
+      <c r="IW5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="IX5" s="28" t="s">
+      <c r="IX5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="IY5" s="28" t="s">
+      <c r="IY5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="IZ5" s="28" t="s">
+      <c r="IZ5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="JA5" s="28" t="s">
+      <c r="JA5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="JB5" s="28" t="s">
+      <c r="JB5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="JC5" s="28" t="s">
+      <c r="JC5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="JD5" s="28" t="s">
+      <c r="JD5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="JE5" s="28" t="s">
+      <c r="JE5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="JF5" s="28" t="s">
+      <c r="JF5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="JG5" s="28" t="s">
+      <c r="JG5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="JH5" s="28" t="s">
+      <c r="JH5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="JI5" s="31" t="s">
+      <c r="JI5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="JJ5" s="33" t="s">
+      <c r="JJ5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="JK5" s="33" t="s">
+      <c r="JK5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="JL5" s="33" t="s">
+      <c r="JL5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="JM5" s="33" t="s">
+      <c r="JM5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="JN5" s="33" t="s">
+      <c r="JN5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="JO5" s="33" t="s">
+      <c r="JO5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="JP5" s="33" t="s">
+      <c r="JP5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="JQ5" s="33" t="s">
+      <c r="JQ5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="JR5" s="33" t="s">
+      <c r="JR5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="JS5" s="33" t="s">
+      <c r="JS5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="JT5" s="32" t="s">
+      <c r="JT5" s="31" t="s">
         <v>28</v>
       </c>
+      <c r="JU5" s="36" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3937,11 +3976,14 @@
       <c r="JS6" s="12">
         <v>16698</v>
       </c>
-      <c r="JT6" s="13">
+      <c r="JT6" s="12">
         <v>16707</v>
       </c>
+      <c r="JU6" s="34">
+        <v>16656</v>
+      </c>
     </row>
-    <row r="7" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4779,11 +4821,14 @@
       <c r="JS7" s="12">
         <v>44819</v>
       </c>
-      <c r="JT7" s="13">
+      <c r="JT7" s="12">
         <v>44653</v>
       </c>
+      <c r="JU7" s="4">
+        <v>44615</v>
+      </c>
     </row>
-    <row r="8" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5621,11 +5666,14 @@
       <c r="JS8" s="12">
         <v>14786</v>
       </c>
-      <c r="JT8" s="13">
+      <c r="JT8" s="12">
         <v>14759</v>
       </c>
+      <c r="JU8" s="4">
+        <v>14772</v>
+      </c>
     </row>
-    <row r="9" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6463,11 +6511,14 @@
       <c r="JS9" s="12">
         <v>6443</v>
       </c>
-      <c r="JT9" s="13">
+      <c r="JT9" s="12">
         <v>6418</v>
       </c>
+      <c r="JU9" s="4">
+        <v>6369</v>
+      </c>
     </row>
-    <row r="10" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7305,11 +7356,14 @@
       <c r="JS10" s="12">
         <v>14861</v>
       </c>
-      <c r="JT10" s="13">
+      <c r="JT10" s="12">
         <v>14786</v>
       </c>
+      <c r="JU10" s="4">
+        <v>14747</v>
+      </c>
     </row>
-    <row r="11" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8147,11 +8201,14 @@
       <c r="JS11" s="12">
         <v>42371</v>
       </c>
-      <c r="JT11" s="13">
+      <c r="JT11" s="12">
         <v>42300</v>
       </c>
+      <c r="JU11" s="4">
+        <v>42172</v>
+      </c>
     </row>
-    <row r="12" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -8989,11 +9046,14 @@
       <c r="JS12" s="12">
         <v>126815</v>
       </c>
-      <c r="JT12" s="13">
+      <c r="JT12" s="12">
         <v>126560</v>
       </c>
+      <c r="JU12" s="4">
+        <v>126345</v>
+      </c>
     </row>
-    <row r="13" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9831,11 +9891,14 @@
       <c r="JS13" s="12">
         <v>35796</v>
       </c>
-      <c r="JT13" s="13">
+      <c r="JT13" s="12">
         <v>35695</v>
       </c>
+      <c r="JU13" s="4">
+        <v>35642</v>
+      </c>
     </row>
-    <row r="14" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10673,11 +10736,14 @@
       <c r="JS14" s="12">
         <v>11674</v>
       </c>
-      <c r="JT14" s="13">
+      <c r="JT14" s="12">
         <v>11673</v>
       </c>
+      <c r="JU14" s="4">
+        <v>11607</v>
+      </c>
     </row>
-    <row r="15" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11515,11 +11581,14 @@
       <c r="JS15" s="12">
         <v>14583</v>
       </c>
-      <c r="JT15" s="13">
+      <c r="JT15" s="12">
         <v>14532</v>
       </c>
+      <c r="JU15" s="4">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="16" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12357,11 +12426,14 @@
       <c r="JS16" s="12">
         <v>78267</v>
       </c>
-      <c r="JT16" s="13">
+      <c r="JT16" s="12">
         <v>78074</v>
       </c>
+      <c r="JU16" s="4">
+        <v>77908</v>
+      </c>
     </row>
-    <row r="17" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13199,11 +13271,14 @@
       <c r="JS17" s="12">
         <v>49740</v>
       </c>
-      <c r="JT17" s="13">
+      <c r="JT17" s="12">
         <v>49507</v>
       </c>
+      <c r="JU17" s="4">
+        <v>49458</v>
+      </c>
     </row>
-    <row r="18" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14041,11 +14116,14 @@
       <c r="JS18" s="12">
         <v>13820</v>
       </c>
-      <c r="JT18" s="13">
+      <c r="JT18" s="12">
         <v>13719</v>
       </c>
+      <c r="JU18" s="4">
+        <v>13594</v>
+      </c>
     </row>
-    <row r="19" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14883,853 +14961,859 @@
       <c r="JS19" s="12">
         <v>16318</v>
       </c>
-      <c r="JT19" s="13">
+      <c r="JT19" s="12">
         <v>16245</v>
       </c>
+      <c r="JU19" s="4">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="20" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>58431</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>61754</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>64682</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>64742</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>65193</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>65617</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>65537</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>65847</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>66315</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>66604</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>67092</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>67390</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>67683</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="25">
         <v>68114</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="25">
         <v>67754</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="24">
         <v>67670</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="25">
         <v>68021</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="25">
         <v>68315</v>
       </c>
-      <c r="T20" s="26">
+      <c r="T20" s="25">
         <v>68944</v>
       </c>
-      <c r="U20" s="26">
+      <c r="U20" s="25">
         <v>69277</v>
       </c>
-      <c r="V20" s="26">
+      <c r="V20" s="25">
         <v>69555</v>
       </c>
-      <c r="W20" s="26">
+      <c r="W20" s="25">
         <v>69751</v>
       </c>
-      <c r="X20" s="26">
+      <c r="X20" s="25">
         <v>70430</v>
       </c>
-      <c r="Y20" s="26">
+      <c r="Y20" s="25">
         <v>70666</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="25">
         <v>70967</v>
       </c>
-      <c r="AA20" s="26">
+      <c r="AA20" s="25">
         <v>71309</v>
       </c>
-      <c r="AB20" s="26">
+      <c r="AB20" s="25">
         <v>70983</v>
       </c>
-      <c r="AC20" s="25">
+      <c r="AC20" s="24">
         <v>70868</v>
       </c>
-      <c r="AD20" s="26">
+      <c r="AD20" s="25">
         <v>71197</v>
       </c>
-      <c r="AE20" s="26">
+      <c r="AE20" s="25">
         <v>71284</v>
       </c>
-      <c r="AF20" s="26">
+      <c r="AF20" s="25">
         <v>71641</v>
       </c>
-      <c r="AG20" s="26">
+      <c r="AG20" s="25">
         <v>71793</v>
       </c>
-      <c r="AH20" s="26">
+      <c r="AH20" s="25">
         <v>71896</v>
       </c>
-      <c r="AI20" s="26">
+      <c r="AI20" s="25">
         <v>71960</v>
       </c>
-      <c r="AJ20" s="26">
+      <c r="AJ20" s="25">
         <v>71973</v>
       </c>
-      <c r="AK20" s="26">
+      <c r="AK20" s="25">
         <v>71963</v>
       </c>
-      <c r="AL20" s="26">
+      <c r="AL20" s="25">
         <v>72171</v>
       </c>
-      <c r="AM20" s="26">
+      <c r="AM20" s="25">
         <v>72154</v>
       </c>
-      <c r="AN20" s="26">
+      <c r="AN20" s="25">
         <v>71718</v>
       </c>
-      <c r="AO20" s="25">
+      <c r="AO20" s="24">
         <v>71421</v>
       </c>
-      <c r="AP20" s="26">
+      <c r="AP20" s="25">
         <v>71535</v>
       </c>
-      <c r="AQ20" s="26">
+      <c r="AQ20" s="25">
         <v>71599</v>
       </c>
-      <c r="AR20" s="26">
+      <c r="AR20" s="25">
         <v>71753</v>
       </c>
-      <c r="AS20" s="26">
+      <c r="AS20" s="25">
         <v>71625</v>
       </c>
-      <c r="AT20" s="26">
+      <c r="AT20" s="25">
         <v>71727</v>
       </c>
-      <c r="AU20" s="26">
+      <c r="AU20" s="25">
         <v>71568</v>
       </c>
-      <c r="AV20" s="26">
+      <c r="AV20" s="25">
         <v>71557</v>
       </c>
-      <c r="AW20" s="26">
+      <c r="AW20" s="25">
         <v>71553</v>
       </c>
-      <c r="AX20" s="26">
+      <c r="AX20" s="25">
         <v>71683</v>
       </c>
-      <c r="AY20" s="26">
+      <c r="AY20" s="25">
         <v>71467</v>
       </c>
-      <c r="AZ20" s="26">
+      <c r="AZ20" s="25">
         <v>71354</v>
       </c>
-      <c r="BA20" s="25">
+      <c r="BA20" s="24">
         <v>71061</v>
       </c>
-      <c r="BB20" s="26">
+      <c r="BB20" s="25">
         <v>71186</v>
       </c>
-      <c r="BC20" s="26">
+      <c r="BC20" s="25">
         <v>71481</v>
       </c>
-      <c r="BD20" s="26">
+      <c r="BD20" s="25">
         <v>71573</v>
       </c>
-      <c r="BE20" s="26">
+      <c r="BE20" s="25">
         <v>71606</v>
       </c>
-      <c r="BF20" s="26">
+      <c r="BF20" s="25">
         <v>71781</v>
       </c>
-      <c r="BG20" s="26">
+      <c r="BG20" s="25">
         <v>71741</v>
       </c>
-      <c r="BH20" s="26">
+      <c r="BH20" s="25">
         <v>71752</v>
       </c>
-      <c r="BI20" s="26">
+      <c r="BI20" s="25">
         <v>71757</v>
       </c>
-      <c r="BJ20" s="26">
+      <c r="BJ20" s="25">
         <v>71642</v>
       </c>
-      <c r="BK20" s="26">
+      <c r="BK20" s="25">
         <v>71726</v>
       </c>
-      <c r="BL20" s="26">
+      <c r="BL20" s="25">
         <v>71373</v>
       </c>
-      <c r="BM20" s="25">
+      <c r="BM20" s="24">
         <v>71035</v>
       </c>
-      <c r="BN20" s="26">
+      <c r="BN20" s="25">
         <v>71219</v>
       </c>
-      <c r="BO20" s="26">
+      <c r="BO20" s="25">
         <v>71205</v>
       </c>
-      <c r="BP20" s="26">
+      <c r="BP20" s="25">
         <v>71242</v>
       </c>
-      <c r="BQ20" s="26">
+      <c r="BQ20" s="25">
         <v>71398</v>
       </c>
-      <c r="BR20" s="26">
+      <c r="BR20" s="25">
         <v>71695</v>
       </c>
-      <c r="BS20" s="26">
+      <c r="BS20" s="25">
         <v>71419</v>
       </c>
-      <c r="BT20" s="26">
+      <c r="BT20" s="25">
         <v>71621</v>
       </c>
-      <c r="BU20" s="26">
+      <c r="BU20" s="25">
         <v>71594</v>
       </c>
-      <c r="BV20" s="26">
+      <c r="BV20" s="25">
         <v>71856</v>
       </c>
-      <c r="BW20" s="26">
+      <c r="BW20" s="25">
         <v>71972</v>
       </c>
-      <c r="BX20" s="26">
+      <c r="BX20" s="25">
         <v>71703</v>
       </c>
-      <c r="BY20" s="25">
+      <c r="BY20" s="24">
         <v>71670</v>
       </c>
-      <c r="BZ20" s="26">
+      <c r="BZ20" s="25">
         <v>71807</v>
       </c>
-      <c r="CA20" s="26">
+      <c r="CA20" s="25">
         <v>72117</v>
       </c>
-      <c r="CB20" s="26">
+      <c r="CB20" s="25">
         <v>72086</v>
       </c>
-      <c r="CC20" s="26">
+      <c r="CC20" s="25">
         <v>72195</v>
       </c>
-      <c r="CD20" s="26">
+      <c r="CD20" s="25">
         <v>72517</v>
       </c>
-      <c r="CE20" s="26">
+      <c r="CE20" s="25">
         <v>72512</v>
       </c>
-      <c r="CF20" s="26">
+      <c r="CF20" s="25">
         <v>72680</v>
       </c>
-      <c r="CG20" s="26">
+      <c r="CG20" s="25">
         <v>72841</v>
       </c>
-      <c r="CH20" s="26">
+      <c r="CH20" s="25">
         <v>72942</v>
       </c>
-      <c r="CI20" s="26">
+      <c r="CI20" s="25">
         <v>73048</v>
       </c>
-      <c r="CJ20" s="26">
+      <c r="CJ20" s="25">
         <v>72651</v>
       </c>
-      <c r="CK20" s="25">
+      <c r="CK20" s="24">
         <v>72730</v>
       </c>
-      <c r="CL20" s="26">
+      <c r="CL20" s="25">
         <v>73077</v>
       </c>
-      <c r="CM20" s="26">
+      <c r="CM20" s="25">
         <v>73348</v>
       </c>
-      <c r="CN20" s="26">
+      <c r="CN20" s="25">
         <v>73417</v>
       </c>
-      <c r="CO20" s="26">
+      <c r="CO20" s="25">
         <v>73601</v>
       </c>
-      <c r="CP20" s="26">
+      <c r="CP20" s="25">
         <v>73755</v>
       </c>
-      <c r="CQ20" s="26">
+      <c r="CQ20" s="25">
         <v>73868</v>
       </c>
-      <c r="CR20" s="26">
+      <c r="CR20" s="25">
         <v>73971</v>
       </c>
-      <c r="CS20" s="26">
+      <c r="CS20" s="25">
         <v>74036</v>
       </c>
-      <c r="CT20" s="26">
+      <c r="CT20" s="25">
         <v>74264</v>
       </c>
-      <c r="CU20" s="26">
+      <c r="CU20" s="25">
         <v>74212</v>
       </c>
-      <c r="CV20" s="26">
+      <c r="CV20" s="25">
         <v>73894</v>
       </c>
-      <c r="CW20" s="25">
+      <c r="CW20" s="24">
         <v>73677</v>
       </c>
-      <c r="CX20" s="26">
+      <c r="CX20" s="25">
         <v>73804</v>
       </c>
-      <c r="CY20" s="26">
+      <c r="CY20" s="25">
         <v>73710</v>
       </c>
-      <c r="CZ20" s="26">
+      <c r="CZ20" s="25">
         <v>73891</v>
       </c>
-      <c r="DA20" s="26">
+      <c r="DA20" s="25">
         <v>73983</v>
       </c>
-      <c r="DB20" s="26">
+      <c r="DB20" s="25">
         <v>74327</v>
       </c>
-      <c r="DC20" s="26">
+      <c r="DC20" s="25">
         <v>74448</v>
       </c>
-      <c r="DD20" s="26">
+      <c r="DD20" s="25">
         <v>74387</v>
       </c>
-      <c r="DE20" s="26">
+      <c r="DE20" s="25">
         <v>74330</v>
       </c>
-      <c r="DF20" s="26">
+      <c r="DF20" s="25">
         <v>74501</v>
       </c>
-      <c r="DG20" s="26">
+      <c r="DG20" s="25">
         <v>74446</v>
       </c>
-      <c r="DH20" s="26">
+      <c r="DH20" s="25">
         <v>74287</v>
       </c>
-      <c r="DI20" s="25">
+      <c r="DI20" s="24">
         <v>73889</v>
       </c>
-      <c r="DJ20" s="26">
+      <c r="DJ20" s="25">
         <v>73999</v>
       </c>
-      <c r="DK20" s="26">
+      <c r="DK20" s="25">
         <v>74091</v>
       </c>
-      <c r="DL20" s="26">
+      <c r="DL20" s="25">
         <v>74051</v>
       </c>
-      <c r="DM20" s="26">
+      <c r="DM20" s="25">
         <v>73938</v>
       </c>
-      <c r="DN20" s="26">
+      <c r="DN20" s="25">
         <v>73805</v>
       </c>
-      <c r="DO20" s="26">
+      <c r="DO20" s="25">
         <v>73666</v>
       </c>
-      <c r="DP20" s="26">
+      <c r="DP20" s="25">
         <v>73733</v>
       </c>
-      <c r="DQ20" s="26">
+      <c r="DQ20" s="25">
         <v>73640</v>
       </c>
-      <c r="DR20" s="26">
+      <c r="DR20" s="25">
         <v>73864</v>
       </c>
-      <c r="DS20" s="26">
+      <c r="DS20" s="25">
         <v>73952</v>
       </c>
-      <c r="DT20" s="26">
+      <c r="DT20" s="25">
         <v>73791</v>
       </c>
-      <c r="DU20" s="25">
+      <c r="DU20" s="24">
         <v>73647</v>
       </c>
-      <c r="DV20" s="26">
+      <c r="DV20" s="25">
         <v>73894</v>
       </c>
-      <c r="DW20" s="26">
+      <c r="DW20" s="25">
         <v>74033</v>
       </c>
-      <c r="DX20" s="26">
+      <c r="DX20" s="25">
         <v>74187</v>
       </c>
-      <c r="DY20" s="26">
+      <c r="DY20" s="25">
         <v>74342</v>
       </c>
-      <c r="DZ20" s="26">
+      <c r="DZ20" s="25">
         <v>74385</v>
       </c>
-      <c r="EA20" s="26">
+      <c r="EA20" s="25">
         <v>74337</v>
       </c>
-      <c r="EB20" s="26">
+      <c r="EB20" s="25">
         <v>74525</v>
       </c>
-      <c r="EC20" s="26">
+      <c r="EC20" s="25">
         <v>74463</v>
       </c>
-      <c r="ED20" s="26">
+      <c r="ED20" s="25">
         <v>74721</v>
       </c>
-      <c r="EE20" s="26">
+      <c r="EE20" s="25">
         <v>74584</v>
       </c>
-      <c r="EF20" s="26">
+      <c r="EF20" s="25">
         <v>74713</v>
       </c>
-      <c r="EG20" s="25">
+      <c r="EG20" s="24">
         <v>74555</v>
       </c>
-      <c r="EH20" s="26">
+      <c r="EH20" s="25">
         <v>74888</v>
       </c>
-      <c r="EI20" s="26">
+      <c r="EI20" s="25">
         <v>75096</v>
       </c>
-      <c r="EJ20" s="26">
+      <c r="EJ20" s="25">
         <v>75245</v>
       </c>
-      <c r="EK20" s="26">
+      <c r="EK20" s="25">
         <v>75410</v>
       </c>
-      <c r="EL20" s="26">
+      <c r="EL20" s="25">
         <v>75543</v>
       </c>
-      <c r="EM20" s="26">
+      <c r="EM20" s="25">
         <v>75515</v>
       </c>
-      <c r="EN20" s="26">
+      <c r="EN20" s="25">
         <v>75719</v>
       </c>
-      <c r="EO20" s="26">
+      <c r="EO20" s="25">
         <v>75739</v>
       </c>
-      <c r="EP20" s="26">
+      <c r="EP20" s="25">
         <v>75866</v>
       </c>
-      <c r="EQ20" s="26">
+      <c r="EQ20" s="25">
         <v>75832</v>
       </c>
-      <c r="ER20" s="26">
+      <c r="ER20" s="25">
         <v>75571</v>
       </c>
-      <c r="ES20" s="25">
+      <c r="ES20" s="24">
         <v>75496</v>
       </c>
-      <c r="ET20" s="26">
+      <c r="ET20" s="25">
         <v>75794</v>
       </c>
-      <c r="EU20" s="26">
+      <c r="EU20" s="25">
         <v>76020</v>
       </c>
-      <c r="EV20" s="26">
+      <c r="EV20" s="25">
         <v>75997</v>
       </c>
-      <c r="EW20" s="26">
+      <c r="EW20" s="25">
         <v>75984</v>
       </c>
-      <c r="EX20" s="26">
+      <c r="EX20" s="25">
         <v>76096</v>
       </c>
-      <c r="EY20" s="26">
+      <c r="EY20" s="25">
         <v>76329</v>
       </c>
-      <c r="EZ20" s="26">
+      <c r="EZ20" s="25">
         <v>76697</v>
       </c>
-      <c r="FA20" s="26">
+      <c r="FA20" s="25">
         <v>76848</v>
       </c>
-      <c r="FB20" s="26">
+      <c r="FB20" s="25">
         <v>77238</v>
       </c>
-      <c r="FC20" s="26">
+      <c r="FC20" s="25">
         <v>77407</v>
       </c>
-      <c r="FD20" s="26">
+      <c r="FD20" s="25">
         <v>77290</v>
       </c>
-      <c r="FE20" s="25">
+      <c r="FE20" s="24">
         <v>77000</v>
       </c>
-      <c r="FF20" s="26">
+      <c r="FF20" s="25">
         <v>77247</v>
       </c>
-      <c r="FG20" s="26">
+      <c r="FG20" s="25">
         <v>77422</v>
       </c>
-      <c r="FH20" s="26">
+      <c r="FH20" s="25">
         <v>77558</v>
       </c>
-      <c r="FI20" s="26">
+      <c r="FI20" s="25">
         <v>77685</v>
       </c>
-      <c r="FJ20" s="26">
+      <c r="FJ20" s="25">
         <v>77781</v>
       </c>
-      <c r="FK20" s="26">
+      <c r="FK20" s="25">
         <v>77887</v>
       </c>
-      <c r="FL20" s="26">
+      <c r="FL20" s="25">
         <v>77956</v>
       </c>
-      <c r="FM20" s="26">
+      <c r="FM20" s="25">
         <v>78101</v>
       </c>
-      <c r="FN20" s="26">
+      <c r="FN20" s="25">
         <v>78279</v>
       </c>
-      <c r="FO20" s="26">
+      <c r="FO20" s="25">
         <v>78340</v>
       </c>
-      <c r="FP20" s="26">
+      <c r="FP20" s="25">
         <v>78051</v>
       </c>
-      <c r="FQ20" s="25">
+      <c r="FQ20" s="24">
         <v>77415</v>
       </c>
-      <c r="FR20" s="26">
+      <c r="FR20" s="25">
         <v>77447</v>
       </c>
-      <c r="FS20" s="26">
+      <c r="FS20" s="25">
         <v>77887</v>
       </c>
-      <c r="FT20" s="26">
+      <c r="FT20" s="25">
         <v>78075</v>
       </c>
-      <c r="FU20" s="26">
+      <c r="FU20" s="25">
         <v>78263</v>
       </c>
-      <c r="FV20" s="26">
+      <c r="FV20" s="25">
         <v>78625</v>
       </c>
-      <c r="FW20" s="26">
+      <c r="FW20" s="25">
         <v>78814</v>
       </c>
-      <c r="FX20" s="26">
+      <c r="FX20" s="25">
         <v>79270</v>
       </c>
-      <c r="FY20" s="26">
+      <c r="FY20" s="25">
         <v>79467</v>
       </c>
-      <c r="FZ20" s="26">
+      <c r="FZ20" s="25">
         <v>79726</v>
       </c>
-      <c r="GA20" s="26">
+      <c r="GA20" s="25">
         <v>79972</v>
       </c>
-      <c r="GB20" s="26">
+      <c r="GB20" s="25">
         <v>79961</v>
       </c>
-      <c r="GC20" s="25">
+      <c r="GC20" s="24">
         <v>79838</v>
       </c>
-      <c r="GD20" s="26">
+      <c r="GD20" s="25">
         <v>80280</v>
       </c>
-      <c r="GE20" s="26">
+      <c r="GE20" s="25">
         <v>80658</v>
       </c>
-      <c r="GF20" s="26">
+      <c r="GF20" s="25">
         <v>81007</v>
       </c>
-      <c r="GG20" s="26">
+      <c r="GG20" s="25">
         <v>81244</v>
       </c>
-      <c r="GH20" s="26">
+      <c r="GH20" s="25">
         <v>81685</v>
       </c>
-      <c r="GI20" s="26">
+      <c r="GI20" s="25">
         <v>81999</v>
       </c>
-      <c r="GJ20" s="26">
+      <c r="GJ20" s="25">
         <v>82416</v>
       </c>
-      <c r="GK20" s="26">
+      <c r="GK20" s="25">
         <v>82549</v>
       </c>
-      <c r="GL20" s="26">
+      <c r="GL20" s="25">
         <v>82929</v>
       </c>
-      <c r="GM20" s="26">
+      <c r="GM20" s="25">
         <v>83012</v>
       </c>
-      <c r="GN20" s="26">
+      <c r="GN20" s="25">
         <v>82957</v>
       </c>
-      <c r="GO20" s="25">
+      <c r="GO20" s="24">
         <v>82734</v>
       </c>
-      <c r="GP20" s="26">
+      <c r="GP20" s="25">
         <v>83079</v>
       </c>
-      <c r="GQ20" s="26">
+      <c r="GQ20" s="25">
         <v>83290</v>
       </c>
-      <c r="GR20" s="26">
+      <c r="GR20" s="25">
         <v>83635</v>
       </c>
-      <c r="GS20" s="26">
+      <c r="GS20" s="25">
         <v>84001</v>
       </c>
-      <c r="GT20" s="26">
+      <c r="GT20" s="25">
         <v>84379</v>
       </c>
-      <c r="GU20" s="26">
+      <c r="GU20" s="25">
         <v>84559</v>
       </c>
-      <c r="GV20" s="26">
+      <c r="GV20" s="25">
         <v>85024</v>
       </c>
-      <c r="GW20" s="26">
+      <c r="GW20" s="25">
         <v>85363</v>
       </c>
-      <c r="GX20" s="26">
+      <c r="GX20" s="25">
         <v>85743</v>
       </c>
-      <c r="GY20" s="26">
+      <c r="GY20" s="25">
         <v>86078</v>
       </c>
-      <c r="GZ20" s="26">
+      <c r="GZ20" s="25">
         <v>86097</v>
       </c>
-      <c r="HA20" s="25">
+      <c r="HA20" s="24">
         <v>86101</v>
       </c>
-      <c r="HB20" s="26">
+      <c r="HB20" s="25">
         <v>86609</v>
       </c>
-      <c r="HC20" s="26">
+      <c r="HC20" s="25">
         <v>87244</v>
       </c>
-      <c r="HD20" s="26">
+      <c r="HD20" s="25">
         <v>87457</v>
       </c>
-      <c r="HE20" s="26">
+      <c r="HE20" s="25">
         <v>87686</v>
       </c>
-      <c r="HF20" s="26">
+      <c r="HF20" s="25">
         <v>88171</v>
       </c>
-      <c r="HG20" s="26">
+      <c r="HG20" s="25">
         <v>88539</v>
       </c>
-      <c r="HH20" s="26">
+      <c r="HH20" s="25">
         <v>89150</v>
       </c>
-      <c r="HI20" s="26">
+      <c r="HI20" s="25">
         <v>89455</v>
       </c>
-      <c r="HJ20" s="26">
+      <c r="HJ20" s="25">
         <v>89952</v>
       </c>
-      <c r="HK20" s="26">
+      <c r="HK20" s="25">
         <v>90154</v>
       </c>
-      <c r="HL20" s="26">
+      <c r="HL20" s="25">
         <v>90125</v>
       </c>
-      <c r="HM20" s="25">
+      <c r="HM20" s="24">
         <v>90113</v>
       </c>
-      <c r="HN20" s="26">
+      <c r="HN20" s="25">
         <v>90583</v>
       </c>
-      <c r="HO20" s="26">
+      <c r="HO20" s="25">
         <v>90934</v>
       </c>
-      <c r="HP20" s="26">
+      <c r="HP20" s="25">
         <v>91410</v>
       </c>
-      <c r="HQ20" s="26">
+      <c r="HQ20" s="25">
         <v>91600</v>
       </c>
-      <c r="HR20" s="26">
+      <c r="HR20" s="25">
         <v>91964</v>
       </c>
-      <c r="HS20" s="26">
+      <c r="HS20" s="25">
         <v>92282</v>
       </c>
-      <c r="HT20" s="26">
+      <c r="HT20" s="25">
         <v>92804</v>
       </c>
-      <c r="HU20" s="26">
+      <c r="HU20" s="25">
         <v>93058</v>
       </c>
-      <c r="HV20" s="26">
+      <c r="HV20" s="25">
         <v>93466</v>
       </c>
-      <c r="HW20" s="26">
+      <c r="HW20" s="25">
         <v>93590</v>
       </c>
-      <c r="HX20" s="26">
+      <c r="HX20" s="25">
         <v>93370</v>
       </c>
-      <c r="HY20" s="25">
+      <c r="HY20" s="24">
         <v>93414</v>
       </c>
-      <c r="HZ20" s="26">
+      <c r="HZ20" s="25">
         <v>93942</v>
       </c>
-      <c r="IA20" s="26">
+      <c r="IA20" s="25">
         <v>94228</v>
       </c>
-      <c r="IB20" s="26">
+      <c r="IB20" s="25">
         <v>94774</v>
       </c>
-      <c r="IC20" s="26">
+      <c r="IC20" s="25">
         <v>95184</v>
       </c>
-      <c r="ID20" s="26">
+      <c r="ID20" s="25">
         <v>95497</v>
       </c>
-      <c r="IE20" s="26">
+      <c r="IE20" s="25">
         <v>95833</v>
       </c>
-      <c r="IF20" s="26">
+      <c r="IF20" s="25">
         <v>96210</v>
       </c>
-      <c r="IG20" s="26">
+      <c r="IG20" s="25">
         <v>96528</v>
       </c>
-      <c r="IH20" s="26">
+      <c r="IH20" s="25">
         <v>97149</v>
       </c>
-      <c r="II20" s="26">
+      <c r="II20" s="25">
         <v>97410</v>
       </c>
-      <c r="IJ20" s="26">
+      <c r="IJ20" s="25">
         <v>97390</v>
       </c>
-      <c r="IK20" s="25">
+      <c r="IK20" s="24">
         <v>97293</v>
       </c>
-      <c r="IL20" s="26">
+      <c r="IL20" s="25">
         <v>97837</v>
       </c>
-      <c r="IM20" s="26">
+      <c r="IM20" s="25">
         <v>98367</v>
       </c>
-      <c r="IN20" s="26">
+      <c r="IN20" s="25">
         <v>97741</v>
       </c>
-      <c r="IO20" s="26">
+      <c r="IO20" s="25">
         <v>97536</v>
       </c>
-      <c r="IP20" s="26">
+      <c r="IP20" s="25">
         <v>97749</v>
       </c>
-      <c r="IQ20" s="26">
+      <c r="IQ20" s="25">
         <v>97738</v>
       </c>
-      <c r="IR20" s="26">
+      <c r="IR20" s="25">
         <v>98006</v>
       </c>
-      <c r="IS20" s="26">
+      <c r="IS20" s="25">
         <v>98038</v>
       </c>
-      <c r="IT20" s="26">
+      <c r="IT20" s="25">
         <v>98224</v>
       </c>
-      <c r="IU20" s="26">
+      <c r="IU20" s="25">
         <v>98316</v>
       </c>
-      <c r="IV20" s="26">
+      <c r="IV20" s="25">
         <v>98067</v>
       </c>
-      <c r="IW20" s="25">
+      <c r="IW20" s="24">
         <v>98213</v>
       </c>
-      <c r="IX20" s="26">
+      <c r="IX20" s="25">
         <v>98474</v>
       </c>
-      <c r="IY20" s="26">
+      <c r="IY20" s="25">
         <v>98700</v>
       </c>
-      <c r="IZ20" s="26">
+      <c r="IZ20" s="25">
         <v>98877</v>
       </c>
-      <c r="JA20" s="26">
+      <c r="JA20" s="25">
         <v>99245</v>
       </c>
-      <c r="JB20" s="26">
+      <c r="JB20" s="25">
         <v>99679</v>
       </c>
-      <c r="JC20" s="26">
+      <c r="JC20" s="25">
         <v>100963</v>
       </c>
-      <c r="JD20" s="26">
+      <c r="JD20" s="25">
         <v>101796</v>
       </c>
-      <c r="JE20" s="26">
+      <c r="JE20" s="25">
         <v>102475</v>
       </c>
-      <c r="JF20" s="26">
+      <c r="JF20" s="25">
         <v>102866</v>
       </c>
-      <c r="JG20" s="26">
+      <c r="JG20" s="25">
         <v>103172</v>
       </c>
-      <c r="JH20" s="26">
+      <c r="JH20" s="25">
         <v>103251</v>
       </c>
-      <c r="JI20" s="25">
+      <c r="JI20" s="24">
         <v>103200</v>
       </c>
-      <c r="JJ20" s="26">
+      <c r="JJ20" s="25">
         <v>103626</v>
       </c>
-      <c r="JK20" s="26">
+      <c r="JK20" s="25">
         <v>103976</v>
       </c>
-      <c r="JL20" s="26">
+      <c r="JL20" s="25">
         <v>104232</v>
       </c>
-      <c r="JM20" s="26">
+      <c r="JM20" s="25">
         <v>104578</v>
       </c>
-      <c r="JN20" s="26">
+      <c r="JN20" s="25">
         <v>104918</v>
       </c>
-      <c r="JO20" s="26">
+      <c r="JO20" s="25">
         <v>105078</v>
       </c>
-      <c r="JP20" s="26">
+      <c r="JP20" s="25">
         <v>105454</v>
       </c>
-      <c r="JQ20" s="26">
+      <c r="JQ20" s="25">
         <v>105603</v>
       </c>
-      <c r="JR20" s="26">
+      <c r="JR20" s="25">
         <v>105902</v>
       </c>
-      <c r="JS20" s="26">
+      <c r="JS20" s="25">
         <v>105908</v>
       </c>
-      <c r="JT20" s="34">
+      <c r="JT20" s="25">
         <v>105675</v>
       </c>
+      <c r="JU20" s="23">
+        <v>105609</v>
+      </c>
     </row>
-    <row r="21" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16567,11 +16651,14 @@
       <c r="JS21" s="12">
         <v>37289</v>
       </c>
-      <c r="JT21" s="13">
+      <c r="JT21" s="12">
         <v>37170</v>
       </c>
+      <c r="JU21" s="4">
+        <v>36990</v>
+      </c>
     </row>
-    <row r="22" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17409,11 +17496,14 @@
       <c r="JS22" s="12">
         <v>12625</v>
       </c>
-      <c r="JT22" s="13">
+      <c r="JT22" s="12">
         <v>12596</v>
       </c>
+      <c r="JU22" s="4">
+        <v>12537</v>
+      </c>
     </row>
-    <row r="23" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18251,11 +18341,14 @@
       <c r="JS23" s="12">
         <v>13888</v>
       </c>
-      <c r="JT23" s="13">
+      <c r="JT23" s="12">
         <v>13869</v>
       </c>
+      <c r="JU23" s="4">
+        <v>13826</v>
+      </c>
     </row>
-    <row r="24" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19093,11 +19186,14 @@
       <c r="JS24" s="12">
         <v>76316</v>
       </c>
-      <c r="JT24" s="13">
+      <c r="JT24" s="12">
         <v>76087</v>
       </c>
+      <c r="JU24" s="4">
+        <v>76188</v>
+      </c>
     </row>
-    <row r="25" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19935,11 +20031,14 @@
       <c r="JS25" s="12">
         <v>14553</v>
       </c>
-      <c r="JT25" s="13">
+      <c r="JT25" s="12">
         <v>14448</v>
       </c>
+      <c r="JU25" s="4">
+        <v>14336</v>
+      </c>
     </row>
-    <row r="26" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20777,11 +20876,14 @@
       <c r="JS26" s="12">
         <v>35048</v>
       </c>
-      <c r="JT26" s="13">
+      <c r="JT26" s="12">
         <v>35020</v>
       </c>
+      <c r="JU26" s="4">
+        <v>34995</v>
+      </c>
     </row>
-    <row r="27" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21619,11 +21721,14 @@
       <c r="JS27" s="12">
         <v>29711</v>
       </c>
-      <c r="JT27" s="13">
+      <c r="JT27" s="12">
         <v>29588</v>
       </c>
+      <c r="JU27" s="4">
+        <v>29593</v>
+      </c>
     </row>
-    <row r="28" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22461,11 +22566,14 @@
       <c r="JS28" s="12">
         <v>20780</v>
       </c>
-      <c r="JT28" s="13">
+      <c r="JT28" s="12">
         <v>20714</v>
       </c>
+      <c r="JU28" s="4">
+        <v>20683</v>
+      </c>
     </row>
-    <row r="29" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23303,11 +23411,14 @@
       <c r="JS29" s="12">
         <v>23845</v>
       </c>
-      <c r="JT29" s="13">
+      <c r="JT29" s="12">
         <v>23802</v>
       </c>
+      <c r="JU29" s="4">
+        <v>23741</v>
+      </c>
     </row>
-    <row r="30" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24145,11 +24256,14 @@
       <c r="JS30" s="12">
         <v>43476</v>
       </c>
-      <c r="JT30" s="13">
+      <c r="JT30" s="12">
         <v>43507</v>
       </c>
+      <c r="JU30" s="4">
+        <v>43394</v>
+      </c>
     </row>
-    <row r="31" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24987,11 +25101,14 @@
       <c r="JS31" s="12">
         <v>39037</v>
       </c>
-      <c r="JT31" s="13">
+      <c r="JT31" s="12">
         <v>39024</v>
       </c>
+      <c r="JU31" s="4">
+        <v>38890</v>
+      </c>
     </row>
-    <row r="32" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25829,11 +25946,14 @@
       <c r="JS32" s="12">
         <v>11795</v>
       </c>
-      <c r="JT32" s="13">
+      <c r="JT32" s="12">
         <v>11763</v>
       </c>
+      <c r="JU32" s="4">
+        <v>11759</v>
+      </c>
     </row>
-    <row r="33" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26671,11 +26791,14 @@
       <c r="JS33" s="12">
         <v>34367</v>
       </c>
-      <c r="JT33" s="13">
+      <c r="JT33" s="12">
         <v>34174</v>
       </c>
+      <c r="JU33" s="4">
+        <v>34014</v>
+      </c>
     </row>
-    <row r="34" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27513,11 +27636,14 @@
       <c r="JS34" s="12">
         <v>5590</v>
       </c>
-      <c r="JT34" s="13">
+      <c r="JT34" s="12">
         <v>5549</v>
       </c>
+      <c r="JU34" s="4">
+        <v>5498</v>
+      </c>
     </row>
-    <row r="35" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28355,11 +28481,14 @@
       <c r="JS35" s="12">
         <v>43864</v>
       </c>
-      <c r="JT35" s="13">
+      <c r="JT35" s="12">
         <v>43533</v>
       </c>
+      <c r="JU35" s="4">
+        <v>43333</v>
+      </c>
     </row>
-    <row r="36" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -29197,11 +29326,14 @@
       <c r="JS36" s="12">
         <v>21446</v>
       </c>
-      <c r="JT36" s="13">
+      <c r="JT36" s="12">
         <v>21443</v>
       </c>
+      <c r="JU36" s="4">
+        <v>21515</v>
+      </c>
     </row>
-    <row r="37" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29898,40 +30030,40 @@
       <c r="HX37" s="12">
         <v>11707</v>
       </c>
-      <c r="HY37" s="18">
+      <c r="HY37" s="17">
         <v>11635</v>
       </c>
-      <c r="HZ37" s="19">
+      <c r="HZ37" s="18">
         <v>11692</v>
       </c>
-      <c r="IA37" s="19">
+      <c r="IA37" s="18">
         <v>11733</v>
       </c>
-      <c r="IB37" s="19">
+      <c r="IB37" s="18">
         <v>11786</v>
       </c>
-      <c r="IC37" s="19">
+      <c r="IC37" s="18">
         <v>11804</v>
       </c>
-      <c r="ID37" s="19">
+      <c r="ID37" s="18">
         <v>11854</v>
       </c>
-      <c r="IE37" s="19">
+      <c r="IE37" s="18">
         <v>11843</v>
       </c>
-      <c r="IF37" s="19">
+      <c r="IF37" s="18">
         <v>11847</v>
       </c>
-      <c r="IG37" s="19">
+      <c r="IG37" s="18">
         <v>11895</v>
       </c>
-      <c r="IH37" s="19">
+      <c r="IH37" s="18">
         <v>11984</v>
       </c>
-      <c r="II37" s="19">
+      <c r="II37" s="18">
         <v>11980</v>
       </c>
-      <c r="IJ37" s="19">
+      <c r="IJ37" s="18">
         <v>11920</v>
       </c>
       <c r="IK37" s="11">
@@ -30039,24 +30171,27 @@
       <c r="JS37" s="12">
         <v>11980</v>
       </c>
-      <c r="JT37" s="13">
+      <c r="JT37" s="12">
         <v>11966</v>
       </c>
+      <c r="JU37" s="38">
+        <v>11943</v>
+      </c>
     </row>
-    <row r="38" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>693985</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>715453</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>744562</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>744979</v>
       </c>
       <c r="F38" s="10">
@@ -30092,7 +30227,7 @@
       <c r="P38" s="10">
         <v>783085</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="13">
         <v>782622</v>
       </c>
       <c r="R38" s="10">
@@ -30128,7 +30263,7 @@
       <c r="AB38" s="10">
         <v>806464</v>
       </c>
-      <c r="AC38" s="14">
+      <c r="AC38" s="13">
         <v>804064</v>
       </c>
       <c r="AD38" s="10">
@@ -30164,7 +30299,7 @@
       <c r="AN38" s="10">
         <v>811307</v>
       </c>
-      <c r="AO38" s="14">
+      <c r="AO38" s="13">
         <v>808787</v>
       </c>
       <c r="AP38" s="10">
@@ -30200,7 +30335,7 @@
       <c r="AZ38" s="10">
         <v>805964</v>
       </c>
-      <c r="BA38" s="14">
+      <c r="BA38" s="13">
         <v>801960</v>
       </c>
       <c r="BB38" s="10">
@@ -30236,7 +30371,7 @@
       <c r="BL38" s="10">
         <v>802012</v>
       </c>
-      <c r="BM38" s="14">
+      <c r="BM38" s="13">
         <v>799328</v>
       </c>
       <c r="BN38" s="10">
@@ -30272,7 +30407,7 @@
       <c r="BX38" s="10">
         <v>803848</v>
       </c>
-      <c r="BY38" s="14">
+      <c r="BY38" s="13">
         <v>802988</v>
       </c>
       <c r="BZ38" s="10">
@@ -30308,7 +30443,7 @@
       <c r="CJ38" s="10">
         <v>816319</v>
       </c>
-      <c r="CK38" s="14">
+      <c r="CK38" s="13">
         <v>816112</v>
       </c>
       <c r="CL38" s="10">
@@ -30344,7 +30479,7 @@
       <c r="CV38" s="10">
         <v>827833</v>
       </c>
-      <c r="CW38" s="14">
+      <c r="CW38" s="13">
         <v>825850</v>
       </c>
       <c r="CX38" s="10">
@@ -30380,7 +30515,7 @@
       <c r="DH38" s="10">
         <v>829226</v>
       </c>
-      <c r="DI38" s="14">
+      <c r="DI38" s="13">
         <v>823825</v>
       </c>
       <c r="DJ38" s="10">
@@ -30416,7 +30551,7 @@
       <c r="DT38" s="10">
         <v>822374</v>
       </c>
-      <c r="DU38" s="14">
+      <c r="DU38" s="13">
         <v>820075</v>
       </c>
       <c r="DV38" s="10">
@@ -30452,7 +30587,7 @@
       <c r="EF38" s="10">
         <v>826959</v>
       </c>
-      <c r="EG38" s="14">
+      <c r="EG38" s="13">
         <v>822966</v>
       </c>
       <c r="EH38" s="10">
@@ -30488,7 +30623,7 @@
       <c r="ER38" s="10">
         <v>827498</v>
       </c>
-      <c r="ES38" s="14">
+      <c r="ES38" s="13">
         <v>825299</v>
       </c>
       <c r="ET38" s="10">
@@ -30524,7 +30659,7 @@
       <c r="FD38" s="10">
         <v>836215</v>
       </c>
-      <c r="FE38" s="14">
+      <c r="FE38" s="13">
         <v>833855</v>
       </c>
       <c r="FF38" s="10">
@@ -30560,7 +30695,7 @@
       <c r="FP38" s="10">
         <v>842848</v>
       </c>
-      <c r="FQ38" s="14">
+      <c r="FQ38" s="13">
         <v>835931</v>
       </c>
       <c r="FR38" s="10">
@@ -30596,7 +30731,7 @@
       <c r="GB38" s="10">
         <v>854909</v>
       </c>
-      <c r="GC38" s="14">
+      <c r="GC38" s="13">
         <v>854230</v>
       </c>
       <c r="GD38" s="10">
@@ -30632,7 +30767,7 @@
       <c r="GN38" s="10">
         <v>885846</v>
       </c>
-      <c r="GO38" s="14">
+      <c r="GO38" s="13">
         <v>884434</v>
       </c>
       <c r="GP38" s="10">
@@ -30668,7 +30803,7 @@
       <c r="GZ38" s="10">
         <v>917680</v>
       </c>
-      <c r="HA38" s="14">
+      <c r="HA38" s="13">
         <v>916805</v>
       </c>
       <c r="HB38" s="10">
@@ -30704,7 +30839,7 @@
       <c r="HL38" s="10">
         <v>949411</v>
       </c>
-      <c r="HM38" s="14">
+      <c r="HM38" s="13">
         <v>949412</v>
       </c>
       <c r="HN38" s="10">
@@ -30740,7 +30875,7 @@
       <c r="HX38" s="10">
         <v>978277</v>
       </c>
-      <c r="HY38" s="14">
+      <c r="HY38" s="13">
         <v>977506</v>
       </c>
       <c r="HZ38" s="10">
@@ -30776,7 +30911,7 @@
       <c r="IJ38" s="10">
         <v>1001793</v>
       </c>
-      <c r="IK38" s="14">
+      <c r="IK38" s="13">
         <v>1000895</v>
       </c>
       <c r="IL38" s="10">
@@ -30812,7 +30947,7 @@
       <c r="IV38" s="10">
         <v>1000414</v>
       </c>
-      <c r="IW38" s="14">
+      <c r="IW38" s="13">
         <v>999042</v>
       </c>
       <c r="IX38" s="10">
@@ -30848,7 +30983,7 @@
       <c r="JH38" s="10">
         <v>1053670</v>
       </c>
-      <c r="JI38" s="14">
+      <c r="JI38" s="13">
         <v>1053095</v>
       </c>
       <c r="JJ38" s="10">
@@ -30881,17 +31016,20 @@
       <c r="JS38" s="10">
         <v>1068509</v>
       </c>
-      <c r="JT38" s="30">
+      <c r="JT38" s="29">
         <v>1065556</v>
       </c>
+      <c r="JU38" s="37">
+        <v>1063429</v>
+      </c>
     </row>
-    <row r="40" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:281" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="HV40" s="17"/>
-      <c r="HW40" s="17"/>
+      <c r="HV40" s="16"/>
+      <c r="HW40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D99AA-418E-4B4F-A613-F7994DBBC331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patrones_entidades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -659,19 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -740,15 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -766,32 +745,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -842,33 +795,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,43 +830,21 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -950,8 +881,8 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="44"/>
-    <cellStyle name="Normal 2 2 2" xfId="43"/>
+    <cellStyle name="Normal 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1051,6 +982,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1086,6 +1034,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1261,179 +1226,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JU40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JV40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KA18" sqref="KA18:KA19"/>
+      <pane xSplit="1" topLeftCell="JH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JV39" sqref="JV39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="4" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="4" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
-    <col min="67" max="72" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="11" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="8" bestFit="1" customWidth="1"/>
-    <col min="79" max="84" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="79" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="11" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="8" bestFit="1" customWidth="1"/>
-    <col min="91" max="96" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="91" max="96" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="8" bestFit="1" customWidth="1"/>
-    <col min="103" max="108" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="108" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="8" bestFit="1" customWidth="1"/>
-    <col min="115" max="120" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="120" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="11" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="8" bestFit="1" customWidth="1"/>
-    <col min="127" max="132" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="127" max="132" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="8" bestFit="1" customWidth="1"/>
-    <col min="139" max="144" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="139" max="144" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="11" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="8" bestFit="1" customWidth="1"/>
-    <col min="151" max="156" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="151" max="156" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="11" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="8" bestFit="1" customWidth="1"/>
-    <col min="163" max="168" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="163" max="168" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="11" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="8" bestFit="1" customWidth="1"/>
-    <col min="175" max="180" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="175" max="180" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="11" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="8" bestFit="1" customWidth="1"/>
-    <col min="187" max="192" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="187" max="192" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="11" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="204" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="199" max="204" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="11" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="8" bestFit="1" customWidth="1"/>
-    <col min="211" max="216" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="211" max="216" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="11" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="8" bestFit="1" customWidth="1"/>
-    <col min="223" max="228" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="223" max="228" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="11" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="8" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="7.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="238" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="7.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="238" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="243" max="243" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="248" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="9.125" style="7" customWidth="1"/>
-    <col min="253" max="254" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="256" width="11.375" style="7" customWidth="1"/>
-    <col min="257" max="257" width="7.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="260" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="264" max="268" width="11.375" style="7"/>
-    <col min="269" max="281" width="11.375" style="7" customWidth="1"/>
+    <col min="244" max="244" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="248" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
+    <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="256" width="11.42578125" style="7" customWidth="1"/>
+    <col min="257" max="257" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="260" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="264" max="268" width="11.42578125" style="7"/>
+    <col min="269" max="281" width="11.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:281" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:282" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1406,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:281" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:282" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1449,9 +1414,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:281" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:281" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="3" spans="1:282" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:282" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="21">
@@ -2288,15 +2253,18 @@
       <c r="JS4" s="20">
         <v>2022</v>
       </c>
-      <c r="JT4" s="28">
+      <c r="JT4" s="20">
         <v>2022</v>
       </c>
-      <c r="JU4" s="35">
+      <c r="JU4" s="20">
         <v>2023</v>
       </c>
+      <c r="JV4" s="20">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:281" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:282" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
@@ -3098,47 +3066,50 @@
       <c r="JH5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="JI5" s="30" t="s">
+      <c r="JI5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="JJ5" s="32" t="s">
+      <c r="JJ5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="JK5" s="32" t="s">
+      <c r="JK5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="JL5" s="32" t="s">
+      <c r="JL5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="JM5" s="32" t="s">
+      <c r="JM5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="JN5" s="32" t="s">
+      <c r="JN5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="JO5" s="32" t="s">
+      <c r="JO5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="JP5" s="32" t="s">
+      <c r="JP5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="JQ5" s="32" t="s">
+      <c r="JQ5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="JR5" s="32" t="s">
+      <c r="JR5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="JS5" s="32" t="s">
+      <c r="JS5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="JT5" s="31" t="s">
+      <c r="JT5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="JU5" s="36" t="s">
+      <c r="JU5" s="27" t="s">
         <v>29</v>
       </c>
+      <c r="JV5" s="27" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3979,11 +3950,14 @@
       <c r="JT6" s="12">
         <v>16707</v>
       </c>
-      <c r="JU6" s="34">
+      <c r="JU6" s="12">
         <v>16656</v>
       </c>
+      <c r="JV6" s="12">
+        <v>16687</v>
+      </c>
     </row>
-    <row r="7" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4824,11 +4798,14 @@
       <c r="JT7" s="12">
         <v>44653</v>
       </c>
-      <c r="JU7" s="4">
+      <c r="JU7" s="12">
         <v>44615</v>
       </c>
+      <c r="JV7" s="12">
+        <v>44283</v>
+      </c>
     </row>
-    <row r="8" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5669,11 +5646,14 @@
       <c r="JT8" s="12">
         <v>14759</v>
       </c>
-      <c r="JU8" s="4">
+      <c r="JU8" s="12">
         <v>14772</v>
       </c>
+      <c r="JV8" s="12">
+        <v>14823</v>
+      </c>
     </row>
-    <row r="9" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6514,11 +6494,14 @@
       <c r="JT9" s="12">
         <v>6418</v>
       </c>
-      <c r="JU9" s="4">
+      <c r="JU9" s="12">
         <v>6369</v>
       </c>
+      <c r="JV9" s="12">
+        <v>6385</v>
+      </c>
     </row>
-    <row r="10" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7359,11 +7342,14 @@
       <c r="JT10" s="12">
         <v>14786</v>
       </c>
-      <c r="JU10" s="4">
+      <c r="JU10" s="12">
         <v>14747</v>
       </c>
+      <c r="JV10" s="12">
+        <v>14828</v>
+      </c>
     </row>
-    <row r="11" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8204,11 +8190,14 @@
       <c r="JT11" s="12">
         <v>42300</v>
       </c>
-      <c r="JU11" s="4">
+      <c r="JU11" s="12">
         <v>42172</v>
       </c>
+      <c r="JV11" s="12">
+        <v>42372</v>
+      </c>
     </row>
-    <row r="12" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9049,11 +9038,14 @@
       <c r="JT12" s="12">
         <v>126560</v>
       </c>
-      <c r="JU12" s="4">
+      <c r="JU12" s="12">
         <v>126345</v>
       </c>
+      <c r="JV12" s="12">
+        <v>126731</v>
+      </c>
     </row>
-    <row r="13" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9894,11 +9886,14 @@
       <c r="JT13" s="12">
         <v>35695</v>
       </c>
-      <c r="JU13" s="4">
+      <c r="JU13" s="12">
         <v>35642</v>
       </c>
+      <c r="JV13" s="12">
+        <v>35736</v>
+      </c>
     </row>
-    <row r="14" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10739,11 +10734,14 @@
       <c r="JT14" s="12">
         <v>11673</v>
       </c>
-      <c r="JU14" s="4">
+      <c r="JU14" s="12">
         <v>11607</v>
       </c>
+      <c r="JV14" s="12">
+        <v>11658</v>
+      </c>
     </row>
-    <row r="15" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11584,11 +11582,14 @@
       <c r="JT15" s="12">
         <v>14532</v>
       </c>
-      <c r="JU15" s="4">
+      <c r="JU15" s="12">
         <v>14500</v>
       </c>
+      <c r="JV15" s="12">
+        <v>14538</v>
+      </c>
     </row>
-    <row r="16" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12429,11 +12430,14 @@
       <c r="JT16" s="12">
         <v>78074</v>
       </c>
-      <c r="JU16" s="4">
+      <c r="JU16" s="12">
         <v>77908</v>
       </c>
+      <c r="JV16" s="12">
+        <v>78225</v>
+      </c>
     </row>
-    <row r="17" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13274,11 +13278,14 @@
       <c r="JT17" s="12">
         <v>49507</v>
       </c>
-      <c r="JU17" s="4">
+      <c r="JU17" s="12">
         <v>49458</v>
       </c>
+      <c r="JV17" s="12">
+        <v>49590</v>
+      </c>
     </row>
-    <row r="18" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14119,11 +14126,14 @@
       <c r="JT18" s="12">
         <v>13719</v>
       </c>
-      <c r="JU18" s="4">
+      <c r="JU18" s="12">
         <v>13594</v>
       </c>
+      <c r="JV18" s="12">
+        <v>13616</v>
+      </c>
     </row>
-    <row r="19" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14964,11 +14974,14 @@
       <c r="JT19" s="12">
         <v>16245</v>
       </c>
-      <c r="JU19" s="4">
+      <c r="JU19" s="12">
         <v>16200</v>
       </c>
+      <c r="JV19" s="12">
+        <v>16263</v>
+      </c>
     </row>
-    <row r="20" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15809,11 +15822,14 @@
       <c r="JT20" s="25">
         <v>105675</v>
       </c>
-      <c r="JU20" s="23">
+      <c r="JU20" s="25">
         <v>105609</v>
       </c>
+      <c r="JV20" s="25">
+        <v>105971</v>
+      </c>
     </row>
-    <row r="21" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16654,11 +16670,14 @@
       <c r="JT21" s="12">
         <v>37170</v>
       </c>
-      <c r="JU21" s="4">
+      <c r="JU21" s="12">
         <v>36990</v>
       </c>
+      <c r="JV21" s="12">
+        <v>37100</v>
+      </c>
     </row>
-    <row r="22" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17499,11 +17518,14 @@
       <c r="JT22" s="12">
         <v>12596</v>
       </c>
-      <c r="JU22" s="4">
+      <c r="JU22" s="12">
         <v>12537</v>
       </c>
+      <c r="JV22" s="12">
+        <v>12563</v>
+      </c>
     </row>
-    <row r="23" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18344,11 +18366,14 @@
       <c r="JT23" s="12">
         <v>13869</v>
       </c>
-      <c r="JU23" s="4">
+      <c r="JU23" s="12">
         <v>13826</v>
       </c>
+      <c r="JV23" s="12">
+        <v>13881</v>
+      </c>
     </row>
-    <row r="24" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19189,11 +19214,14 @@
       <c r="JT24" s="12">
         <v>76087</v>
       </c>
-      <c r="JU24" s="4">
+      <c r="JU24" s="12">
         <v>76188</v>
       </c>
+      <c r="JV24" s="12">
+        <v>76346</v>
+      </c>
     </row>
-    <row r="25" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20034,11 +20062,14 @@
       <c r="JT25" s="12">
         <v>14448</v>
       </c>
-      <c r="JU25" s="4">
+      <c r="JU25" s="12">
         <v>14336</v>
       </c>
+      <c r="JV25" s="12">
+        <v>14377</v>
+      </c>
     </row>
-    <row r="26" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20879,11 +20910,14 @@
       <c r="JT26" s="12">
         <v>35020</v>
       </c>
-      <c r="JU26" s="4">
+      <c r="JU26" s="12">
         <v>34995</v>
       </c>
+      <c r="JV26" s="12">
+        <v>35135</v>
+      </c>
     </row>
-    <row r="27" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21724,11 +21758,14 @@
       <c r="JT27" s="12">
         <v>29588</v>
       </c>
-      <c r="JU27" s="4">
+      <c r="JU27" s="12">
         <v>29593</v>
       </c>
+      <c r="JV27" s="12">
+        <v>29719</v>
+      </c>
     </row>
-    <row r="28" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22569,11 +22606,14 @@
       <c r="JT28" s="12">
         <v>20714</v>
       </c>
-      <c r="JU28" s="4">
+      <c r="JU28" s="12">
         <v>20683</v>
       </c>
+      <c r="JV28" s="12">
+        <v>20787</v>
+      </c>
     </row>
-    <row r="29" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23414,11 +23454,14 @@
       <c r="JT29" s="12">
         <v>23802</v>
       </c>
-      <c r="JU29" s="4">
+      <c r="JU29" s="12">
         <v>23741</v>
       </c>
+      <c r="JV29" s="12">
+        <v>23839</v>
+      </c>
     </row>
-    <row r="30" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24259,11 +24302,14 @@
       <c r="JT30" s="12">
         <v>43507</v>
       </c>
-      <c r="JU30" s="4">
+      <c r="JU30" s="12">
         <v>43394</v>
       </c>
+      <c r="JV30" s="12">
+        <v>43552</v>
+      </c>
     </row>
-    <row r="31" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25104,11 +25150,14 @@
       <c r="JT31" s="12">
         <v>39024</v>
       </c>
-      <c r="JU31" s="4">
+      <c r="JU31" s="12">
         <v>38890</v>
       </c>
+      <c r="JV31" s="12">
+        <v>38848</v>
+      </c>
     </row>
-    <row r="32" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25949,11 +25998,14 @@
       <c r="JT32" s="12">
         <v>11763</v>
       </c>
-      <c r="JU32" s="4">
+      <c r="JU32" s="12">
         <v>11759</v>
       </c>
+      <c r="JV32" s="12">
+        <v>11778</v>
+      </c>
     </row>
-    <row r="33" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26794,11 +26846,14 @@
       <c r="JT33" s="12">
         <v>34174</v>
       </c>
-      <c r="JU33" s="4">
+      <c r="JU33" s="12">
         <v>34014</v>
       </c>
+      <c r="JV33" s="12">
+        <v>34105</v>
+      </c>
     </row>
-    <row r="34" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27639,11 +27694,14 @@
       <c r="JT34" s="12">
         <v>5549</v>
       </c>
-      <c r="JU34" s="4">
+      <c r="JU34" s="12">
         <v>5498</v>
       </c>
+      <c r="JV34" s="12">
+        <v>5530</v>
+      </c>
     </row>
-    <row r="35" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28484,11 +28542,14 @@
       <c r="JT35" s="12">
         <v>43533</v>
       </c>
-      <c r="JU35" s="4">
+      <c r="JU35" s="12">
         <v>43333</v>
       </c>
+      <c r="JV35" s="12">
+        <v>43400</v>
+      </c>
     </row>
-    <row r="36" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -29329,11 +29390,14 @@
       <c r="JT36" s="12">
         <v>21443</v>
       </c>
-      <c r="JU36" s="4">
+      <c r="JU36" s="12">
         <v>21515</v>
       </c>
+      <c r="JV36" s="12">
+        <v>21655</v>
+      </c>
     </row>
-    <row r="37" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30174,11 +30238,14 @@
       <c r="JT37" s="12">
         <v>11966</v>
       </c>
-      <c r="JU37" s="38">
+      <c r="JU37" s="12">
         <v>11943</v>
       </c>
+      <c r="JV37" s="12">
+        <v>12017</v>
+      </c>
     </row>
-    <row r="38" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -31016,14 +31083,18 @@
       <c r="JS38" s="10">
         <v>1068509</v>
       </c>
-      <c r="JT38" s="29">
+      <c r="JT38" s="10">
         <v>1065556</v>
       </c>
-      <c r="JU38" s="37">
+      <c r="JU38" s="10">
         <v>1063429</v>
       </c>
+      <c r="JV38" s="10">
+        <f>SUM(JV6:JV37)</f>
+        <v>1066338</v>
+      </c>
     </row>
-    <row r="40" spans="1:281" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:282" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31032,6 +31103,9 @@
       <c r="HW40" s="16"/>
     </row>
   </sheetData>
+  <sortState ref="JV6:JW37">
+    <sortCondition ref="JV6"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D99AA-418E-4B4F-A613-F7994DBBC331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348"/>
   </bookViews>
   <sheets>
     <sheet name="patrones_entidades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -166,13 +165,13 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - enero 2023</t>
+    <t>Diciembre 1997 - abril 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -660,6 +659,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -728,6 +740,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -741,6 +762,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -795,33 +827,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -830,20 +862,41 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -881,8 +934,8 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 2 2" xfId="44"/>
+    <cellStyle name="Normal 2 2 2" xfId="43"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -982,23 +1035,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1034,23 +1070,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1226,179 +1245,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JV40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:JX40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JV39" sqref="JV39"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KB11" sqref="KB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="4" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="4" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="36" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" bestFit="1" customWidth="1"/>
-    <col min="55" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8" bestFit="1" customWidth="1"/>
-    <col min="67" max="72" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="72" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="11" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="8" bestFit="1" customWidth="1"/>
-    <col min="79" max="84" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="84" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="11" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="8" bestFit="1" customWidth="1"/>
-    <col min="91" max="96" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="96" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="11" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="8" bestFit="1" customWidth="1"/>
-    <col min="103" max="108" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="108" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="11" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="8" bestFit="1" customWidth="1"/>
-    <col min="115" max="120" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="120" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="11" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="8" bestFit="1" customWidth="1"/>
-    <col min="127" max="132" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="132" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="11" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="8" bestFit="1" customWidth="1"/>
-    <col min="139" max="144" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="139" max="144" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="11" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="8" bestFit="1" customWidth="1"/>
-    <col min="151" max="156" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="151" max="156" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="11" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="8" bestFit="1" customWidth="1"/>
-    <col min="163" max="168" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="168" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="11" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="8" bestFit="1" customWidth="1"/>
-    <col min="175" max="180" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="180" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="183" max="183" width="11" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="186" max="186" width="8" bestFit="1" customWidth="1"/>
-    <col min="187" max="192" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="187" max="192" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="195" max="195" width="11" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="198" max="198" width="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="204" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="199" max="204" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="207" max="207" width="11" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="210" max="210" width="8" bestFit="1" customWidth="1"/>
-    <col min="211" max="216" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="211" max="216" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="219" max="219" width="11" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="222" max="222" width="8" bestFit="1" customWidth="1"/>
-    <col min="223" max="228" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="223" max="228" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="11" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="234" max="234" width="8" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="238" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="238" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="9.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="243" max="243" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="245" max="248" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="9.140625" style="7" customWidth="1"/>
-    <col min="253" max="254" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="255" max="256" width="11.42578125" style="7" customWidth="1"/>
-    <col min="257" max="257" width="7.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="260" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="264" max="268" width="11.42578125" style="7"/>
-    <col min="269" max="281" width="11.42578125" style="7" customWidth="1"/>
+    <col min="244" max="244" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="245" max="248" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="9.109375" style="7" customWidth="1"/>
+    <col min="253" max="254" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="255" max="256" width="11.33203125" style="7" customWidth="1"/>
+    <col min="257" max="257" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="260" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="9.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="264" max="268" width="11.33203125" style="7"/>
+    <col min="269" max="284" width="11.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1425,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1414,9 +1433,9 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:282" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:282" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="3" spans="1:284" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:284" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="21">
@@ -2256,15 +2275,21 @@
       <c r="JT4" s="20">
         <v>2022</v>
       </c>
-      <c r="JU4" s="20">
+      <c r="JU4" s="32">
         <v>2023</v>
       </c>
-      <c r="JV4" s="20">
+      <c r="JV4" s="33">
         <v>2023</v>
       </c>
+      <c r="JW4" s="33">
+        <v>2023</v>
+      </c>
+      <c r="JX4" s="34">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:282" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:284" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
@@ -3066,50 +3091,56 @@
       <c r="JH5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="JI5" s="26" t="s">
+      <c r="JI5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="JJ5" s="27" t="s">
+      <c r="JJ5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="JK5" s="27" t="s">
+      <c r="JK5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="JL5" s="27" t="s">
+      <c r="JL5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="JM5" s="27" t="s">
+      <c r="JM5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="JN5" s="27" t="s">
+      <c r="JN5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="JO5" s="27" t="s">
+      <c r="JO5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="JP5" s="27" t="s">
+      <c r="JP5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="JQ5" s="27" t="s">
+      <c r="JQ5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="JR5" s="27" t="s">
+      <c r="JR5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="JS5" s="27" t="s">
+      <c r="JS5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="JT5" s="27" t="s">
+      <c r="JT5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="JU5" s="27" t="s">
+      <c r="JU5" s="26" t="s">
         <v>29</v>
       </c>
       <c r="JV5" s="27" t="s">
         <v>30</v>
       </c>
+      <c r="JW5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="JX5" s="37" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3950,14 +3981,20 @@
       <c r="JT6" s="12">
         <v>16707</v>
       </c>
-      <c r="JU6" s="12">
+      <c r="JU6" s="11">
         <v>16656</v>
       </c>
       <c r="JV6" s="12">
         <v>16687</v>
       </c>
+      <c r="JW6" s="12">
+        <v>16763</v>
+      </c>
+      <c r="JX6" s="35">
+        <v>16722</v>
+      </c>
     </row>
-    <row r="7" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4798,14 +4835,20 @@
       <c r="JT7" s="12">
         <v>44653</v>
       </c>
-      <c r="JU7" s="12">
+      <c r="JU7" s="11">
         <v>44615</v>
       </c>
       <c r="JV7" s="12">
         <v>44283</v>
       </c>
+      <c r="JW7" s="12">
+        <v>44501</v>
+      </c>
+      <c r="JX7" s="35">
+        <v>44565</v>
+      </c>
     </row>
-    <row r="8" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5646,14 +5689,20 @@
       <c r="JT8" s="12">
         <v>14759</v>
       </c>
-      <c r="JU8" s="12">
+      <c r="JU8" s="11">
         <v>14772</v>
       </c>
       <c r="JV8" s="12">
         <v>14823</v>
       </c>
+      <c r="JW8" s="12">
+        <v>14908</v>
+      </c>
+      <c r="JX8" s="35">
+        <v>14961</v>
+      </c>
     </row>
-    <row r="9" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6494,14 +6543,20 @@
       <c r="JT9" s="12">
         <v>6418</v>
       </c>
-      <c r="JU9" s="12">
+      <c r="JU9" s="11">
         <v>6369</v>
       </c>
       <c r="JV9" s="12">
         <v>6385</v>
       </c>
+      <c r="JW9" s="12">
+        <v>6415</v>
+      </c>
+      <c r="JX9" s="35">
+        <v>6426</v>
+      </c>
     </row>
-    <row r="10" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7342,14 +7397,20 @@
       <c r="JT10" s="12">
         <v>14786</v>
       </c>
-      <c r="JU10" s="12">
+      <c r="JU10" s="11">
         <v>14747</v>
       </c>
       <c r="JV10" s="12">
         <v>14828</v>
       </c>
+      <c r="JW10" s="12">
+        <v>14883</v>
+      </c>
+      <c r="JX10" s="35">
+        <v>14912</v>
+      </c>
     </row>
-    <row r="11" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8190,14 +8251,20 @@
       <c r="JT11" s="12">
         <v>42300</v>
       </c>
-      <c r="JU11" s="12">
+      <c r="JU11" s="11">
         <v>42172</v>
       </c>
       <c r="JV11" s="12">
         <v>42372</v>
       </c>
+      <c r="JW11" s="12">
+        <v>42481</v>
+      </c>
+      <c r="JX11" s="35">
+        <v>42483</v>
+      </c>
     </row>
-    <row r="12" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9038,14 +9105,20 @@
       <c r="JT12" s="12">
         <v>126560</v>
       </c>
-      <c r="JU12" s="12">
+      <c r="JU12" s="11">
         <v>126345</v>
       </c>
       <c r="JV12" s="12">
         <v>126731</v>
       </c>
+      <c r="JW12" s="12">
+        <v>126917</v>
+      </c>
+      <c r="JX12" s="35">
+        <v>126869</v>
+      </c>
     </row>
-    <row r="13" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9886,14 +9959,20 @@
       <c r="JT13" s="12">
         <v>35695</v>
       </c>
-      <c r="JU13" s="12">
+      <c r="JU13" s="11">
         <v>35642</v>
       </c>
       <c r="JV13" s="12">
         <v>35736</v>
       </c>
+      <c r="JW13" s="12">
+        <v>35746</v>
+      </c>
+      <c r="JX13" s="35">
+        <v>35830</v>
+      </c>
     </row>
-    <row r="14" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10734,14 +10813,20 @@
       <c r="JT14" s="12">
         <v>11673</v>
       </c>
-      <c r="JU14" s="12">
+      <c r="JU14" s="11">
         <v>11607</v>
       </c>
       <c r="JV14" s="12">
         <v>11658</v>
       </c>
+      <c r="JW14" s="12">
+        <v>11694</v>
+      </c>
+      <c r="JX14" s="35">
+        <v>11705</v>
+      </c>
     </row>
-    <row r="15" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11582,14 +11667,20 @@
       <c r="JT15" s="12">
         <v>14532</v>
       </c>
-      <c r="JU15" s="12">
+      <c r="JU15" s="11">
         <v>14500</v>
       </c>
       <c r="JV15" s="12">
         <v>14538</v>
       </c>
+      <c r="JW15" s="12">
+        <v>14557</v>
+      </c>
+      <c r="JX15" s="35">
+        <v>14549</v>
+      </c>
     </row>
-    <row r="16" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12430,14 +12521,20 @@
       <c r="JT16" s="12">
         <v>78074</v>
       </c>
-      <c r="JU16" s="12">
+      <c r="JU16" s="11">
         <v>77908</v>
       </c>
       <c r="JV16" s="12">
         <v>78225</v>
       </c>
+      <c r="JW16" s="12">
+        <v>78420</v>
+      </c>
+      <c r="JX16" s="35">
+        <v>78471</v>
+      </c>
     </row>
-    <row r="17" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13278,14 +13375,20 @@
       <c r="JT17" s="12">
         <v>49507</v>
       </c>
-      <c r="JU17" s="12">
+      <c r="JU17" s="11">
         <v>49458</v>
       </c>
       <c r="JV17" s="12">
         <v>49590</v>
       </c>
+      <c r="JW17" s="12">
+        <v>49779</v>
+      </c>
+      <c r="JX17" s="35">
+        <v>49802</v>
+      </c>
     </row>
-    <row r="18" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14126,14 +14229,20 @@
       <c r="JT18" s="12">
         <v>13719</v>
       </c>
-      <c r="JU18" s="12">
+      <c r="JU18" s="11">
         <v>13594</v>
       </c>
       <c r="JV18" s="12">
         <v>13616</v>
       </c>
+      <c r="JW18" s="12">
+        <v>13596</v>
+      </c>
+      <c r="JX18" s="35">
+        <v>13630</v>
+      </c>
     </row>
-    <row r="19" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14974,14 +15083,20 @@
       <c r="JT19" s="12">
         <v>16245</v>
       </c>
-      <c r="JU19" s="12">
+      <c r="JU19" s="11">
         <v>16200</v>
       </c>
       <c r="JV19" s="12">
         <v>16263</v>
       </c>
+      <c r="JW19" s="12">
+        <v>16365</v>
+      </c>
+      <c r="JX19" s="35">
+        <v>16407</v>
+      </c>
     </row>
-    <row r="20" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15822,14 +15937,20 @@
       <c r="JT20" s="25">
         <v>105675</v>
       </c>
-      <c r="JU20" s="25">
+      <c r="JU20" s="24">
         <v>105609</v>
       </c>
       <c r="JV20" s="25">
         <v>105971</v>
       </c>
+      <c r="JW20" s="25">
+        <v>106341</v>
+      </c>
+      <c r="JX20" s="36">
+        <v>106467</v>
+      </c>
     </row>
-    <row r="21" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16670,14 +16791,20 @@
       <c r="JT21" s="12">
         <v>37170</v>
       </c>
-      <c r="JU21" s="12">
+      <c r="JU21" s="11">
         <v>36990</v>
       </c>
       <c r="JV21" s="12">
         <v>37100</v>
       </c>
+      <c r="JW21" s="12">
+        <v>37067</v>
+      </c>
+      <c r="JX21" s="35">
+        <v>37057</v>
+      </c>
     </row>
-    <row r="22" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17518,14 +17645,20 @@
       <c r="JT22" s="12">
         <v>12596</v>
       </c>
-      <c r="JU22" s="12">
+      <c r="JU22" s="11">
         <v>12537</v>
       </c>
       <c r="JV22" s="12">
         <v>12563</v>
       </c>
+      <c r="JW22" s="12">
+        <v>12552</v>
+      </c>
+      <c r="JX22" s="35">
+        <v>12534</v>
+      </c>
     </row>
-    <row r="23" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18366,14 +18499,20 @@
       <c r="JT23" s="12">
         <v>13869</v>
       </c>
-      <c r="JU23" s="12">
+      <c r="JU23" s="11">
         <v>13826</v>
       </c>
       <c r="JV23" s="12">
         <v>13881</v>
       </c>
+      <c r="JW23" s="12">
+        <v>13918</v>
+      </c>
+      <c r="JX23" s="35">
+        <v>13917</v>
+      </c>
     </row>
-    <row r="24" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19214,14 +19353,20 @@
       <c r="JT24" s="12">
         <v>76087</v>
       </c>
-      <c r="JU24" s="12">
+      <c r="JU24" s="11">
         <v>76188</v>
       </c>
       <c r="JV24" s="12">
         <v>76346</v>
       </c>
+      <c r="JW24" s="12">
+        <v>76657</v>
+      </c>
+      <c r="JX24" s="35">
+        <v>76763</v>
+      </c>
     </row>
-    <row r="25" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20062,14 +20207,20 @@
       <c r="JT25" s="12">
         <v>14448</v>
       </c>
-      <c r="JU25" s="12">
+      <c r="JU25" s="11">
         <v>14336</v>
       </c>
       <c r="JV25" s="12">
         <v>14377</v>
       </c>
+      <c r="JW25" s="12">
+        <v>14447</v>
+      </c>
+      <c r="JX25" s="35">
+        <v>14484</v>
+      </c>
     </row>
-    <row r="26" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20910,14 +21061,20 @@
       <c r="JT26" s="12">
         <v>35020</v>
       </c>
-      <c r="JU26" s="12">
+      <c r="JU26" s="11">
         <v>34995</v>
       </c>
       <c r="JV26" s="12">
         <v>35135</v>
       </c>
+      <c r="JW26" s="12">
+        <v>35207</v>
+      </c>
+      <c r="JX26" s="35">
+        <v>35275</v>
+      </c>
     </row>
-    <row r="27" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21758,14 +21915,20 @@
       <c r="JT27" s="12">
         <v>29588</v>
       </c>
-      <c r="JU27" s="12">
+      <c r="JU27" s="11">
         <v>29593</v>
       </c>
       <c r="JV27" s="12">
         <v>29719</v>
       </c>
+      <c r="JW27" s="12">
+        <v>29856</v>
+      </c>
+      <c r="JX27" s="35">
+        <v>29876</v>
+      </c>
     </row>
-    <row r="28" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22606,14 +22769,20 @@
       <c r="JT28" s="12">
         <v>20714</v>
       </c>
-      <c r="JU28" s="12">
+      <c r="JU28" s="11">
         <v>20683</v>
       </c>
       <c r="JV28" s="12">
         <v>20787</v>
       </c>
+      <c r="JW28" s="12">
+        <v>20928</v>
+      </c>
+      <c r="JX28" s="35">
+        <v>21046</v>
+      </c>
     </row>
-    <row r="29" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23454,14 +23623,20 @@
       <c r="JT29" s="12">
         <v>23802</v>
       </c>
-      <c r="JU29" s="12">
+      <c r="JU29" s="11">
         <v>23741</v>
       </c>
       <c r="JV29" s="12">
         <v>23839</v>
       </c>
+      <c r="JW29" s="12">
+        <v>23886</v>
+      </c>
+      <c r="JX29" s="35">
+        <v>23888</v>
+      </c>
     </row>
-    <row r="30" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24302,14 +24477,20 @@
       <c r="JT30" s="12">
         <v>43507</v>
       </c>
-      <c r="JU30" s="12">
+      <c r="JU30" s="11">
         <v>43394</v>
       </c>
       <c r="JV30" s="12">
         <v>43552</v>
       </c>
+      <c r="JW30" s="12">
+        <v>43592</v>
+      </c>
+      <c r="JX30" s="35">
+        <v>43656</v>
+      </c>
     </row>
-    <row r="31" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25150,14 +25331,20 @@
       <c r="JT31" s="12">
         <v>39024</v>
       </c>
-      <c r="JU31" s="12">
+      <c r="JU31" s="11">
         <v>38890</v>
       </c>
       <c r="JV31" s="12">
         <v>38848</v>
       </c>
+      <c r="JW31" s="12">
+        <v>38834</v>
+      </c>
+      <c r="JX31" s="35">
+        <v>38818</v>
+      </c>
     </row>
-    <row r="32" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25998,14 +26185,20 @@
       <c r="JT32" s="12">
         <v>11763</v>
       </c>
-      <c r="JU32" s="12">
+      <c r="JU32" s="11">
         <v>11759</v>
       </c>
       <c r="JV32" s="12">
         <v>11778</v>
       </c>
+      <c r="JW32" s="12">
+        <v>11856</v>
+      </c>
+      <c r="JX32" s="35">
+        <v>11878</v>
+      </c>
     </row>
-    <row r="33" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26846,14 +27039,20 @@
       <c r="JT33" s="12">
         <v>34174</v>
       </c>
-      <c r="JU33" s="12">
+      <c r="JU33" s="11">
         <v>34014</v>
       </c>
       <c r="JV33" s="12">
         <v>34105</v>
       </c>
+      <c r="JW33" s="12">
+        <v>34223</v>
+      </c>
+      <c r="JX33" s="35">
+        <v>34190</v>
+      </c>
     </row>
-    <row r="34" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27694,14 +27893,20 @@
       <c r="JT34" s="12">
         <v>5549</v>
       </c>
-      <c r="JU34" s="12">
+      <c r="JU34" s="11">
         <v>5498</v>
       </c>
       <c r="JV34" s="12">
         <v>5530</v>
       </c>
+      <c r="JW34" s="12">
+        <v>5522</v>
+      </c>
+      <c r="JX34" s="35">
+        <v>5512</v>
+      </c>
     </row>
-    <row r="35" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28542,14 +28747,20 @@
       <c r="JT35" s="12">
         <v>43533</v>
       </c>
-      <c r="JU35" s="12">
+      <c r="JU35" s="11">
         <v>43333</v>
       </c>
       <c r="JV35" s="12">
         <v>43400</v>
       </c>
+      <c r="JW35" s="12">
+        <v>43401</v>
+      </c>
+      <c r="JX35" s="35">
+        <v>43496</v>
+      </c>
     </row>
-    <row r="36" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -29390,14 +29601,20 @@
       <c r="JT36" s="12">
         <v>21443</v>
       </c>
-      <c r="JU36" s="12">
+      <c r="JU36" s="11">
         <v>21515</v>
       </c>
       <c r="JV36" s="12">
         <v>21655</v>
       </c>
+      <c r="JW36" s="12">
+        <v>21763</v>
+      </c>
+      <c r="JX36" s="35">
+        <v>21577</v>
+      </c>
     </row>
-    <row r="37" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30238,14 +30455,20 @@
       <c r="JT37" s="12">
         <v>11966</v>
       </c>
-      <c r="JU37" s="12">
+      <c r="JU37" s="17">
         <v>11943</v>
       </c>
       <c r="JV37" s="12">
         <v>12017</v>
       </c>
+      <c r="JW37" s="12">
+        <v>11992</v>
+      </c>
+      <c r="JX37" s="35">
+        <v>11938</v>
+      </c>
     </row>
-    <row r="38" spans="1:282" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -31086,15 +31309,20 @@
       <c r="JT38" s="10">
         <v>1065556</v>
       </c>
-      <c r="JU38" s="10">
+      <c r="JU38" s="13">
         <v>1063429</v>
       </c>
       <c r="JV38" s="10">
-        <f>SUM(JV6:JV37)</f>
         <v>1066338</v>
       </c>
+      <c r="JW38" s="10">
+        <v>1069067</v>
+      </c>
+      <c r="JX38" s="28">
+        <v>1069704</v>
+      </c>
     </row>
-    <row r="40" spans="1:282" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31103,9 +31331,6 @@
       <c r="HW40" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="JV6:JW37">
-    <sortCondition ref="JV6"/>
-  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA78A3-1DAD-4194-A64E-70371D48C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E479EE1-76A3-46E9-8DD8-CCE023AFE67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - junio 2023</t>
+    <t>Diciembre 1997 - julio 2023</t>
   </si>
 </sst>
 </file>
@@ -901,10 +901,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1256,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JZ40"/>
+  <dimension ref="A1:KA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KA21" sqref="KA21"/>
+      <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KC1" sqref="KC1:KD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,11 +1426,12 @@
     <col min="279" max="279" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="281" max="283" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="284" max="285" width="9.109375" customWidth="1"/>
-    <col min="286" max="286" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="284" max="286" width="9.109375" customWidth="1"/>
+    <col min="287" max="287" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1439,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1446,7 +1447,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="4" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2302,11 +2303,14 @@
       <c r="JY4" s="30">
         <v>2023</v>
       </c>
-      <c r="JZ4" s="31">
+      <c r="JZ4" s="30">
         <v>2023</v>
       </c>
+      <c r="KA4" s="31">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>28</v>
@@ -3160,11 +3164,14 @@
       <c r="JY5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="JZ5" s="34" t="s">
+      <c r="JZ5" s="25" t="s">
         <v>34</v>
       </c>
+      <c r="KA5" s="33" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4020,11 +4027,14 @@
       <c r="JY6" s="5">
         <v>16673</v>
       </c>
-      <c r="JZ6" s="32">
+      <c r="JZ6" s="5">
         <v>16699</v>
       </c>
+      <c r="KA6" s="32">
+        <v>16677</v>
+      </c>
     </row>
-    <row r="7" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4880,11 +4890,14 @@
       <c r="JY7" s="5">
         <v>44678</v>
       </c>
-      <c r="JZ7" s="32">
+      <c r="JZ7" s="5">
         <v>44819</v>
       </c>
+      <c r="KA7" s="32">
+        <v>44925</v>
+      </c>
     </row>
-    <row r="8" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5740,11 +5753,14 @@
       <c r="JY8" s="5">
         <v>15005</v>
       </c>
-      <c r="JZ8" s="32">
+      <c r="JZ8" s="5">
         <v>15044</v>
       </c>
+      <c r="KA8" s="32">
+        <v>15062</v>
+      </c>
     </row>
-    <row r="9" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6600,11 +6616,14 @@
       <c r="JY9" s="5">
         <v>6437</v>
       </c>
-      <c r="JZ9" s="32">
+      <c r="JZ9" s="5">
         <v>6477</v>
       </c>
+      <c r="KA9" s="32">
+        <v>6386</v>
+      </c>
     </row>
-    <row r="10" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7460,11 +7479,14 @@
       <c r="JY10" s="5">
         <v>14978</v>
       </c>
-      <c r="JZ10" s="32">
+      <c r="JZ10" s="5">
         <v>15036</v>
       </c>
+      <c r="KA10" s="32">
+        <v>15078</v>
+      </c>
     </row>
-    <row r="11" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8320,11 +8342,14 @@
       <c r="JY11" s="5">
         <v>42501</v>
       </c>
-      <c r="JZ11" s="32">
+      <c r="JZ11" s="5">
         <v>42655</v>
       </c>
+      <c r="KA11" s="32">
+        <v>42667</v>
+      </c>
     </row>
-    <row r="12" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9180,11 +9205,14 @@
       <c r="JY12" s="5">
         <v>126886</v>
       </c>
-      <c r="JZ12" s="32">
+      <c r="JZ12" s="5">
         <v>127010</v>
       </c>
+      <c r="KA12" s="32">
+        <v>127233</v>
+      </c>
     </row>
-    <row r="13" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10040,11 +10068,14 @@
       <c r="JY13" s="5">
         <v>35792</v>
       </c>
-      <c r="JZ13" s="32">
+      <c r="JZ13" s="5">
         <v>35796</v>
       </c>
+      <c r="KA13" s="32">
+        <v>35806</v>
+      </c>
     </row>
-    <row r="14" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10900,11 +10931,14 @@
       <c r="JY14" s="5">
         <v>11713</v>
       </c>
-      <c r="JZ14" s="32">
+      <c r="JZ14" s="5">
         <v>11728</v>
       </c>
+      <c r="KA14" s="32">
+        <v>11717</v>
+      </c>
     </row>
-    <row r="15" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11760,11 +11794,14 @@
       <c r="JY15" s="5">
         <v>14541</v>
       </c>
-      <c r="JZ15" s="32">
+      <c r="JZ15" s="5">
         <v>14586</v>
       </c>
+      <c r="KA15" s="32">
+        <v>14508</v>
+      </c>
     </row>
-    <row r="16" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12620,11 +12657,14 @@
       <c r="JY16" s="5">
         <v>78475</v>
       </c>
-      <c r="JZ16" s="32">
+      <c r="JZ16" s="5">
         <v>78213</v>
       </c>
+      <c r="KA16" s="32">
+        <v>78294</v>
+      </c>
     </row>
-    <row r="17" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13480,11 +13520,14 @@
       <c r="JY17" s="5">
         <v>49721</v>
       </c>
-      <c r="JZ17" s="32">
+      <c r="JZ17" s="5">
         <v>49925</v>
       </c>
+      <c r="KA17" s="32">
+        <v>50002</v>
+      </c>
     </row>
-    <row r="18" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14340,11 +14383,14 @@
       <c r="JY18" s="5">
         <v>13600</v>
       </c>
-      <c r="JZ18" s="32">
+      <c r="JZ18" s="5">
         <v>13538</v>
       </c>
+      <c r="KA18" s="32">
+        <v>13478</v>
+      </c>
     </row>
-    <row r="19" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15200,11 +15246,14 @@
       <c r="JY19" s="5">
         <v>16450</v>
       </c>
-      <c r="JZ19" s="32">
+      <c r="JZ19" s="5">
         <v>16528</v>
       </c>
+      <c r="KA19" s="32">
+        <v>16582</v>
+      </c>
     </row>
-    <row r="20" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16060,11 +16109,14 @@
       <c r="JY20" s="23">
         <v>106693</v>
       </c>
-      <c r="JZ20" s="33">
+      <c r="JZ20" s="23">
         <v>106987</v>
       </c>
+      <c r="KA20" s="34">
+        <v>107086</v>
+      </c>
     </row>
-    <row r="21" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16920,11 +16972,14 @@
       <c r="JY21" s="5">
         <v>37048</v>
       </c>
-      <c r="JZ21" s="32">
+      <c r="JZ21" s="5">
         <v>37043</v>
       </c>
+      <c r="KA21" s="32">
+        <v>36933</v>
+      </c>
     </row>
-    <row r="22" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17780,11 +17835,14 @@
       <c r="JY22" s="5">
         <v>12565</v>
       </c>
-      <c r="JZ22" s="32">
+      <c r="JZ22" s="5">
         <v>12593</v>
       </c>
+      <c r="KA22" s="32">
+        <v>12588</v>
+      </c>
     </row>
-    <row r="23" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18640,11 +18698,14 @@
       <c r="JY23" s="5">
         <v>13871</v>
       </c>
-      <c r="JZ23" s="32">
+      <c r="JZ23" s="5">
         <v>13891</v>
       </c>
+      <c r="KA23" s="32">
+        <v>13884</v>
+      </c>
     </row>
-    <row r="24" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19500,11 +19561,14 @@
       <c r="JY24" s="5">
         <v>76842</v>
       </c>
-      <c r="JZ24" s="32">
+      <c r="JZ24" s="5">
         <v>76924</v>
       </c>
+      <c r="KA24" s="32">
+        <v>77082</v>
+      </c>
     </row>
-    <row r="25" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20360,11 +20424,14 @@
       <c r="JY25" s="5">
         <v>14566</v>
       </c>
-      <c r="JZ25" s="32">
+      <c r="JZ25" s="5">
         <v>14641</v>
       </c>
+      <c r="KA25" s="32">
+        <v>14659</v>
+      </c>
     </row>
-    <row r="26" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21220,11 +21287,14 @@
       <c r="JY26" s="5">
         <v>35271</v>
       </c>
-      <c r="JZ26" s="32">
+      <c r="JZ26" s="5">
         <v>35406</v>
       </c>
+      <c r="KA26" s="32">
+        <v>35386</v>
+      </c>
     </row>
-    <row r="27" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -22080,11 +22150,14 @@
       <c r="JY27" s="5">
         <v>29901</v>
       </c>
-      <c r="JZ27" s="32">
+      <c r="JZ27" s="5">
         <v>30029</v>
       </c>
+      <c r="KA27" s="32">
+        <v>30096</v>
+      </c>
     </row>
-    <row r="28" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22940,11 +23013,14 @@
       <c r="JY28" s="5">
         <v>21210</v>
       </c>
-      <c r="JZ28" s="32">
+      <c r="JZ28" s="5">
         <v>21379</v>
       </c>
+      <c r="KA28" s="32">
+        <v>21447</v>
+      </c>
     </row>
-    <row r="29" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23800,11 +23876,14 @@
       <c r="JY29" s="5">
         <v>23895</v>
       </c>
-      <c r="JZ29" s="32">
+      <c r="JZ29" s="5">
         <v>23926</v>
       </c>
+      <c r="KA29" s="32">
+        <v>23881</v>
+      </c>
     </row>
-    <row r="30" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24660,11 +24739,14 @@
       <c r="JY30" s="5">
         <v>43660</v>
       </c>
-      <c r="JZ30" s="32">
+      <c r="JZ30" s="5">
         <v>43721</v>
       </c>
+      <c r="KA30" s="32">
+        <v>43653</v>
+      </c>
     </row>
-    <row r="31" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25520,11 +25602,14 @@
       <c r="JY31" s="5">
         <v>38839</v>
       </c>
-      <c r="JZ31" s="32">
+      <c r="JZ31" s="5">
         <v>38878</v>
       </c>
+      <c r="KA31" s="32">
+        <v>38849</v>
+      </c>
     </row>
-    <row r="32" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26380,11 +26465,14 @@
       <c r="JY32" s="5">
         <v>11926</v>
       </c>
-      <c r="JZ32" s="32">
+      <c r="JZ32" s="5">
         <v>11971</v>
       </c>
+      <c r="KA32" s="32">
+        <v>12052</v>
+      </c>
     </row>
-    <row r="33" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27240,11 +27328,14 @@
       <c r="JY33" s="5">
         <v>34118</v>
       </c>
-      <c r="JZ33" s="32">
+      <c r="JZ33" s="5">
         <v>34071</v>
       </c>
+      <c r="KA33" s="32">
+        <v>34015</v>
+      </c>
     </row>
-    <row r="34" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28100,11 +28191,14 @@
       <c r="JY34" s="5">
         <v>5480</v>
       </c>
-      <c r="JZ34" s="32">
+      <c r="JZ34" s="5">
         <v>5506</v>
       </c>
+      <c r="KA34" s="32">
+        <v>5528</v>
+      </c>
     </row>
-    <row r="35" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28960,11 +29054,14 @@
       <c r="JY35" s="5">
         <v>43484</v>
       </c>
-      <c r="JZ35" s="32">
+      <c r="JZ35" s="5">
         <v>43548</v>
       </c>
+      <c r="KA35" s="32">
+        <v>43537</v>
+      </c>
     </row>
-    <row r="36" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -29820,11 +29917,14 @@
       <c r="JY36" s="5">
         <v>21671</v>
       </c>
-      <c r="JZ36" s="32">
+      <c r="JZ36" s="5">
         <v>21766</v>
       </c>
+      <c r="KA36" s="32">
+        <v>21856</v>
+      </c>
     </row>
-    <row r="37" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30680,11 +30780,14 @@
       <c r="JY37" s="5">
         <v>11929</v>
       </c>
-      <c r="JZ37" s="32">
+      <c r="JZ37" s="5">
         <v>11897</v>
       </c>
+      <c r="KA37" s="32">
+        <v>11849</v>
+      </c>
     </row>
-    <row r="38" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -31540,11 +31643,14 @@
       <c r="JY38" s="9">
         <v>1070419</v>
       </c>
-      <c r="JZ38" s="26">
+      <c r="JZ38" s="9">
         <v>1072231</v>
       </c>
+      <c r="KA38" s="26">
+        <v>1072796</v>
+      </c>
     </row>
-    <row r="40" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E479EE1-76A3-46E9-8DD8-CCE023AFE67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CC0D1-AEB0-4545-AFE2-2600991F1B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - julio 2023</t>
+    <t>Diciembre 1997 - noviembre  2023</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1256,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KA40"/>
+  <dimension ref="A1:KE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KC1" sqref="KC1:KD1048576"/>
+      <pane xSplit="1" topLeftCell="JN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1426,12 +1426,14 @@
     <col min="279" max="279" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="280" max="280" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="281" max="283" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="284" max="286" width="9.109375" customWidth="1"/>
-    <col min="287" max="287" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="11.5546875" customWidth="1"/>
+    <col min="284" max="288" width="9.109375" customWidth="1"/>
+    <col min="289" max="289" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="10.6640625" customWidth="1"/>
+    <col min="291" max="291" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1439,7 +1441,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1449,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="4" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2306,11 +2308,23 @@
       <c r="JZ4" s="30">
         <v>2023</v>
       </c>
-      <c r="KA4" s="31">
+      <c r="KA4" s="30">
         <v>2023</v>
       </c>
+      <c r="KB4" s="30">
+        <v>2023</v>
+      </c>
+      <c r="KC4" s="30">
+        <v>2023</v>
+      </c>
+      <c r="KD4" s="30">
+        <v>2023</v>
+      </c>
+      <c r="KE4" s="31">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>28</v>
@@ -3167,11 +3181,23 @@
       <c r="JZ5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="KA5" s="33" t="s">
+      <c r="KA5" s="25" t="s">
         <v>35</v>
       </c>
+      <c r="KB5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="KC5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="KD5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="KE5" s="33" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4030,11 +4056,23 @@
       <c r="JZ6" s="5">
         <v>16699</v>
       </c>
-      <c r="KA6" s="32">
+      <c r="KA6" s="5">
         <v>16677</v>
       </c>
+      <c r="KB6" s="5">
+        <v>16619</v>
+      </c>
+      <c r="KC6" s="5">
+        <v>16657</v>
+      </c>
+      <c r="KD6" s="5">
+        <v>16711</v>
+      </c>
+      <c r="KE6" s="32">
+        <v>16724</v>
+      </c>
     </row>
-    <row r="7" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4893,11 +4931,23 @@
       <c r="JZ7" s="5">
         <v>44819</v>
       </c>
-      <c r="KA7" s="32">
+      <c r="KA7" s="5">
         <v>44925</v>
       </c>
+      <c r="KB7" s="5">
+        <v>44933</v>
+      </c>
+      <c r="KC7" s="5">
+        <v>44916</v>
+      </c>
+      <c r="KD7" s="5">
+        <v>44905</v>
+      </c>
+      <c r="KE7" s="32">
+        <v>44893</v>
+      </c>
     </row>
-    <row r="8" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5756,11 +5806,23 @@
       <c r="JZ8" s="5">
         <v>15044</v>
       </c>
-      <c r="KA8" s="32">
+      <c r="KA8" s="5">
         <v>15062</v>
       </c>
+      <c r="KB8" s="5">
+        <v>15124</v>
+      </c>
+      <c r="KC8" s="5">
+        <v>15134</v>
+      </c>
+      <c r="KD8" s="5">
+        <v>15211</v>
+      </c>
+      <c r="KE8" s="32">
+        <v>15215</v>
+      </c>
     </row>
-    <row r="9" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6619,11 +6681,23 @@
       <c r="JZ9" s="5">
         <v>6477</v>
       </c>
-      <c r="KA9" s="32">
+      <c r="KA9" s="5">
         <v>6386</v>
       </c>
+      <c r="KB9" s="5">
+        <v>6432</v>
+      </c>
+      <c r="KC9" s="5">
+        <v>6474</v>
+      </c>
+      <c r="KD9" s="5">
+        <v>6498</v>
+      </c>
+      <c r="KE9" s="32">
+        <v>6472</v>
+      </c>
     </row>
-    <row r="10" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7482,11 +7556,23 @@
       <c r="JZ10" s="5">
         <v>15036</v>
       </c>
-      <c r="KA10" s="32">
+      <c r="KA10" s="5">
         <v>15078</v>
       </c>
+      <c r="KB10" s="5">
+        <v>15121</v>
+      </c>
+      <c r="KC10" s="5">
+        <v>15111</v>
+      </c>
+      <c r="KD10" s="5">
+        <v>15114</v>
+      </c>
+      <c r="KE10" s="32">
+        <v>15061</v>
+      </c>
     </row>
-    <row r="11" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8345,11 +8431,23 @@
       <c r="JZ11" s="5">
         <v>42655</v>
       </c>
-      <c r="KA11" s="32">
+      <c r="KA11" s="5">
         <v>42667</v>
       </c>
+      <c r="KB11" s="5">
+        <v>42731</v>
+      </c>
+      <c r="KC11" s="5">
+        <v>42755</v>
+      </c>
+      <c r="KD11" s="5">
+        <v>42847</v>
+      </c>
+      <c r="KE11" s="32">
+        <v>42844</v>
+      </c>
     </row>
-    <row r="12" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9208,11 +9306,23 @@
       <c r="JZ12" s="5">
         <v>127010</v>
       </c>
-      <c r="KA12" s="32">
+      <c r="KA12" s="5">
         <v>127233</v>
       </c>
+      <c r="KB12" s="5">
+        <v>127295</v>
+      </c>
+      <c r="KC12" s="5">
+        <v>127306</v>
+      </c>
+      <c r="KD12" s="5">
+        <v>127677</v>
+      </c>
+      <c r="KE12" s="32">
+        <v>127772</v>
+      </c>
     </row>
-    <row r="13" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10071,11 +10181,23 @@
       <c r="JZ13" s="5">
         <v>35796</v>
       </c>
-      <c r="KA13" s="32">
+      <c r="KA13" s="5">
         <v>35806</v>
       </c>
+      <c r="KB13" s="5">
+        <v>35838</v>
+      </c>
+      <c r="KC13" s="5">
+        <v>35850</v>
+      </c>
+      <c r="KD13" s="5">
+        <v>35867</v>
+      </c>
+      <c r="KE13" s="32">
+        <v>35826</v>
+      </c>
     </row>
-    <row r="14" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10934,11 +11056,23 @@
       <c r="JZ14" s="5">
         <v>11728</v>
       </c>
-      <c r="KA14" s="32">
+      <c r="KA14" s="5">
         <v>11717</v>
       </c>
+      <c r="KB14" s="5">
+        <v>11754</v>
+      </c>
+      <c r="KC14" s="5">
+        <v>11826</v>
+      </c>
+      <c r="KD14" s="5">
+        <v>11874</v>
+      </c>
+      <c r="KE14" s="32">
+        <v>11887</v>
+      </c>
     </row>
-    <row r="15" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11797,11 +11931,23 @@
       <c r="JZ15" s="5">
         <v>14586</v>
       </c>
-      <c r="KA15" s="32">
+      <c r="KA15" s="5">
         <v>14508</v>
       </c>
+      <c r="KB15" s="5">
+        <v>14547</v>
+      </c>
+      <c r="KC15" s="5">
+        <v>14574</v>
+      </c>
+      <c r="KD15" s="5">
+        <v>14600</v>
+      </c>
+      <c r="KE15" s="32">
+        <v>14606</v>
+      </c>
     </row>
-    <row r="16" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12660,11 +12806,23 @@
       <c r="JZ16" s="5">
         <v>78213</v>
       </c>
-      <c r="KA16" s="32">
+      <c r="KA16" s="5">
         <v>78294</v>
       </c>
+      <c r="KB16" s="5">
+        <v>78070</v>
+      </c>
+      <c r="KC16" s="5">
+        <v>78372</v>
+      </c>
+      <c r="KD16" s="5">
+        <v>78616</v>
+      </c>
+      <c r="KE16" s="32">
+        <v>78773</v>
+      </c>
     </row>
-    <row r="17" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13523,11 +13681,23 @@
       <c r="JZ17" s="5">
         <v>49925</v>
       </c>
-      <c r="KA17" s="32">
+      <c r="KA17" s="5">
         <v>50002</v>
       </c>
+      <c r="KB17" s="5">
+        <v>50097</v>
+      </c>
+      <c r="KC17" s="5">
+        <v>50035</v>
+      </c>
+      <c r="KD17" s="5">
+        <v>50156</v>
+      </c>
+      <c r="KE17" s="32">
+        <v>50160</v>
+      </c>
     </row>
-    <row r="18" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14386,11 +14556,23 @@
       <c r="JZ18" s="5">
         <v>13538</v>
       </c>
-      <c r="KA18" s="32">
+      <c r="KA18" s="5">
         <v>13478</v>
       </c>
+      <c r="KB18" s="5">
+        <v>13484</v>
+      </c>
+      <c r="KC18" s="5">
+        <v>13473</v>
+      </c>
+      <c r="KD18" s="5">
+        <v>13477</v>
+      </c>
+      <c r="KE18" s="32">
+        <v>13298</v>
+      </c>
     </row>
-    <row r="19" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15249,11 +15431,23 @@
       <c r="JZ19" s="5">
         <v>16528</v>
       </c>
-      <c r="KA19" s="32">
+      <c r="KA19" s="5">
         <v>16582</v>
       </c>
+      <c r="KB19" s="5">
+        <v>16630</v>
+      </c>
+      <c r="KC19" s="5">
+        <v>16706</v>
+      </c>
+      <c r="KD19" s="5">
+        <v>16791</v>
+      </c>
+      <c r="KE19" s="32">
+        <v>16813</v>
+      </c>
     </row>
-    <row r="20" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16112,11 +16306,23 @@
       <c r="JZ20" s="23">
         <v>106987</v>
       </c>
-      <c r="KA20" s="34">
+      <c r="KA20" s="23">
         <v>107086</v>
       </c>
+      <c r="KB20" s="23">
+        <v>107237</v>
+      </c>
+      <c r="KC20" s="23">
+        <v>107432</v>
+      </c>
+      <c r="KD20" s="23">
+        <v>107771</v>
+      </c>
+      <c r="KE20" s="34">
+        <v>107862</v>
+      </c>
     </row>
-    <row r="21" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -16975,11 +17181,23 @@
       <c r="JZ21" s="5">
         <v>37043</v>
       </c>
-      <c r="KA21" s="32">
+      <c r="KA21" s="5">
         <v>36933</v>
       </c>
+      <c r="KB21" s="5">
+        <v>36945</v>
+      </c>
+      <c r="KC21" s="5">
+        <v>36915</v>
+      </c>
+      <c r="KD21" s="5">
+        <v>36941</v>
+      </c>
+      <c r="KE21" s="32">
+        <v>36900</v>
+      </c>
     </row>
-    <row r="22" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17838,11 +18056,23 @@
       <c r="JZ22" s="5">
         <v>12593</v>
       </c>
-      <c r="KA22" s="32">
+      <c r="KA22" s="5">
         <v>12588</v>
       </c>
+      <c r="KB22" s="5">
+        <v>12580</v>
+      </c>
+      <c r="KC22" s="5">
+        <v>12606</v>
+      </c>
+      <c r="KD22" s="5">
+        <v>12602</v>
+      </c>
+      <c r="KE22" s="32">
+        <v>12587</v>
+      </c>
     </row>
-    <row r="23" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18701,11 +18931,23 @@
       <c r="JZ23" s="5">
         <v>13891</v>
       </c>
-      <c r="KA23" s="32">
+      <c r="KA23" s="5">
         <v>13884</v>
       </c>
+      <c r="KB23" s="5">
+        <v>13867</v>
+      </c>
+      <c r="KC23" s="5">
+        <v>13896</v>
+      </c>
+      <c r="KD23" s="5">
+        <v>13961</v>
+      </c>
+      <c r="KE23" s="32">
+        <v>14003</v>
+      </c>
     </row>
-    <row r="24" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19564,11 +19806,23 @@
       <c r="JZ24" s="5">
         <v>76924</v>
       </c>
-      <c r="KA24" s="32">
+      <c r="KA24" s="5">
         <v>77082</v>
       </c>
+      <c r="KB24" s="5">
+        <v>77151</v>
+      </c>
+      <c r="KC24" s="5">
+        <v>77209</v>
+      </c>
+      <c r="KD24" s="5">
+        <v>77390</v>
+      </c>
+      <c r="KE24" s="32">
+        <v>77513</v>
+      </c>
     </row>
-    <row r="25" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20427,11 +20681,23 @@
       <c r="JZ25" s="5">
         <v>14641</v>
       </c>
-      <c r="KA25" s="32">
+      <c r="KA25" s="5">
         <v>14659</v>
       </c>
+      <c r="KB25" s="5">
+        <v>14762</v>
+      </c>
+      <c r="KC25" s="5">
+        <v>14846</v>
+      </c>
+      <c r="KD25" s="5">
+        <v>14931</v>
+      </c>
+      <c r="KE25" s="32">
+        <v>14936</v>
+      </c>
     </row>
-    <row r="26" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21290,11 +21556,23 @@
       <c r="JZ26" s="5">
         <v>35406</v>
       </c>
-      <c r="KA26" s="32">
+      <c r="KA26" s="5">
         <v>35386</v>
       </c>
+      <c r="KB26" s="5">
+        <v>35412</v>
+      </c>
+      <c r="KC26" s="5">
+        <v>35501</v>
+      </c>
+      <c r="KD26" s="5">
+        <v>35621</v>
+      </c>
+      <c r="KE26" s="32">
+        <v>35618</v>
+      </c>
     </row>
-    <row r="27" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -22153,11 +22431,23 @@
       <c r="JZ27" s="5">
         <v>30029</v>
       </c>
-      <c r="KA27" s="32">
+      <c r="KA27" s="5">
         <v>30096</v>
       </c>
+      <c r="KB27" s="5">
+        <v>30208</v>
+      </c>
+      <c r="KC27" s="5">
+        <v>30274</v>
+      </c>
+      <c r="KD27" s="5">
+        <v>30456</v>
+      </c>
+      <c r="KE27" s="32">
+        <v>30495</v>
+      </c>
     </row>
-    <row r="28" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23016,11 +23306,23 @@
       <c r="JZ28" s="5">
         <v>21379</v>
       </c>
-      <c r="KA28" s="32">
+      <c r="KA28" s="5">
         <v>21447</v>
       </c>
+      <c r="KB28" s="5">
+        <v>21490</v>
+      </c>
+      <c r="KC28" s="5">
+        <v>21613</v>
+      </c>
+      <c r="KD28" s="5">
+        <v>21716</v>
+      </c>
+      <c r="KE28" s="32">
+        <v>21836</v>
+      </c>
     </row>
-    <row r="29" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -23879,11 +24181,23 @@
       <c r="JZ29" s="5">
         <v>23926</v>
       </c>
-      <c r="KA29" s="32">
+      <c r="KA29" s="5">
         <v>23881</v>
       </c>
+      <c r="KB29" s="5">
+        <v>23899</v>
+      </c>
+      <c r="KC29" s="5">
+        <v>23952</v>
+      </c>
+      <c r="KD29" s="5">
+        <v>24017</v>
+      </c>
+      <c r="KE29" s="32">
+        <v>24028</v>
+      </c>
     </row>
-    <row r="30" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24742,11 +25056,23 @@
       <c r="JZ30" s="5">
         <v>43721</v>
       </c>
-      <c r="KA30" s="32">
+      <c r="KA30" s="5">
         <v>43653</v>
       </c>
+      <c r="KB30" s="5">
+        <v>43635</v>
+      </c>
+      <c r="KC30" s="5">
+        <v>43636</v>
+      </c>
+      <c r="KD30" s="5">
+        <v>43671</v>
+      </c>
+      <c r="KE30" s="32">
+        <v>43654</v>
+      </c>
     </row>
-    <row r="31" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25605,11 +25931,23 @@
       <c r="JZ31" s="5">
         <v>38878</v>
       </c>
-      <c r="KA31" s="32">
+      <c r="KA31" s="5">
         <v>38849</v>
       </c>
+      <c r="KB31" s="5">
+        <v>38895</v>
+      </c>
+      <c r="KC31" s="5">
+        <v>38923</v>
+      </c>
+      <c r="KD31" s="5">
+        <v>38932</v>
+      </c>
+      <c r="KE31" s="32">
+        <v>38896</v>
+      </c>
     </row>
-    <row r="32" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26468,11 +26806,23 @@
       <c r="JZ32" s="5">
         <v>11971</v>
       </c>
-      <c r="KA32" s="32">
+      <c r="KA32" s="5">
         <v>12052</v>
       </c>
+      <c r="KB32" s="5">
+        <v>12071</v>
+      </c>
+      <c r="KC32" s="5">
+        <v>12113</v>
+      </c>
+      <c r="KD32" s="5">
+        <v>12127</v>
+      </c>
+      <c r="KE32" s="32">
+        <v>12208</v>
+      </c>
     </row>
-    <row r="33" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27331,11 +27681,23 @@
       <c r="JZ33" s="5">
         <v>34071</v>
       </c>
-      <c r="KA33" s="32">
+      <c r="KA33" s="5">
         <v>34015</v>
       </c>
+      <c r="KB33" s="5">
+        <v>34055</v>
+      </c>
+      <c r="KC33" s="5">
+        <v>34053</v>
+      </c>
+      <c r="KD33" s="5">
+        <v>34053</v>
+      </c>
+      <c r="KE33" s="32">
+        <v>33966</v>
+      </c>
     </row>
-    <row r="34" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28194,11 +28556,23 @@
       <c r="JZ34" s="5">
         <v>5506</v>
       </c>
-      <c r="KA34" s="32">
+      <c r="KA34" s="5">
         <v>5528</v>
       </c>
+      <c r="KB34" s="5">
+        <v>5535</v>
+      </c>
+      <c r="KC34" s="5">
+        <v>5590</v>
+      </c>
+      <c r="KD34" s="5">
+        <v>5607</v>
+      </c>
+      <c r="KE34" s="32">
+        <v>5629</v>
+      </c>
     </row>
-    <row r="35" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29057,11 +29431,23 @@
       <c r="JZ35" s="5">
         <v>43548</v>
       </c>
-      <c r="KA35" s="32">
+      <c r="KA35" s="5">
         <v>43537</v>
       </c>
+      <c r="KB35" s="5">
+        <v>43542</v>
+      </c>
+      <c r="KC35" s="5">
+        <v>43514</v>
+      </c>
+      <c r="KD35" s="5">
+        <v>43582</v>
+      </c>
+      <c r="KE35" s="32">
+        <v>43494</v>
+      </c>
     </row>
-    <row r="36" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -29920,11 +30306,23 @@
       <c r="JZ36" s="5">
         <v>21766</v>
       </c>
-      <c r="KA36" s="32">
+      <c r="KA36" s="5">
         <v>21856</v>
       </c>
+      <c r="KB36" s="5">
+        <v>21943</v>
+      </c>
+      <c r="KC36" s="5">
+        <v>21993</v>
+      </c>
+      <c r="KD36" s="5">
+        <v>22101</v>
+      </c>
+      <c r="KE36" s="32">
+        <v>22092</v>
+      </c>
     </row>
-    <row r="37" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30783,11 +31181,23 @@
       <c r="JZ37" s="5">
         <v>11897</v>
       </c>
-      <c r="KA37" s="32">
+      <c r="KA37" s="5">
         <v>11849</v>
       </c>
+      <c r="KB37" s="5">
+        <v>11834</v>
+      </c>
+      <c r="KC37" s="5">
+        <v>11812</v>
+      </c>
+      <c r="KD37" s="5">
+        <v>11839</v>
+      </c>
+      <c r="KE37" s="32">
+        <v>11822</v>
+      </c>
     </row>
-    <row r="38" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -31646,11 +32056,26 @@
       <c r="JZ38" s="9">
         <v>1072231</v>
       </c>
-      <c r="KA38" s="26">
+      <c r="KA38" s="9">
         <v>1072796</v>
       </c>
+      <c r="KB38" s="9">
+        <v>1073736</v>
+      </c>
+      <c r="KC38" s="9">
+        <f>SUM(KC6:KC37)</f>
+        <v>1075067</v>
+      </c>
+      <c r="KD38" s="9">
+        <f>SUM(KD6:KD37)</f>
+        <v>1077662</v>
+      </c>
+      <c r="KE38" s="26">
+        <f>SUM(KE6:KE37)</f>
+        <v>1077883</v>
+      </c>
     </row>
-    <row r="40" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CC0D1-AEB0-4545-AFE2-2600991F1B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B72812-EDA6-4272-9CC3-C6AC80A2D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - noviembre  2023</t>
+    <t>Diciembre 1997 - diciembre  2023</t>
   </si>
 </sst>
 </file>
@@ -1256,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KE40"/>
+  <dimension ref="A1:KF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" topLeftCell="JP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KG8" sqref="KG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,12 +1428,12 @@
     <col min="281" max="283" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="284" max="288" width="9.109375" customWidth="1"/>
     <col min="289" max="289" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="10.6640625" customWidth="1"/>
-    <col min="291" max="291" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="11.5546875" customWidth="1"/>
+    <col min="290" max="291" width="10.6640625" customWidth="1"/>
+    <col min="292" max="292" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="4" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2320,11 +2320,14 @@
       <c r="KD4" s="30">
         <v>2023</v>
       </c>
-      <c r="KE4" s="31">
+      <c r="KE4" s="30">
         <v>2023</v>
       </c>
+      <c r="KF4" s="31">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>28</v>
@@ -3193,11 +3196,14 @@
       <c r="KD5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="KE5" s="33" t="s">
+      <c r="KE5" s="25" t="s">
         <v>39</v>
       </c>
+      <c r="KF5" s="33" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4068,11 +4074,14 @@
       <c r="KD6" s="5">
         <v>16711</v>
       </c>
-      <c r="KE6" s="32">
+      <c r="KE6" s="5">
         <v>16724</v>
       </c>
+      <c r="KF6" s="32">
+        <v>16644</v>
+      </c>
     </row>
-    <row r="7" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4943,11 +4952,14 @@
       <c r="KD7" s="5">
         <v>44905</v>
       </c>
-      <c r="KE7" s="32">
+      <c r="KE7" s="5">
         <v>44893</v>
       </c>
+      <c r="KF7" s="32">
+        <v>44466</v>
+      </c>
     </row>
-    <row r="8" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5818,11 +5830,14 @@
       <c r="KD8" s="5">
         <v>15211</v>
       </c>
-      <c r="KE8" s="32">
+      <c r="KE8" s="5">
         <v>15215</v>
       </c>
+      <c r="KF8" s="32">
+        <v>15096</v>
+      </c>
     </row>
-    <row r="9" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6693,11 +6708,14 @@
       <c r="KD9" s="5">
         <v>6498</v>
       </c>
-      <c r="KE9" s="32">
+      <c r="KE9" s="5">
         <v>6472</v>
       </c>
+      <c r="KF9" s="32">
+        <v>6451</v>
+      </c>
     </row>
-    <row r="10" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7568,11 +7586,14 @@
       <c r="KD10" s="5">
         <v>15114</v>
       </c>
-      <c r="KE10" s="32">
+      <c r="KE10" s="5">
         <v>15061</v>
       </c>
+      <c r="KF10" s="32">
+        <v>14805</v>
+      </c>
     </row>
-    <row r="11" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8443,11 +8464,14 @@
       <c r="KD11" s="5">
         <v>42847</v>
       </c>
-      <c r="KE11" s="32">
+      <c r="KE11" s="5">
         <v>42844</v>
       </c>
+      <c r="KF11" s="32">
+        <v>42637</v>
+      </c>
     </row>
-    <row r="12" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9318,11 +9342,14 @@
       <c r="KD12" s="5">
         <v>127677</v>
       </c>
-      <c r="KE12" s="32">
+      <c r="KE12" s="5">
         <v>127772</v>
       </c>
+      <c r="KF12" s="32">
+        <v>127407</v>
+      </c>
     </row>
-    <row r="13" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10193,11 +10220,14 @@
       <c r="KD13" s="5">
         <v>35867</v>
       </c>
-      <c r="KE13" s="32">
+      <c r="KE13" s="5">
         <v>35826</v>
       </c>
+      <c r="KF13" s="32">
+        <v>35738</v>
+      </c>
     </row>
-    <row r="14" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11068,11 +11098,14 @@
       <c r="KD14" s="5">
         <v>11874</v>
       </c>
-      <c r="KE14" s="32">
+      <c r="KE14" s="5">
         <v>11887</v>
       </c>
+      <c r="KF14" s="32">
+        <v>11855</v>
+      </c>
     </row>
-    <row r="15" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11943,11 +11976,14 @@
       <c r="KD15" s="5">
         <v>14600</v>
       </c>
-      <c r="KE15" s="32">
+      <c r="KE15" s="5">
         <v>14606</v>
       </c>
+      <c r="KF15" s="32">
+        <v>14504</v>
+      </c>
     </row>
-    <row r="16" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12818,11 +12854,14 @@
       <c r="KD16" s="5">
         <v>78616</v>
       </c>
-      <c r="KE16" s="32">
+      <c r="KE16" s="5">
         <v>78773</v>
       </c>
+      <c r="KF16" s="32">
+        <v>78536</v>
+      </c>
     </row>
-    <row r="17" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13693,11 +13732,14 @@
       <c r="KD17" s="5">
         <v>50156</v>
       </c>
-      <c r="KE17" s="32">
+      <c r="KE17" s="5">
         <v>50160</v>
       </c>
+      <c r="KF17" s="32">
+        <v>49902</v>
+      </c>
     </row>
-    <row r="18" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14568,11 +14610,14 @@
       <c r="KD18" s="5">
         <v>13477</v>
       </c>
-      <c r="KE18" s="32">
+      <c r="KE18" s="5">
         <v>13298</v>
       </c>
+      <c r="KF18" s="32">
+        <v>13188</v>
+      </c>
     </row>
-    <row r="19" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15443,11 +15488,14 @@
       <c r="KD19" s="5">
         <v>16791</v>
       </c>
-      <c r="KE19" s="32">
+      <c r="KE19" s="5">
         <v>16813</v>
       </c>
+      <c r="KF19" s="32">
+        <v>16732</v>
+      </c>
     </row>
-    <row r="20" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16318,11 +16366,14 @@
       <c r="KD20" s="23">
         <v>107771</v>
       </c>
-      <c r="KE20" s="34">
+      <c r="KE20" s="23">
         <v>107862</v>
       </c>
+      <c r="KF20" s="34">
+        <v>107522</v>
+      </c>
     </row>
-    <row r="21" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -17193,11 +17244,14 @@
       <c r="KD21" s="5">
         <v>36941</v>
       </c>
-      <c r="KE21" s="32">
+      <c r="KE21" s="5">
         <v>36900</v>
       </c>
+      <c r="KF21" s="32">
+        <v>36696</v>
+      </c>
     </row>
-    <row r="22" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18068,11 +18122,14 @@
       <c r="KD22" s="5">
         <v>12602</v>
       </c>
-      <c r="KE22" s="32">
+      <c r="KE22" s="5">
         <v>12587</v>
       </c>
+      <c r="KF22" s="32">
+        <v>12534</v>
+      </c>
     </row>
-    <row r="23" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18943,11 +19000,14 @@
       <c r="KD23" s="5">
         <v>13961</v>
       </c>
-      <c r="KE23" s="32">
+      <c r="KE23" s="5">
         <v>14003</v>
       </c>
+      <c r="KF23" s="32">
+        <v>13931</v>
+      </c>
     </row>
-    <row r="24" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19818,11 +19878,14 @@
       <c r="KD24" s="5">
         <v>77390</v>
       </c>
-      <c r="KE24" s="32">
+      <c r="KE24" s="5">
         <v>77513</v>
       </c>
+      <c r="KF24" s="32">
+        <v>77235</v>
+      </c>
     </row>
-    <row r="25" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20693,11 +20756,14 @@
       <c r="KD25" s="5">
         <v>14931</v>
       </c>
-      <c r="KE25" s="32">
+      <c r="KE25" s="5">
         <v>14936</v>
       </c>
+      <c r="KF25" s="32">
+        <v>14878</v>
+      </c>
     </row>
-    <row r="26" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21568,11 +21634,14 @@
       <c r="KD26" s="5">
         <v>35621</v>
       </c>
-      <c r="KE26" s="32">
+      <c r="KE26" s="5">
         <v>35618</v>
       </c>
+      <c r="KF26" s="32">
+        <v>35457</v>
+      </c>
     </row>
-    <row r="27" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -22443,11 +22512,14 @@
       <c r="KD27" s="5">
         <v>30456</v>
       </c>
-      <c r="KE27" s="32">
+      <c r="KE27" s="5">
         <v>30495</v>
       </c>
+      <c r="KF27" s="32">
+        <v>30355</v>
+      </c>
     </row>
-    <row r="28" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23318,11 +23390,14 @@
       <c r="KD28" s="5">
         <v>21716</v>
       </c>
-      <c r="KE28" s="32">
+      <c r="KE28" s="5">
         <v>21836</v>
       </c>
+      <c r="KF28" s="32">
+        <v>21745</v>
+      </c>
     </row>
-    <row r="29" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -24193,11 +24268,14 @@
       <c r="KD29" s="5">
         <v>24017</v>
       </c>
-      <c r="KE29" s="32">
+      <c r="KE29" s="5">
         <v>24028</v>
       </c>
+      <c r="KF29" s="32">
+        <v>23934</v>
+      </c>
     </row>
-    <row r="30" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25068,11 +25146,14 @@
       <c r="KD30" s="5">
         <v>43671</v>
       </c>
-      <c r="KE30" s="32">
+      <c r="KE30" s="5">
         <v>43654</v>
       </c>
+      <c r="KF30" s="32">
+        <v>43458</v>
+      </c>
     </row>
-    <row r="31" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25943,11 +26024,14 @@
       <c r="KD31" s="5">
         <v>38932</v>
       </c>
-      <c r="KE31" s="32">
+      <c r="KE31" s="5">
         <v>38896</v>
       </c>
+      <c r="KF31" s="32">
+        <v>38766</v>
+      </c>
     </row>
-    <row r="32" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26818,11 +26902,14 @@
       <c r="KD32" s="5">
         <v>12127</v>
       </c>
-      <c r="KE32" s="32">
+      <c r="KE32" s="5">
         <v>12208</v>
       </c>
+      <c r="KF32" s="32">
+        <v>12143</v>
+      </c>
     </row>
-    <row r="33" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27693,11 +27780,14 @@
       <c r="KD33" s="5">
         <v>34053</v>
       </c>
-      <c r="KE33" s="32">
+      <c r="KE33" s="5">
         <v>33966</v>
       </c>
+      <c r="KF33" s="32">
+        <v>33757</v>
+      </c>
     </row>
-    <row r="34" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28568,11 +28658,14 @@
       <c r="KD34" s="5">
         <v>5607</v>
       </c>
-      <c r="KE34" s="32">
+      <c r="KE34" s="5">
         <v>5629</v>
       </c>
+      <c r="KF34" s="32">
+        <v>5576</v>
+      </c>
     </row>
-    <row r="35" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29443,11 +29536,14 @@
       <c r="KD35" s="5">
         <v>43582</v>
       </c>
-      <c r="KE35" s="32">
+      <c r="KE35" s="5">
         <v>43494</v>
       </c>
+      <c r="KF35" s="32">
+        <v>43143</v>
+      </c>
     </row>
-    <row r="36" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -30318,11 +30414,14 @@
       <c r="KD36" s="5">
         <v>22101</v>
       </c>
-      <c r="KE36" s="32">
+      <c r="KE36" s="5">
         <v>22092</v>
       </c>
+      <c r="KF36" s="32">
+        <v>22003</v>
+      </c>
     </row>
-    <row r="37" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31193,11 +31292,14 @@
       <c r="KD37" s="5">
         <v>11839</v>
       </c>
-      <c r="KE37" s="32">
+      <c r="KE37" s="5">
         <v>11822</v>
       </c>
+      <c r="KF37" s="32">
+        <v>11764</v>
+      </c>
     </row>
-    <row r="38" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -32070,12 +32172,16 @@
         <f>SUM(KD6:KD37)</f>
         <v>1077662</v>
       </c>
-      <c r="KE38" s="26">
+      <c r="KE38" s="9">
         <f>SUM(KE6:KE37)</f>
         <v>1077883</v>
       </c>
+      <c r="KF38" s="26">
+        <f>SUM(KF6:KF37)</f>
+        <v>1072858</v>
+      </c>
     </row>
-    <row r="40" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:292" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B72812-EDA6-4272-9CC3-C6AC80A2D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDC9C3-4D52-4D93-B7E0-411ECBB47CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - diciembre  2023</t>
+    <t>Diciembre 1997 - enero 2024</t>
   </si>
 </sst>
 </file>
@@ -1256,11 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KF40"/>
+  <dimension ref="A1:KG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KG8" sqref="KG8"/>
+      <selection pane="topRight" activeCell="KI17" sqref="KI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,12 +1428,12 @@
     <col min="281" max="283" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="284" max="288" width="9.109375" customWidth="1"/>
     <col min="289" max="289" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="290" max="291" width="10.6640625" customWidth="1"/>
-    <col min="292" max="292" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="11.5546875" customWidth="1"/>
+    <col min="290" max="292" width="10.6640625" customWidth="1"/>
+    <col min="293" max="293" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="4" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2323,11 +2323,14 @@
       <c r="KE4" s="30">
         <v>2023</v>
       </c>
-      <c r="KF4" s="31">
+      <c r="KF4" s="30">
         <v>2023</v>
       </c>
+      <c r="KG4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>28</v>
@@ -3199,11 +3202,14 @@
       <c r="KE5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="KF5" s="33" t="s">
+      <c r="KF5" s="25" t="s">
         <v>28</v>
       </c>
+      <c r="KG5" s="33" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4077,11 +4083,14 @@
       <c r="KE6" s="5">
         <v>16724</v>
       </c>
-      <c r="KF6" s="32">
+      <c r="KF6" s="5">
         <v>16644</v>
       </c>
+      <c r="KG6" s="32">
+        <v>16608</v>
+      </c>
     </row>
-    <row r="7" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4955,11 +4964,14 @@
       <c r="KE7" s="5">
         <v>44893</v>
       </c>
-      <c r="KF7" s="32">
+      <c r="KF7" s="5">
         <v>44466</v>
       </c>
+      <c r="KG7" s="32">
+        <v>44355</v>
+      </c>
     </row>
-    <row r="8" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5833,11 +5845,14 @@
       <c r="KE8" s="5">
         <v>15215</v>
       </c>
-      <c r="KF8" s="32">
+      <c r="KF8" s="5">
         <v>15096</v>
       </c>
+      <c r="KG8" s="32">
+        <v>15119</v>
+      </c>
     </row>
-    <row r="9" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6711,11 +6726,14 @@
       <c r="KE9" s="5">
         <v>6472</v>
       </c>
-      <c r="KF9" s="32">
+      <c r="KF9" s="5">
         <v>6451</v>
       </c>
+      <c r="KG9" s="32">
+        <v>6415</v>
+      </c>
     </row>
-    <row r="10" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7589,11 +7607,14 @@
       <c r="KE10" s="5">
         <v>15061</v>
       </c>
-      <c r="KF10" s="32">
+      <c r="KF10" s="5">
         <v>14805</v>
       </c>
+      <c r="KG10" s="32">
+        <v>14801</v>
+      </c>
     </row>
-    <row r="11" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8467,11 +8488,14 @@
       <c r="KE11" s="5">
         <v>42844</v>
       </c>
-      <c r="KF11" s="32">
+      <c r="KF11" s="5">
         <v>42637</v>
       </c>
+      <c r="KG11" s="32">
+        <v>42521</v>
+      </c>
     </row>
-    <row r="12" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9345,11 +9369,14 @@
       <c r="KE12" s="5">
         <v>127772</v>
       </c>
-      <c r="KF12" s="32">
+      <c r="KF12" s="5">
         <v>127407</v>
       </c>
+      <c r="KG12" s="32">
+        <v>127163</v>
+      </c>
     </row>
-    <row r="13" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10223,11 +10250,14 @@
       <c r="KE13" s="5">
         <v>35826</v>
       </c>
-      <c r="KF13" s="32">
+      <c r="KF13" s="5">
         <v>35738</v>
       </c>
+      <c r="KG13" s="32">
+        <v>35680</v>
+      </c>
     </row>
-    <row r="14" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11101,11 +11131,14 @@
       <c r="KE14" s="5">
         <v>11887</v>
       </c>
-      <c r="KF14" s="32">
+      <c r="KF14" s="5">
         <v>11855</v>
       </c>
+      <c r="KG14" s="32">
+        <v>11806</v>
+      </c>
     </row>
-    <row r="15" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11979,11 +12012,14 @@
       <c r="KE15" s="5">
         <v>14606</v>
       </c>
-      <c r="KF15" s="32">
+      <c r="KF15" s="5">
         <v>14504</v>
       </c>
+      <c r="KG15" s="32">
+        <v>14508</v>
+      </c>
     </row>
-    <row r="16" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12857,11 +12893,14 @@
       <c r="KE16" s="5">
         <v>78773</v>
       </c>
-      <c r="KF16" s="32">
+      <c r="KF16" s="5">
         <v>78536</v>
       </c>
+      <c r="KG16" s="32">
+        <v>78583</v>
+      </c>
     </row>
-    <row r="17" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13735,11 +13774,14 @@
       <c r="KE17" s="5">
         <v>50160</v>
       </c>
-      <c r="KF17" s="32">
+      <c r="KF17" s="5">
         <v>49902</v>
       </c>
+      <c r="KG17" s="32">
+        <v>49758</v>
+      </c>
     </row>
-    <row r="18" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14613,11 +14655,14 @@
       <c r="KE18" s="5">
         <v>13298</v>
       </c>
-      <c r="KF18" s="32">
+      <c r="KF18" s="5">
         <v>13188</v>
       </c>
+      <c r="KG18" s="32">
+        <v>13188</v>
+      </c>
     </row>
-    <row r="19" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15491,11 +15536,14 @@
       <c r="KE19" s="5">
         <v>16813</v>
       </c>
-      <c r="KF19" s="32">
+      <c r="KF19" s="5">
         <v>16732</v>
       </c>
+      <c r="KG19" s="32">
+        <v>16728</v>
+      </c>
     </row>
-    <row r="20" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16369,11 +16417,14 @@
       <c r="KE20" s="23">
         <v>107862</v>
       </c>
-      <c r="KF20" s="34">
+      <c r="KF20" s="23">
         <v>107522</v>
       </c>
+      <c r="KG20" s="34">
+        <v>107219</v>
+      </c>
     </row>
-    <row r="21" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -17247,11 +17298,14 @@
       <c r="KE21" s="5">
         <v>36900</v>
       </c>
-      <c r="KF21" s="32">
+      <c r="KF21" s="5">
         <v>36696</v>
       </c>
+      <c r="KG21" s="32">
+        <v>36528</v>
+      </c>
     </row>
-    <row r="22" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18125,11 +18179,14 @@
       <c r="KE22" s="5">
         <v>12587</v>
       </c>
-      <c r="KF22" s="32">
+      <c r="KF22" s="5">
         <v>12534</v>
       </c>
+      <c r="KG22" s="32">
+        <v>12482</v>
+      </c>
     </row>
-    <row r="23" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19003,11 +19060,14 @@
       <c r="KE23" s="5">
         <v>14003</v>
       </c>
-      <c r="KF23" s="32">
+      <c r="KF23" s="5">
         <v>13931</v>
       </c>
+      <c r="KG23" s="32">
+        <v>13880</v>
+      </c>
     </row>
-    <row r="24" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19881,11 +19941,14 @@
       <c r="KE24" s="5">
         <v>77513</v>
       </c>
-      <c r="KF24" s="32">
+      <c r="KF24" s="5">
         <v>77235</v>
       </c>
+      <c r="KG24" s="32">
+        <v>77230</v>
+      </c>
     </row>
-    <row r="25" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20759,11 +20822,14 @@
       <c r="KE25" s="5">
         <v>14936</v>
       </c>
-      <c r="KF25" s="32">
+      <c r="KF25" s="5">
         <v>14878</v>
       </c>
+      <c r="KG25" s="32">
+        <v>14776</v>
+      </c>
     </row>
-    <row r="26" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21637,11 +21703,14 @@
       <c r="KE26" s="5">
         <v>35618</v>
       </c>
-      <c r="KF26" s="32">
+      <c r="KF26" s="5">
         <v>35457</v>
       </c>
+      <c r="KG26" s="32">
+        <v>35382</v>
+      </c>
     </row>
-    <row r="27" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -22515,11 +22584,14 @@
       <c r="KE27" s="5">
         <v>30495</v>
       </c>
-      <c r="KF27" s="32">
+      <c r="KF27" s="5">
         <v>30355</v>
       </c>
+      <c r="KG27" s="32">
+        <v>30422</v>
+      </c>
     </row>
-    <row r="28" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23393,11 +23465,14 @@
       <c r="KE28" s="5">
         <v>21836</v>
       </c>
-      <c r="KF28" s="32">
+      <c r="KF28" s="5">
         <v>21745</v>
       </c>
+      <c r="KG28" s="32">
+        <v>21765</v>
+      </c>
     </row>
-    <row r="29" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -24271,11 +24346,14 @@
       <c r="KE29" s="5">
         <v>24028</v>
       </c>
-      <c r="KF29" s="32">
+      <c r="KF29" s="5">
         <v>23934</v>
       </c>
+      <c r="KG29" s="32">
+        <v>23910</v>
+      </c>
     </row>
-    <row r="30" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25149,11 +25227,14 @@
       <c r="KE30" s="5">
         <v>43654</v>
       </c>
-      <c r="KF30" s="32">
+      <c r="KF30" s="5">
         <v>43458</v>
       </c>
+      <c r="KG30" s="32">
+        <v>43357</v>
+      </c>
     </row>
-    <row r="31" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -26027,11 +26108,14 @@
       <c r="KE31" s="5">
         <v>38896</v>
       </c>
-      <c r="KF31" s="32">
+      <c r="KF31" s="5">
         <v>38766</v>
       </c>
+      <c r="KG31" s="32">
+        <v>38519</v>
+      </c>
     </row>
-    <row r="32" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26905,11 +26989,14 @@
       <c r="KE32" s="5">
         <v>12208</v>
       </c>
-      <c r="KF32" s="32">
+      <c r="KF32" s="5">
         <v>12143</v>
       </c>
+      <c r="KG32" s="32">
+        <v>12144</v>
+      </c>
     </row>
-    <row r="33" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27783,11 +27870,14 @@
       <c r="KE33" s="5">
         <v>33966</v>
       </c>
-      <c r="KF33" s="32">
+      <c r="KF33" s="5">
         <v>33757</v>
       </c>
+      <c r="KG33" s="32">
+        <v>33608</v>
+      </c>
     </row>
-    <row r="34" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28661,11 +28751,14 @@
       <c r="KE34" s="5">
         <v>5629</v>
       </c>
-      <c r="KF34" s="32">
+      <c r="KF34" s="5">
         <v>5576</v>
       </c>
+      <c r="KG34" s="32">
+        <v>5527</v>
+      </c>
     </row>
-    <row r="35" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29539,11 +29632,14 @@
       <c r="KE35" s="5">
         <v>43494</v>
       </c>
-      <c r="KF35" s="32">
+      <c r="KF35" s="5">
         <v>43143</v>
       </c>
+      <c r="KG35" s="32">
+        <v>42830</v>
+      </c>
     </row>
-    <row r="36" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -30417,11 +30513,14 @@
       <c r="KE36" s="5">
         <v>22092</v>
       </c>
-      <c r="KF36" s="32">
+      <c r="KF36" s="5">
         <v>22003</v>
       </c>
+      <c r="KG36" s="32">
+        <v>22029</v>
+      </c>
     </row>
-    <row r="37" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31295,11 +31394,14 @@
       <c r="KE37" s="5">
         <v>11822</v>
       </c>
-      <c r="KF37" s="32">
+      <c r="KF37" s="5">
         <v>11764</v>
       </c>
+      <c r="KG37" s="32">
+        <v>11670</v>
+      </c>
     </row>
-    <row r="38" spans="1:292" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -32176,12 +32278,16 @@
         <f>SUM(KE6:KE37)</f>
         <v>1077883</v>
       </c>
-      <c r="KF38" s="26">
+      <c r="KF38" s="9">
         <f>SUM(KF6:KF37)</f>
         <v>1072858</v>
       </c>
+      <c r="KG38" s="26">
+        <f>SUM(KG6:KG37)</f>
+        <v>1070511</v>
+      </c>
     </row>
-    <row r="40" spans="1:292" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:293" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>

--- a/Historicos/patrones__entidad.xlsx
+++ b/Historicos/patrones__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDC9C3-4D52-4D93-B7E0-411ECBB47CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103C83EA-29FD-4C29-A22D-D5F18F7B960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Novimbre</t>
   </si>
   <si>
-    <t>Diciembre 1997 - enero 2024</t>
+    <t>Diciembre 1997 - febrero 2024</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -908,6 +908,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1256,11 +1258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KG40"/>
+  <dimension ref="A1:KH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KI17" sqref="KI17"/>
+      <pane xSplit="1" topLeftCell="JQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KG41" sqref="KG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,12 +1430,12 @@
     <col min="281" max="283" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="284" max="288" width="9.109375" customWidth="1"/>
     <col min="289" max="289" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="290" max="292" width="10.6640625" customWidth="1"/>
-    <col min="293" max="293" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="11.5546875" customWidth="1"/>
+    <col min="290" max="293" width="10.6640625" customWidth="1"/>
+    <col min="294" max="294" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1443,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1451,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="4" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
@@ -2323,14 +2325,17 @@
       <c r="KE4" s="30">
         <v>2023</v>
       </c>
-      <c r="KF4" s="30">
+      <c r="KF4" s="31">
         <v>2023</v>
       </c>
-      <c r="KG4" s="31">
+      <c r="KG4" s="30">
         <v>2024</v>
       </c>
+      <c r="KH4" s="31">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>28</v>
@@ -3202,14 +3207,17 @@
       <c r="KE5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="KF5" s="25" t="s">
+      <c r="KF5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="KG5" s="33" t="s">
+      <c r="KG5" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="KH5" s="33" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4053,44 +4061,47 @@
       <c r="JU6" s="10">
         <v>16656</v>
       </c>
-      <c r="JV6" s="5">
+      <c r="JV6" s="36">
         <v>16687</v>
       </c>
-      <c r="JW6" s="5">
+      <c r="JW6" s="36">
         <v>16763</v>
       </c>
-      <c r="JX6" s="5">
+      <c r="JX6" s="36">
         <v>16722</v>
       </c>
-      <c r="JY6" s="5">
+      <c r="JY6" s="36">
         <v>16673</v>
       </c>
-      <c r="JZ6" s="5">
+      <c r="JZ6" s="36">
         <v>16699</v>
       </c>
-      <c r="KA6" s="5">
+      <c r="KA6" s="36">
         <v>16677</v>
       </c>
-      <c r="KB6" s="5">
+      <c r="KB6" s="36">
         <v>16619</v>
       </c>
-      <c r="KC6" s="5">
+      <c r="KC6" s="36">
         <v>16657</v>
       </c>
-      <c r="KD6" s="5">
+      <c r="KD6" s="36">
         <v>16711</v>
       </c>
-      <c r="KE6" s="5">
+      <c r="KE6" s="36">
         <v>16724</v>
       </c>
-      <c r="KF6" s="5">
+      <c r="KF6" s="32">
         <v>16644</v>
       </c>
-      <c r="KG6" s="32">
+      <c r="KG6" s="5">
         <v>16608</v>
       </c>
+      <c r="KH6" s="32">
+        <v>16650</v>
+      </c>
     </row>
-    <row r="7" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4934,44 +4945,47 @@
       <c r="JU7" s="10">
         <v>44615</v>
       </c>
-      <c r="JV7" s="5">
+      <c r="JV7" s="36">
         <v>44283</v>
       </c>
-      <c r="JW7" s="5">
+      <c r="JW7" s="36">
         <v>44501</v>
       </c>
-      <c r="JX7" s="5">
+      <c r="JX7" s="36">
         <v>44565</v>
       </c>
-      <c r="JY7" s="5">
+      <c r="JY7" s="36">
         <v>44678</v>
       </c>
-      <c r="JZ7" s="5">
+      <c r="JZ7" s="36">
         <v>44819</v>
       </c>
-      <c r="KA7" s="5">
+      <c r="KA7" s="36">
         <v>44925</v>
       </c>
-      <c r="KB7" s="5">
+      <c r="KB7" s="36">
         <v>44933</v>
       </c>
-      <c r="KC7" s="5">
+      <c r="KC7" s="36">
         <v>44916</v>
       </c>
-      <c r="KD7" s="5">
+      <c r="KD7" s="36">
         <v>44905</v>
       </c>
-      <c r="KE7" s="5">
+      <c r="KE7" s="36">
         <v>44893</v>
       </c>
-      <c r="KF7" s="5">
+      <c r="KF7" s="32">
         <v>44466</v>
       </c>
-      <c r="KG7" s="32">
+      <c r="KG7" s="5">
         <v>44355</v>
       </c>
+      <c r="KH7" s="32">
+        <v>44433</v>
+      </c>
     </row>
-    <row r="8" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5815,44 +5829,47 @@
       <c r="JU8" s="10">
         <v>14772</v>
       </c>
-      <c r="JV8" s="5">
+      <c r="JV8" s="36">
         <v>14823</v>
       </c>
-      <c r="JW8" s="5">
+      <c r="JW8" s="36">
         <v>14908</v>
       </c>
-      <c r="JX8" s="5">
+      <c r="JX8" s="36">
         <v>14961</v>
       </c>
-      <c r="JY8" s="5">
+      <c r="JY8" s="36">
         <v>15005</v>
       </c>
-      <c r="JZ8" s="5">
+      <c r="JZ8" s="36">
         <v>15044</v>
       </c>
-      <c r="KA8" s="5">
+      <c r="KA8" s="36">
         <v>15062</v>
       </c>
-      <c r="KB8" s="5">
+      <c r="KB8" s="36">
         <v>15124</v>
       </c>
-      <c r="KC8" s="5">
+      <c r="KC8" s="36">
         <v>15134</v>
       </c>
-      <c r="KD8" s="5">
+      <c r="KD8" s="36">
         <v>15211</v>
       </c>
-      <c r="KE8" s="5">
+      <c r="KE8" s="36">
         <v>15215</v>
       </c>
-      <c r="KF8" s="5">
+      <c r="KF8" s="32">
         <v>15096</v>
       </c>
-      <c r="KG8" s="32">
+      <c r="KG8" s="5">
         <v>15119</v>
       </c>
+      <c r="KH8" s="32">
+        <v>15252</v>
+      </c>
     </row>
-    <row r="9" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6696,44 +6713,47 @@
       <c r="JU9" s="10">
         <v>6369</v>
       </c>
-      <c r="JV9" s="5">
+      <c r="JV9" s="36">
         <v>6385</v>
       </c>
-      <c r="JW9" s="5">
+      <c r="JW9" s="36">
         <v>6415</v>
       </c>
-      <c r="JX9" s="5">
+      <c r="JX9" s="36">
         <v>6426</v>
       </c>
-      <c r="JY9" s="5">
+      <c r="JY9" s="36">
         <v>6437</v>
       </c>
-      <c r="JZ9" s="5">
+      <c r="JZ9" s="36">
         <v>6477</v>
       </c>
-      <c r="KA9" s="5">
+      <c r="KA9" s="36">
         <v>6386</v>
       </c>
-      <c r="KB9" s="5">
+      <c r="KB9" s="36">
         <v>6432</v>
       </c>
-      <c r="KC9" s="5">
+      <c r="KC9" s="36">
         <v>6474</v>
       </c>
-      <c r="KD9" s="5">
+      <c r="KD9" s="36">
         <v>6498</v>
       </c>
-      <c r="KE9" s="5">
+      <c r="KE9" s="36">
         <v>6472</v>
       </c>
-      <c r="KF9" s="5">
+      <c r="KF9" s="32">
         <v>6451</v>
       </c>
-      <c r="KG9" s="32">
+      <c r="KG9" s="5">
         <v>6415</v>
       </c>
+      <c r="KH9" s="32">
+        <v>6460</v>
+      </c>
     </row>
-    <row r="10" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7577,44 +7597,47 @@
       <c r="JU10" s="10">
         <v>14747</v>
       </c>
-      <c r="JV10" s="5">
+      <c r="JV10" s="36">
         <v>14828</v>
       </c>
-      <c r="JW10" s="5">
+      <c r="JW10" s="36">
         <v>14883</v>
       </c>
-      <c r="JX10" s="5">
+      <c r="JX10" s="36">
         <v>14912</v>
       </c>
-      <c r="JY10" s="5">
+      <c r="JY10" s="36">
         <v>14978</v>
       </c>
-      <c r="JZ10" s="5">
+      <c r="JZ10" s="36">
         <v>15036</v>
       </c>
-      <c r="KA10" s="5">
+      <c r="KA10" s="36">
         <v>15078</v>
       </c>
-      <c r="KB10" s="5">
+      <c r="KB10" s="36">
         <v>15121</v>
       </c>
-      <c r="KC10" s="5">
+      <c r="KC10" s="36">
         <v>15111</v>
       </c>
-      <c r="KD10" s="5">
+      <c r="KD10" s="36">
         <v>15114</v>
       </c>
-      <c r="KE10" s="5">
+      <c r="KE10" s="36">
         <v>15061</v>
       </c>
-      <c r="KF10" s="5">
+      <c r="KF10" s="32">
         <v>14805</v>
       </c>
-      <c r="KG10" s="32">
+      <c r="KG10" s="5">
         <v>14801</v>
       </c>
+      <c r="KH10" s="32">
+        <v>14883</v>
+      </c>
     </row>
-    <row r="11" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8458,44 +8481,47 @@
       <c r="JU11" s="10">
         <v>42172</v>
       </c>
-      <c r="JV11" s="5">
+      <c r="JV11" s="36">
         <v>42372</v>
       </c>
-      <c r="JW11" s="5">
+      <c r="JW11" s="36">
         <v>42481</v>
       </c>
-      <c r="JX11" s="5">
+      <c r="JX11" s="36">
         <v>42483</v>
       </c>
-      <c r="JY11" s="5">
+      <c r="JY11" s="36">
         <v>42501</v>
       </c>
-      <c r="JZ11" s="5">
+      <c r="JZ11" s="36">
         <v>42655</v>
       </c>
-      <c r="KA11" s="5">
+      <c r="KA11" s="36">
         <v>42667</v>
       </c>
-      <c r="KB11" s="5">
+      <c r="KB11" s="36">
         <v>42731</v>
       </c>
-      <c r="KC11" s="5">
+      <c r="KC11" s="36">
         <v>42755</v>
       </c>
-      <c r="KD11" s="5">
+      <c r="KD11" s="36">
         <v>42847</v>
       </c>
-      <c r="KE11" s="5">
+      <c r="KE11" s="36">
         <v>42844</v>
       </c>
-      <c r="KF11" s="5">
+      <c r="KF11" s="32">
         <v>42637</v>
       </c>
-      <c r="KG11" s="32">
+      <c r="KG11" s="5">
         <v>42521</v>
       </c>
+      <c r="KH11" s="32">
+        <v>42654</v>
+      </c>
     </row>
-    <row r="12" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -9339,44 +9365,47 @@
       <c r="JU12" s="10">
         <v>126345</v>
       </c>
-      <c r="JV12" s="5">
+      <c r="JV12" s="36">
         <v>126731</v>
       </c>
-      <c r="JW12" s="5">
+      <c r="JW12" s="36">
         <v>126917</v>
       </c>
-      <c r="JX12" s="5">
+      <c r="JX12" s="36">
         <v>126869</v>
       </c>
-      <c r="JY12" s="5">
+      <c r="JY12" s="36">
         <v>126886</v>
       </c>
-      <c r="JZ12" s="5">
+      <c r="JZ12" s="36">
         <v>127010</v>
       </c>
-      <c r="KA12" s="5">
+      <c r="KA12" s="36">
         <v>127233</v>
       </c>
-      <c r="KB12" s="5">
+      <c r="KB12" s="36">
         <v>127295</v>
       </c>
-      <c r="KC12" s="5">
+      <c r="KC12" s="36">
         <v>127306</v>
       </c>
-      <c r="KD12" s="5">
+      <c r="KD12" s="36">
         <v>127677</v>
       </c>
-      <c r="KE12" s="5">
+      <c r="KE12" s="36">
         <v>127772</v>
       </c>
-      <c r="KF12" s="5">
+      <c r="KF12" s="32">
         <v>127407</v>
       </c>
-      <c r="KG12" s="32">
+      <c r="KG12" s="5">
         <v>127163</v>
       </c>
+      <c r="KH12" s="32">
+        <v>127368</v>
+      </c>
     </row>
-    <row r="13" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10220,44 +10249,47 @@
       <c r="JU13" s="10">
         <v>35642</v>
       </c>
-      <c r="JV13" s="5">
+      <c r="JV13" s="36">
         <v>35736</v>
       </c>
-      <c r="JW13" s="5">
+      <c r="JW13" s="36">
         <v>35746</v>
       </c>
-      <c r="JX13" s="5">
+      <c r="JX13" s="36">
         <v>35830</v>
       </c>
-      <c r="JY13" s="5">
+      <c r="JY13" s="36">
         <v>35792</v>
       </c>
-      <c r="JZ13" s="5">
+      <c r="JZ13" s="36">
         <v>35796</v>
       </c>
-      <c r="KA13" s="5">
+      <c r="KA13" s="36">
         <v>35806</v>
       </c>
-      <c r="KB13" s="5">
+      <c r="KB13" s="36">
         <v>35838</v>
       </c>
-      <c r="KC13" s="5">
+      <c r="KC13" s="36">
         <v>35850</v>
       </c>
-      <c r="KD13" s="5">
+      <c r="KD13" s="36">
         <v>35867</v>
       </c>
-      <c r="KE13" s="5">
+      <c r="KE13" s="36">
         <v>35826</v>
       </c>
-      <c r="KF13" s="5">
+      <c r="KF13" s="32">
         <v>35738</v>
       </c>
-      <c r="KG13" s="32">
+      <c r="KG13" s="5">
         <v>35680</v>
       </c>
+      <c r="KH13" s="32">
+        <v>35860</v>
+      </c>
     </row>
-    <row r="14" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11101,44 +11133,47 @@
       <c r="JU14" s="10">
         <v>11607</v>
       </c>
-      <c r="JV14" s="5">
+      <c r="JV14" s="36">
         <v>11658</v>
       </c>
-      <c r="JW14" s="5">
+      <c r="JW14" s="36">
         <v>11694</v>
       </c>
-      <c r="JX14" s="5">
+      <c r="JX14" s="36">
         <v>11705</v>
       </c>
-      <c r="JY14" s="5">
+      <c r="JY14" s="36">
         <v>11713</v>
       </c>
-      <c r="JZ14" s="5">
+      <c r="JZ14" s="36">
         <v>11728</v>
       </c>
-      <c r="KA14" s="5">
+      <c r="KA14" s="36">
         <v>11717</v>
       </c>
-      <c r="KB14" s="5">
+      <c r="KB14" s="36">
         <v>11754</v>
       </c>
-      <c r="KC14" s="5">
+      <c r="KC14" s="36">
         <v>11826</v>
       </c>
-      <c r="KD14" s="5">
+      <c r="KD14" s="36">
         <v>11874</v>
       </c>
-      <c r="KE14" s="5">
+      <c r="KE14" s="36">
         <v>11887</v>
       </c>
-      <c r="KF14" s="5">
+      <c r="KF14" s="32">
         <v>11855</v>
       </c>
-      <c r="KG14" s="32">
+      <c r="KG14" s="5">
         <v>11806</v>
       </c>
+      <c r="KH14" s="32">
+        <v>11850</v>
+      </c>
     </row>
-    <row r="15" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11982,44 +12017,47 @@
       <c r="JU15" s="10">
         <v>14500</v>
       </c>
-      <c r="JV15" s="5">
+      <c r="JV15" s="36">
         <v>14538</v>
       </c>
-      <c r="JW15" s="5">
+      <c r="JW15" s="36">
         <v>14557</v>
       </c>
-      <c r="JX15" s="5">
+      <c r="JX15" s="36">
         <v>14549</v>
       </c>
-      <c r="JY15" s="5">
+      <c r="JY15" s="36">
         <v>14541</v>
       </c>
-      <c r="JZ15" s="5">
+      <c r="JZ15" s="36">
         <v>14586</v>
       </c>
-      <c r="KA15" s="5">
+      <c r="KA15" s="36">
         <v>14508</v>
       </c>
-      <c r="KB15" s="5">
+      <c r="KB15" s="36">
         <v>14547</v>
       </c>
-      <c r="KC15" s="5">
+      <c r="KC15" s="36">
         <v>14574</v>
       </c>
-      <c r="KD15" s="5">
+      <c r="KD15" s="36">
         <v>14600</v>
       </c>
-      <c r="KE15" s="5">
+      <c r="KE15" s="36">
         <v>14606</v>
       </c>
-      <c r="KF15" s="5">
+      <c r="KF15" s="32">
         <v>14504</v>
       </c>
-      <c r="KG15" s="32">
+      <c r="KG15" s="5">
         <v>14508</v>
       </c>
+      <c r="KH15" s="32">
+        <v>14553</v>
+      </c>
     </row>
-    <row r="16" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -12863,44 +12901,47 @@
       <c r="JU16" s="10">
         <v>77908</v>
       </c>
-      <c r="JV16" s="5">
+      <c r="JV16" s="36">
         <v>78225</v>
       </c>
-      <c r="JW16" s="5">
+      <c r="JW16" s="36">
         <v>78420</v>
       </c>
-      <c r="JX16" s="5">
+      <c r="JX16" s="36">
         <v>78471</v>
       </c>
-      <c r="JY16" s="5">
+      <c r="JY16" s="36">
         <v>78475</v>
       </c>
-      <c r="JZ16" s="5">
+      <c r="JZ16" s="36">
         <v>78213</v>
       </c>
-      <c r="KA16" s="5">
+      <c r="KA16" s="36">
         <v>78294</v>
       </c>
-      <c r="KB16" s="5">
+      <c r="KB16" s="36">
         <v>78070</v>
       </c>
-      <c r="KC16" s="5">
+      <c r="KC16" s="36">
         <v>78372</v>
       </c>
-      <c r="KD16" s="5">
+      <c r="KD16" s="36">
         <v>78616</v>
       </c>
-      <c r="KE16" s="5">
+      <c r="KE16" s="36">
         <v>78773</v>
       </c>
-      <c r="KF16" s="5">
+      <c r="KF16" s="32">
         <v>78536</v>
       </c>
-      <c r="KG16" s="32">
+      <c r="KG16" s="5">
         <v>78583</v>
       </c>
+      <c r="KH16" s="32">
+        <v>78661</v>
+      </c>
     </row>
-    <row r="17" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13744,44 +13785,47 @@
       <c r="JU17" s="10">
         <v>49458</v>
       </c>
-      <c r="JV17" s="5">
+      <c r="JV17" s="36">
         <v>49590</v>
       </c>
-      <c r="JW17" s="5">
+      <c r="JW17" s="36">
         <v>49779</v>
       </c>
-      <c r="JX17" s="5">
+      <c r="JX17" s="36">
         <v>49802</v>
       </c>
-      <c r="JY17" s="5">
+      <c r="JY17" s="36">
         <v>49721</v>
       </c>
-      <c r="JZ17" s="5">
+      <c r="JZ17" s="36">
         <v>49925</v>
       </c>
-      <c r="KA17" s="5">
+      <c r="KA17" s="36">
         <v>50002</v>
       </c>
-      <c r="KB17" s="5">
+      <c r="KB17" s="36">
         <v>50097</v>
       </c>
-      <c r="KC17" s="5">
+      <c r="KC17" s="36">
         <v>50035</v>
       </c>
-      <c r="KD17" s="5">
+      <c r="KD17" s="36">
         <v>50156</v>
       </c>
-      <c r="KE17" s="5">
+      <c r="KE17" s="36">
         <v>50160</v>
       </c>
-      <c r="KF17" s="5">
+      <c r="KF17" s="32">
         <v>49902</v>
       </c>
-      <c r="KG17" s="32">
+      <c r="KG17" s="5">
         <v>49758</v>
       </c>
+      <c r="KH17" s="32">
+        <v>49844</v>
+      </c>
     </row>
-    <row r="18" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14625,44 +14669,47 @@
       <c r="JU18" s="10">
         <v>13594</v>
       </c>
-      <c r="JV18" s="5">
+      <c r="JV18" s="36">
         <v>13616</v>
       </c>
-      <c r="JW18" s="5">
+      <c r="JW18" s="36">
         <v>13596</v>
       </c>
-      <c r="JX18" s="5">
+      <c r="JX18" s="36">
         <v>13630</v>
       </c>
-      <c r="JY18" s="5">
+      <c r="JY18" s="36">
         <v>13600</v>
       </c>
-      <c r="JZ18" s="5">
+      <c r="JZ18" s="36">
         <v>13538</v>
       </c>
-      <c r="KA18" s="5">
+      <c r="KA18" s="36">
         <v>13478</v>
       </c>
-      <c r="KB18" s="5">
+      <c r="KB18" s="36">
         <v>13484</v>
       </c>
-      <c r="KC18" s="5">
+      <c r="KC18" s="36">
         <v>13473</v>
       </c>
-      <c r="KD18" s="5">
+      <c r="KD18" s="36">
         <v>13477</v>
       </c>
-      <c r="KE18" s="5">
+      <c r="KE18" s="36">
         <v>13298</v>
       </c>
-      <c r="KF18" s="5">
+      <c r="KF18" s="32">
         <v>13188</v>
       </c>
-      <c r="KG18" s="32">
+      <c r="KG18" s="5">
         <v>13188</v>
       </c>
+      <c r="KH18" s="32">
+        <v>13276</v>
+      </c>
     </row>
-    <row r="19" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15506,44 +15553,47 @@
       <c r="JU19" s="10">
         <v>16200</v>
       </c>
-      <c r="JV19" s="5">
+      <c r="JV19" s="36">
         <v>16263</v>
       </c>
-      <c r="JW19" s="5">
+      <c r="JW19" s="36">
         <v>16365</v>
       </c>
-      <c r="JX19" s="5">
+      <c r="JX19" s="36">
         <v>16407</v>
       </c>
-      <c r="JY19" s="5">
+      <c r="JY19" s="36">
         <v>16450</v>
       </c>
-      <c r="JZ19" s="5">
+      <c r="JZ19" s="36">
         <v>16528</v>
       </c>
-      <c r="KA19" s="5">
+      <c r="KA19" s="36">
         <v>16582</v>
       </c>
-      <c r="KB19" s="5">
+      <c r="KB19" s="36">
         <v>16630</v>
       </c>
-      <c r="KC19" s="5">
+      <c r="KC19" s="36">
         <v>16706</v>
       </c>
-      <c r="KD19" s="5">
+      <c r="KD19" s="36">
         <v>16791</v>
       </c>
-      <c r="KE19" s="5">
+      <c r="KE19" s="36">
         <v>16813</v>
       </c>
-      <c r="KF19" s="5">
+      <c r="KF19" s="32">
         <v>16732</v>
       </c>
-      <c r="KG19" s="32">
+      <c r="KG19" s="5">
         <v>16728</v>
       </c>
+      <c r="KH19" s="32">
+        <v>16849</v>
+      </c>
     </row>
-    <row r="20" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16387,44 +16437,47 @@
       <c r="JU20" s="22">
         <v>105609</v>
       </c>
-      <c r="JV20" s="23">
+      <c r="JV20" s="37">
         <v>105971</v>
       </c>
-      <c r="JW20" s="23">
+      <c r="JW20" s="37">
         <v>106341</v>
       </c>
-      <c r="JX20" s="23">
+      <c r="JX20" s="37">
         <v>106467</v>
       </c>
-      <c r="JY20" s="23">
+      <c r="JY20" s="37">
         <v>106693</v>
       </c>
-      <c r="JZ20" s="23">
+      <c r="JZ20" s="37">
         <v>106987</v>
       </c>
-      <c r="KA20" s="23">
+      <c r="KA20" s="37">
         <v>107086</v>
       </c>
-      <c r="KB20" s="23">
+      <c r="KB20" s="37">
         <v>107237</v>
       </c>
-      <c r="KC20" s="23">
+      <c r="KC20" s="37">
         <v>107432</v>
       </c>
-      <c r="KD20" s="23">
+      <c r="KD20" s="37">
         <v>107771</v>
       </c>
-      <c r="KE20" s="23">
+      <c r="KE20" s="37">
         <v>107862</v>
       </c>
-      <c r="KF20" s="23">
+      <c r="KF20" s="34">
         <v>107522</v>
       </c>
-      <c r="KG20" s="34">
+      <c r="KG20" s="23">
         <v>107219</v>
       </c>
+      <c r="KH20" s="34">
+        <v>107342</v>
+      </c>
     </row>
-    <row r="21" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -17268,44 +17321,47 @@
       <c r="JU21" s="10">
         <v>36990</v>
       </c>
-      <c r="JV21" s="5">
+      <c r="JV21" s="36">
         <v>37100</v>
       </c>
-      <c r="JW21" s="5">
+      <c r="JW21" s="36">
         <v>37067</v>
       </c>
-      <c r="JX21" s="5">
+      <c r="JX21" s="36">
         <v>37057</v>
       </c>
-      <c r="JY21" s="5">
+      <c r="JY21" s="36">
         <v>37048</v>
       </c>
-      <c r="JZ21" s="5">
+      <c r="JZ21" s="36">
         <v>37043</v>
       </c>
-      <c r="KA21" s="5">
+      <c r="KA21" s="36">
         <v>36933</v>
       </c>
-      <c r="KB21" s="5">
+      <c r="KB21" s="36">
         <v>36945</v>
       </c>
-      <c r="KC21" s="5">
+      <c r="KC21" s="36">
         <v>36915</v>
       </c>
-      <c r="KD21" s="5">
+      <c r="KD21" s="36">
         <v>36941</v>
       </c>
-      <c r="KE21" s="5">
+      <c r="KE21" s="36">
         <v>36900</v>
       </c>
-      <c r="KF21" s="5">
+      <c r="KF21" s="32">
         <v>36696</v>
       </c>
-      <c r="KG21" s="32">
+      <c r="KG21" s="5">
         <v>36528</v>
       </c>
+      <c r="KH21" s="32">
+        <v>36550</v>
+      </c>
     </row>
-    <row r="22" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18149,44 +18205,47 @@
       <c r="JU22" s="10">
         <v>12537</v>
       </c>
-      <c r="JV22" s="5">
+      <c r="JV22" s="36">
         <v>12563</v>
       </c>
-      <c r="JW22" s="5">
+      <c r="JW22" s="36">
         <v>12552</v>
       </c>
-      <c r="JX22" s="5">
+      <c r="JX22" s="36">
         <v>12534</v>
       </c>
-      <c r="JY22" s="5">
+      <c r="JY22" s="36">
         <v>12565</v>
       </c>
-      <c r="JZ22" s="5">
+      <c r="JZ22" s="36">
         <v>12593</v>
       </c>
-      <c r="KA22" s="5">
+      <c r="KA22" s="36">
         <v>12588</v>
       </c>
-      <c r="KB22" s="5">
+      <c r="KB22" s="36">
         <v>12580</v>
       </c>
-      <c r="KC22" s="5">
+      <c r="KC22" s="36">
         <v>12606</v>
       </c>
-      <c r="KD22" s="5">
+      <c r="KD22" s="36">
         <v>12602</v>
       </c>
-      <c r="KE22" s="5">
+      <c r="KE22" s="36">
         <v>12587</v>
       </c>
-      <c r="KF22" s="5">
+      <c r="KF22" s="32">
         <v>12534</v>
       </c>
-      <c r="KG22" s="32">
+      <c r="KG22" s="5">
         <v>12482</v>
       </c>
+      <c r="KH22" s="32">
+        <v>12470</v>
+      </c>
     </row>
-    <row r="23" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19030,44 +19089,47 @@
       <c r="JU23" s="10">
         <v>13826</v>
       </c>
-      <c r="JV23" s="5">
+      <c r="JV23" s="36">
         <v>13881</v>
       </c>
-      <c r="JW23" s="5">
+      <c r="JW23" s="36">
         <v>13918</v>
       </c>
-      <c r="JX23" s="5">
+      <c r="JX23" s="36">
         <v>13917</v>
       </c>
-      <c r="JY23" s="5">
+      <c r="JY23" s="36">
         <v>13871</v>
       </c>
-      <c r="JZ23" s="5">
+      <c r="JZ23" s="36">
         <v>13891</v>
       </c>
-      <c r="KA23" s="5">
+      <c r="KA23" s="36">
         <v>13884</v>
       </c>
-      <c r="KB23" s="5">
+      <c r="KB23" s="36">
         <v>13867</v>
       </c>
-      <c r="KC23" s="5">
+      <c r="KC23" s="36">
         <v>13896</v>
       </c>
-      <c r="KD23" s="5">
+      <c r="KD23" s="36">
         <v>13961</v>
       </c>
-      <c r="KE23" s="5">
+      <c r="KE23" s="36">
         <v>14003</v>
       </c>
-      <c r="KF23" s="5">
+      <c r="KF23" s="32">
         <v>13931</v>
       </c>
-      <c r="KG23" s="32">
+      <c r="KG23" s="5">
         <v>13880</v>
       </c>
+      <c r="KH23" s="32">
+        <v>13992</v>
+      </c>
     </row>
-    <row r="24" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -19911,44 +19973,47 @@
       <c r="JU24" s="10">
         <v>76188</v>
       </c>
-      <c r="JV24" s="5">
+      <c r="JV24" s="36">
         <v>76346</v>
       </c>
-      <c r="JW24" s="5">
+      <c r="JW24" s="36">
         <v>76657</v>
       </c>
-      <c r="JX24" s="5">
+      <c r="JX24" s="36">
         <v>76763</v>
       </c>
-      <c r="JY24" s="5">
+      <c r="JY24" s="36">
         <v>76842</v>
       </c>
-      <c r="JZ24" s="5">
+      <c r="JZ24" s="36">
         <v>76924</v>
       </c>
-      <c r="KA24" s="5">
+      <c r="KA24" s="36">
         <v>77082</v>
       </c>
-      <c r="KB24" s="5">
+      <c r="KB24" s="36">
         <v>77151</v>
       </c>
-      <c r="KC24" s="5">
+      <c r="KC24" s="36">
         <v>77209</v>
       </c>
-      <c r="KD24" s="5">
+      <c r="KD24" s="36">
         <v>77390</v>
       </c>
-      <c r="KE24" s="5">
+      <c r="KE24" s="36">
         <v>77513</v>
       </c>
-      <c r="KF24" s="5">
+      <c r="KF24" s="32">
         <v>77235</v>
       </c>
-      <c r="KG24" s="32">
+      <c r="KG24" s="5">
         <v>77230</v>
       </c>
+      <c r="KH24" s="32">
+        <v>77670</v>
+      </c>
     </row>
-    <row r="25" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20792,44 +20857,47 @@
       <c r="JU25" s="10">
         <v>14336</v>
       </c>
-      <c r="JV25" s="5">
+      <c r="JV25" s="36">
         <v>14377</v>
       </c>
-      <c r="JW25" s="5">
+      <c r="JW25" s="36">
         <v>14447</v>
       </c>
-      <c r="JX25" s="5">
+      <c r="JX25" s="36">
         <v>14484</v>
       </c>
-      <c r="JY25" s="5">
+      <c r="JY25" s="36">
         <v>14566</v>
       </c>
-      <c r="JZ25" s="5">
+      <c r="JZ25" s="36">
         <v>14641</v>
       </c>
-      <c r="KA25" s="5">
+      <c r="KA25" s="36">
         <v>14659</v>
       </c>
-      <c r="KB25" s="5">
+      <c r="KB25" s="36">
         <v>14762</v>
       </c>
-      <c r="KC25" s="5">
+      <c r="KC25" s="36">
         <v>14846</v>
       </c>
-      <c r="KD25" s="5">
+      <c r="KD25" s="36">
         <v>14931</v>
       </c>
-      <c r="KE25" s="5">
+      <c r="KE25" s="36">
         <v>14936</v>
       </c>
-      <c r="KF25" s="5">
+      <c r="KF25" s="32">
         <v>14878</v>
       </c>
-      <c r="KG25" s="32">
+      <c r="KG25" s="5">
         <v>14776</v>
       </c>
+      <c r="KH25" s="32">
+        <v>14808</v>
+      </c>
     </row>
-    <row r="26" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21673,44 +21741,47 @@
       <c r="JU26" s="10">
         <v>34995</v>
       </c>
-      <c r="JV26" s="5">
+      <c r="JV26" s="36">
         <v>35135</v>
       </c>
-      <c r="JW26" s="5">
+      <c r="JW26" s="36">
         <v>35207</v>
       </c>
-      <c r="JX26" s="5">
+      <c r="JX26" s="36">
         <v>35275</v>
       </c>
-      <c r="JY26" s="5">
+      <c r="JY26" s="36">
         <v>35271</v>
       </c>
-      <c r="JZ26" s="5">
+      <c r="JZ26" s="36">
         <v>35406</v>
       </c>
-      <c r="KA26" s="5">
+      <c r="KA26" s="36">
         <v>35386</v>
       </c>
-      <c r="KB26" s="5">
+      <c r="KB26" s="36">
         <v>35412</v>
       </c>
-      <c r="KC26" s="5">
+      <c r="KC26" s="36">
         <v>35501</v>
       </c>
-      <c r="KD26" s="5">
+      <c r="KD26" s="36">
         <v>35621</v>
       </c>
-      <c r="KE26" s="5">
+      <c r="KE26" s="36">
         <v>35618</v>
       </c>
-      <c r="KF26" s="5">
+      <c r="KF26" s="32">
         <v>35457</v>
       </c>
-      <c r="KG26" s="32">
+      <c r="KG26" s="5">
         <v>35382</v>
       </c>
+      <c r="KH26" s="32">
+        <v>35473</v>
+      </c>
     </row>
-    <row r="27" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -22554,44 +22625,47 @@
       <c r="JU27" s="10">
         <v>29593</v>
       </c>
-      <c r="JV27" s="5">
+      <c r="JV27" s="36">
         <v>29719</v>
       </c>
-      <c r="JW27" s="5">
+      <c r="JW27" s="36">
         <v>29856</v>
       </c>
-      <c r="JX27" s="5">
+      <c r="JX27" s="36">
         <v>29876</v>
       </c>
-      <c r="JY27" s="5">
+      <c r="JY27" s="36">
         <v>29901</v>
       </c>
-      <c r="JZ27" s="5">
+      <c r="JZ27" s="36">
         <v>30029</v>
       </c>
-      <c r="KA27" s="5">
+      <c r="KA27" s="36">
         <v>30096</v>
       </c>
-      <c r="KB27" s="5">
+      <c r="KB27" s="36">
         <v>30208</v>
       </c>
-      <c r="KC27" s="5">
+      <c r="KC27" s="36">
         <v>30274</v>
       </c>
-      <c r="KD27" s="5">
+      <c r="KD27" s="36">
         <v>30456</v>
       </c>
-      <c r="KE27" s="5">
+      <c r="KE27" s="36">
         <v>30495</v>
       </c>
-      <c r="KF27" s="5">
+      <c r="KF27" s="32">
         <v>30355</v>
       </c>
-      <c r="KG27" s="32">
+      <c r="KG27" s="5">
         <v>30422</v>
       </c>
+      <c r="KH27" s="32">
+        <v>30561</v>
+      </c>
     </row>
-    <row r="28" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23435,44 +23509,47 @@
       <c r="JU28" s="10">
         <v>20683</v>
       </c>
-      <c r="JV28" s="5">
+      <c r="JV28" s="36">
         <v>20787</v>
       </c>
-      <c r="JW28" s="5">
+      <c r="JW28" s="36">
         <v>20928</v>
       </c>
-      <c r="JX28" s="5">
+      <c r="JX28" s="36">
         <v>21046</v>
       </c>
-      <c r="JY28" s="5">
+      <c r="JY28" s="36">
         <v>21210</v>
       </c>
-      <c r="JZ28" s="5">
+      <c r="JZ28" s="36">
         <v>21379</v>
       </c>
-      <c r="KA28" s="5">
+      <c r="KA28" s="36">
         <v>21447</v>
       </c>
-      <c r="KB28" s="5">
+      <c r="KB28" s="36">
         <v>21490</v>
       </c>
-      <c r="KC28" s="5">
+      <c r="KC28" s="36">
         <v>21613</v>
       </c>
-      <c r="KD28" s="5">
+      <c r="KD28" s="36">
         <v>21716</v>
       </c>
-      <c r="KE28" s="5">
+      <c r="KE28" s="36">
         <v>21836</v>
       </c>
-      <c r="KF28" s="5">
+      <c r="KF28" s="32">
         <v>21745</v>
       </c>
-      <c r="KG28" s="32">
+      <c r="KG28" s="5">
         <v>21765</v>
       </c>
+      <c r="KH28" s="32">
+        <v>21959</v>
+      </c>
     </row>
-    <row r="29" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -24316,44 +24393,47 @@
       <c r="JU29" s="10">
         <v>23741</v>
       </c>
-      <c r="JV29" s="5">
+      <c r="JV29" s="36">
         <v>23839</v>
       </c>
-      <c r="JW29" s="5">
+      <c r="JW29" s="36">
         <v>23886</v>
       </c>
-      <c r="JX29" s="5">
+      <c r="JX29" s="36">
         <v>23888</v>
       </c>
-      <c r="JY29" s="5">
+      <c r="JY29" s="36">
         <v>23895</v>
       </c>
-      <c r="JZ29" s="5">
+      <c r="JZ29" s="36">
         <v>23926</v>
       </c>
-      <c r="KA29" s="5">
+      <c r="KA29" s="36">
         <v>23881</v>
       </c>
-      <c r="KB29" s="5">
+      <c r="KB29" s="36">
         <v>23899</v>
       </c>
-      <c r="KC29" s="5">
+      <c r="KC29" s="36">
         <v>23952</v>
       </c>
-      <c r="KD29" s="5">
+      <c r="KD29" s="36">
         <v>24017</v>
       </c>
-      <c r="KE29" s="5">
+      <c r="KE29" s="36">
         <v>24028</v>
       </c>
-      <c r="KF29" s="5">
+      <c r="KF29" s="32">
         <v>23934</v>
       </c>
-      <c r="KG29" s="32">
+      <c r="KG29" s="5">
         <v>23910</v>
       </c>
+      <c r="KH29" s="32">
+        <v>24019</v>
+      </c>
     </row>
-    <row r="30" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25197,44 +25277,47 @@
       <c r="JU30" s="10">
         <v>43394</v>
       </c>
-      <c r="JV30" s="5">
+      <c r="JV30" s="36">
         <v>43552</v>
       </c>
-      <c r="JW30" s="5">
+      <c r="JW30" s="36">
         <v>43592</v>
       </c>
-      <c r="JX30" s="5">
+      <c r="JX30" s="36">
         <v>43656</v>
       </c>
-      <c r="JY30" s="5">
+      <c r="JY30" s="36">
         <v>43660</v>
       </c>
-      <c r="JZ30" s="5">
+      <c r="JZ30" s="36">
         <v>43721</v>
       </c>
-      <c r="KA30" s="5">
+      <c r="KA30" s="36">
         <v>43653</v>
       </c>
-      <c r="KB30" s="5">
+      <c r="KB30" s="36">
         <v>43635</v>
       </c>
-      <c r="KC30" s="5">
+      <c r="KC30" s="36">
         <v>43636</v>
       </c>
-      <c r="KD30" s="5">
+      <c r="KD30" s="36">
         <v>43671</v>
       </c>
-      <c r="KE30" s="5">
+      <c r="KE30" s="36">
         <v>43654</v>
       </c>
-      <c r="KF30" s="5">
+      <c r="KF30" s="32">
         <v>43458</v>
       </c>
-      <c r="KG30" s="32">
+      <c r="KG30" s="5">
         <v>43357</v>
       </c>
+      <c r="KH30" s="32">
+        <v>43488</v>
+      </c>
     </row>
-    <row r="31" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -26078,44 +26161,47 @@
       <c r="JU31" s="10">
         <v>38890</v>
       </c>
-      <c r="JV31" s="5">
+      <c r="JV31" s="36">
         <v>38848</v>
       </c>
-      <c r="JW31" s="5">
+      <c r="JW31" s="36">
         <v>38834</v>
       </c>
-      <c r="JX31" s="5">
+      <c r="JX31" s="36">
         <v>38818</v>
       </c>
-      <c r="JY31" s="5">
+      <c r="JY31" s="36">
         <v>38839</v>
       </c>
-      <c r="JZ31" s="5">
+      <c r="JZ31" s="36">
         <v>38878</v>
       </c>
-      <c r="KA31" s="5">
+      <c r="KA31" s="36">
         <v>38849</v>
       </c>
-      <c r="KB31" s="5">
+      <c r="KB31" s="36">
         <v>38895</v>
       </c>
-      <c r="KC31" s="5">
+      <c r="KC31" s="36">
         <v>38923</v>
       </c>
-      <c r="KD31" s="5">
+      <c r="KD31" s="36">
         <v>38932</v>
       </c>
-      <c r="KE31" s="5">
+      <c r="KE31" s="36">
         <v>38896</v>
       </c>
-      <c r="KF31" s="5">
+      <c r="KF31" s="32">
         <v>38766</v>
       </c>
-      <c r="KG31" s="32">
+      <c r="KG31" s="5">
         <v>38519</v>
       </c>
+      <c r="KH31" s="32">
+        <v>38578</v>
+      </c>
     </row>
-    <row r="32" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26959,44 +27045,47 @@
       <c r="JU32" s="10">
         <v>11759</v>
       </c>
-      <c r="JV32" s="5">
+      <c r="JV32" s="36">
         <v>11778</v>
       </c>
-      <c r="JW32" s="5">
+      <c r="JW32" s="36">
         <v>11856</v>
       </c>
-      <c r="JX32" s="5">
+      <c r="JX32" s="36">
         <v>11878</v>
       </c>
-      <c r="JY32" s="5">
+      <c r="JY32" s="36">
         <v>11926</v>
       </c>
-      <c r="JZ32" s="5">
+      <c r="JZ32" s="36">
         <v>11971</v>
       </c>
-      <c r="KA32" s="5">
+      <c r="KA32" s="36">
         <v>12052</v>
       </c>
-      <c r="KB32" s="5">
+      <c r="KB32" s="36">
         <v>12071</v>
       </c>
-      <c r="KC32" s="5">
+      <c r="KC32" s="36">
         <v>12113</v>
       </c>
-      <c r="KD32" s="5">
+      <c r="KD32" s="36">
         <v>12127</v>
       </c>
-      <c r="KE32" s="5">
+      <c r="KE32" s="36">
         <v>12208</v>
       </c>
-      <c r="KF32" s="5">
+      <c r="KF32" s="32">
         <v>12143</v>
       </c>
-      <c r="KG32" s="32">
+      <c r="KG32" s="5">
         <v>12144</v>
       </c>
+      <c r="KH32" s="32">
+        <v>12213</v>
+      </c>
     </row>
-    <row r="33" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27840,44 +27929,47 @@
       <c r="JU33" s="10">
         <v>34014</v>
       </c>
-      <c r="JV33" s="5">
+      <c r="JV33" s="36">
         <v>34105</v>
       </c>
-      <c r="JW33" s="5">
+      <c r="JW33" s="36">
         <v>34223</v>
       </c>
-      <c r="JX33" s="5">
+      <c r="JX33" s="36">
         <v>34190</v>
       </c>
-      <c r="JY33" s="5">
+      <c r="JY33" s="36">
         <v>34118</v>
       </c>
-      <c r="JZ33" s="5">
+      <c r="JZ33" s="36">
         <v>34071</v>
       </c>
-      <c r="KA33" s="5">
+      <c r="KA33" s="36">
         <v>34015</v>
       </c>
-      <c r="KB33" s="5">
+      <c r="KB33" s="36">
         <v>34055</v>
       </c>
-      <c r="KC33" s="5">
+      <c r="KC33" s="36">
         <v>34053</v>
       </c>
-      <c r="KD33" s="5">
+      <c r="KD33" s="36">
         <v>34053</v>
       </c>
-      <c r="KE33" s="5">
+      <c r="KE33" s="36">
         <v>33966</v>
       </c>
-      <c r="KF33" s="5">
+      <c r="KF33" s="32">
         <v>33757</v>
       </c>
-      <c r="KG33" s="32">
+      <c r="KG33" s="5">
         <v>33608</v>
       </c>
+      <c r="KH33" s="32">
+        <v>33608</v>
+      </c>
     </row>
-    <row r="34" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28721,44 +28813,47 @@
       <c r="JU34" s="10">
         <v>5498</v>
       </c>
-      <c r="JV34" s="5">
+      <c r="JV34" s="36">
         <v>5530</v>
       </c>
-      <c r="JW34" s="5">
+      <c r="JW34" s="36">
         <v>5522</v>
       </c>
-      <c r="JX34" s="5">
+      <c r="JX34" s="36">
         <v>5512</v>
       </c>
-      <c r="JY34" s="5">
+      <c r="JY34" s="36">
         <v>5480</v>
       </c>
-      <c r="JZ34" s="5">
+      <c r="JZ34" s="36">
         <v>5506</v>
       </c>
-      <c r="KA34" s="5">
+      <c r="KA34" s="36">
         <v>5528</v>
       </c>
-      <c r="KB34" s="5">
+      <c r="KB34" s="36">
         <v>5535</v>
       </c>
-      <c r="KC34" s="5">
+      <c r="KC34" s="36">
         <v>5590</v>
       </c>
-      <c r="KD34" s="5">
+      <c r="KD34" s="36">
         <v>5607</v>
       </c>
-      <c r="KE34" s="5">
+      <c r="KE34" s="36">
         <v>5629</v>
       </c>
-      <c r="KF34" s="5">
+      <c r="KF34" s="32">
         <v>5576</v>
       </c>
-      <c r="KG34" s="32">
+      <c r="KG34" s="5">
         <v>5527</v>
       </c>
+      <c r="KH34" s="32">
+        <v>5558</v>
+      </c>
     </row>
-    <row r="35" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29602,44 +29697,47 @@
       <c r="JU35" s="10">
         <v>43333</v>
       </c>
-      <c r="JV35" s="5">
+      <c r="JV35" s="36">
         <v>43400</v>
       </c>
-      <c r="JW35" s="5">
+      <c r="JW35" s="36">
         <v>43401</v>
       </c>
-      <c r="JX35" s="5">
+      <c r="JX35" s="36">
         <v>43496</v>
       </c>
-      <c r="JY35" s="5">
+      <c r="JY35" s="36">
         <v>43484</v>
       </c>
-      <c r="JZ35" s="5">
+      <c r="JZ35" s="36">
         <v>43548</v>
       </c>
-      <c r="KA35" s="5">
+      <c r="KA35" s="36">
         <v>43537</v>
       </c>
-      <c r="KB35" s="5">
+      <c r="KB35" s="36">
         <v>43542</v>
       </c>
-      <c r="KC35" s="5">
+      <c r="KC35" s="36">
         <v>43514</v>
       </c>
-      <c r="KD35" s="5">
+      <c r="KD35" s="36">
         <v>43582</v>
       </c>
-      <c r="KE35" s="5">
+      <c r="KE35" s="36">
         <v>43494</v>
       </c>
-      <c r="KF35" s="5">
+      <c r="KF35" s="32">
         <v>43143</v>
       </c>
-      <c r="KG35" s="32">
+      <c r="KG35" s="5">
         <v>42830</v>
       </c>
+      <c r="KH35" s="32">
+        <v>42910</v>
+      </c>
     </row>
-    <row r="36" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -30483,44 +30581,47 @@
       <c r="JU36" s="10">
         <v>21515</v>
       </c>
-      <c r="JV36" s="5">
+      <c r="JV36" s="36">
         <v>21655</v>
       </c>
-      <c r="JW36" s="5">
+      <c r="JW36" s="36">
         <v>21763</v>
       </c>
-      <c r="JX36" s="5">
+      <c r="JX36" s="36">
         <v>21577</v>
       </c>
-      <c r="JY36" s="5">
+      <c r="JY36" s="36">
         <v>21671</v>
       </c>
-      <c r="JZ36" s="5">
+      <c r="JZ36" s="36">
         <v>21766</v>
       </c>
-      <c r="KA36" s="5">
+      <c r="KA36" s="36">
         <v>21856</v>
       </c>
-      <c r="KB36" s="5">
+      <c r="KB36" s="36">
         <v>21943</v>
       </c>
-      <c r="KC36" s="5">
+      <c r="KC36" s="36">
         <v>21993</v>
       </c>
-      <c r="KD36" s="5">
+      <c r="KD36" s="36">
         <v>22101</v>
       </c>
-      <c r="KE36" s="5">
+      <c r="KE36" s="36">
         <v>22092</v>
       </c>
-      <c r="KF36" s="5">
+      <c r="KF36" s="32">
         <v>22003</v>
       </c>
-      <c r="KG36" s="32">
+      <c r="KG36" s="5">
         <v>22029</v>
       </c>
+      <c r="KH36" s="32">
+        <v>22115</v>
+      </c>
     </row>
-    <row r="37" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31364,44 +31465,47 @@
       <c r="JU37" s="15">
         <v>11943</v>
       </c>
-      <c r="JV37" s="5">
+      <c r="JV37" s="36">
         <v>12017</v>
       </c>
-      <c r="JW37" s="5">
+      <c r="JW37" s="36">
         <v>11992</v>
       </c>
-      <c r="JX37" s="5">
+      <c r="JX37" s="36">
         <v>11938</v>
       </c>
-      <c r="JY37" s="5">
+      <c r="JY37" s="36">
         <v>11929</v>
       </c>
-      <c r="JZ37" s="5">
+      <c r="JZ37" s="36">
         <v>11897</v>
       </c>
-      <c r="KA37" s="5">
+      <c r="KA37" s="36">
         <v>11849</v>
       </c>
-      <c r="KB37" s="5">
+      <c r="KB37" s="36">
         <v>11834</v>
       </c>
-      <c r="KC37" s="5">
+      <c r="KC37" s="36">
         <v>11812</v>
       </c>
-      <c r="KD37" s="5">
+      <c r="KD37" s="36">
         <v>11839</v>
       </c>
-      <c r="KE37" s="5">
+      <c r="KE37" s="36">
         <v>11822</v>
       </c>
-      <c r="KF37" s="5">
+      <c r="KF37" s="32">
         <v>11764</v>
       </c>
-      <c r="KG37" s="32">
+      <c r="KG37" s="5">
         <v>11670</v>
       </c>
+      <c r="KH37" s="32">
+        <v>11727</v>
+      </c>
     </row>
-    <row r="38" spans="1:293" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:294" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -32278,16 +32382,20 @@
         <f>SUM(KE6:KE37)</f>
         <v>1077883</v>
       </c>
-      <c r="KF38" s="9">
+      <c r="KF38" s="26">
         <f>SUM(KF6:KF37)</f>
         <v>1072858</v>
       </c>
-      <c r="KG38" s="26">
+      <c r="KG38" s="9">
         <f>SUM(KG6:KG37)</f>
         <v>1070511</v>
       </c>
+      <c r="KH38" s="26">
+        <f>SUM(KH6:KH37)</f>
+        <v>1073634</v>
+      </c>
     </row>
-    <row r="40" spans="1:293" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:294" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
